--- a/neuroprotective_variants.xlsx
+++ b/neuroprotective_variants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/391b6213340268ec/Documents/UniversityofKentucky/MillerLab/neuroprotective_variants/neuroprotective_variants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_3E2F7DF44E31F9613DC94E8D353A43A79B6FFBE8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9FD6D57-6379-4C6E-B00D-DC3D3E7A1F77}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_3E2F7DF44E31F9613DC94E8D353A43A79B6FFBE8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{800C3363-0B9E-4F40-B381-64ED8A43CA06}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="9960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="4770" windowWidth="17280" windowHeight="9960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seto et al." sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4133" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4133" uniqueCount="1072">
   <si>
     <t>rsid</t>
   </si>
@@ -3231,9 +3231,6 @@
     <t>CELF2</t>
   </si>
   <si>
-    <t>LRP11B</t>
-  </si>
-  <si>
     <t>NLRP13</t>
   </si>
   <si>
@@ -3259,6 +3256,15 @@
   </si>
   <si>
     <t>CDKN1A</t>
+  </si>
+  <si>
+    <t>NQO1</t>
+  </si>
+  <si>
+    <t>P2RX7</t>
+  </si>
+  <si>
+    <t>LRP11</t>
   </si>
 </sst>
 </file>
@@ -3612,7 +3618,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -3761,22 +3767,22 @@
       <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="10" max="12" width="14.44140625" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" customWidth="1"/>
-    <col min="14" max="29" width="14.44140625" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="14" max="29" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="13.2">
+    <row r="1" spans="1:29" ht="12.75">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -3865,7 +3871,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15.6">
+    <row r="2" spans="1:29">
       <c r="A2" s="4" t="s">
         <v>49</v>
       </c>
@@ -3954,7 +3960,7 @@
         <v>0.309</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15.6">
+    <row r="3" spans="1:29">
       <c r="A3" s="4" t="s">
         <v>49</v>
       </c>
@@ -4043,7 +4049,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.6">
+    <row r="4" spans="1:29">
       <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
@@ -4132,7 +4138,7 @@
         <v>0.74129999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15.6">
+    <row r="5" spans="1:29">
       <c r="A5" s="4" t="s">
         <v>73</v>
       </c>
@@ -4221,7 +4227,7 @@
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15.6">
+    <row r="6" spans="1:29">
       <c r="A6" s="4" t="s">
         <v>73</v>
       </c>
@@ -4310,7 +4316,7 @@
         <v>8.1499999999999997E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15.6">
+    <row r="7" spans="1:29">
       <c r="A7" s="4" t="s">
         <v>85</v>
       </c>
@@ -4399,7 +4405,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="15.6">
+    <row r="8" spans="1:29">
       <c r="A8" s="4" t="s">
         <v>92</v>
       </c>
@@ -4488,7 +4494,7 @@
         <v>0.63600000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="15.6">
+    <row r="9" spans="1:29">
       <c r="A9" s="4" t="s">
         <v>96</v>
       </c>
@@ -4577,7 +4583,7 @@
         <v>0.3891</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="15.6">
+    <row r="10" spans="1:29">
       <c r="A10" s="4" t="s">
         <v>102</v>
       </c>
@@ -4666,7 +4672,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="15.6">
+    <row r="11" spans="1:29">
       <c r="A11" s="4" t="s">
         <v>102</v>
       </c>
@@ -4755,7 +4761,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="15.6">
+    <row r="12" spans="1:29">
       <c r="A12" s="4" t="s">
         <v>102</v>
       </c>
@@ -4844,7 +4850,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="15.6">
+    <row r="13" spans="1:29">
       <c r="A13" s="4" t="s">
         <v>102</v>
       </c>
@@ -4933,7 +4939,7 @@
         <v>6.1099999999999996E-12</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="15.6">
+    <row r="14" spans="1:29">
       <c r="A14" s="4" t="s">
         <v>102</v>
       </c>
@@ -5022,7 +5028,7 @@
         <v>3.3599999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="15.6">
+    <row r="15" spans="1:29">
       <c r="A15" s="4" t="s">
         <v>102</v>
       </c>
@@ -5111,7 +5117,7 @@
         <v>7.4799999999999997E-7</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="15.6">
+    <row r="16" spans="1:29">
       <c r="A16" s="4" t="s">
         <v>102</v>
       </c>
@@ -5200,7 +5206,7 @@
         <v>0.4662</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="15.6">
+    <row r="17" spans="1:29">
       <c r="A17" s="4" t="s">
         <v>102</v>
       </c>
@@ -5289,7 +5295,7 @@
         <v>0.96789999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="15.6">
+    <row r="18" spans="1:29">
       <c r="A18" s="4" t="s">
         <v>102</v>
       </c>
@@ -5378,7 +5384,7 @@
         <v>0.58020000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="15.6">
+    <row r="19" spans="1:29">
       <c r="A19" s="4" t="s">
         <v>102</v>
       </c>
@@ -5467,7 +5473,7 @@
         <v>4.147E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="15.6">
+    <row r="20" spans="1:29">
       <c r="A20" s="4" t="s">
         <v>102</v>
       </c>
@@ -5556,7 +5562,7 @@
         <v>0.57089999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="15.6">
+    <row r="21" spans="1:29">
       <c r="A21" s="4" t="s">
         <v>102</v>
       </c>
@@ -5645,7 +5651,7 @@
         <v>0.64449999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="15.6">
+    <row r="22" spans="1:29">
       <c r="A22" s="4" t="s">
         <v>102</v>
       </c>
@@ -5734,7 +5740,7 @@
         <v>0.56179999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="15.6">
+    <row r="23" spans="1:29">
       <c r="A23" s="4" t="s">
         <v>102</v>
       </c>
@@ -5823,7 +5829,7 @@
         <v>0.65739999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="15.6">
+    <row r="24" spans="1:29">
       <c r="A24" s="4" t="s">
         <v>159</v>
       </c>
@@ -5912,7 +5918,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="15.6">
+    <row r="25" spans="1:29">
       <c r="A25" s="4" t="s">
         <v>159</v>
       </c>
@@ -6001,7 +6007,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="15.6">
+    <row r="26" spans="1:29">
       <c r="A26" s="4" t="s">
         <v>165</v>
       </c>
@@ -6090,7 +6096,7 @@
         <v>0.88759999999999994</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="15.6">
+    <row r="27" spans="1:29">
       <c r="A27" s="4" t="s">
         <v>171</v>
       </c>
@@ -6179,7 +6185,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="15.6">
+    <row r="28" spans="1:29">
       <c r="A28" s="4" t="s">
         <v>171</v>
       </c>
@@ -6268,7 +6274,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="15.6">
+    <row r="29" spans="1:29">
       <c r="A29" s="4" t="s">
         <v>180</v>
       </c>
@@ -6357,7 +6363,7 @@
         <v>7.4799999999999997E-7</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="15.6">
+    <row r="30" spans="1:29">
       <c r="A30" s="4" t="s">
         <v>183</v>
       </c>
@@ -6446,7 +6452,7 @@
         <v>0.38090000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="15.6">
+    <row r="31" spans="1:29">
       <c r="A31" s="4" t="s">
         <v>189</v>
       </c>
@@ -6535,7 +6541,7 @@
         <v>0.50390000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="15.6">
+    <row r="32" spans="1:29">
       <c r="A32" s="4" t="s">
         <v>189</v>
       </c>
@@ -6624,7 +6630,7 @@
         <v>7.1069999999999994E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="15.6">
+    <row r="33" spans="1:29">
       <c r="A33" s="4" t="s">
         <v>189</v>
       </c>
@@ -6713,7 +6719,7 @@
         <v>0.43340000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="15.6">
+    <row r="34" spans="1:29">
       <c r="A34" s="4" t="s">
         <v>207</v>
       </c>
@@ -6802,7 +6808,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="15.6">
+    <row r="35" spans="1:29">
       <c r="A35" s="4" t="s">
         <v>212</v>
       </c>
@@ -6891,7 +6897,7 @@
         <v>1.7899999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="15.6">
+    <row r="36" spans="1:29">
       <c r="A36" s="4" t="s">
         <v>219</v>
       </c>
@@ -6980,7 +6986,7 @@
         <v>0.3397</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="15.6">
+    <row r="37" spans="1:29">
       <c r="A37" s="4" t="s">
         <v>225</v>
       </c>
@@ -7069,7 +7075,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="15.6">
+    <row r="38" spans="1:29">
       <c r="A38" s="4" t="s">
         <v>225</v>
       </c>
@@ -7158,7 +7164,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="15.6">
+    <row r="39" spans="1:29">
       <c r="A39" s="4" t="s">
         <v>233</v>
       </c>
@@ -7247,7 +7253,7 @@
         <v>6.1330000000000003E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="15.6">
+    <row r="40" spans="1:29">
       <c r="A40" s="4" t="s">
         <v>239</v>
       </c>
@@ -7336,7 +7342,7 @@
         <v>0.29780000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="15.6">
+    <row r="41" spans="1:29">
       <c r="A41" s="4" t="s">
         <v>245</v>
       </c>
@@ -7425,7 +7431,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="15.6">
+    <row r="42" spans="1:29">
       <c r="A42" s="4" t="s">
         <v>251</v>
       </c>
@@ -7514,7 +7520,7 @@
         <v>0.5151</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="15.6">
+    <row r="43" spans="1:29">
       <c r="A43" s="4" t="s">
         <v>257</v>
       </c>
@@ -7603,7 +7609,7 @@
         <v>0.88870000000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="15.6">
+    <row r="44" spans="1:29">
       <c r="A44" s="4" t="s">
         <v>257</v>
       </c>
@@ -7692,7 +7698,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="15.6">
+    <row r="45" spans="1:29">
       <c r="A45" s="4" t="s">
         <v>266</v>
       </c>
@@ -7781,7 +7787,7 @@
         <v>2.7179999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="15.6">
+    <row r="46" spans="1:29">
       <c r="A46" s="4" t="s">
         <v>266</v>
       </c>
@@ -7870,7 +7876,7 @@
         <v>9.1130000000000003E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="15.6">
+    <row r="47" spans="1:29">
       <c r="A47" s="4" t="s">
         <v>275</v>
       </c>
@@ -7959,7 +7965,7 @@
         <v>0.26900000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="15.6">
+    <row r="48" spans="1:29">
       <c r="A48" s="4" t="s">
         <v>279</v>
       </c>
@@ -8048,7 +8054,7 @@
         <v>0.99860000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="15.6">
+    <row r="49" spans="1:29">
       <c r="A49" s="4" t="s">
         <v>285</v>
       </c>
@@ -8137,7 +8143,7 @@
         <v>0.53269999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="15.6">
+    <row r="50" spans="1:29">
       <c r="A50" s="4" t="s">
         <v>290</v>
       </c>
@@ -8226,7 +8232,7 @@
         <v>0.14680000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="15.6">
+    <row r="51" spans="1:29">
       <c r="A51" s="4" t="s">
         <v>295</v>
       </c>
@@ -8315,7 +8321,7 @@
         <v>0.56920000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="15.6">
+    <row r="52" spans="1:29">
       <c r="A52" s="4" t="s">
         <v>295</v>
       </c>
@@ -8404,7 +8410,7 @@
         <v>8.4530000000000004E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="15.6">
+    <row r="53" spans="1:29">
       <c r="A53" s="4" t="s">
         <v>303</v>
       </c>
@@ -8493,7 +8499,7 @@
         <v>0.4859</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="15.6">
+    <row r="54" spans="1:29">
       <c r="A54" s="4" t="s">
         <v>309</v>
       </c>
@@ -8582,7 +8588,7 @@
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="15.6">
+    <row r="55" spans="1:29">
       <c r="A55" s="4" t="s">
         <v>315</v>
       </c>
@@ -8671,7 +8677,7 @@
         <v>0.56179999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="15.6">
+    <row r="56" spans="1:29">
       <c r="A56" s="4" t="s">
         <v>317</v>
       </c>
@@ -8760,7 +8766,7 @@
         <v>0.35310000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="15.6">
+    <row r="57" spans="1:29">
       <c r="A57" s="4" t="s">
         <v>317</v>
       </c>
@@ -8849,7 +8855,7 @@
         <v>0.30409999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="15.6">
+    <row r="58" spans="1:29">
       <c r="A58" s="4" t="s">
         <v>324</v>
       </c>
@@ -8938,7 +8944,7 @@
         <v>0.1489</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="15.6">
+    <row r="59" spans="1:29">
       <c r="A59" s="4" t="s">
         <v>330</v>
       </c>
@@ -9027,7 +9033,7 @@
         <v>0.5403</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="15.6">
+    <row r="60" spans="1:29">
       <c r="A60" s="4" t="s">
         <v>338</v>
       </c>
@@ -9116,7 +9122,7 @@
         <v>0.28620000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="15.6">
+    <row r="61" spans="1:29">
       <c r="A61" s="4" t="s">
         <v>344</v>
       </c>
@@ -9205,7 +9211,7 @@
         <v>0.92830000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="15.6">
+    <row r="62" spans="1:29">
       <c r="A62" s="4" t="s">
         <v>350</v>
       </c>
@@ -9294,7 +9300,7 @@
         <v>0.98050000000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="15.6">
+    <row r="63" spans="1:29">
       <c r="A63" s="4" t="s">
         <v>356</v>
       </c>
@@ -9383,7 +9389,7 @@
         <v>0.52300000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="15.6">
+    <row r="64" spans="1:29">
       <c r="A64" s="4" t="s">
         <v>362</v>
       </c>
@@ -9472,7 +9478,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="15.6">
+    <row r="65" spans="1:29">
       <c r="A65" s="4" t="s">
         <v>366</v>
       </c>
@@ -9561,7 +9567,7 @@
         <v>0.5151</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="15.6">
+    <row r="66" spans="1:29">
       <c r="A66" s="4" t="s">
         <v>370</v>
       </c>
@@ -9650,7 +9656,7 @@
         <v>0.66959999999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="15.6">
+    <row r="67" spans="1:29">
       <c r="A67" s="4" t="s">
         <v>376</v>
       </c>
@@ -9739,7 +9745,7 @@
         <v>0.68179999999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:29" ht="15.6">
+    <row r="68" spans="1:29">
       <c r="A68" s="4" t="s">
         <v>382</v>
       </c>
@@ -9828,7 +9834,7 @@
         <v>0.42380000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:29" ht="15.6">
+    <row r="69" spans="1:29">
       <c r="A69" s="4" t="s">
         <v>387</v>
       </c>
@@ -9917,7 +9923,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:29" ht="15.6">
+    <row r="70" spans="1:29">
       <c r="A70" s="4" t="s">
         <v>393</v>
       </c>
@@ -10006,7 +10012,7 @@
         <v>0.1043</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="15.6">
+    <row r="71" spans="1:29">
       <c r="A71" s="4" t="s">
         <v>393</v>
       </c>
@@ -10095,7 +10101,7 @@
         <v>0.31430000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="15.6">
+    <row r="72" spans="1:29">
       <c r="A72" s="4" t="s">
         <v>393</v>
       </c>
@@ -10184,7 +10190,7 @@
         <v>0.2077</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="15.6">
+    <row r="73" spans="1:29">
       <c r="A73" s="4" t="s">
         <v>393</v>
       </c>
@@ -10273,7 +10279,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="15.6">
+    <row r="74" spans="1:29">
       <c r="A74" s="4" t="s">
         <v>408</v>
       </c>
@@ -10362,7 +10368,7 @@
         <v>0.254</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="15.6">
+    <row r="75" spans="1:29">
       <c r="A75" s="4" t="s">
         <v>408</v>
       </c>
@@ -10451,7 +10457,7 @@
         <v>0.18590000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="15.6">
+    <row r="76" spans="1:29">
       <c r="A76" s="4" t="s">
         <v>408</v>
       </c>
@@ -10540,7 +10546,7 @@
         <v>0.20580000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:29" ht="15.6">
+    <row r="77" spans="1:29">
       <c r="A77" s="4" t="s">
         <v>408</v>
       </c>
@@ -10629,7 +10635,7 @@
         <v>8.7650000000000006E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:29" ht="15.6">
+    <row r="78" spans="1:29">
       <c r="A78" s="4" t="s">
         <v>408</v>
       </c>
@@ -10718,7 +10724,7 @@
         <v>1.0240000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:29" ht="15.6">
+    <row r="79" spans="1:29">
       <c r="A79" s="4" t="s">
         <v>408</v>
       </c>
@@ -10807,7 +10813,7 @@
         <v>0.43290000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:29" ht="15.6">
+    <row r="80" spans="1:29">
       <c r="A80" s="4" t="s">
         <v>429</v>
       </c>
@@ -10896,7 +10902,7 @@
         <v>0.309</v>
       </c>
     </row>
-    <row r="81" spans="1:29" ht="15.6">
+    <row r="81" spans="1:29">
       <c r="A81" s="4" t="s">
         <v>429</v>
       </c>
@@ -10985,7 +10991,7 @@
         <v>0.2041</v>
       </c>
     </row>
-    <row r="82" spans="1:29" ht="15.6">
+    <row r="82" spans="1:29">
       <c r="A82" s="4" t="s">
         <v>429</v>
       </c>
@@ -11074,7 +11080,7 @@
         <v>0.747</v>
       </c>
     </row>
-    <row r="83" spans="1:29" ht="15.6">
+    <row r="83" spans="1:29">
       <c r="A83" s="4" t="s">
         <v>439</v>
       </c>
@@ -11163,7 +11169,7 @@
         <v>0.63600000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="15.6">
+    <row r="84" spans="1:29">
       <c r="A84" s="4" t="s">
         <v>442</v>
       </c>
@@ -11252,7 +11258,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="85" spans="1:29" ht="15.6">
+    <row r="85" spans="1:29">
       <c r="A85" s="4" t="s">
         <v>442</v>
       </c>
@@ -11341,7 +11347,7 @@
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:29" ht="15.6">
+    <row r="86" spans="1:29">
       <c r="A86" s="4" t="s">
         <v>442</v>
       </c>
@@ -11430,7 +11436,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="15.6">
+    <row r="87" spans="1:29">
       <c r="A87" s="4" t="s">
         <v>442</v>
       </c>
@@ -11519,7 +11525,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="15.6">
+    <row r="88" spans="1:29">
       <c r="A88" s="4" t="s">
         <v>442</v>
       </c>
@@ -11608,7 +11614,7 @@
         <v>2.6800000000000001E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:29" ht="15.6">
+    <row r="89" spans="1:29">
       <c r="A89" s="4" t="s">
         <v>442</v>
       </c>
@@ -11697,7 +11703,7 @@
         <v>1.11E-14</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="15.6">
+    <row r="90" spans="1:29">
       <c r="A90" s="4" t="s">
         <v>466</v>
       </c>
@@ -11786,7 +11792,7 @@
         <v>0.92830000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="15.6">
+    <row r="91" spans="1:29">
       <c r="A91" s="4" t="s">
         <v>469</v>
       </c>
@@ -11875,7 +11881,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="15.6">
+    <row r="92" spans="1:29">
       <c r="A92" s="4" t="s">
         <v>472</v>
       </c>
@@ -11964,7 +11970,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="93" spans="1:29" ht="15.6">
+    <row r="93" spans="1:29">
       <c r="A93" s="4" t="s">
         <v>478</v>
       </c>
@@ -12320,7 +12326,7 @@
         <v>0.4209</v>
       </c>
     </row>
-    <row r="97" spans="1:29" ht="15.6">
+    <row r="97" spans="1:29">
       <c r="A97" s="4" t="s">
         <v>495</v>
       </c>
@@ -12409,7 +12415,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:29" ht="15.6">
+    <row r="98" spans="1:29">
       <c r="A98" s="4" t="s">
         <v>499</v>
       </c>
@@ -12498,7 +12504,7 @@
         <v>0.44479999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:29" ht="15.6">
+    <row r="99" spans="1:29">
       <c r="A99" s="4" t="s">
         <v>505</v>
       </c>
@@ -12587,7 +12593,7 @@
         <v>0.32419999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:29" ht="15.6">
+    <row r="100" spans="1:29">
       <c r="A100" s="4" t="s">
         <v>511</v>
       </c>
@@ -12676,7 +12682,7 @@
         <v>0.48870000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:29" ht="15.6">
+    <row r="101" spans="1:29">
       <c r="A101" s="4" t="s">
         <v>511</v>
       </c>
@@ -12765,7 +12771,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="102" spans="1:29" ht="15.6">
+    <row r="102" spans="1:29">
       <c r="A102" s="4" t="s">
         <v>518</v>
       </c>
@@ -12854,7 +12860,7 @@
         <v>6.1330000000000003E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:29" ht="15.6">
+    <row r="103" spans="1:29">
       <c r="A103" s="4" t="s">
         <v>520</v>
       </c>
@@ -12943,7 +12949,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:29" ht="15.6">
+    <row r="104" spans="1:29">
       <c r="A104" s="4" t="s">
         <v>526</v>
       </c>
@@ -13032,7 +13038,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="105" spans="1:29" ht="15.6">
+    <row r="105" spans="1:29">
       <c r="A105" s="4" t="s">
         <v>532</v>
       </c>
@@ -13121,7 +13127,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:29" ht="15.6">
+    <row r="106" spans="1:29">
       <c r="A106" s="4" t="s">
         <v>532</v>
       </c>
@@ -13210,7 +13216,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:29" ht="15.6">
+    <row r="107" spans="1:29">
       <c r="A107" s="4" t="s">
         <v>543</v>
       </c>
@@ -13299,7 +13305,7 @@
         <v>0.42109999999999997</v>
       </c>
     </row>
-    <row r="108" spans="1:29" ht="15.6">
+    <row r="108" spans="1:29">
       <c r="A108" s="4" t="s">
         <v>552</v>
       </c>
@@ -13388,7 +13394,7 @@
         <v>0.8952</v>
       </c>
     </row>
-    <row r="109" spans="1:29" ht="15.6">
+    <row r="109" spans="1:29">
       <c r="A109" s="4" t="s">
         <v>558</v>
       </c>
@@ -13477,7 +13483,7 @@
         <v>0.60340000000000005</v>
       </c>
     </row>
-    <row r="110" spans="1:29" ht="15.6">
+    <row r="110" spans="1:29">
       <c r="A110" s="4" t="s">
         <v>558</v>
       </c>
@@ -13566,7 +13572,7 @@
         <v>0.45629999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:29" ht="15.6">
+    <row r="111" spans="1:29">
       <c r="A111" s="4" t="s">
         <v>558</v>
       </c>
@@ -13655,7 +13661,7 @@
         <v>0.32669999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:29" ht="15.6">
+    <row r="112" spans="1:29">
       <c r="A112" s="4" t="s">
         <v>558</v>
       </c>
@@ -13744,7 +13750,7 @@
         <v>0.82630000000000003</v>
       </c>
     </row>
-    <row r="113" spans="1:29" ht="15.6">
+    <row r="113" spans="1:29">
       <c r="A113" s="4" t="s">
         <v>558</v>
       </c>
@@ -13833,7 +13839,7 @@
         <v>0.15590000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:29" ht="15.6">
+    <row r="114" spans="1:29">
       <c r="A114" s="4" t="s">
         <v>558</v>
       </c>
@@ -13922,7 +13928,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="1:29" ht="15.6">
+    <row r="115" spans="1:29">
       <c r="A115" s="4" t="s">
         <v>576</v>
       </c>
@@ -14011,7 +14017,7 @@
         <v>0.32419999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:29" ht="15.6">
+    <row r="116" spans="1:29">
       <c r="A116" s="4" t="s">
         <v>580</v>
       </c>
@@ -14100,7 +14106,7 @@
         <v>0.5151</v>
       </c>
     </row>
-    <row r="117" spans="1:29" ht="15.6">
+    <row r="117" spans="1:29">
       <c r="A117" s="4" t="s">
         <v>585</v>
       </c>
@@ -14189,7 +14195,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="118" spans="1:29" ht="15.6">
+    <row r="118" spans="1:29">
       <c r="A118" s="4" t="s">
         <v>590</v>
       </c>
@@ -14278,7 +14284,7 @@
         <v>0.1072</v>
       </c>
     </row>
-    <row r="119" spans="1:29" ht="15.6">
+    <row r="119" spans="1:29">
       <c r="A119" s="4" t="s">
         <v>590</v>
       </c>
@@ -14367,7 +14373,7 @@
         <v>9.5500000000000002E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:29" ht="15.6">
+    <row r="120" spans="1:29">
       <c r="A120" s="4" t="s">
         <v>598</v>
       </c>
@@ -14456,7 +14462,7 @@
         <v>9.4619999999999996E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:29" ht="15.6">
+    <row r="121" spans="1:29">
       <c r="A121" s="4" t="s">
         <v>604</v>
       </c>
@@ -14545,7 +14551,7 @@
         <v>0.74460000000000004</v>
       </c>
     </row>
-    <row r="122" spans="1:29" ht="15.6">
+    <row r="122" spans="1:29">
       <c r="A122" s="4" t="s">
         <v>611</v>
       </c>
@@ -14634,7 +14640,7 @@
         <v>0.49590000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:29" ht="15.6">
+    <row r="123" spans="1:29">
       <c r="A123" s="4" t="s">
         <v>616</v>
       </c>
@@ -14723,7 +14729,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="124" spans="1:29" ht="15.6">
+    <row r="124" spans="1:29">
       <c r="A124" s="4" t="s">
         <v>621</v>
       </c>
@@ -14812,7 +14818,7 @@
         <v>0.89349999999999996</v>
       </c>
     </row>
-    <row r="125" spans="1:29" ht="15.6">
+    <row r="125" spans="1:29">
       <c r="A125" s="4" t="s">
         <v>627</v>
       </c>
@@ -14901,7 +14907,7 @@
         <v>0.31019999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:29" ht="15.6">
+    <row r="126" spans="1:29">
       <c r="A126" s="4" t="s">
         <v>634</v>
       </c>
@@ -14990,7 +14996,7 @@
         <v>0.39960000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:29" ht="15.6">
+    <row r="127" spans="1:29">
       <c r="A127" s="4" t="s">
         <v>644</v>
       </c>
@@ -15079,7 +15085,7 @@
         <v>0.42380000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:29" ht="15.6">
+    <row r="128" spans="1:29">
       <c r="A128" s="4" t="s">
         <v>644</v>
       </c>
@@ -15168,7 +15174,7 @@
         <v>0.15390000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:29" ht="15.6">
+    <row r="129" spans="1:29">
       <c r="A129" s="4" t="s">
         <v>651</v>
       </c>
@@ -15257,7 +15263,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:29" ht="15.6">
+    <row r="130" spans="1:29">
       <c r="A130" s="4" t="s">
         <v>651</v>
       </c>
@@ -15346,7 +15352,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:29" ht="15.6">
+    <row r="131" spans="1:29">
       <c r="A131" s="4" t="s">
         <v>651</v>
       </c>
@@ -15435,7 +15441,7 @@
         <v>0.6673</v>
       </c>
     </row>
-    <row r="132" spans="1:29" ht="15.6">
+    <row r="132" spans="1:29">
       <c r="A132" s="4" t="s">
         <v>651</v>
       </c>
@@ -15524,7 +15530,7 @@
         <v>0.5988</v>
       </c>
     </row>
-    <row r="133" spans="1:29" ht="15.6">
+    <row r="133" spans="1:29">
       <c r="A133" s="4" t="s">
         <v>651</v>
       </c>
@@ -15613,7 +15619,7 @@
         <v>0.4662</v>
       </c>
     </row>
-    <row r="134" spans="1:29" ht="15.6">
+    <row r="134" spans="1:29">
       <c r="A134" s="4" t="s">
         <v>651</v>
       </c>
@@ -15702,7 +15708,7 @@
         <v>0.98050000000000004</v>
       </c>
     </row>
-    <row r="135" spans="1:29" ht="15.6">
+    <row r="135" spans="1:29">
       <c r="A135" s="4" t="s">
         <v>672</v>
       </c>
@@ -15791,7 +15797,7 @@
         <v>1.0240000000000001E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:29" ht="15.6">
+    <row r="136" spans="1:29">
       <c r="A136" s="4" t="s">
         <v>672</v>
       </c>
@@ -15880,7 +15886,7 @@
         <v>8.7650000000000006E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:29" ht="15.6">
+    <row r="137" spans="1:29">
       <c r="A137" s="4" t="s">
         <v>680</v>
       </c>
@@ -15969,7 +15975,7 @@
         <v>0.43919999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:29" ht="15.6">
+    <row r="138" spans="1:29">
       <c r="A138" s="4" t="s">
         <v>686</v>
       </c>
@@ -16058,7 +16064,7 @@
         <v>0.55349999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:29" ht="15.6">
+    <row r="139" spans="1:29">
       <c r="A139" s="4" t="s">
         <v>692</v>
       </c>
@@ -16147,7 +16153,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:29" ht="15.6">
+    <row r="140" spans="1:29">
       <c r="A140" s="4" t="s">
         <v>698</v>
       </c>
@@ -16236,7 +16242,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="141" spans="1:29" ht="15.6">
+    <row r="141" spans="1:29">
       <c r="A141" s="4" t="s">
         <v>698</v>
       </c>
@@ -16325,7 +16331,7 @@
         <v>0.22209999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:29" ht="15.6">
+    <row r="142" spans="1:29">
       <c r="A142" s="4" t="s">
         <v>705</v>
       </c>
@@ -16414,7 +16420,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="143" spans="1:29" ht="15.6">
+    <row r="143" spans="1:29">
       <c r="A143" s="4" t="s">
         <v>709</v>
       </c>
@@ -16503,7 +16509,7 @@
         <v>7.2849999999999998E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:29" ht="15.6">
+    <row r="144" spans="1:29">
       <c r="A144" s="4" t="s">
         <v>714</v>
       </c>
@@ -16592,7 +16598,7 @@
         <v>0.38090000000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:29" ht="15.6">
+    <row r="145" spans="1:29">
       <c r="A145" s="4" t="s">
         <v>718</v>
       </c>
@@ -16681,7 +16687,7 @@
         <v>0.26300000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:29" ht="15.6">
+    <row r="146" spans="1:29">
       <c r="A146" s="4" t="s">
         <v>722</v>
       </c>
@@ -16770,7 +16776,7 @@
         <v>0.66959999999999997</v>
       </c>
     </row>
-    <row r="147" spans="1:29" ht="15.6">
+    <row r="147" spans="1:29">
       <c r="A147" s="4" t="s">
         <v>725</v>
       </c>
@@ -16859,7 +16865,7 @@
         <v>0.80649999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:29" ht="15.6">
+    <row r="148" spans="1:29">
       <c r="A148" s="4" t="s">
         <v>731</v>
       </c>
@@ -16948,7 +16954,7 @@
         <v>0.4108</v>
       </c>
     </row>
-    <row r="149" spans="1:29" ht="15.6">
+    <row r="149" spans="1:29">
       <c r="A149" s="4" t="s">
         <v>738</v>
       </c>
@@ -17037,7 +17043,7 @@
         <v>0.68479999999999996</v>
       </c>
     </row>
-    <row r="150" spans="1:29" ht="15.6">
+    <row r="150" spans="1:29">
       <c r="A150" s="4" t="s">
         <v>743</v>
       </c>
@@ -17126,7 +17132,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:29" ht="15.6">
+    <row r="151" spans="1:29">
       <c r="A151" s="4" t="s">
         <v>747</v>
       </c>
@@ -17215,7 +17221,7 @@
         <v>2.0469999999999999E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:29" ht="15.6">
+    <row r="152" spans="1:29">
       <c r="A152" s="4" t="s">
         <v>753</v>
       </c>
@@ -17304,7 +17310,7 @@
         <v>0.54659999999999997</v>
       </c>
     </row>
-    <row r="153" spans="1:29" ht="15.6">
+    <row r="153" spans="1:29">
       <c r="A153" s="4" t="s">
         <v>759</v>
       </c>
@@ -17393,7 +17399,7 @@
         <v>0.5151</v>
       </c>
     </row>
-    <row r="154" spans="1:29" ht="15.6">
+    <row r="154" spans="1:29">
       <c r="A154" s="4" t="s">
         <v>762</v>
       </c>
@@ -17482,7 +17488,7 @@
         <v>0.2351</v>
       </c>
     </row>
-    <row r="155" spans="1:29" ht="15.6">
+    <row r="155" spans="1:29">
       <c r="A155" s="4" t="s">
         <v>768</v>
       </c>
@@ -17571,7 +17577,7 @@
         <v>0.15709999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:29" ht="15.6">
+    <row r="156" spans="1:29">
       <c r="A156" s="4" t="s">
         <v>773</v>
       </c>
@@ -17660,7 +17666,7 @@
         <v>0.70379999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:29" ht="15.6">
+    <row r="157" spans="1:29">
       <c r="A157" s="4" t="s">
         <v>778</v>
       </c>
@@ -17749,7 +17755,7 @@
         <v>0.15390000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:29" ht="15.6">
+    <row r="158" spans="1:29">
       <c r="A158" s="4" t="s">
         <v>778</v>
       </c>
@@ -17838,7 +17844,7 @@
         <v>0.3029</v>
       </c>
     </row>
-    <row r="159" spans="1:29" ht="15.6">
+    <row r="159" spans="1:29">
       <c r="A159" s="4" t="s">
         <v>778</v>
       </c>
@@ -17927,7 +17933,7 @@
         <v>0.24160000000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:29" ht="15.6">
+    <row r="160" spans="1:29">
       <c r="A160" s="4" t="s">
         <v>788</v>
       </c>
@@ -18016,7 +18022,7 @@
         <v>0.27129999999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:29" ht="15.6">
+    <row r="161" spans="1:29">
       <c r="A161" s="4" t="s">
         <v>788</v>
       </c>
@@ -18105,7 +18111,7 @@
         <v>0.72450000000000003</v>
       </c>
     </row>
-    <row r="162" spans="1:29" ht="15.6">
+    <row r="162" spans="1:29">
       <c r="A162" s="4" t="s">
         <v>798</v>
       </c>
@@ -18194,7 +18200,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="163" spans="1:29" ht="15.6">
+    <row r="163" spans="1:29">
       <c r="A163" s="4" t="s">
         <v>804</v>
       </c>
@@ -18283,7 +18289,7 @@
         <v>0.30409999999999998</v>
       </c>
     </row>
-    <row r="164" spans="1:29" ht="15.6">
+    <row r="164" spans="1:29">
       <c r="A164" s="4" t="s">
         <v>807</v>
       </c>
@@ -18372,7 +18378,7 @@
         <v>0.95930000000000004</v>
       </c>
     </row>
-    <row r="165" spans="1:29" ht="15.6">
+    <row r="165" spans="1:29">
       <c r="A165" s="4" t="s">
         <v>813</v>
       </c>
@@ -18461,7 +18467,7 @@
         <v>0.61539999999999995</v>
       </c>
     </row>
-    <row r="166" spans="1:29" ht="15.6">
+    <row r="166" spans="1:29">
       <c r="A166" s="4" t="s">
         <v>819</v>
       </c>
@@ -18550,7 +18556,7 @@
         <v>0.54849999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:29" ht="15.6">
+    <row r="167" spans="1:29">
       <c r="A167" s="4" t="s">
         <v>824</v>
       </c>
@@ -18639,7 +18645,7 @@
         <v>0.76470000000000005</v>
       </c>
     </row>
-    <row r="168" spans="1:29" ht="15.6">
+    <row r="168" spans="1:29">
       <c r="A168" s="4" t="s">
         <v>830</v>
       </c>
@@ -18728,7 +18734,7 @@
         <v>0.48220000000000002</v>
       </c>
     </row>
-    <row r="169" spans="1:29" ht="15.6">
+    <row r="169" spans="1:29">
       <c r="A169" s="4" t="s">
         <v>836</v>
       </c>
@@ -18817,7 +18823,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="170" spans="1:29" ht="15.6">
+    <row r="170" spans="1:29">
       <c r="A170" s="4" t="s">
         <v>839</v>
       </c>
@@ -18906,7 +18912,7 @@
         <v>0.25519999999999998</v>
       </c>
     </row>
-    <row r="171" spans="1:29" ht="15.6">
+    <row r="171" spans="1:29">
       <c r="A171" s="4" t="s">
         <v>845</v>
       </c>
@@ -18995,7 +19001,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="172" spans="1:29" ht="15.6">
+    <row r="172" spans="1:29">
       <c r="A172" s="4" t="s">
         <v>845</v>
       </c>
@@ -19084,7 +19090,7 @@
         <v>0.40889999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:29" ht="15.6">
+    <row r="173" spans="1:29">
       <c r="A173" s="4" t="s">
         <v>845</v>
       </c>
@@ -19173,7 +19179,7 @@
         <v>0.99250000000000005</v>
       </c>
     </row>
-    <row r="174" spans="1:29" ht="15.6">
+    <row r="174" spans="1:29">
       <c r="A174" s="4" t="s">
         <v>845</v>
       </c>
@@ -19262,7 +19268,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="175" spans="1:29" ht="15.6">
+    <row r="175" spans="1:29">
       <c r="A175" s="4" t="s">
         <v>845</v>
       </c>
@@ -19351,7 +19357,7 @@
         <v>0.46610000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:29" ht="15.6">
+    <row r="176" spans="1:29">
       <c r="A176" s="4" t="s">
         <v>845</v>
       </c>
@@ -19440,7 +19446,7 @@
         <v>0.59219999999999995</v>
       </c>
     </row>
-    <row r="177" spans="1:29" ht="15.6">
+    <row r="177" spans="1:29">
       <c r="A177" s="4" t="s">
         <v>845</v>
       </c>
@@ -19529,7 +19535,7 @@
         <v>0.86709999999999998</v>
       </c>
     </row>
-    <row r="178" spans="1:29" ht="15.6">
+    <row r="178" spans="1:29">
       <c r="A178" s="4" t="s">
         <v>867</v>
       </c>
@@ -19618,7 +19624,7 @@
         <v>0.29959999999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:29" ht="15.6">
+    <row r="179" spans="1:29">
       <c r="A179" s="4" t="s">
         <v>872</v>
       </c>
@@ -19707,7 +19713,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:29" ht="15.6">
+    <row r="180" spans="1:29">
       <c r="A180" s="4" t="s">
         <v>876</v>
       </c>
@@ -19796,7 +19802,7 @@
         <v>0.3735</v>
       </c>
     </row>
-    <row r="181" spans="1:29" ht="15.6">
+    <row r="181" spans="1:29">
       <c r="A181" s="4" t="s">
         <v>882</v>
       </c>
@@ -19885,7 +19891,7 @@
         <v>0.30270000000000002</v>
       </c>
     </row>
-    <row r="182" spans="1:29" ht="15.6">
+    <row r="182" spans="1:29">
       <c r="A182" s="4" t="s">
         <v>887</v>
       </c>
@@ -19974,7 +19980,7 @@
         <v>0.69420000000000004</v>
       </c>
     </row>
-    <row r="183" spans="1:29" ht="15.6">
+    <row r="183" spans="1:29">
       <c r="A183" s="4" t="s">
         <v>893</v>
       </c>
@@ -20063,7 +20069,7 @@
         <v>0.9325</v>
       </c>
     </row>
-    <row r="184" spans="1:29" ht="15.6">
+    <row r="184" spans="1:29">
       <c r="A184" s="4" t="s">
         <v>893</v>
       </c>
@@ -20152,7 +20158,7 @@
         <v>0.91290000000000004</v>
       </c>
     </row>
-    <row r="185" spans="1:29" ht="15.6">
+    <row r="185" spans="1:29">
       <c r="A185" s="4" t="s">
         <v>902</v>
       </c>
@@ -20241,7 +20247,7 @@
         <v>4.0800000000000003E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:29" ht="15.6">
+    <row r="186" spans="1:29">
       <c r="A186" s="4" t="s">
         <v>902</v>
       </c>
@@ -20330,7 +20336,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:29" ht="15.6">
+    <row r="187" spans="1:29">
       <c r="A187" s="4" t="s">
         <v>902</v>
       </c>
@@ -20419,7 +20425,7 @@
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:29" ht="15.6">
+    <row r="188" spans="1:29">
       <c r="A188" s="4" t="s">
         <v>902</v>
       </c>
@@ -20508,7 +20514,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="189" spans="1:29" ht="15.6">
+    <row r="189" spans="1:29">
       <c r="A189" s="4" t="s">
         <v>902</v>
       </c>
@@ -20597,7 +20603,7 @@
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="190" spans="1:29" ht="15.6">
+    <row r="190" spans="1:29">
       <c r="A190" s="4" t="s">
         <v>902</v>
       </c>
@@ -20686,7 +20692,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="191" spans="1:29" ht="15.6">
+    <row r="191" spans="1:29">
       <c r="A191" s="4" t="s">
         <v>902</v>
       </c>
@@ -20775,7 +20781,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="192" spans="1:29" ht="15.6">
+    <row r="192" spans="1:29">
       <c r="A192" s="4" t="s">
         <v>902</v>
       </c>
@@ -20864,7 +20870,7 @@
         <v>7.1199999999999999E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:29" ht="15.6">
+    <row r="193" spans="1:29">
       <c r="A193" s="4" t="s">
         <v>902</v>
       </c>
@@ -20953,7 +20959,7 @@
         <v>8.6499999999999994E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:29" ht="15.6">
+    <row r="194" spans="1:29">
       <c r="A194" s="4" t="s">
         <v>902</v>
       </c>
@@ -21042,7 +21048,7 @@
         <v>0.52300000000000002</v>
       </c>
     </row>
-    <row r="195" spans="1:29" ht="15.6">
+    <row r="195" spans="1:29">
       <c r="A195" s="4" t="s">
         <v>902</v>
       </c>
@@ -21131,7 +21137,7 @@
         <v>1.6899999999999998E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:29" ht="15.6">
+    <row r="196" spans="1:29">
       <c r="A196" s="4" t="s">
         <v>938</v>
       </c>
@@ -21220,7 +21226,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:29" ht="15.6">
+    <row r="197" spans="1:29">
       <c r="A197" s="4" t="s">
         <v>938</v>
       </c>
@@ -21309,7 +21315,7 @@
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:29" ht="15.6">
+    <row r="198" spans="1:29">
       <c r="A198" s="4" t="s">
         <v>938</v>
       </c>
@@ -21398,7 +21404,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="199" spans="1:29" ht="15.6">
+    <row r="199" spans="1:29">
       <c r="A199" s="4" t="s">
         <v>938</v>
       </c>
@@ -21487,7 +21493,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:29" ht="15.6">
+    <row r="200" spans="1:29">
       <c r="A200" s="4" t="s">
         <v>938</v>
       </c>
@@ -21576,7 +21582,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:29" ht="15.6">
+    <row r="201" spans="1:29">
       <c r="A201" s="4" t="s">
         <v>938</v>
       </c>
@@ -21665,7 +21671,7 @@
         <v>0.47599999999999998</v>
       </c>
     </row>
-    <row r="202" spans="1:29" ht="15.6">
+    <row r="202" spans="1:29">
       <c r="A202" s="4" t="s">
         <v>938</v>
       </c>
@@ -21754,7 +21760,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="203" spans="1:29" ht="15.6">
+    <row r="203" spans="1:29">
       <c r="A203" s="4" t="s">
         <v>938</v>
       </c>
@@ -21843,7 +21849,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:29" ht="15.6">
+    <row r="204" spans="1:29">
       <c r="A204" s="4" t="s">
         <v>938</v>
       </c>
@@ -21932,7 +21938,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="205" spans="1:29" ht="15.6">
+    <row r="205" spans="1:29">
       <c r="A205" s="4" t="s">
         <v>938</v>
       </c>
@@ -22021,7 +22027,7 @@
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="206" spans="1:29" ht="15.6">
+    <row r="206" spans="1:29">
       <c r="A206" s="4" t="s">
         <v>938</v>
       </c>
@@ -22110,7 +22116,7 @@
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="207" spans="1:29" ht="15.6">
+    <row r="207" spans="1:29">
       <c r="A207" s="4" t="s">
         <v>938</v>
       </c>
@@ -22199,7 +22205,7 @@
         <v>0.64800000000000002</v>
       </c>
     </row>
-    <row r="208" spans="1:29" ht="15.6">
+    <row r="208" spans="1:29">
       <c r="A208" s="4" t="s">
         <v>938</v>
       </c>
@@ -22288,7 +22294,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:29" ht="15.6">
+    <row r="209" spans="1:29">
       <c r="A209" s="4" t="s">
         <v>977</v>
       </c>
@@ -22377,7 +22383,7 @@
         <v>0.64900000000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:29" ht="15.6">
+    <row r="210" spans="1:29">
       <c r="A210" s="10" t="s">
         <v>983</v>
       </c>
@@ -22466,7 +22472,7 @@
         <v>0.4128</v>
       </c>
     </row>
-    <row r="211" spans="1:29" ht="15.6">
+    <row r="211" spans="1:29">
       <c r="A211" s="10" t="s">
         <v>989</v>
       </c>
@@ -22555,7 +22561,7 @@
         <v>3.44E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:29" ht="15.6">
+    <row r="212" spans="1:29">
       <c r="A212" s="10" t="s">
         <v>989</v>
       </c>
@@ -22644,7 +22650,7 @@
         <v>0.67249999999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:29" ht="15.6">
+    <row r="213" spans="1:29">
       <c r="A213" s="4" t="s">
         <v>1000</v>
       </c>
@@ -22733,7 +22739,7 @@
         <v>0.63500000000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:29" ht="15.6">
+    <row r="214" spans="1:29">
       <c r="A214" s="4" t="s">
         <v>1000</v>
       </c>
@@ -22822,7 +22828,7 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="215" spans="1:29" ht="15.6">
+    <row r="215" spans="1:29">
       <c r="A215" s="4" t="s">
         <v>1000</v>
       </c>
@@ -22911,7 +22917,7 @@
         <v>8.1499999999999997E-4</v>
       </c>
     </row>
-    <row r="216" spans="1:29" ht="15.6">
+    <row r="216" spans="1:29">
       <c r="A216" s="4" t="s">
         <v>1000</v>
       </c>
@@ -23000,7 +23006,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="217" spans="1:29" ht="15.6">
+    <row r="217" spans="1:29">
       <c r="A217" s="4" t="s">
         <v>1000</v>
       </c>
@@ -23089,7 +23095,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="218" spans="1:29" ht="15.6">
+    <row r="218" spans="1:29">
       <c r="A218" s="4" t="s">
         <v>1000</v>
       </c>
@@ -23178,7 +23184,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:29" ht="15.6">
+    <row r="219" spans="1:29">
       <c r="A219" s="4" t="s">
         <v>1000</v>
       </c>
@@ -23267,7 +23273,7 @@
         <v>0.86199999999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:29" ht="15.6">
+    <row r="220" spans="1:29">
       <c r="A220" s="4" t="s">
         <v>1000</v>
       </c>
@@ -23356,7 +23362,7 @@
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="221" spans="1:29" ht="15.6">
+    <row r="221" spans="1:29">
       <c r="A221" s="4" t="s">
         <v>1000</v>
       </c>
@@ -23445,7 +23451,7 @@
         <v>0.96299999999999997</v>
       </c>
     </row>
-    <row r="222" spans="1:29" ht="15.6">
+    <row r="222" spans="1:29">
       <c r="A222" s="4" t="s">
         <v>1000</v>
       </c>
@@ -23534,7 +23540,7 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:29" ht="13.2">
+    <row r="223" spans="1:29" ht="12.75">
       <c r="A223" s="12"/>
       <c r="I223" s="13"/>
       <c r="J223" s="13"/>
@@ -23558,7 +23564,7 @@
       <c r="AB223" s="13"/>
       <c r="AC223" s="13"/>
     </row>
-    <row r="224" spans="1:29" ht="13.2">
+    <row r="224" spans="1:29" ht="12.75">
       <c r="A224" s="12"/>
       <c r="I224" s="13"/>
       <c r="J224" s="13"/>
@@ -23582,7 +23588,7 @@
       <c r="AB224" s="13"/>
       <c r="AC224" s="13"/>
     </row>
-    <row r="225" spans="1:29" ht="13.2">
+    <row r="225" spans="1:29" ht="12.75">
       <c r="A225" s="12"/>
       <c r="I225" s="13"/>
       <c r="J225" s="13"/>
@@ -23606,7 +23612,7 @@
       <c r="AB225" s="13"/>
       <c r="AC225" s="13"/>
     </row>
-    <row r="226" spans="1:29" ht="13.2">
+    <row r="226" spans="1:29" ht="12.75">
       <c r="A226" s="12"/>
       <c r="I226" s="13"/>
       <c r="J226" s="13"/>
@@ -23630,7 +23636,7 @@
       <c r="AB226" s="13"/>
       <c r="AC226" s="13"/>
     </row>
-    <row r="227" spans="1:29" ht="13.2">
+    <row r="227" spans="1:29" ht="12.75">
       <c r="A227" s="12"/>
       <c r="I227" s="13"/>
       <c r="J227" s="13"/>
@@ -23654,7 +23660,7 @@
       <c r="AB227" s="13"/>
       <c r="AC227" s="13"/>
     </row>
-    <row r="228" spans="1:29" ht="13.2">
+    <row r="228" spans="1:29" ht="12.75">
       <c r="A228" s="12"/>
       <c r="I228" s="13"/>
       <c r="J228" s="13"/>
@@ -23678,7 +23684,7 @@
       <c r="AB228" s="13"/>
       <c r="AC228" s="13"/>
     </row>
-    <row r="229" spans="1:29" ht="13.2">
+    <row r="229" spans="1:29" ht="12.75">
       <c r="A229" s="12"/>
       <c r="I229" s="13"/>
       <c r="J229" s="13"/>
@@ -23702,7 +23708,7 @@
       <c r="AB229" s="13"/>
       <c r="AC229" s="13"/>
     </row>
-    <row r="230" spans="1:29" ht="13.2">
+    <row r="230" spans="1:29" ht="12.75">
       <c r="A230" s="12"/>
       <c r="I230" s="13"/>
       <c r="J230" s="13"/>
@@ -23726,7 +23732,7 @@
       <c r="AB230" s="13"/>
       <c r="AC230" s="13"/>
     </row>
-    <row r="231" spans="1:29" ht="13.2">
+    <row r="231" spans="1:29" ht="12.75">
       <c r="A231" s="12"/>
       <c r="I231" s="13"/>
       <c r="J231" s="13"/>
@@ -23750,7 +23756,7 @@
       <c r="AB231" s="13"/>
       <c r="AC231" s="13"/>
     </row>
-    <row r="232" spans="1:29" ht="13.2">
+    <row r="232" spans="1:29" ht="12.75">
       <c r="A232" s="12"/>
       <c r="I232" s="13"/>
       <c r="J232" s="13"/>
@@ -23774,7 +23780,7 @@
       <c r="AB232" s="13"/>
       <c r="AC232" s="13"/>
     </row>
-    <row r="233" spans="1:29" ht="13.2">
+    <row r="233" spans="1:29" ht="12.75">
       <c r="A233" s="12"/>
       <c r="I233" s="13"/>
       <c r="J233" s="13"/>
@@ -23798,7 +23804,7 @@
       <c r="AB233" s="13"/>
       <c r="AC233" s="13"/>
     </row>
-    <row r="234" spans="1:29" ht="13.2">
+    <row r="234" spans="1:29" ht="12.75">
       <c r="A234" s="12"/>
       <c r="I234" s="13"/>
       <c r="J234" s="13"/>
@@ -23822,7 +23828,7 @@
       <c r="AB234" s="13"/>
       <c r="AC234" s="13"/>
     </row>
-    <row r="235" spans="1:29" ht="13.2">
+    <row r="235" spans="1:29" ht="12.75">
       <c r="A235" s="12"/>
       <c r="I235" s="13"/>
       <c r="J235" s="13"/>
@@ -23846,7 +23852,7 @@
       <c r="AB235" s="13"/>
       <c r="AC235" s="13"/>
     </row>
-    <row r="236" spans="1:29" ht="13.2">
+    <row r="236" spans="1:29" ht="12.75">
       <c r="A236" s="12"/>
       <c r="I236" s="13"/>
       <c r="J236" s="13"/>
@@ -23870,7 +23876,7 @@
       <c r="AB236" s="13"/>
       <c r="AC236" s="13"/>
     </row>
-    <row r="237" spans="1:29" ht="13.2">
+    <row r="237" spans="1:29" ht="12.75">
       <c r="A237" s="12"/>
       <c r="I237" s="13"/>
       <c r="J237" s="13"/>
@@ -23894,7 +23900,7 @@
       <c r="AB237" s="13"/>
       <c r="AC237" s="13"/>
     </row>
-    <row r="238" spans="1:29" ht="13.2">
+    <row r="238" spans="1:29" ht="12.75">
       <c r="A238" s="12"/>
       <c r="I238" s="13"/>
       <c r="J238" s="13"/>
@@ -23918,7 +23924,7 @@
       <c r="AB238" s="13"/>
       <c r="AC238" s="13"/>
     </row>
-    <row r="239" spans="1:29" ht="13.2">
+    <row r="239" spans="1:29" ht="12.75">
       <c r="A239" s="12"/>
       <c r="I239" s="13"/>
       <c r="J239" s="13"/>
@@ -23942,7 +23948,7 @@
       <c r="AB239" s="13"/>
       <c r="AC239" s="13"/>
     </row>
-    <row r="240" spans="1:29" ht="13.2">
+    <row r="240" spans="1:29" ht="12.75">
       <c r="A240" s="12"/>
       <c r="I240" s="13"/>
       <c r="J240" s="13"/>
@@ -23966,7 +23972,7 @@
       <c r="AB240" s="13"/>
       <c r="AC240" s="13"/>
     </row>
-    <row r="241" spans="1:29" ht="13.2">
+    <row r="241" spans="1:29" ht="12.75">
       <c r="A241" s="12"/>
       <c r="I241" s="13"/>
       <c r="J241" s="13"/>
@@ -23990,7 +23996,7 @@
       <c r="AB241" s="13"/>
       <c r="AC241" s="13"/>
     </row>
-    <row r="242" spans="1:29" ht="13.2">
+    <row r="242" spans="1:29" ht="12.75">
       <c r="A242" s="12"/>
       <c r="I242" s="13"/>
       <c r="J242" s="13"/>
@@ -24014,7 +24020,7 @@
       <c r="AB242" s="13"/>
       <c r="AC242" s="13"/>
     </row>
-    <row r="243" spans="1:29" ht="13.2">
+    <row r="243" spans="1:29" ht="12.75">
       <c r="A243" s="12"/>
       <c r="I243" s="13"/>
       <c r="J243" s="13"/>
@@ -24038,7 +24044,7 @@
       <c r="AB243" s="13"/>
       <c r="AC243" s="13"/>
     </row>
-    <row r="244" spans="1:29" ht="13.2">
+    <row r="244" spans="1:29" ht="12.75">
       <c r="A244" s="12"/>
       <c r="I244" s="13"/>
       <c r="J244" s="13"/>
@@ -24062,7 +24068,7 @@
       <c r="AB244" s="13"/>
       <c r="AC244" s="13"/>
     </row>
-    <row r="245" spans="1:29" ht="13.2">
+    <row r="245" spans="1:29" ht="12.75">
       <c r="A245" s="12"/>
       <c r="I245" s="13"/>
       <c r="J245" s="13"/>
@@ -24086,7 +24092,7 @@
       <c r="AB245" s="13"/>
       <c r="AC245" s="13"/>
     </row>
-    <row r="246" spans="1:29" ht="13.2">
+    <row r="246" spans="1:29" ht="12.75">
       <c r="A246" s="12"/>
       <c r="I246" s="13"/>
       <c r="J246" s="13"/>
@@ -24110,7 +24116,7 @@
       <c r="AB246" s="13"/>
       <c r="AC246" s="13"/>
     </row>
-    <row r="247" spans="1:29" ht="13.2">
+    <row r="247" spans="1:29" ht="12.75">
       <c r="A247" s="12"/>
       <c r="I247" s="13"/>
       <c r="J247" s="13"/>
@@ -24134,7 +24140,7 @@
       <c r="AB247" s="13"/>
       <c r="AC247" s="13"/>
     </row>
-    <row r="248" spans="1:29" ht="13.2">
+    <row r="248" spans="1:29" ht="12.75">
       <c r="A248" s="12"/>
       <c r="I248" s="13"/>
       <c r="J248" s="13"/>
@@ -24158,7 +24164,7 @@
       <c r="AB248" s="13"/>
       <c r="AC248" s="13"/>
     </row>
-    <row r="249" spans="1:29" ht="13.2">
+    <row r="249" spans="1:29" ht="12.75">
       <c r="A249" s="12"/>
       <c r="I249" s="13"/>
       <c r="J249" s="13"/>
@@ -24182,7 +24188,7 @@
       <c r="AB249" s="13"/>
       <c r="AC249" s="13"/>
     </row>
-    <row r="250" spans="1:29" ht="13.2">
+    <row r="250" spans="1:29" ht="12.75">
       <c r="A250" s="12"/>
       <c r="I250" s="13"/>
       <c r="J250" s="13"/>
@@ -24206,7 +24212,7 @@
       <c r="AB250" s="13"/>
       <c r="AC250" s="13"/>
     </row>
-    <row r="251" spans="1:29" ht="13.2">
+    <row r="251" spans="1:29" ht="12.75">
       <c r="A251" s="12"/>
       <c r="I251" s="13"/>
       <c r="J251" s="13"/>
@@ -24230,7 +24236,7 @@
       <c r="AB251" s="13"/>
       <c r="AC251" s="13"/>
     </row>
-    <row r="252" spans="1:29" ht="13.2">
+    <row r="252" spans="1:29" ht="12.75">
       <c r="A252" s="12"/>
       <c r="I252" s="13"/>
       <c r="J252" s="13"/>
@@ -24254,7 +24260,7 @@
       <c r="AB252" s="13"/>
       <c r="AC252" s="13"/>
     </row>
-    <row r="253" spans="1:29" ht="13.2">
+    <row r="253" spans="1:29" ht="12.75">
       <c r="A253" s="12"/>
       <c r="I253" s="13"/>
       <c r="J253" s="13"/>
@@ -24278,7 +24284,7 @@
       <c r="AB253" s="13"/>
       <c r="AC253" s="13"/>
     </row>
-    <row r="254" spans="1:29" ht="13.2">
+    <row r="254" spans="1:29" ht="12.75">
       <c r="A254" s="12"/>
       <c r="I254" s="13"/>
       <c r="J254" s="13"/>
@@ -24302,7 +24308,7 @@
       <c r="AB254" s="13"/>
       <c r="AC254" s="13"/>
     </row>
-    <row r="255" spans="1:29" ht="13.2">
+    <row r="255" spans="1:29" ht="12.75">
       <c r="A255" s="12"/>
       <c r="I255" s="13"/>
       <c r="J255" s="13"/>
@@ -24326,7 +24332,7 @@
       <c r="AB255" s="13"/>
       <c r="AC255" s="13"/>
     </row>
-    <row r="256" spans="1:29" ht="13.2">
+    <row r="256" spans="1:29" ht="12.75">
       <c r="A256" s="12"/>
       <c r="I256" s="13"/>
       <c r="J256" s="13"/>
@@ -24350,7 +24356,7 @@
       <c r="AB256" s="13"/>
       <c r="AC256" s="13"/>
     </row>
-    <row r="257" spans="1:29" ht="13.2">
+    <row r="257" spans="1:29" ht="12.75">
       <c r="A257" s="12"/>
       <c r="I257" s="13"/>
       <c r="J257" s="13"/>
@@ -24374,7 +24380,7 @@
       <c r="AB257" s="13"/>
       <c r="AC257" s="13"/>
     </row>
-    <row r="258" spans="1:29" ht="13.2">
+    <row r="258" spans="1:29" ht="12.75">
       <c r="A258" s="12"/>
       <c r="I258" s="13"/>
       <c r="J258" s="13"/>
@@ -24398,7 +24404,7 @@
       <c r="AB258" s="13"/>
       <c r="AC258" s="13"/>
     </row>
-    <row r="259" spans="1:29" ht="13.2">
+    <row r="259" spans="1:29" ht="12.75">
       <c r="A259" s="12"/>
       <c r="I259" s="13"/>
       <c r="J259" s="13"/>
@@ -24422,7 +24428,7 @@
       <c r="AB259" s="13"/>
       <c r="AC259" s="13"/>
     </row>
-    <row r="260" spans="1:29" ht="13.2">
+    <row r="260" spans="1:29" ht="12.75">
       <c r="A260" s="12"/>
       <c r="I260" s="13"/>
       <c r="J260" s="13"/>
@@ -24446,7 +24452,7 @@
       <c r="AB260" s="13"/>
       <c r="AC260" s="13"/>
     </row>
-    <row r="261" spans="1:29" ht="13.2">
+    <row r="261" spans="1:29" ht="12.75">
       <c r="A261" s="12"/>
       <c r="I261" s="13"/>
       <c r="J261" s="13"/>
@@ -24470,7 +24476,7 @@
       <c r="AB261" s="13"/>
       <c r="AC261" s="13"/>
     </row>
-    <row r="262" spans="1:29" ht="13.2">
+    <row r="262" spans="1:29" ht="12.75">
       <c r="A262" s="12"/>
       <c r="I262" s="13"/>
       <c r="J262" s="13"/>
@@ -24494,7 +24500,7 @@
       <c r="AB262" s="13"/>
       <c r="AC262" s="13"/>
     </row>
-    <row r="263" spans="1:29" ht="13.2">
+    <row r="263" spans="1:29" ht="12.75">
       <c r="A263" s="12"/>
       <c r="I263" s="13"/>
       <c r="J263" s="13"/>
@@ -24518,7 +24524,7 @@
       <c r="AB263" s="13"/>
       <c r="AC263" s="13"/>
     </row>
-    <row r="264" spans="1:29" ht="13.2">
+    <row r="264" spans="1:29" ht="12.75">
       <c r="A264" s="12"/>
       <c r="I264" s="13"/>
       <c r="J264" s="13"/>
@@ -24542,7 +24548,7 @@
       <c r="AB264" s="13"/>
       <c r="AC264" s="13"/>
     </row>
-    <row r="265" spans="1:29" ht="13.2">
+    <row r="265" spans="1:29" ht="12.75">
       <c r="A265" s="12"/>
       <c r="I265" s="13"/>
       <c r="J265" s="13"/>
@@ -24566,7 +24572,7 @@
       <c r="AB265" s="13"/>
       <c r="AC265" s="13"/>
     </row>
-    <row r="266" spans="1:29" ht="13.2">
+    <row r="266" spans="1:29" ht="12.75">
       <c r="A266" s="12"/>
       <c r="I266" s="13"/>
       <c r="J266" s="13"/>
@@ -24590,7 +24596,7 @@
       <c r="AB266" s="13"/>
       <c r="AC266" s="13"/>
     </row>
-    <row r="267" spans="1:29" ht="13.2">
+    <row r="267" spans="1:29" ht="12.75">
       <c r="A267" s="12"/>
       <c r="I267" s="13"/>
       <c r="J267" s="13"/>
@@ -24614,7 +24620,7 @@
       <c r="AB267" s="13"/>
       <c r="AC267" s="13"/>
     </row>
-    <row r="268" spans="1:29" ht="13.2">
+    <row r="268" spans="1:29" ht="12.75">
       <c r="A268" s="12"/>
       <c r="I268" s="13"/>
       <c r="J268" s="13"/>
@@ -24638,7 +24644,7 @@
       <c r="AB268" s="13"/>
       <c r="AC268" s="13"/>
     </row>
-    <row r="269" spans="1:29" ht="13.2">
+    <row r="269" spans="1:29" ht="12.75">
       <c r="A269" s="12"/>
       <c r="I269" s="13"/>
       <c r="J269" s="13"/>
@@ -24662,7 +24668,7 @@
       <c r="AB269" s="13"/>
       <c r="AC269" s="13"/>
     </row>
-    <row r="270" spans="1:29" ht="13.2">
+    <row r="270" spans="1:29" ht="12.75">
       <c r="A270" s="12"/>
       <c r="I270" s="13"/>
       <c r="J270" s="13"/>
@@ -24686,7 +24692,7 @@
       <c r="AB270" s="13"/>
       <c r="AC270" s="13"/>
     </row>
-    <row r="271" spans="1:29" ht="13.2">
+    <row r="271" spans="1:29" ht="12.75">
       <c r="A271" s="12"/>
       <c r="I271" s="13"/>
       <c r="J271" s="13"/>
@@ -24710,7 +24716,7 @@
       <c r="AB271" s="13"/>
       <c r="AC271" s="13"/>
     </row>
-    <row r="272" spans="1:29" ht="13.2">
+    <row r="272" spans="1:29" ht="12.75">
       <c r="A272" s="12"/>
       <c r="I272" s="13"/>
       <c r="J272" s="13"/>
@@ -24734,7 +24740,7 @@
       <c r="AB272" s="13"/>
       <c r="AC272" s="13"/>
     </row>
-    <row r="273" spans="1:29" ht="13.2">
+    <row r="273" spans="1:29" ht="12.75">
       <c r="A273" s="12"/>
       <c r="I273" s="13"/>
       <c r="J273" s="13"/>
@@ -24758,7 +24764,7 @@
       <c r="AB273" s="13"/>
       <c r="AC273" s="13"/>
     </row>
-    <row r="274" spans="1:29" ht="13.2">
+    <row r="274" spans="1:29" ht="12.75">
       <c r="A274" s="12"/>
       <c r="I274" s="13"/>
       <c r="J274" s="13"/>
@@ -24782,7 +24788,7 @@
       <c r="AB274" s="13"/>
       <c r="AC274" s="13"/>
     </row>
-    <row r="275" spans="1:29" ht="13.2">
+    <row r="275" spans="1:29" ht="12.75">
       <c r="A275" s="12"/>
       <c r="I275" s="13"/>
       <c r="J275" s="13"/>
@@ -24806,7 +24812,7 @@
       <c r="AB275" s="13"/>
       <c r="AC275" s="13"/>
     </row>
-    <row r="276" spans="1:29" ht="13.2">
+    <row r="276" spans="1:29" ht="12.75">
       <c r="A276" s="12"/>
       <c r="I276" s="13"/>
       <c r="J276" s="13"/>
@@ -24830,7 +24836,7 @@
       <c r="AB276" s="13"/>
       <c r="AC276" s="13"/>
     </row>
-    <row r="277" spans="1:29" ht="13.2">
+    <row r="277" spans="1:29" ht="12.75">
       <c r="A277" s="12"/>
       <c r="I277" s="13"/>
       <c r="J277" s="13"/>
@@ -24854,7 +24860,7 @@
       <c r="AB277" s="13"/>
       <c r="AC277" s="13"/>
     </row>
-    <row r="278" spans="1:29" ht="13.2">
+    <row r="278" spans="1:29" ht="12.75">
       <c r="A278" s="12"/>
       <c r="I278" s="13"/>
       <c r="J278" s="13"/>
@@ -24878,7 +24884,7 @@
       <c r="AB278" s="13"/>
       <c r="AC278" s="13"/>
     </row>
-    <row r="279" spans="1:29" ht="13.2">
+    <row r="279" spans="1:29" ht="12.75">
       <c r="A279" s="12"/>
       <c r="I279" s="13"/>
       <c r="J279" s="13"/>
@@ -24902,7 +24908,7 @@
       <c r="AB279" s="13"/>
       <c r="AC279" s="13"/>
     </row>
-    <row r="280" spans="1:29" ht="13.2">
+    <row r="280" spans="1:29" ht="12.75">
       <c r="A280" s="12"/>
       <c r="I280" s="13"/>
       <c r="J280" s="13"/>
@@ -24926,7 +24932,7 @@
       <c r="AB280" s="13"/>
       <c r="AC280" s="13"/>
     </row>
-    <row r="281" spans="1:29" ht="13.2">
+    <row r="281" spans="1:29" ht="12.75">
       <c r="A281" s="12"/>
       <c r="I281" s="13"/>
       <c r="J281" s="13"/>
@@ -24950,7 +24956,7 @@
       <c r="AB281" s="13"/>
       <c r="AC281" s="13"/>
     </row>
-    <row r="282" spans="1:29" ht="13.2">
+    <row r="282" spans="1:29" ht="12.75">
       <c r="A282" s="12"/>
       <c r="I282" s="13"/>
       <c r="J282" s="13"/>
@@ -24974,7 +24980,7 @@
       <c r="AB282" s="13"/>
       <c r="AC282" s="13"/>
     </row>
-    <row r="283" spans="1:29" ht="13.2">
+    <row r="283" spans="1:29" ht="12.75">
       <c r="A283" s="12"/>
       <c r="I283" s="13"/>
       <c r="J283" s="13"/>
@@ -24998,7 +25004,7 @@
       <c r="AB283" s="13"/>
       <c r="AC283" s="13"/>
     </row>
-    <row r="284" spans="1:29" ht="13.2">
+    <row r="284" spans="1:29" ht="12.75">
       <c r="A284" s="12"/>
       <c r="I284" s="13"/>
       <c r="J284" s="13"/>
@@ -25022,7 +25028,7 @@
       <c r="AB284" s="13"/>
       <c r="AC284" s="13"/>
     </row>
-    <row r="285" spans="1:29" ht="13.2">
+    <row r="285" spans="1:29" ht="12.75">
       <c r="A285" s="12"/>
       <c r="I285" s="13"/>
       <c r="J285" s="13"/>
@@ -25046,7 +25052,7 @@
       <c r="AB285" s="13"/>
       <c r="AC285" s="13"/>
     </row>
-    <row r="286" spans="1:29" ht="13.2">
+    <row r="286" spans="1:29" ht="12.75">
       <c r="A286" s="12"/>
       <c r="I286" s="13"/>
       <c r="J286" s="13"/>
@@ -25070,7 +25076,7 @@
       <c r="AB286" s="13"/>
       <c r="AC286" s="13"/>
     </row>
-    <row r="287" spans="1:29" ht="13.2">
+    <row r="287" spans="1:29" ht="12.75">
       <c r="A287" s="12"/>
       <c r="I287" s="13"/>
       <c r="J287" s="13"/>
@@ -25094,7 +25100,7 @@
       <c r="AB287" s="13"/>
       <c r="AC287" s="13"/>
     </row>
-    <row r="288" spans="1:29" ht="13.2">
+    <row r="288" spans="1:29" ht="12.75">
       <c r="A288" s="12"/>
       <c r="I288" s="13"/>
       <c r="J288" s="13"/>
@@ -25118,7 +25124,7 @@
       <c r="AB288" s="13"/>
       <c r="AC288" s="13"/>
     </row>
-    <row r="289" spans="1:29" ht="13.2">
+    <row r="289" spans="1:29" ht="12.75">
       <c r="A289" s="12"/>
       <c r="I289" s="13"/>
       <c r="J289" s="13"/>
@@ -25142,7 +25148,7 @@
       <c r="AB289" s="13"/>
       <c r="AC289" s="13"/>
     </row>
-    <row r="290" spans="1:29" ht="13.2">
+    <row r="290" spans="1:29" ht="12.75">
       <c r="A290" s="12"/>
       <c r="I290" s="13"/>
       <c r="J290" s="13"/>
@@ -25166,7 +25172,7 @@
       <c r="AB290" s="13"/>
       <c r="AC290" s="13"/>
     </row>
-    <row r="291" spans="1:29" ht="13.2">
+    <row r="291" spans="1:29" ht="12.75">
       <c r="A291" s="12"/>
       <c r="I291" s="13"/>
       <c r="J291" s="13"/>
@@ -25190,7 +25196,7 @@
       <c r="AB291" s="13"/>
       <c r="AC291" s="13"/>
     </row>
-    <row r="292" spans="1:29" ht="13.2">
+    <row r="292" spans="1:29" ht="12.75">
       <c r="A292" s="12"/>
       <c r="I292" s="13"/>
       <c r="J292" s="13"/>
@@ -25214,7 +25220,7 @@
       <c r="AB292" s="13"/>
       <c r="AC292" s="13"/>
     </row>
-    <row r="293" spans="1:29" ht="13.2">
+    <row r="293" spans="1:29" ht="12.75">
       <c r="A293" s="12"/>
       <c r="I293" s="13"/>
       <c r="J293" s="13"/>
@@ -25238,7 +25244,7 @@
       <c r="AB293" s="13"/>
       <c r="AC293" s="13"/>
     </row>
-    <row r="294" spans="1:29" ht="13.2">
+    <row r="294" spans="1:29" ht="12.75">
       <c r="A294" s="12"/>
       <c r="I294" s="13"/>
       <c r="J294" s="13"/>
@@ -25262,7 +25268,7 @@
       <c r="AB294" s="13"/>
       <c r="AC294" s="13"/>
     </row>
-    <row r="295" spans="1:29" ht="13.2">
+    <row r="295" spans="1:29" ht="12.75">
       <c r="A295" s="12"/>
       <c r="I295" s="13"/>
       <c r="J295" s="13"/>
@@ -25286,7 +25292,7 @@
       <c r="AB295" s="13"/>
       <c r="AC295" s="13"/>
     </row>
-    <row r="296" spans="1:29" ht="13.2">
+    <row r="296" spans="1:29" ht="12.75">
       <c r="A296" s="12"/>
       <c r="I296" s="13"/>
       <c r="J296" s="13"/>
@@ -25310,7 +25316,7 @@
       <c r="AB296" s="13"/>
       <c r="AC296" s="13"/>
     </row>
-    <row r="297" spans="1:29" ht="13.2">
+    <row r="297" spans="1:29" ht="12.75">
       <c r="A297" s="12"/>
       <c r="I297" s="13"/>
       <c r="J297" s="13"/>
@@ -25334,7 +25340,7 @@
       <c r="AB297" s="13"/>
       <c r="AC297" s="13"/>
     </row>
-    <row r="298" spans="1:29" ht="13.2">
+    <row r="298" spans="1:29" ht="12.75">
       <c r="A298" s="12"/>
       <c r="I298" s="13"/>
       <c r="J298" s="13"/>
@@ -25358,7 +25364,7 @@
       <c r="AB298" s="13"/>
       <c r="AC298" s="13"/>
     </row>
-    <row r="299" spans="1:29" ht="13.2">
+    <row r="299" spans="1:29" ht="12.75">
       <c r="A299" s="12"/>
       <c r="I299" s="13"/>
       <c r="J299" s="13"/>
@@ -25382,7 +25388,7 @@
       <c r="AB299" s="13"/>
       <c r="AC299" s="13"/>
     </row>
-    <row r="300" spans="1:29" ht="13.2">
+    <row r="300" spans="1:29" ht="12.75">
       <c r="A300" s="12"/>
       <c r="I300" s="13"/>
       <c r="J300" s="13"/>
@@ -25406,7 +25412,7 @@
       <c r="AB300" s="13"/>
       <c r="AC300" s="13"/>
     </row>
-    <row r="301" spans="1:29" ht="13.2">
+    <row r="301" spans="1:29" ht="12.75">
       <c r="A301" s="12"/>
       <c r="I301" s="13"/>
       <c r="J301" s="13"/>
@@ -25430,7 +25436,7 @@
       <c r="AB301" s="13"/>
       <c r="AC301" s="13"/>
     </row>
-    <row r="302" spans="1:29" ht="13.2">
+    <row r="302" spans="1:29" ht="12.75">
       <c r="A302" s="12"/>
       <c r="I302" s="13"/>
       <c r="J302" s="13"/>
@@ -25454,7 +25460,7 @@
       <c r="AB302" s="13"/>
       <c r="AC302" s="13"/>
     </row>
-    <row r="303" spans="1:29" ht="13.2">
+    <row r="303" spans="1:29" ht="12.75">
       <c r="A303" s="12"/>
       <c r="I303" s="13"/>
       <c r="J303" s="13"/>
@@ -25478,7 +25484,7 @@
       <c r="AB303" s="13"/>
       <c r="AC303" s="13"/>
     </row>
-    <row r="304" spans="1:29" ht="13.2">
+    <row r="304" spans="1:29" ht="12.75">
       <c r="A304" s="12"/>
       <c r="I304" s="13"/>
       <c r="J304" s="13"/>
@@ -25502,7 +25508,7 @@
       <c r="AB304" s="13"/>
       <c r="AC304" s="13"/>
     </row>
-    <row r="305" spans="1:29" ht="13.2">
+    <row r="305" spans="1:29" ht="12.75">
       <c r="A305" s="12"/>
       <c r="I305" s="13"/>
       <c r="J305" s="13"/>
@@ -25526,7 +25532,7 @@
       <c r="AB305" s="13"/>
       <c r="AC305" s="13"/>
     </row>
-    <row r="306" spans="1:29" ht="13.2">
+    <row r="306" spans="1:29" ht="12.75">
       <c r="A306" s="12"/>
       <c r="I306" s="13"/>
       <c r="J306" s="13"/>
@@ -25550,7 +25556,7 @@
       <c r="AB306" s="13"/>
       <c r="AC306" s="13"/>
     </row>
-    <row r="307" spans="1:29" ht="13.2">
+    <row r="307" spans="1:29" ht="12.75">
       <c r="A307" s="12"/>
       <c r="I307" s="13"/>
       <c r="J307" s="13"/>
@@ -25574,7 +25580,7 @@
       <c r="AB307" s="13"/>
       <c r="AC307" s="13"/>
     </row>
-    <row r="308" spans="1:29" ht="13.2">
+    <row r="308" spans="1:29" ht="12.75">
       <c r="A308" s="12"/>
       <c r="I308" s="13"/>
       <c r="J308" s="13"/>
@@ -25598,7 +25604,7 @@
       <c r="AB308" s="13"/>
       <c r="AC308" s="13"/>
     </row>
-    <row r="309" spans="1:29" ht="13.2">
+    <row r="309" spans="1:29" ht="12.75">
       <c r="A309" s="12"/>
       <c r="I309" s="13"/>
       <c r="J309" s="13"/>
@@ -25622,7 +25628,7 @@
       <c r="AB309" s="13"/>
       <c r="AC309" s="13"/>
     </row>
-    <row r="310" spans="1:29" ht="13.2">
+    <row r="310" spans="1:29" ht="12.75">
       <c r="A310" s="12"/>
       <c r="I310" s="13"/>
       <c r="J310" s="13"/>
@@ -25646,7 +25652,7 @@
       <c r="AB310" s="13"/>
       <c r="AC310" s="13"/>
     </row>
-    <row r="311" spans="1:29" ht="13.2">
+    <row r="311" spans="1:29" ht="12.75">
       <c r="A311" s="12"/>
       <c r="I311" s="13"/>
       <c r="J311" s="13"/>
@@ -25670,7 +25676,7 @@
       <c r="AB311" s="13"/>
       <c r="AC311" s="13"/>
     </row>
-    <row r="312" spans="1:29" ht="13.2">
+    <row r="312" spans="1:29" ht="12.75">
       <c r="A312" s="12"/>
       <c r="I312" s="13"/>
       <c r="J312" s="13"/>
@@ -25694,7 +25700,7 @@
       <c r="AB312" s="13"/>
       <c r="AC312" s="13"/>
     </row>
-    <row r="313" spans="1:29" ht="13.2">
+    <row r="313" spans="1:29" ht="12.75">
       <c r="A313" s="12"/>
       <c r="I313" s="13"/>
       <c r="J313" s="13"/>
@@ -25718,7 +25724,7 @@
       <c r="AB313" s="13"/>
       <c r="AC313" s="13"/>
     </row>
-    <row r="314" spans="1:29" ht="13.2">
+    <row r="314" spans="1:29" ht="12.75">
       <c r="A314" s="12"/>
       <c r="I314" s="13"/>
       <c r="J314" s="13"/>
@@ -25742,7 +25748,7 @@
       <c r="AB314" s="13"/>
       <c r="AC314" s="13"/>
     </row>
-    <row r="315" spans="1:29" ht="13.2">
+    <row r="315" spans="1:29" ht="12.75">
       <c r="A315" s="12"/>
       <c r="I315" s="13"/>
       <c r="J315" s="13"/>
@@ -25766,7 +25772,7 @@
       <c r="AB315" s="13"/>
       <c r="AC315" s="13"/>
     </row>
-    <row r="316" spans="1:29" ht="13.2">
+    <row r="316" spans="1:29" ht="12.75">
       <c r="A316" s="12"/>
       <c r="I316" s="13"/>
       <c r="J316" s="13"/>
@@ -25790,7 +25796,7 @@
       <c r="AB316" s="13"/>
       <c r="AC316" s="13"/>
     </row>
-    <row r="317" spans="1:29" ht="13.2">
+    <row r="317" spans="1:29" ht="12.75">
       <c r="A317" s="12"/>
       <c r="I317" s="13"/>
       <c r="J317" s="13"/>
@@ -25814,7 +25820,7 @@
       <c r="AB317" s="13"/>
       <c r="AC317" s="13"/>
     </row>
-    <row r="318" spans="1:29" ht="13.2">
+    <row r="318" spans="1:29" ht="12.75">
       <c r="A318" s="12"/>
       <c r="I318" s="13"/>
       <c r="J318" s="13"/>
@@ -25838,7 +25844,7 @@
       <c r="AB318" s="13"/>
       <c r="AC318" s="13"/>
     </row>
-    <row r="319" spans="1:29" ht="13.2">
+    <row r="319" spans="1:29" ht="12.75">
       <c r="A319" s="12"/>
       <c r="I319" s="13"/>
       <c r="J319" s="13"/>
@@ -25862,7 +25868,7 @@
       <c r="AB319" s="13"/>
       <c r="AC319" s="13"/>
     </row>
-    <row r="320" spans="1:29" ht="13.2">
+    <row r="320" spans="1:29" ht="12.75">
       <c r="A320" s="12"/>
       <c r="I320" s="13"/>
       <c r="J320" s="13"/>
@@ -25886,7 +25892,7 @@
       <c r="AB320" s="13"/>
       <c r="AC320" s="13"/>
     </row>
-    <row r="321" spans="1:29" ht="13.2">
+    <row r="321" spans="1:29" ht="12.75">
       <c r="A321" s="12"/>
       <c r="I321" s="13"/>
       <c r="J321" s="13"/>
@@ -25910,7 +25916,7 @@
       <c r="AB321" s="13"/>
       <c r="AC321" s="13"/>
     </row>
-    <row r="322" spans="1:29" ht="13.2">
+    <row r="322" spans="1:29" ht="12.75">
       <c r="A322" s="12"/>
       <c r="I322" s="13"/>
       <c r="J322" s="13"/>
@@ -25934,7 +25940,7 @@
       <c r="AB322" s="13"/>
       <c r="AC322" s="13"/>
     </row>
-    <row r="323" spans="1:29" ht="13.2">
+    <row r="323" spans="1:29" ht="12.75">
       <c r="A323" s="12"/>
       <c r="I323" s="13"/>
       <c r="J323" s="13"/>
@@ -25958,7 +25964,7 @@
       <c r="AB323" s="13"/>
       <c r="AC323" s="13"/>
     </row>
-    <row r="324" spans="1:29" ht="13.2">
+    <row r="324" spans="1:29" ht="12.75">
       <c r="A324" s="12"/>
       <c r="I324" s="13"/>
       <c r="J324" s="13"/>
@@ -25982,7 +25988,7 @@
       <c r="AB324" s="13"/>
       <c r="AC324" s="13"/>
     </row>
-    <row r="325" spans="1:29" ht="13.2">
+    <row r="325" spans="1:29" ht="12.75">
       <c r="A325" s="12"/>
       <c r="I325" s="13"/>
       <c r="J325" s="13"/>
@@ -26006,7 +26012,7 @@
       <c r="AB325" s="13"/>
       <c r="AC325" s="13"/>
     </row>
-    <row r="326" spans="1:29" ht="13.2">
+    <row r="326" spans="1:29" ht="12.75">
       <c r="A326" s="12"/>
       <c r="I326" s="13"/>
       <c r="J326" s="13"/>
@@ -26030,7 +26036,7 @@
       <c r="AB326" s="13"/>
       <c r="AC326" s="13"/>
     </row>
-    <row r="327" spans="1:29" ht="13.2">
+    <row r="327" spans="1:29" ht="12.75">
       <c r="A327" s="12"/>
       <c r="I327" s="13"/>
       <c r="J327" s="13"/>
@@ -26054,7 +26060,7 @@
       <c r="AB327" s="13"/>
       <c r="AC327" s="13"/>
     </row>
-    <row r="328" spans="1:29" ht="13.2">
+    <row r="328" spans="1:29" ht="12.75">
       <c r="A328" s="12"/>
       <c r="I328" s="13"/>
       <c r="J328" s="13"/>
@@ -26078,7 +26084,7 @@
       <c r="AB328" s="13"/>
       <c r="AC328" s="13"/>
     </row>
-    <row r="329" spans="1:29" ht="13.2">
+    <row r="329" spans="1:29" ht="12.75">
       <c r="A329" s="12"/>
       <c r="I329" s="13"/>
       <c r="J329" s="13"/>
@@ -26102,7 +26108,7 @@
       <c r="AB329" s="13"/>
       <c r="AC329" s="13"/>
     </row>
-    <row r="330" spans="1:29" ht="13.2">
+    <row r="330" spans="1:29" ht="12.75">
       <c r="A330" s="12"/>
       <c r="I330" s="13"/>
       <c r="J330" s="13"/>
@@ -26126,7 +26132,7 @@
       <c r="AB330" s="13"/>
       <c r="AC330" s="13"/>
     </row>
-    <row r="331" spans="1:29" ht="13.2">
+    <row r="331" spans="1:29" ht="12.75">
       <c r="A331" s="12"/>
       <c r="I331" s="13"/>
       <c r="J331" s="13"/>
@@ -26150,7 +26156,7 @@
       <c r="AB331" s="13"/>
       <c r="AC331" s="13"/>
     </row>
-    <row r="332" spans="1:29" ht="13.2">
+    <row r="332" spans="1:29" ht="12.75">
       <c r="A332" s="12"/>
       <c r="I332" s="13"/>
       <c r="J332" s="13"/>
@@ -26174,7 +26180,7 @@
       <c r="AB332" s="13"/>
       <c r="AC332" s="13"/>
     </row>
-    <row r="333" spans="1:29" ht="13.2">
+    <row r="333" spans="1:29" ht="12.75">
       <c r="A333" s="12"/>
       <c r="I333" s="13"/>
       <c r="J333" s="13"/>
@@ -26198,7 +26204,7 @@
       <c r="AB333" s="13"/>
       <c r="AC333" s="13"/>
     </row>
-    <row r="334" spans="1:29" ht="13.2">
+    <row r="334" spans="1:29" ht="12.75">
       <c r="A334" s="12"/>
       <c r="I334" s="13"/>
       <c r="J334" s="13"/>
@@ -26222,7 +26228,7 @@
       <c r="AB334" s="13"/>
       <c r="AC334" s="13"/>
     </row>
-    <row r="335" spans="1:29" ht="13.2">
+    <row r="335" spans="1:29" ht="12.75">
       <c r="A335" s="12"/>
       <c r="I335" s="13"/>
       <c r="J335" s="13"/>
@@ -26246,7 +26252,7 @@
       <c r="AB335" s="13"/>
       <c r="AC335" s="13"/>
     </row>
-    <row r="336" spans="1:29" ht="13.2">
+    <row r="336" spans="1:29" ht="12.75">
       <c r="A336" s="12"/>
       <c r="I336" s="13"/>
       <c r="J336" s="13"/>
@@ -26270,7 +26276,7 @@
       <c r="AB336" s="13"/>
       <c r="AC336" s="13"/>
     </row>
-    <row r="337" spans="1:29" ht="13.2">
+    <row r="337" spans="1:29" ht="12.75">
       <c r="A337" s="12"/>
       <c r="I337" s="13"/>
       <c r="J337" s="13"/>
@@ -26294,7 +26300,7 @@
       <c r="AB337" s="13"/>
       <c r="AC337" s="13"/>
     </row>
-    <row r="338" spans="1:29" ht="13.2">
+    <row r="338" spans="1:29" ht="12.75">
       <c r="A338" s="12"/>
       <c r="I338" s="13"/>
       <c r="J338" s="13"/>
@@ -26318,7 +26324,7 @@
       <c r="AB338" s="13"/>
       <c r="AC338" s="13"/>
     </row>
-    <row r="339" spans="1:29" ht="13.2">
+    <row r="339" spans="1:29" ht="12.75">
       <c r="A339" s="12"/>
       <c r="I339" s="13"/>
       <c r="J339" s="13"/>
@@ -26342,7 +26348,7 @@
       <c r="AB339" s="13"/>
       <c r="AC339" s="13"/>
     </row>
-    <row r="340" spans="1:29" ht="13.2">
+    <row r="340" spans="1:29" ht="12.75">
       <c r="A340" s="12"/>
       <c r="I340" s="13"/>
       <c r="J340" s="13"/>
@@ -26366,7 +26372,7 @@
       <c r="AB340" s="13"/>
       <c r="AC340" s="13"/>
     </row>
-    <row r="341" spans="1:29" ht="13.2">
+    <row r="341" spans="1:29" ht="12.75">
       <c r="A341" s="12"/>
       <c r="I341" s="13"/>
       <c r="J341" s="13"/>
@@ -26390,7 +26396,7 @@
       <c r="AB341" s="13"/>
       <c r="AC341" s="13"/>
     </row>
-    <row r="342" spans="1:29" ht="13.2">
+    <row r="342" spans="1:29" ht="12.75">
       <c r="A342" s="12"/>
       <c r="I342" s="13"/>
       <c r="J342" s="13"/>
@@ -26414,7 +26420,7 @@
       <c r="AB342" s="13"/>
       <c r="AC342" s="13"/>
     </row>
-    <row r="343" spans="1:29" ht="13.2">
+    <row r="343" spans="1:29" ht="12.75">
       <c r="A343" s="12"/>
       <c r="I343" s="13"/>
       <c r="J343" s="13"/>
@@ -26438,7 +26444,7 @@
       <c r="AB343" s="13"/>
       <c r="AC343" s="13"/>
     </row>
-    <row r="344" spans="1:29" ht="13.2">
+    <row r="344" spans="1:29" ht="12.75">
       <c r="A344" s="12"/>
       <c r="I344" s="13"/>
       <c r="J344" s="13"/>
@@ -26462,7 +26468,7 @@
       <c r="AB344" s="13"/>
       <c r="AC344" s="13"/>
     </row>
-    <row r="345" spans="1:29" ht="13.2">
+    <row r="345" spans="1:29" ht="12.75">
       <c r="A345" s="12"/>
       <c r="I345" s="13"/>
       <c r="J345" s="13"/>
@@ -26486,7 +26492,7 @@
       <c r="AB345" s="13"/>
       <c r="AC345" s="13"/>
     </row>
-    <row r="346" spans="1:29" ht="13.2">
+    <row r="346" spans="1:29" ht="12.75">
       <c r="A346" s="12"/>
       <c r="I346" s="13"/>
       <c r="J346" s="13"/>
@@ -26510,7 +26516,7 @@
       <c r="AB346" s="13"/>
       <c r="AC346" s="13"/>
     </row>
-    <row r="347" spans="1:29" ht="13.2">
+    <row r="347" spans="1:29" ht="12.75">
       <c r="A347" s="12"/>
       <c r="I347" s="13"/>
       <c r="J347" s="13"/>
@@ -26534,7 +26540,7 @@
       <c r="AB347" s="13"/>
       <c r="AC347" s="13"/>
     </row>
-    <row r="348" spans="1:29" ht="13.2">
+    <row r="348" spans="1:29" ht="12.75">
       <c r="A348" s="12"/>
       <c r="I348" s="13"/>
       <c r="J348" s="13"/>
@@ -26558,7 +26564,7 @@
       <c r="AB348" s="13"/>
       <c r="AC348" s="13"/>
     </row>
-    <row r="349" spans="1:29" ht="13.2">
+    <row r="349" spans="1:29" ht="12.75">
       <c r="A349" s="12"/>
       <c r="I349" s="13"/>
       <c r="J349" s="13"/>
@@ -26582,7 +26588,7 @@
       <c r="AB349" s="13"/>
       <c r="AC349" s="13"/>
     </row>
-    <row r="350" spans="1:29" ht="13.2">
+    <row r="350" spans="1:29" ht="12.75">
       <c r="A350" s="12"/>
       <c r="I350" s="13"/>
       <c r="J350" s="13"/>
@@ -26606,7 +26612,7 @@
       <c r="AB350" s="13"/>
       <c r="AC350" s="13"/>
     </row>
-    <row r="351" spans="1:29" ht="13.2">
+    <row r="351" spans="1:29" ht="12.75">
       <c r="A351" s="12"/>
       <c r="I351" s="13"/>
       <c r="J351" s="13"/>
@@ -26630,7 +26636,7 @@
       <c r="AB351" s="13"/>
       <c r="AC351" s="13"/>
     </row>
-    <row r="352" spans="1:29" ht="13.2">
+    <row r="352" spans="1:29" ht="12.75">
       <c r="A352" s="12"/>
       <c r="I352" s="13"/>
       <c r="J352" s="13"/>
@@ -26654,7 +26660,7 @@
       <c r="AB352" s="13"/>
       <c r="AC352" s="13"/>
     </row>
-    <row r="353" spans="1:29" ht="13.2">
+    <row r="353" spans="1:29" ht="12.75">
       <c r="A353" s="12"/>
       <c r="I353" s="13"/>
       <c r="J353" s="13"/>
@@ -26678,7 +26684,7 @@
       <c r="AB353" s="13"/>
       <c r="AC353" s="13"/>
     </row>
-    <row r="354" spans="1:29" ht="13.2">
+    <row r="354" spans="1:29" ht="12.75">
       <c r="A354" s="12"/>
       <c r="I354" s="13"/>
       <c r="J354" s="13"/>
@@ -26702,7 +26708,7 @@
       <c r="AB354" s="13"/>
       <c r="AC354" s="13"/>
     </row>
-    <row r="355" spans="1:29" ht="13.2">
+    <row r="355" spans="1:29" ht="12.75">
       <c r="A355" s="12"/>
       <c r="I355" s="13"/>
       <c r="J355" s="13"/>
@@ -26726,7 +26732,7 @@
       <c r="AB355" s="13"/>
       <c r="AC355" s="13"/>
     </row>
-    <row r="356" spans="1:29" ht="13.2">
+    <row r="356" spans="1:29" ht="12.75">
       <c r="A356" s="12"/>
       <c r="I356" s="13"/>
       <c r="J356" s="13"/>
@@ -26750,7 +26756,7 @@
       <c r="AB356" s="13"/>
       <c r="AC356" s="13"/>
     </row>
-    <row r="357" spans="1:29" ht="13.2">
+    <row r="357" spans="1:29" ht="12.75">
       <c r="A357" s="12"/>
       <c r="I357" s="13"/>
       <c r="J357" s="13"/>
@@ -26774,7 +26780,7 @@
       <c r="AB357" s="13"/>
       <c r="AC357" s="13"/>
     </row>
-    <row r="358" spans="1:29" ht="13.2">
+    <row r="358" spans="1:29" ht="12.75">
       <c r="A358" s="12"/>
       <c r="I358" s="13"/>
       <c r="J358" s="13"/>
@@ -26798,7 +26804,7 @@
       <c r="AB358" s="13"/>
       <c r="AC358" s="13"/>
     </row>
-    <row r="359" spans="1:29" ht="13.2">
+    <row r="359" spans="1:29" ht="12.75">
       <c r="A359" s="12"/>
       <c r="I359" s="13"/>
       <c r="J359" s="13"/>
@@ -26822,7 +26828,7 @@
       <c r="AB359" s="13"/>
       <c r="AC359" s="13"/>
     </row>
-    <row r="360" spans="1:29" ht="13.2">
+    <row r="360" spans="1:29" ht="12.75">
       <c r="A360" s="12"/>
       <c r="I360" s="13"/>
       <c r="J360" s="13"/>
@@ -26846,7 +26852,7 @@
       <c r="AB360" s="13"/>
       <c r="AC360" s="13"/>
     </row>
-    <row r="361" spans="1:29" ht="13.2">
+    <row r="361" spans="1:29" ht="12.75">
       <c r="A361" s="12"/>
       <c r="I361" s="13"/>
       <c r="J361" s="13"/>
@@ -26870,7 +26876,7 @@
       <c r="AB361" s="13"/>
       <c r="AC361" s="13"/>
     </row>
-    <row r="362" spans="1:29" ht="13.2">
+    <row r="362" spans="1:29" ht="12.75">
       <c r="A362" s="12"/>
       <c r="I362" s="13"/>
       <c r="J362" s="13"/>
@@ -26894,7 +26900,7 @@
       <c r="AB362" s="13"/>
       <c r="AC362" s="13"/>
     </row>
-    <row r="363" spans="1:29" ht="13.2">
+    <row r="363" spans="1:29" ht="12.75">
       <c r="A363" s="12"/>
       <c r="I363" s="13"/>
       <c r="J363" s="13"/>
@@ -26918,7 +26924,7 @@
       <c r="AB363" s="13"/>
       <c r="AC363" s="13"/>
     </row>
-    <row r="364" spans="1:29" ht="13.2">
+    <row r="364" spans="1:29" ht="12.75">
       <c r="A364" s="12"/>
       <c r="I364" s="13"/>
       <c r="J364" s="13"/>
@@ -26942,7 +26948,7 @@
       <c r="AB364" s="13"/>
       <c r="AC364" s="13"/>
     </row>
-    <row r="365" spans="1:29" ht="13.2">
+    <row r="365" spans="1:29" ht="12.75">
       <c r="A365" s="12"/>
       <c r="I365" s="13"/>
       <c r="J365" s="13"/>
@@ -26966,7 +26972,7 @@
       <c r="AB365" s="13"/>
       <c r="AC365" s="13"/>
     </row>
-    <row r="366" spans="1:29" ht="13.2">
+    <row r="366" spans="1:29" ht="12.75">
       <c r="A366" s="12"/>
       <c r="I366" s="13"/>
       <c r="J366" s="13"/>
@@ -26990,7 +26996,7 @@
       <c r="AB366" s="13"/>
       <c r="AC366" s="13"/>
     </row>
-    <row r="367" spans="1:29" ht="13.2">
+    <row r="367" spans="1:29" ht="12.75">
       <c r="A367" s="12"/>
       <c r="I367" s="13"/>
       <c r="J367" s="13"/>
@@ -27014,7 +27020,7 @@
       <c r="AB367" s="13"/>
       <c r="AC367" s="13"/>
     </row>
-    <row r="368" spans="1:29" ht="13.2">
+    <row r="368" spans="1:29" ht="12.75">
       <c r="A368" s="12"/>
       <c r="I368" s="13"/>
       <c r="J368" s="13"/>
@@ -27038,7 +27044,7 @@
       <c r="AB368" s="13"/>
       <c r="AC368" s="13"/>
     </row>
-    <row r="369" spans="1:29" ht="13.2">
+    <row r="369" spans="1:29" ht="12.75">
       <c r="A369" s="12"/>
       <c r="I369" s="13"/>
       <c r="J369" s="13"/>
@@ -27062,7 +27068,7 @@
       <c r="AB369" s="13"/>
       <c r="AC369" s="13"/>
     </row>
-    <row r="370" spans="1:29" ht="13.2">
+    <row r="370" spans="1:29" ht="12.75">
       <c r="A370" s="12"/>
       <c r="I370" s="13"/>
       <c r="J370" s="13"/>
@@ -27086,7 +27092,7 @@
       <c r="AB370" s="13"/>
       <c r="AC370" s="13"/>
     </row>
-    <row r="371" spans="1:29" ht="13.2">
+    <row r="371" spans="1:29" ht="12.75">
       <c r="A371" s="12"/>
       <c r="I371" s="13"/>
       <c r="J371" s="13"/>
@@ -27110,7 +27116,7 @@
       <c r="AB371" s="13"/>
       <c r="AC371" s="13"/>
     </row>
-    <row r="372" spans="1:29" ht="13.2">
+    <row r="372" spans="1:29" ht="12.75">
       <c r="A372" s="12"/>
       <c r="I372" s="13"/>
       <c r="J372" s="13"/>
@@ -27134,7 +27140,7 @@
       <c r="AB372" s="13"/>
       <c r="AC372" s="13"/>
     </row>
-    <row r="373" spans="1:29" ht="13.2">
+    <row r="373" spans="1:29" ht="12.75">
       <c r="A373" s="12"/>
       <c r="I373" s="13"/>
       <c r="J373" s="13"/>
@@ -27158,7 +27164,7 @@
       <c r="AB373" s="13"/>
       <c r="AC373" s="13"/>
     </row>
-    <row r="374" spans="1:29" ht="13.2">
+    <row r="374" spans="1:29" ht="12.75">
       <c r="A374" s="12"/>
       <c r="I374" s="13"/>
       <c r="J374" s="13"/>
@@ -27182,7 +27188,7 @@
       <c r="AB374" s="13"/>
       <c r="AC374" s="13"/>
     </row>
-    <row r="375" spans="1:29" ht="13.2">
+    <row r="375" spans="1:29" ht="12.75">
       <c r="A375" s="12"/>
       <c r="I375" s="13"/>
       <c r="J375" s="13"/>
@@ -27206,7 +27212,7 @@
       <c r="AB375" s="13"/>
       <c r="AC375" s="13"/>
     </row>
-    <row r="376" spans="1:29" ht="13.2">
+    <row r="376" spans="1:29" ht="12.75">
       <c r="A376" s="12"/>
       <c r="I376" s="13"/>
       <c r="J376" s="13"/>
@@ -27230,7 +27236,7 @@
       <c r="AB376" s="13"/>
       <c r="AC376" s="13"/>
     </row>
-    <row r="377" spans="1:29" ht="13.2">
+    <row r="377" spans="1:29" ht="12.75">
       <c r="A377" s="12"/>
       <c r="I377" s="13"/>
       <c r="J377" s="13"/>
@@ -27254,7 +27260,7 @@
       <c r="AB377" s="13"/>
       <c r="AC377" s="13"/>
     </row>
-    <row r="378" spans="1:29" ht="13.2">
+    <row r="378" spans="1:29" ht="12.75">
       <c r="A378" s="12"/>
       <c r="I378" s="13"/>
       <c r="J378" s="13"/>
@@ -27278,7 +27284,7 @@
       <c r="AB378" s="13"/>
       <c r="AC378" s="13"/>
     </row>
-    <row r="379" spans="1:29" ht="13.2">
+    <row r="379" spans="1:29" ht="12.75">
       <c r="A379" s="12"/>
       <c r="I379" s="13"/>
       <c r="J379" s="13"/>
@@ -27302,7 +27308,7 @@
       <c r="AB379" s="13"/>
       <c r="AC379" s="13"/>
     </row>
-    <row r="380" spans="1:29" ht="13.2">
+    <row r="380" spans="1:29" ht="12.75">
       <c r="A380" s="12"/>
       <c r="I380" s="13"/>
       <c r="J380" s="13"/>
@@ -27326,7 +27332,7 @@
       <c r="AB380" s="13"/>
       <c r="AC380" s="13"/>
     </row>
-    <row r="381" spans="1:29" ht="13.2">
+    <row r="381" spans="1:29" ht="12.75">
       <c r="A381" s="12"/>
       <c r="I381" s="13"/>
       <c r="J381" s="13"/>
@@ -27350,7 +27356,7 @@
       <c r="AB381" s="13"/>
       <c r="AC381" s="13"/>
     </row>
-    <row r="382" spans="1:29" ht="13.2">
+    <row r="382" spans="1:29" ht="12.75">
       <c r="A382" s="12"/>
       <c r="I382" s="13"/>
       <c r="J382" s="13"/>
@@ -27374,7 +27380,7 @@
       <c r="AB382" s="13"/>
       <c r="AC382" s="13"/>
     </row>
-    <row r="383" spans="1:29" ht="13.2">
+    <row r="383" spans="1:29" ht="12.75">
       <c r="A383" s="12"/>
       <c r="I383" s="13"/>
       <c r="J383" s="13"/>
@@ -27398,7 +27404,7 @@
       <c r="AB383" s="13"/>
       <c r="AC383" s="13"/>
     </row>
-    <row r="384" spans="1:29" ht="13.2">
+    <row r="384" spans="1:29" ht="12.75">
       <c r="A384" s="12"/>
       <c r="I384" s="13"/>
       <c r="J384" s="13"/>
@@ -27422,7 +27428,7 @@
       <c r="AB384" s="13"/>
       <c r="AC384" s="13"/>
     </row>
-    <row r="385" spans="1:29" ht="13.2">
+    <row r="385" spans="1:29" ht="12.75">
       <c r="A385" s="12"/>
       <c r="I385" s="13"/>
       <c r="J385" s="13"/>
@@ -27446,7 +27452,7 @@
       <c r="AB385" s="13"/>
       <c r="AC385" s="13"/>
     </row>
-    <row r="386" spans="1:29" ht="13.2">
+    <row r="386" spans="1:29" ht="12.75">
       <c r="A386" s="12"/>
       <c r="I386" s="13"/>
       <c r="J386" s="13"/>
@@ -27470,7 +27476,7 @@
       <c r="AB386" s="13"/>
       <c r="AC386" s="13"/>
     </row>
-    <row r="387" spans="1:29" ht="13.2">
+    <row r="387" spans="1:29" ht="12.75">
       <c r="A387" s="12"/>
       <c r="I387" s="13"/>
       <c r="J387" s="13"/>
@@ -27494,7 +27500,7 @@
       <c r="AB387" s="13"/>
       <c r="AC387" s="13"/>
     </row>
-    <row r="388" spans="1:29" ht="13.2">
+    <row r="388" spans="1:29" ht="12.75">
       <c r="A388" s="12"/>
       <c r="I388" s="13"/>
       <c r="J388" s="13"/>
@@ -27518,7 +27524,7 @@
       <c r="AB388" s="13"/>
       <c r="AC388" s="13"/>
     </row>
-    <row r="389" spans="1:29" ht="13.2">
+    <row r="389" spans="1:29" ht="12.75">
       <c r="A389" s="12"/>
       <c r="I389" s="13"/>
       <c r="J389" s="13"/>
@@ -27542,7 +27548,7 @@
       <c r="AB389" s="13"/>
       <c r="AC389" s="13"/>
     </row>
-    <row r="390" spans="1:29" ht="13.2">
+    <row r="390" spans="1:29" ht="12.75">
       <c r="A390" s="12"/>
       <c r="I390" s="13"/>
       <c r="J390" s="13"/>
@@ -27566,7 +27572,7 @@
       <c r="AB390" s="13"/>
       <c r="AC390" s="13"/>
     </row>
-    <row r="391" spans="1:29" ht="13.2">
+    <row r="391" spans="1:29" ht="12.75">
       <c r="A391" s="12"/>
       <c r="I391" s="13"/>
       <c r="J391" s="13"/>
@@ -27590,7 +27596,7 @@
       <c r="AB391" s="13"/>
       <c r="AC391" s="13"/>
     </row>
-    <row r="392" spans="1:29" ht="13.2">
+    <row r="392" spans="1:29" ht="12.75">
       <c r="A392" s="12"/>
       <c r="I392" s="13"/>
       <c r="J392" s="13"/>
@@ -27614,7 +27620,7 @@
       <c r="AB392" s="13"/>
       <c r="AC392" s="13"/>
     </row>
-    <row r="393" spans="1:29" ht="13.2">
+    <row r="393" spans="1:29" ht="12.75">
       <c r="A393" s="12"/>
       <c r="I393" s="13"/>
       <c r="J393" s="13"/>
@@ -27638,7 +27644,7 @@
       <c r="AB393" s="13"/>
       <c r="AC393" s="13"/>
     </row>
-    <row r="394" spans="1:29" ht="13.2">
+    <row r="394" spans="1:29" ht="12.75">
       <c r="A394" s="12"/>
       <c r="I394" s="13"/>
       <c r="J394" s="13"/>
@@ -27662,7 +27668,7 @@
       <c r="AB394" s="13"/>
       <c r="AC394" s="13"/>
     </row>
-    <row r="395" spans="1:29" ht="13.2">
+    <row r="395" spans="1:29" ht="12.75">
       <c r="A395" s="12"/>
       <c r="I395" s="13"/>
       <c r="J395" s="13"/>
@@ -27686,7 +27692,7 @@
       <c r="AB395" s="13"/>
       <c r="AC395" s="13"/>
     </row>
-    <row r="396" spans="1:29" ht="13.2">
+    <row r="396" spans="1:29" ht="12.75">
       <c r="A396" s="12"/>
       <c r="I396" s="13"/>
       <c r="J396" s="13"/>
@@ -27710,7 +27716,7 @@
       <c r="AB396" s="13"/>
       <c r="AC396" s="13"/>
     </row>
-    <row r="397" spans="1:29" ht="13.2">
+    <row r="397" spans="1:29" ht="12.75">
       <c r="A397" s="12"/>
       <c r="I397" s="13"/>
       <c r="J397" s="13"/>
@@ -27734,7 +27740,7 @@
       <c r="AB397" s="13"/>
       <c r="AC397" s="13"/>
     </row>
-    <row r="398" spans="1:29" ht="13.2">
+    <row r="398" spans="1:29" ht="12.75">
       <c r="A398" s="12"/>
       <c r="I398" s="13"/>
       <c r="J398" s="13"/>
@@ -27758,7 +27764,7 @@
       <c r="AB398" s="13"/>
       <c r="AC398" s="13"/>
     </row>
-    <row r="399" spans="1:29" ht="13.2">
+    <row r="399" spans="1:29" ht="12.75">
       <c r="A399" s="12"/>
       <c r="I399" s="13"/>
       <c r="J399" s="13"/>
@@ -27782,7 +27788,7 @@
       <c r="AB399" s="13"/>
       <c r="AC399" s="13"/>
     </row>
-    <row r="400" spans="1:29" ht="13.2">
+    <row r="400" spans="1:29" ht="12.75">
       <c r="A400" s="12"/>
       <c r="I400" s="13"/>
       <c r="J400" s="13"/>
@@ -27806,7 +27812,7 @@
       <c r="AB400" s="13"/>
       <c r="AC400" s="13"/>
     </row>
-    <row r="401" spans="1:29" ht="13.2">
+    <row r="401" spans="1:29" ht="12.75">
       <c r="A401" s="12"/>
       <c r="I401" s="13"/>
       <c r="J401" s="13"/>
@@ -27830,7 +27836,7 @@
       <c r="AB401" s="13"/>
       <c r="AC401" s="13"/>
     </row>
-    <row r="402" spans="1:29" ht="13.2">
+    <row r="402" spans="1:29" ht="12.75">
       <c r="A402" s="12"/>
       <c r="I402" s="13"/>
       <c r="J402" s="13"/>
@@ -27854,7 +27860,7 @@
       <c r="AB402" s="13"/>
       <c r="AC402" s="13"/>
     </row>
-    <row r="403" spans="1:29" ht="13.2">
+    <row r="403" spans="1:29" ht="12.75">
       <c r="A403" s="12"/>
       <c r="I403" s="13"/>
       <c r="J403" s="13"/>
@@ -27878,7 +27884,7 @@
       <c r="AB403" s="13"/>
       <c r="AC403" s="13"/>
     </row>
-    <row r="404" spans="1:29" ht="13.2">
+    <row r="404" spans="1:29" ht="12.75">
       <c r="A404" s="12"/>
       <c r="I404" s="13"/>
       <c r="J404" s="13"/>
@@ -27902,7 +27908,7 @@
       <c r="AB404" s="13"/>
       <c r="AC404" s="13"/>
     </row>
-    <row r="405" spans="1:29" ht="13.2">
+    <row r="405" spans="1:29" ht="12.75">
       <c r="A405" s="12"/>
       <c r="I405" s="13"/>
       <c r="J405" s="13"/>
@@ -27926,7 +27932,7 @@
       <c r="AB405" s="13"/>
       <c r="AC405" s="13"/>
     </row>
-    <row r="406" spans="1:29" ht="13.2">
+    <row r="406" spans="1:29" ht="12.75">
       <c r="A406" s="12"/>
       <c r="I406" s="13"/>
       <c r="J406" s="13"/>
@@ -27950,7 +27956,7 @@
       <c r="AB406" s="13"/>
       <c r="AC406" s="13"/>
     </row>
-    <row r="407" spans="1:29" ht="13.2">
+    <row r="407" spans="1:29" ht="12.75">
       <c r="A407" s="12"/>
       <c r="I407" s="13"/>
       <c r="J407" s="13"/>
@@ -27974,7 +27980,7 @@
       <c r="AB407" s="13"/>
       <c r="AC407" s="13"/>
     </row>
-    <row r="408" spans="1:29" ht="13.2">
+    <row r="408" spans="1:29" ht="12.75">
       <c r="A408" s="12"/>
       <c r="I408" s="13"/>
       <c r="J408" s="13"/>
@@ -27998,7 +28004,7 @@
       <c r="AB408" s="13"/>
       <c r="AC408" s="13"/>
     </row>
-    <row r="409" spans="1:29" ht="13.2">
+    <row r="409" spans="1:29" ht="12.75">
       <c r="A409" s="12"/>
       <c r="I409" s="13"/>
       <c r="J409" s="13"/>
@@ -28022,7 +28028,7 @@
       <c r="AB409" s="13"/>
       <c r="AC409" s="13"/>
     </row>
-    <row r="410" spans="1:29" ht="13.2">
+    <row r="410" spans="1:29" ht="12.75">
       <c r="A410" s="12"/>
       <c r="I410" s="13"/>
       <c r="J410" s="13"/>
@@ -28046,7 +28052,7 @@
       <c r="AB410" s="13"/>
       <c r="AC410" s="13"/>
     </row>
-    <row r="411" spans="1:29" ht="13.2">
+    <row r="411" spans="1:29" ht="12.75">
       <c r="A411" s="12"/>
       <c r="I411" s="13"/>
       <c r="J411" s="13"/>
@@ -28070,7 +28076,7 @@
       <c r="AB411" s="13"/>
       <c r="AC411" s="13"/>
     </row>
-    <row r="412" spans="1:29" ht="13.2">
+    <row r="412" spans="1:29" ht="12.75">
       <c r="A412" s="12"/>
       <c r="I412" s="13"/>
       <c r="J412" s="13"/>
@@ -28094,7 +28100,7 @@
       <c r="AB412" s="13"/>
       <c r="AC412" s="13"/>
     </row>
-    <row r="413" spans="1:29" ht="13.2">
+    <row r="413" spans="1:29" ht="12.75">
       <c r="A413" s="12"/>
       <c r="I413" s="13"/>
       <c r="J413" s="13"/>
@@ -28118,7 +28124,7 @@
       <c r="AB413" s="13"/>
       <c r="AC413" s="13"/>
     </row>
-    <row r="414" spans="1:29" ht="13.2">
+    <row r="414" spans="1:29" ht="12.75">
       <c r="A414" s="12"/>
       <c r="I414" s="13"/>
       <c r="J414" s="13"/>
@@ -28142,7 +28148,7 @@
       <c r="AB414" s="13"/>
       <c r="AC414" s="13"/>
     </row>
-    <row r="415" spans="1:29" ht="13.2">
+    <row r="415" spans="1:29" ht="12.75">
       <c r="A415" s="12"/>
       <c r="I415" s="13"/>
       <c r="J415" s="13"/>
@@ -28166,7 +28172,7 @@
       <c r="AB415" s="13"/>
       <c r="AC415" s="13"/>
     </row>
-    <row r="416" spans="1:29" ht="13.2">
+    <row r="416" spans="1:29" ht="12.75">
       <c r="A416" s="12"/>
       <c r="I416" s="13"/>
       <c r="J416" s="13"/>
@@ -28190,7 +28196,7 @@
       <c r="AB416" s="13"/>
       <c r="AC416" s="13"/>
     </row>
-    <row r="417" spans="1:29" ht="13.2">
+    <row r="417" spans="1:29" ht="12.75">
       <c r="A417" s="12"/>
       <c r="I417" s="13"/>
       <c r="J417" s="13"/>
@@ -28214,7 +28220,7 @@
       <c r="AB417" s="13"/>
       <c r="AC417" s="13"/>
     </row>
-    <row r="418" spans="1:29" ht="13.2">
+    <row r="418" spans="1:29" ht="12.75">
       <c r="A418" s="12"/>
       <c r="I418" s="13"/>
       <c r="J418" s="13"/>
@@ -28238,7 +28244,7 @@
       <c r="AB418" s="13"/>
       <c r="AC418" s="13"/>
     </row>
-    <row r="419" spans="1:29" ht="13.2">
+    <row r="419" spans="1:29" ht="12.75">
       <c r="A419" s="12"/>
       <c r="I419" s="13"/>
       <c r="J419" s="13"/>
@@ -28262,7 +28268,7 @@
       <c r="AB419" s="13"/>
       <c r="AC419" s="13"/>
     </row>
-    <row r="420" spans="1:29" ht="13.2">
+    <row r="420" spans="1:29" ht="12.75">
       <c r="A420" s="12"/>
       <c r="I420" s="13"/>
       <c r="J420" s="13"/>
@@ -28286,7 +28292,7 @@
       <c r="AB420" s="13"/>
       <c r="AC420" s="13"/>
     </row>
-    <row r="421" spans="1:29" ht="13.2">
+    <row r="421" spans="1:29" ht="12.75">
       <c r="A421" s="12"/>
       <c r="I421" s="13"/>
       <c r="J421" s="13"/>
@@ -28310,7 +28316,7 @@
       <c r="AB421" s="13"/>
       <c r="AC421" s="13"/>
     </row>
-    <row r="422" spans="1:29" ht="13.2">
+    <row r="422" spans="1:29" ht="12.75">
       <c r="A422" s="12"/>
       <c r="I422" s="13"/>
       <c r="J422" s="13"/>
@@ -28334,583 +28340,583 @@
       <c r="AB422" s="13"/>
       <c r="AC422" s="13"/>
     </row>
-    <row r="423" spans="1:29" ht="13.2"/>
-    <row r="424" spans="1:29" ht="13.2"/>
-    <row r="425" spans="1:29" ht="13.2"/>
-    <row r="426" spans="1:29" ht="13.2"/>
-    <row r="427" spans="1:29" ht="13.2"/>
-    <row r="428" spans="1:29" ht="13.2"/>
-    <row r="429" spans="1:29" ht="13.2"/>
-    <row r="430" spans="1:29" ht="13.2"/>
-    <row r="431" spans="1:29" ht="13.2"/>
-    <row r="432" spans="1:29" ht="13.2"/>
-    <row r="433" ht="13.2"/>
-    <row r="434" ht="13.2"/>
-    <row r="435" ht="13.2"/>
-    <row r="436" ht="13.2"/>
-    <row r="437" ht="13.2"/>
-    <row r="438" ht="13.2"/>
-    <row r="439" ht="13.2"/>
-    <row r="440" ht="13.2"/>
-    <row r="441" ht="13.2"/>
-    <row r="442" ht="13.2"/>
-    <row r="443" ht="13.2"/>
-    <row r="444" ht="13.2"/>
-    <row r="445" ht="13.2"/>
-    <row r="446" ht="13.2"/>
-    <row r="447" ht="13.2"/>
-    <row r="448" ht="13.2"/>
-    <row r="449" ht="13.2"/>
-    <row r="450" ht="13.2"/>
-    <row r="451" ht="13.2"/>
-    <row r="452" ht="13.2"/>
-    <row r="453" ht="13.2"/>
-    <row r="454" ht="13.2"/>
-    <row r="455" ht="13.2"/>
-    <row r="456" ht="13.2"/>
-    <row r="457" ht="13.2"/>
-    <row r="458" ht="13.2"/>
-    <row r="459" ht="13.2"/>
-    <row r="460" ht="13.2"/>
-    <row r="461" ht="13.2"/>
-    <row r="462" ht="13.2"/>
-    <row r="463" ht="13.2"/>
-    <row r="464" ht="13.2"/>
-    <row r="465" ht="13.2"/>
-    <row r="466" ht="13.2"/>
-    <row r="467" ht="13.2"/>
-    <row r="468" ht="13.2"/>
-    <row r="469" ht="13.2"/>
-    <row r="470" ht="13.2"/>
-    <row r="471" ht="13.2"/>
-    <row r="472" ht="13.2"/>
-    <row r="473" ht="13.2"/>
-    <row r="474" ht="13.2"/>
-    <row r="475" ht="13.2"/>
-    <row r="476" ht="13.2"/>
-    <row r="477" ht="13.2"/>
-    <row r="478" ht="13.2"/>
-    <row r="479" ht="13.2"/>
-    <row r="480" ht="13.2"/>
-    <row r="481" ht="13.2"/>
-    <row r="482" ht="13.2"/>
-    <row r="483" ht="13.2"/>
-    <row r="484" ht="13.2"/>
-    <row r="485" ht="13.2"/>
-    <row r="486" ht="13.2"/>
-    <row r="487" ht="13.2"/>
-    <row r="488" ht="13.2"/>
-    <row r="489" ht="13.2"/>
-    <row r="490" ht="13.2"/>
-    <row r="491" ht="13.2"/>
-    <row r="492" ht="13.2"/>
-    <row r="493" ht="13.2"/>
-    <row r="494" ht="13.2"/>
-    <row r="495" ht="13.2"/>
-    <row r="496" ht="13.2"/>
-    <row r="497" ht="13.2"/>
-    <row r="498" ht="13.2"/>
-    <row r="499" ht="13.2"/>
-    <row r="500" ht="13.2"/>
-    <row r="501" ht="13.2"/>
-    <row r="502" ht="13.2"/>
-    <row r="503" ht="13.2"/>
-    <row r="504" ht="13.2"/>
-    <row r="505" ht="13.2"/>
-    <row r="506" ht="13.2"/>
-    <row r="507" ht="13.2"/>
-    <row r="508" ht="13.2"/>
-    <row r="509" ht="13.2"/>
-    <row r="510" ht="13.2"/>
-    <row r="511" ht="13.2"/>
-    <row r="512" ht="13.2"/>
-    <row r="513" ht="13.2"/>
-    <row r="514" ht="13.2"/>
-    <row r="515" ht="13.2"/>
-    <row r="516" ht="13.2"/>
-    <row r="517" ht="13.2"/>
-    <row r="518" ht="13.2"/>
-    <row r="519" ht="13.2"/>
-    <row r="520" ht="13.2"/>
-    <row r="521" ht="13.2"/>
-    <row r="522" ht="13.2"/>
-    <row r="523" ht="13.2"/>
-    <row r="524" ht="13.2"/>
-    <row r="525" ht="13.2"/>
-    <row r="526" ht="13.2"/>
-    <row r="527" ht="13.2"/>
-    <row r="528" ht="13.2"/>
-    <row r="529" ht="13.2"/>
-    <row r="530" ht="13.2"/>
-    <row r="531" ht="13.2"/>
-    <row r="532" ht="13.2"/>
-    <row r="533" ht="13.2"/>
-    <row r="534" ht="13.2"/>
-    <row r="535" ht="13.2"/>
-    <row r="536" ht="13.2"/>
-    <row r="537" ht="13.2"/>
-    <row r="538" ht="13.2"/>
-    <row r="539" ht="13.2"/>
-    <row r="540" ht="13.2"/>
-    <row r="541" ht="13.2"/>
-    <row r="542" ht="13.2"/>
-    <row r="543" ht="13.2"/>
-    <row r="544" ht="13.2"/>
-    <row r="545" ht="13.2"/>
-    <row r="546" ht="13.2"/>
-    <row r="547" ht="13.2"/>
-    <row r="548" ht="13.2"/>
-    <row r="549" ht="13.2"/>
-    <row r="550" ht="13.2"/>
-    <row r="551" ht="13.2"/>
-    <row r="552" ht="13.2"/>
-    <row r="553" ht="13.2"/>
-    <row r="554" ht="13.2"/>
-    <row r="555" ht="13.2"/>
-    <row r="556" ht="13.2"/>
-    <row r="557" ht="13.2"/>
-    <row r="558" ht="13.2"/>
-    <row r="559" ht="13.2"/>
-    <row r="560" ht="13.2"/>
-    <row r="561" ht="13.2"/>
-    <row r="562" ht="13.2"/>
-    <row r="563" ht="13.2"/>
-    <row r="564" ht="13.2"/>
-    <row r="565" ht="13.2"/>
-    <row r="566" ht="13.2"/>
-    <row r="567" ht="13.2"/>
-    <row r="568" ht="13.2"/>
-    <row r="569" ht="13.2"/>
-    <row r="570" ht="13.2"/>
-    <row r="571" ht="13.2"/>
-    <row r="572" ht="13.2"/>
-    <row r="573" ht="13.2"/>
-    <row r="574" ht="13.2"/>
-    <row r="575" ht="13.2"/>
-    <row r="576" ht="13.2"/>
-    <row r="577" ht="13.2"/>
-    <row r="578" ht="13.2"/>
-    <row r="579" ht="13.2"/>
-    <row r="580" ht="13.2"/>
-    <row r="581" ht="13.2"/>
-    <row r="582" ht="13.2"/>
-    <row r="583" ht="13.2"/>
-    <row r="584" ht="13.2"/>
-    <row r="585" ht="13.2"/>
-    <row r="586" ht="13.2"/>
-    <row r="587" ht="13.2"/>
-    <row r="588" ht="13.2"/>
-    <row r="589" ht="13.2"/>
-    <row r="590" ht="13.2"/>
-    <row r="591" ht="13.2"/>
-    <row r="592" ht="13.2"/>
-    <row r="593" ht="13.2"/>
-    <row r="594" ht="13.2"/>
-    <row r="595" ht="13.2"/>
-    <row r="596" ht="13.2"/>
-    <row r="597" ht="13.2"/>
-    <row r="598" ht="13.2"/>
-    <row r="599" ht="13.2"/>
-    <row r="600" ht="13.2"/>
-    <row r="601" ht="13.2"/>
-    <row r="602" ht="13.2"/>
-    <row r="603" ht="13.2"/>
-    <row r="604" ht="13.2"/>
-    <row r="605" ht="13.2"/>
-    <row r="606" ht="13.2"/>
-    <row r="607" ht="13.2"/>
-    <row r="608" ht="13.2"/>
-    <row r="609" ht="13.2"/>
-    <row r="610" ht="13.2"/>
-    <row r="611" ht="13.2"/>
-    <row r="612" ht="13.2"/>
-    <row r="613" ht="13.2"/>
-    <row r="614" ht="13.2"/>
-    <row r="615" ht="13.2"/>
-    <row r="616" ht="13.2"/>
-    <row r="617" ht="13.2"/>
-    <row r="618" ht="13.2"/>
-    <row r="619" ht="13.2"/>
-    <row r="620" ht="13.2"/>
-    <row r="621" ht="13.2"/>
-    <row r="622" ht="13.2"/>
-    <row r="623" ht="13.2"/>
-    <row r="624" ht="13.2"/>
-    <row r="625" ht="13.2"/>
-    <row r="626" ht="13.2"/>
-    <row r="627" ht="13.2"/>
-    <row r="628" ht="13.2"/>
-    <row r="629" ht="13.2"/>
-    <row r="630" ht="13.2"/>
-    <row r="631" ht="13.2"/>
-    <row r="632" ht="13.2"/>
-    <row r="633" ht="13.2"/>
-    <row r="634" ht="13.2"/>
-    <row r="635" ht="13.2"/>
-    <row r="636" ht="13.2"/>
-    <row r="637" ht="13.2"/>
-    <row r="638" ht="13.2"/>
-    <row r="639" ht="13.2"/>
-    <row r="640" ht="13.2"/>
-    <row r="641" ht="13.2"/>
-    <row r="642" ht="13.2"/>
-    <row r="643" ht="13.2"/>
-    <row r="644" ht="13.2"/>
-    <row r="645" ht="13.2"/>
-    <row r="646" ht="13.2"/>
-    <row r="647" ht="13.2"/>
-    <row r="648" ht="13.2"/>
-    <row r="649" ht="13.2"/>
-    <row r="650" ht="13.2"/>
-    <row r="651" ht="13.2"/>
-    <row r="652" ht="13.2"/>
-    <row r="653" ht="13.2"/>
-    <row r="654" ht="13.2"/>
-    <row r="655" ht="13.2"/>
-    <row r="656" ht="13.2"/>
-    <row r="657" ht="13.2"/>
-    <row r="658" ht="13.2"/>
-    <row r="659" ht="13.2"/>
-    <row r="660" ht="13.2"/>
-    <row r="661" ht="13.2"/>
-    <row r="662" ht="13.2"/>
-    <row r="663" ht="13.2"/>
-    <row r="664" ht="13.2"/>
-    <row r="665" ht="13.2"/>
-    <row r="666" ht="13.2"/>
-    <row r="667" ht="13.2"/>
-    <row r="668" ht="13.2"/>
-    <row r="669" ht="13.2"/>
-    <row r="670" ht="13.2"/>
-    <row r="671" ht="13.2"/>
-    <row r="672" ht="13.2"/>
-    <row r="673" ht="13.2"/>
-    <row r="674" ht="13.2"/>
-    <row r="675" ht="13.2"/>
-    <row r="676" ht="13.2"/>
-    <row r="677" ht="13.2"/>
-    <row r="678" ht="13.2"/>
-    <row r="679" ht="13.2"/>
-    <row r="680" ht="13.2"/>
-    <row r="681" ht="13.2"/>
-    <row r="682" ht="13.2"/>
-    <row r="683" ht="13.2"/>
-    <row r="684" ht="13.2"/>
-    <row r="685" ht="13.2"/>
-    <row r="686" ht="13.2"/>
-    <row r="687" ht="13.2"/>
-    <row r="688" ht="13.2"/>
-    <row r="689" ht="13.2"/>
-    <row r="690" ht="13.2"/>
-    <row r="691" ht="13.2"/>
-    <row r="692" ht="13.2"/>
-    <row r="693" ht="13.2"/>
-    <row r="694" ht="13.2"/>
-    <row r="695" ht="13.2"/>
-    <row r="696" ht="13.2"/>
-    <row r="697" ht="13.2"/>
-    <row r="698" ht="13.2"/>
-    <row r="699" ht="13.2"/>
-    <row r="700" ht="13.2"/>
-    <row r="701" ht="13.2"/>
-    <row r="702" ht="13.2"/>
-    <row r="703" ht="13.2"/>
-    <row r="704" ht="13.2"/>
-    <row r="705" ht="13.2"/>
-    <row r="706" ht="13.2"/>
-    <row r="707" ht="13.2"/>
-    <row r="708" ht="13.2"/>
-    <row r="709" ht="13.2"/>
-    <row r="710" ht="13.2"/>
-    <row r="711" ht="13.2"/>
-    <row r="712" ht="13.2"/>
-    <row r="713" ht="13.2"/>
-    <row r="714" ht="13.2"/>
-    <row r="715" ht="13.2"/>
-    <row r="716" ht="13.2"/>
-    <row r="717" ht="13.2"/>
-    <row r="718" ht="13.2"/>
-    <row r="719" ht="13.2"/>
-    <row r="720" ht="13.2"/>
-    <row r="721" ht="13.2"/>
-    <row r="722" ht="13.2"/>
-    <row r="723" ht="13.2"/>
-    <row r="724" ht="13.2"/>
-    <row r="725" ht="13.2"/>
-    <row r="726" ht="13.2"/>
-    <row r="727" ht="13.2"/>
-    <row r="728" ht="13.2"/>
-    <row r="729" ht="13.2"/>
-    <row r="730" ht="13.2"/>
-    <row r="731" ht="13.2"/>
-    <row r="732" ht="13.2"/>
-    <row r="733" ht="13.2"/>
-    <row r="734" ht="13.2"/>
-    <row r="735" ht="13.2"/>
-    <row r="736" ht="13.2"/>
-    <row r="737" ht="13.2"/>
-    <row r="738" ht="13.2"/>
-    <row r="739" ht="13.2"/>
-    <row r="740" ht="13.2"/>
-    <row r="741" ht="13.2"/>
-    <row r="742" ht="13.2"/>
-    <row r="743" ht="13.2"/>
-    <row r="744" ht="13.2"/>
-    <row r="745" ht="13.2"/>
-    <row r="746" ht="13.2"/>
-    <row r="747" ht="13.2"/>
-    <row r="748" ht="13.2"/>
-    <row r="749" ht="13.2"/>
-    <row r="750" ht="13.2"/>
-    <row r="751" ht="13.2"/>
-    <row r="752" ht="13.2"/>
-    <row r="753" ht="13.2"/>
-    <row r="754" ht="13.2"/>
-    <row r="755" ht="13.2"/>
-    <row r="756" ht="13.2"/>
-    <row r="757" ht="13.2"/>
-    <row r="758" ht="13.2"/>
-    <row r="759" ht="13.2"/>
-    <row r="760" ht="13.2"/>
-    <row r="761" ht="13.2"/>
-    <row r="762" ht="13.2"/>
-    <row r="763" ht="13.2"/>
-    <row r="764" ht="13.2"/>
-    <row r="765" ht="13.2"/>
-    <row r="766" ht="13.2"/>
-    <row r="767" ht="13.2"/>
-    <row r="768" ht="13.2"/>
-    <row r="769" ht="13.2"/>
-    <row r="770" ht="13.2"/>
-    <row r="771" ht="13.2"/>
-    <row r="772" ht="13.2"/>
-    <row r="773" ht="13.2"/>
-    <row r="774" ht="13.2"/>
-    <row r="775" ht="13.2"/>
-    <row r="776" ht="13.2"/>
-    <row r="777" ht="13.2"/>
-    <row r="778" ht="13.2"/>
-    <row r="779" ht="13.2"/>
-    <row r="780" ht="13.2"/>
-    <row r="781" ht="13.2"/>
-    <row r="782" ht="13.2"/>
-    <row r="783" ht="13.2"/>
-    <row r="784" ht="13.2"/>
-    <row r="785" ht="13.2"/>
-    <row r="786" ht="13.2"/>
-    <row r="787" ht="13.2"/>
-    <row r="788" ht="13.2"/>
-    <row r="789" ht="13.2"/>
-    <row r="790" ht="13.2"/>
-    <row r="791" ht="13.2"/>
-    <row r="792" ht="13.2"/>
-    <row r="793" ht="13.2"/>
-    <row r="794" ht="13.2"/>
-    <row r="795" ht="13.2"/>
-    <row r="796" ht="13.2"/>
-    <row r="797" ht="13.2"/>
-    <row r="798" ht="13.2"/>
-    <row r="799" ht="13.2"/>
-    <row r="800" ht="13.2"/>
-    <row r="801" ht="13.2"/>
-    <row r="802" ht="13.2"/>
-    <row r="803" ht="13.2"/>
-    <row r="804" ht="13.2"/>
-    <row r="805" ht="13.2"/>
-    <row r="806" ht="13.2"/>
-    <row r="807" ht="13.2"/>
-    <row r="808" ht="13.2"/>
-    <row r="809" ht="13.2"/>
-    <row r="810" ht="13.2"/>
-    <row r="811" ht="13.2"/>
-    <row r="812" ht="13.2"/>
-    <row r="813" ht="13.2"/>
-    <row r="814" ht="13.2"/>
-    <row r="815" ht="13.2"/>
-    <row r="816" ht="13.2"/>
-    <row r="817" ht="13.2"/>
-    <row r="818" ht="13.2"/>
-    <row r="819" ht="13.2"/>
-    <row r="820" ht="13.2"/>
-    <row r="821" ht="13.2"/>
-    <row r="822" ht="13.2"/>
-    <row r="823" ht="13.2"/>
-    <row r="824" ht="13.2"/>
-    <row r="825" ht="13.2"/>
-    <row r="826" ht="13.2"/>
-    <row r="827" ht="13.2"/>
-    <row r="828" ht="13.2"/>
-    <row r="829" ht="13.2"/>
-    <row r="830" ht="13.2"/>
-    <row r="831" ht="13.2"/>
-    <row r="832" ht="13.2"/>
-    <row r="833" ht="13.2"/>
-    <row r="834" ht="13.2"/>
-    <row r="835" ht="13.2"/>
-    <row r="836" ht="13.2"/>
-    <row r="837" ht="13.2"/>
-    <row r="838" ht="13.2"/>
-    <row r="839" ht="13.2"/>
-    <row r="840" ht="13.2"/>
-    <row r="841" ht="13.2"/>
-    <row r="842" ht="13.2"/>
-    <row r="843" ht="13.2"/>
-    <row r="844" ht="13.2"/>
-    <row r="845" ht="13.2"/>
-    <row r="846" ht="13.2"/>
-    <row r="847" ht="13.2"/>
-    <row r="848" ht="13.2"/>
-    <row r="849" ht="13.2"/>
-    <row r="850" ht="13.2"/>
-    <row r="851" ht="13.2"/>
-    <row r="852" ht="13.2"/>
-    <row r="853" ht="13.2"/>
-    <row r="854" ht="13.2"/>
-    <row r="855" ht="13.2"/>
-    <row r="856" ht="13.2"/>
-    <row r="857" ht="13.2"/>
-    <row r="858" ht="13.2"/>
-    <row r="859" ht="13.2"/>
-    <row r="860" ht="13.2"/>
-    <row r="861" ht="13.2"/>
-    <row r="862" ht="13.2"/>
-    <row r="863" ht="13.2"/>
-    <row r="864" ht="13.2"/>
-    <row r="865" ht="13.2"/>
-    <row r="866" ht="13.2"/>
-    <row r="867" ht="13.2"/>
-    <row r="868" ht="13.2"/>
-    <row r="869" ht="13.2"/>
-    <row r="870" ht="13.2"/>
-    <row r="871" ht="13.2"/>
-    <row r="872" ht="13.2"/>
-    <row r="873" ht="13.2"/>
-    <row r="874" ht="13.2"/>
-    <row r="875" ht="13.2"/>
-    <row r="876" ht="13.2"/>
-    <row r="877" ht="13.2"/>
-    <row r="878" ht="13.2"/>
-    <row r="879" ht="13.2"/>
-    <row r="880" ht="13.2"/>
-    <row r="881" ht="13.2"/>
-    <row r="882" ht="13.2"/>
-    <row r="883" ht="13.2"/>
-    <row r="884" ht="13.2"/>
-    <row r="885" ht="13.2"/>
-    <row r="886" ht="13.2"/>
-    <row r="887" ht="13.2"/>
-    <row r="888" ht="13.2"/>
-    <row r="889" ht="13.2"/>
-    <row r="890" ht="13.2"/>
-    <row r="891" ht="13.2"/>
-    <row r="892" ht="13.2"/>
-    <row r="893" ht="13.2"/>
-    <row r="894" ht="13.2"/>
-    <row r="895" ht="13.2"/>
-    <row r="896" ht="13.2"/>
-    <row r="897" ht="13.2"/>
-    <row r="898" ht="13.2"/>
-    <row r="899" ht="13.2"/>
-    <row r="900" ht="13.2"/>
-    <row r="901" ht="13.2"/>
-    <row r="902" ht="13.2"/>
-    <row r="903" ht="13.2"/>
-    <row r="904" ht="13.2"/>
-    <row r="905" ht="13.2"/>
-    <row r="906" ht="13.2"/>
-    <row r="907" ht="13.2"/>
-    <row r="908" ht="13.2"/>
-    <row r="909" ht="13.2"/>
-    <row r="910" ht="13.2"/>
-    <row r="911" ht="13.2"/>
-    <row r="912" ht="13.2"/>
-    <row r="913" ht="13.2"/>
-    <row r="914" ht="13.2"/>
-    <row r="915" ht="13.2"/>
-    <row r="916" ht="13.2"/>
-    <row r="917" ht="13.2"/>
-    <row r="918" ht="13.2"/>
-    <row r="919" ht="13.2"/>
-    <row r="920" ht="13.2"/>
-    <row r="921" ht="13.2"/>
-    <row r="922" ht="13.2"/>
-    <row r="923" ht="13.2"/>
-    <row r="924" ht="13.2"/>
-    <row r="925" ht="13.2"/>
-    <row r="926" ht="13.2"/>
-    <row r="927" ht="13.2"/>
-    <row r="928" ht="13.2"/>
-    <row r="929" ht="13.2"/>
-    <row r="930" ht="13.2"/>
-    <row r="931" ht="13.2"/>
-    <row r="932" ht="13.2"/>
-    <row r="933" ht="13.2"/>
-    <row r="934" ht="13.2"/>
-    <row r="935" ht="13.2"/>
-    <row r="936" ht="13.2"/>
-    <row r="937" ht="13.2"/>
-    <row r="938" ht="13.2"/>
-    <row r="939" ht="13.2"/>
-    <row r="940" ht="13.2"/>
-    <row r="941" ht="13.2"/>
-    <row r="942" ht="13.2"/>
-    <row r="943" ht="13.2"/>
-    <row r="944" ht="13.2"/>
-    <row r="945" ht="13.2"/>
-    <row r="946" ht="13.2"/>
-    <row r="947" ht="13.2"/>
-    <row r="948" ht="13.2"/>
-    <row r="949" ht="13.2"/>
-    <row r="950" ht="13.2"/>
-    <row r="951" ht="13.2"/>
-    <row r="952" ht="13.2"/>
-    <row r="953" ht="13.2"/>
-    <row r="954" ht="13.2"/>
-    <row r="955" ht="13.2"/>
-    <row r="956" ht="13.2"/>
-    <row r="957" ht="13.2"/>
-    <row r="958" ht="13.2"/>
-    <row r="959" ht="13.2"/>
-    <row r="960" ht="13.2"/>
-    <row r="961" ht="13.2"/>
-    <row r="962" ht="13.2"/>
-    <row r="963" ht="13.2"/>
-    <row r="964" ht="13.2"/>
-    <row r="965" ht="13.2"/>
-    <row r="966" ht="13.2"/>
-    <row r="967" ht="13.2"/>
-    <row r="968" ht="13.2"/>
-    <row r="969" ht="13.2"/>
-    <row r="970" ht="13.2"/>
-    <row r="971" ht="13.2"/>
-    <row r="972" ht="13.2"/>
-    <row r="973" ht="13.2"/>
-    <row r="974" ht="13.2"/>
-    <row r="975" ht="13.2"/>
-    <row r="976" ht="13.2"/>
-    <row r="977" ht="13.2"/>
-    <row r="978" ht="13.2"/>
-    <row r="979" ht="13.2"/>
-    <row r="980" ht="13.2"/>
-    <row r="981" ht="13.2"/>
-    <row r="982" ht="13.2"/>
-    <row r="983" ht="13.2"/>
-    <row r="984" ht="13.2"/>
-    <row r="985" ht="13.2"/>
-    <row r="986" ht="13.2"/>
-    <row r="987" ht="13.2"/>
-    <row r="988" ht="13.2"/>
-    <row r="989" ht="13.2"/>
-    <row r="990" ht="13.2"/>
-    <row r="991" ht="13.2"/>
-    <row r="992" ht="13.2"/>
-    <row r="993" ht="13.2"/>
-    <row r="994" ht="13.2"/>
-    <row r="995" ht="13.2"/>
-    <row r="996" ht="13.2"/>
-    <row r="997" ht="13.2"/>
-    <row r="998" ht="13.2"/>
-    <row r="999" ht="13.2"/>
+    <row r="423" spans="1:29" ht="12.75"/>
+    <row r="424" spans="1:29" ht="12.75"/>
+    <row r="425" spans="1:29" ht="12.75"/>
+    <row r="426" spans="1:29" ht="12.75"/>
+    <row r="427" spans="1:29" ht="12.75"/>
+    <row r="428" spans="1:29" ht="12.75"/>
+    <row r="429" spans="1:29" ht="12.75"/>
+    <row r="430" spans="1:29" ht="12.75"/>
+    <row r="431" spans="1:29" ht="12.75"/>
+    <row r="432" spans="1:29" ht="12.75"/>
+    <row r="433" ht="12.75"/>
+    <row r="434" ht="12.75"/>
+    <row r="435" ht="12.75"/>
+    <row r="436" ht="12.75"/>
+    <row r="437" ht="12.75"/>
+    <row r="438" ht="12.75"/>
+    <row r="439" ht="12.75"/>
+    <row r="440" ht="12.75"/>
+    <row r="441" ht="12.75"/>
+    <row r="442" ht="12.75"/>
+    <row r="443" ht="12.75"/>
+    <row r="444" ht="12.75"/>
+    <row r="445" ht="12.75"/>
+    <row r="446" ht="12.75"/>
+    <row r="447" ht="12.75"/>
+    <row r="448" ht="12.75"/>
+    <row r="449" ht="12.75"/>
+    <row r="450" ht="12.75"/>
+    <row r="451" ht="12.75"/>
+    <row r="452" ht="12.75"/>
+    <row r="453" ht="12.75"/>
+    <row r="454" ht="12.75"/>
+    <row r="455" ht="12.75"/>
+    <row r="456" ht="12.75"/>
+    <row r="457" ht="12.75"/>
+    <row r="458" ht="12.75"/>
+    <row r="459" ht="12.75"/>
+    <row r="460" ht="12.75"/>
+    <row r="461" ht="12.75"/>
+    <row r="462" ht="12.75"/>
+    <row r="463" ht="12.75"/>
+    <row r="464" ht="12.75"/>
+    <row r="465" ht="12.75"/>
+    <row r="466" ht="12.75"/>
+    <row r="467" ht="12.75"/>
+    <row r="468" ht="12.75"/>
+    <row r="469" ht="12.75"/>
+    <row r="470" ht="12.75"/>
+    <row r="471" ht="12.75"/>
+    <row r="472" ht="12.75"/>
+    <row r="473" ht="12.75"/>
+    <row r="474" ht="12.75"/>
+    <row r="475" ht="12.75"/>
+    <row r="476" ht="12.75"/>
+    <row r="477" ht="12.75"/>
+    <row r="478" ht="12.75"/>
+    <row r="479" ht="12.75"/>
+    <row r="480" ht="12.75"/>
+    <row r="481" ht="12.75"/>
+    <row r="482" ht="12.75"/>
+    <row r="483" ht="12.75"/>
+    <row r="484" ht="12.75"/>
+    <row r="485" ht="12.75"/>
+    <row r="486" ht="12.75"/>
+    <row r="487" ht="12.75"/>
+    <row r="488" ht="12.75"/>
+    <row r="489" ht="12.75"/>
+    <row r="490" ht="12.75"/>
+    <row r="491" ht="12.75"/>
+    <row r="492" ht="12.75"/>
+    <row r="493" ht="12.75"/>
+    <row r="494" ht="12.75"/>
+    <row r="495" ht="12.75"/>
+    <row r="496" ht="12.75"/>
+    <row r="497" ht="12.75"/>
+    <row r="498" ht="12.75"/>
+    <row r="499" ht="12.75"/>
+    <row r="500" ht="12.75"/>
+    <row r="501" ht="12.75"/>
+    <row r="502" ht="12.75"/>
+    <row r="503" ht="12.75"/>
+    <row r="504" ht="12.75"/>
+    <row r="505" ht="12.75"/>
+    <row r="506" ht="12.75"/>
+    <row r="507" ht="12.75"/>
+    <row r="508" ht="12.75"/>
+    <row r="509" ht="12.75"/>
+    <row r="510" ht="12.75"/>
+    <row r="511" ht="12.75"/>
+    <row r="512" ht="12.75"/>
+    <row r="513" ht="12.75"/>
+    <row r="514" ht="12.75"/>
+    <row r="515" ht="12.75"/>
+    <row r="516" ht="12.75"/>
+    <row r="517" ht="12.75"/>
+    <row r="518" ht="12.75"/>
+    <row r="519" ht="12.75"/>
+    <row r="520" ht="12.75"/>
+    <row r="521" ht="12.75"/>
+    <row r="522" ht="12.75"/>
+    <row r="523" ht="12.75"/>
+    <row r="524" ht="12.75"/>
+    <row r="525" ht="12.75"/>
+    <row r="526" ht="12.75"/>
+    <row r="527" ht="12.75"/>
+    <row r="528" ht="12.75"/>
+    <row r="529" ht="12.75"/>
+    <row r="530" ht="12.75"/>
+    <row r="531" ht="12.75"/>
+    <row r="532" ht="12.75"/>
+    <row r="533" ht="12.75"/>
+    <row r="534" ht="12.75"/>
+    <row r="535" ht="12.75"/>
+    <row r="536" ht="12.75"/>
+    <row r="537" ht="12.75"/>
+    <row r="538" ht="12.75"/>
+    <row r="539" ht="12.75"/>
+    <row r="540" ht="12.75"/>
+    <row r="541" ht="12.75"/>
+    <row r="542" ht="12.75"/>
+    <row r="543" ht="12.75"/>
+    <row r="544" ht="12.75"/>
+    <row r="545" ht="12.75"/>
+    <row r="546" ht="12.75"/>
+    <row r="547" ht="12.75"/>
+    <row r="548" ht="12.75"/>
+    <row r="549" ht="12.75"/>
+    <row r="550" ht="12.75"/>
+    <row r="551" ht="12.75"/>
+    <row r="552" ht="12.75"/>
+    <row r="553" ht="12.75"/>
+    <row r="554" ht="12.75"/>
+    <row r="555" ht="12.75"/>
+    <row r="556" ht="12.75"/>
+    <row r="557" ht="12.75"/>
+    <row r="558" ht="12.75"/>
+    <row r="559" ht="12.75"/>
+    <row r="560" ht="12.75"/>
+    <row r="561" ht="12.75"/>
+    <row r="562" ht="12.75"/>
+    <row r="563" ht="12.75"/>
+    <row r="564" ht="12.75"/>
+    <row r="565" ht="12.75"/>
+    <row r="566" ht="12.75"/>
+    <row r="567" ht="12.75"/>
+    <row r="568" ht="12.75"/>
+    <row r="569" ht="12.75"/>
+    <row r="570" ht="12.75"/>
+    <row r="571" ht="12.75"/>
+    <row r="572" ht="12.75"/>
+    <row r="573" ht="12.75"/>
+    <row r="574" ht="12.75"/>
+    <row r="575" ht="12.75"/>
+    <row r="576" ht="12.75"/>
+    <row r="577" ht="12.75"/>
+    <row r="578" ht="12.75"/>
+    <row r="579" ht="12.75"/>
+    <row r="580" ht="12.75"/>
+    <row r="581" ht="12.75"/>
+    <row r="582" ht="12.75"/>
+    <row r="583" ht="12.75"/>
+    <row r="584" ht="12.75"/>
+    <row r="585" ht="12.75"/>
+    <row r="586" ht="12.75"/>
+    <row r="587" ht="12.75"/>
+    <row r="588" ht="12.75"/>
+    <row r="589" ht="12.75"/>
+    <row r="590" ht="12.75"/>
+    <row r="591" ht="12.75"/>
+    <row r="592" ht="12.75"/>
+    <row r="593" ht="12.75"/>
+    <row r="594" ht="12.75"/>
+    <row r="595" ht="12.75"/>
+    <row r="596" ht="12.75"/>
+    <row r="597" ht="12.75"/>
+    <row r="598" ht="12.75"/>
+    <row r="599" ht="12.75"/>
+    <row r="600" ht="12.75"/>
+    <row r="601" ht="12.75"/>
+    <row r="602" ht="12.75"/>
+    <row r="603" ht="12.75"/>
+    <row r="604" ht="12.75"/>
+    <row r="605" ht="12.75"/>
+    <row r="606" ht="12.75"/>
+    <row r="607" ht="12.75"/>
+    <row r="608" ht="12.75"/>
+    <row r="609" ht="12.75"/>
+    <row r="610" ht="12.75"/>
+    <row r="611" ht="12.75"/>
+    <row r="612" ht="12.75"/>
+    <row r="613" ht="12.75"/>
+    <row r="614" ht="12.75"/>
+    <row r="615" ht="12.75"/>
+    <row r="616" ht="12.75"/>
+    <row r="617" ht="12.75"/>
+    <row r="618" ht="12.75"/>
+    <row r="619" ht="12.75"/>
+    <row r="620" ht="12.75"/>
+    <row r="621" ht="12.75"/>
+    <row r="622" ht="12.75"/>
+    <row r="623" ht="12.75"/>
+    <row r="624" ht="12.75"/>
+    <row r="625" ht="12.75"/>
+    <row r="626" ht="12.75"/>
+    <row r="627" ht="12.75"/>
+    <row r="628" ht="12.75"/>
+    <row r="629" ht="12.75"/>
+    <row r="630" ht="12.75"/>
+    <row r="631" ht="12.75"/>
+    <row r="632" ht="12.75"/>
+    <row r="633" ht="12.75"/>
+    <row r="634" ht="12.75"/>
+    <row r="635" ht="12.75"/>
+    <row r="636" ht="12.75"/>
+    <row r="637" ht="12.75"/>
+    <row r="638" ht="12.75"/>
+    <row r="639" ht="12.75"/>
+    <row r="640" ht="12.75"/>
+    <row r="641" ht="12.75"/>
+    <row r="642" ht="12.75"/>
+    <row r="643" ht="12.75"/>
+    <row r="644" ht="12.75"/>
+    <row r="645" ht="12.75"/>
+    <row r="646" ht="12.75"/>
+    <row r="647" ht="12.75"/>
+    <row r="648" ht="12.75"/>
+    <row r="649" ht="12.75"/>
+    <row r="650" ht="12.75"/>
+    <row r="651" ht="12.75"/>
+    <row r="652" ht="12.75"/>
+    <row r="653" ht="12.75"/>
+    <row r="654" ht="12.75"/>
+    <row r="655" ht="12.75"/>
+    <row r="656" ht="12.75"/>
+    <row r="657" ht="12.75"/>
+    <row r="658" ht="12.75"/>
+    <row r="659" ht="12.75"/>
+    <row r="660" ht="12.75"/>
+    <row r="661" ht="12.75"/>
+    <row r="662" ht="12.75"/>
+    <row r="663" ht="12.75"/>
+    <row r="664" ht="12.75"/>
+    <row r="665" ht="12.75"/>
+    <row r="666" ht="12.75"/>
+    <row r="667" ht="12.75"/>
+    <row r="668" ht="12.75"/>
+    <row r="669" ht="12.75"/>
+    <row r="670" ht="12.75"/>
+    <row r="671" ht="12.75"/>
+    <row r="672" ht="12.75"/>
+    <row r="673" ht="12.75"/>
+    <row r="674" ht="12.75"/>
+    <row r="675" ht="12.75"/>
+    <row r="676" ht="12.75"/>
+    <row r="677" ht="12.75"/>
+    <row r="678" ht="12.75"/>
+    <row r="679" ht="12.75"/>
+    <row r="680" ht="12.75"/>
+    <row r="681" ht="12.75"/>
+    <row r="682" ht="12.75"/>
+    <row r="683" ht="12.75"/>
+    <row r="684" ht="12.75"/>
+    <row r="685" ht="12.75"/>
+    <row r="686" ht="12.75"/>
+    <row r="687" ht="12.75"/>
+    <row r="688" ht="12.75"/>
+    <row r="689" ht="12.75"/>
+    <row r="690" ht="12.75"/>
+    <row r="691" ht="12.75"/>
+    <row r="692" ht="12.75"/>
+    <row r="693" ht="12.75"/>
+    <row r="694" ht="12.75"/>
+    <row r="695" ht="12.75"/>
+    <row r="696" ht="12.75"/>
+    <row r="697" ht="12.75"/>
+    <row r="698" ht="12.75"/>
+    <row r="699" ht="12.75"/>
+    <row r="700" ht="12.75"/>
+    <row r="701" ht="12.75"/>
+    <row r="702" ht="12.75"/>
+    <row r="703" ht="12.75"/>
+    <row r="704" ht="12.75"/>
+    <row r="705" ht="12.75"/>
+    <row r="706" ht="12.75"/>
+    <row r="707" ht="12.75"/>
+    <row r="708" ht="12.75"/>
+    <row r="709" ht="12.75"/>
+    <row r="710" ht="12.75"/>
+    <row r="711" ht="12.75"/>
+    <row r="712" ht="12.75"/>
+    <row r="713" ht="12.75"/>
+    <row r="714" ht="12.75"/>
+    <row r="715" ht="12.75"/>
+    <row r="716" ht="12.75"/>
+    <row r="717" ht="12.75"/>
+    <row r="718" ht="12.75"/>
+    <row r="719" ht="12.75"/>
+    <row r="720" ht="12.75"/>
+    <row r="721" ht="12.75"/>
+    <row r="722" ht="12.75"/>
+    <row r="723" ht="12.75"/>
+    <row r="724" ht="12.75"/>
+    <row r="725" ht="12.75"/>
+    <row r="726" ht="12.75"/>
+    <row r="727" ht="12.75"/>
+    <row r="728" ht="12.75"/>
+    <row r="729" ht="12.75"/>
+    <row r="730" ht="12.75"/>
+    <row r="731" ht="12.75"/>
+    <row r="732" ht="12.75"/>
+    <row r="733" ht="12.75"/>
+    <row r="734" ht="12.75"/>
+    <row r="735" ht="12.75"/>
+    <row r="736" ht="12.75"/>
+    <row r="737" ht="12.75"/>
+    <row r="738" ht="12.75"/>
+    <row r="739" ht="12.75"/>
+    <row r="740" ht="12.75"/>
+    <row r="741" ht="12.75"/>
+    <row r="742" ht="12.75"/>
+    <row r="743" ht="12.75"/>
+    <row r="744" ht="12.75"/>
+    <row r="745" ht="12.75"/>
+    <row r="746" ht="12.75"/>
+    <row r="747" ht="12.75"/>
+    <row r="748" ht="12.75"/>
+    <row r="749" ht="12.75"/>
+    <row r="750" ht="12.75"/>
+    <row r="751" ht="12.75"/>
+    <row r="752" ht="12.75"/>
+    <row r="753" ht="12.75"/>
+    <row r="754" ht="12.75"/>
+    <row r="755" ht="12.75"/>
+    <row r="756" ht="12.75"/>
+    <row r="757" ht="12.75"/>
+    <row r="758" ht="12.75"/>
+    <row r="759" ht="12.75"/>
+    <row r="760" ht="12.75"/>
+    <row r="761" ht="12.75"/>
+    <row r="762" ht="12.75"/>
+    <row r="763" ht="12.75"/>
+    <row r="764" ht="12.75"/>
+    <row r="765" ht="12.75"/>
+    <row r="766" ht="12.75"/>
+    <row r="767" ht="12.75"/>
+    <row r="768" ht="12.75"/>
+    <row r="769" ht="12.75"/>
+    <row r="770" ht="12.75"/>
+    <row r="771" ht="12.75"/>
+    <row r="772" ht="12.75"/>
+    <row r="773" ht="12.75"/>
+    <row r="774" ht="12.75"/>
+    <row r="775" ht="12.75"/>
+    <row r="776" ht="12.75"/>
+    <row r="777" ht="12.75"/>
+    <row r="778" ht="12.75"/>
+    <row r="779" ht="12.75"/>
+    <row r="780" ht="12.75"/>
+    <row r="781" ht="12.75"/>
+    <row r="782" ht="12.75"/>
+    <row r="783" ht="12.75"/>
+    <row r="784" ht="12.75"/>
+    <row r="785" ht="12.75"/>
+    <row r="786" ht="12.75"/>
+    <row r="787" ht="12.75"/>
+    <row r="788" ht="12.75"/>
+    <row r="789" ht="12.75"/>
+    <row r="790" ht="12.75"/>
+    <row r="791" ht="12.75"/>
+    <row r="792" ht="12.75"/>
+    <row r="793" ht="12.75"/>
+    <row r="794" ht="12.75"/>
+    <row r="795" ht="12.75"/>
+    <row r="796" ht="12.75"/>
+    <row r="797" ht="12.75"/>
+    <row r="798" ht="12.75"/>
+    <row r="799" ht="12.75"/>
+    <row r="800" ht="12.75"/>
+    <row r="801" ht="12.75"/>
+    <row r="802" ht="12.75"/>
+    <row r="803" ht="12.75"/>
+    <row r="804" ht="12.75"/>
+    <row r="805" ht="12.75"/>
+    <row r="806" ht="12.75"/>
+    <row r="807" ht="12.75"/>
+    <row r="808" ht="12.75"/>
+    <row r="809" ht="12.75"/>
+    <row r="810" ht="12.75"/>
+    <row r="811" ht="12.75"/>
+    <row r="812" ht="12.75"/>
+    <row r="813" ht="12.75"/>
+    <row r="814" ht="12.75"/>
+    <row r="815" ht="12.75"/>
+    <row r="816" ht="12.75"/>
+    <row r="817" ht="12.75"/>
+    <row r="818" ht="12.75"/>
+    <row r="819" ht="12.75"/>
+    <row r="820" ht="12.75"/>
+    <row r="821" ht="12.75"/>
+    <row r="822" ht="12.75"/>
+    <row r="823" ht="12.75"/>
+    <row r="824" ht="12.75"/>
+    <row r="825" ht="12.75"/>
+    <row r="826" ht="12.75"/>
+    <row r="827" ht="12.75"/>
+    <row r="828" ht="12.75"/>
+    <row r="829" ht="12.75"/>
+    <row r="830" ht="12.75"/>
+    <row r="831" ht="12.75"/>
+    <row r="832" ht="12.75"/>
+    <row r="833" ht="12.75"/>
+    <row r="834" ht="12.75"/>
+    <row r="835" ht="12.75"/>
+    <row r="836" ht="12.75"/>
+    <row r="837" ht="12.75"/>
+    <row r="838" ht="12.75"/>
+    <row r="839" ht="12.75"/>
+    <row r="840" ht="12.75"/>
+    <row r="841" ht="12.75"/>
+    <row r="842" ht="12.75"/>
+    <row r="843" ht="12.75"/>
+    <row r="844" ht="12.75"/>
+    <row r="845" ht="12.75"/>
+    <row r="846" ht="12.75"/>
+    <row r="847" ht="12.75"/>
+    <row r="848" ht="12.75"/>
+    <row r="849" ht="12.75"/>
+    <row r="850" ht="12.75"/>
+    <row r="851" ht="12.75"/>
+    <row r="852" ht="12.75"/>
+    <row r="853" ht="12.75"/>
+    <row r="854" ht="12.75"/>
+    <row r="855" ht="12.75"/>
+    <row r="856" ht="12.75"/>
+    <row r="857" ht="12.75"/>
+    <row r="858" ht="12.75"/>
+    <row r="859" ht="12.75"/>
+    <row r="860" ht="12.75"/>
+    <row r="861" ht="12.75"/>
+    <row r="862" ht="12.75"/>
+    <row r="863" ht="12.75"/>
+    <row r="864" ht="12.75"/>
+    <row r="865" ht="12.75"/>
+    <row r="866" ht="12.75"/>
+    <row r="867" ht="12.75"/>
+    <row r="868" ht="12.75"/>
+    <row r="869" ht="12.75"/>
+    <row r="870" ht="12.75"/>
+    <row r="871" ht="12.75"/>
+    <row r="872" ht="12.75"/>
+    <row r="873" ht="12.75"/>
+    <row r="874" ht="12.75"/>
+    <row r="875" ht="12.75"/>
+    <row r="876" ht="12.75"/>
+    <row r="877" ht="12.75"/>
+    <row r="878" ht="12.75"/>
+    <row r="879" ht="12.75"/>
+    <row r="880" ht="12.75"/>
+    <row r="881" ht="12.75"/>
+    <row r="882" ht="12.75"/>
+    <row r="883" ht="12.75"/>
+    <row r="884" ht="12.75"/>
+    <row r="885" ht="12.75"/>
+    <row r="886" ht="12.75"/>
+    <row r="887" ht="12.75"/>
+    <row r="888" ht="12.75"/>
+    <row r="889" ht="12.75"/>
+    <row r="890" ht="12.75"/>
+    <row r="891" ht="12.75"/>
+    <row r="892" ht="12.75"/>
+    <row r="893" ht="12.75"/>
+    <row r="894" ht="12.75"/>
+    <row r="895" ht="12.75"/>
+    <row r="896" ht="12.75"/>
+    <row r="897" ht="12.75"/>
+    <row r="898" ht="12.75"/>
+    <row r="899" ht="12.75"/>
+    <row r="900" ht="12.75"/>
+    <row r="901" ht="12.75"/>
+    <row r="902" ht="12.75"/>
+    <row r="903" ht="12.75"/>
+    <row r="904" ht="12.75"/>
+    <row r="905" ht="12.75"/>
+    <row r="906" ht="12.75"/>
+    <row r="907" ht="12.75"/>
+    <row r="908" ht="12.75"/>
+    <row r="909" ht="12.75"/>
+    <row r="910" ht="12.75"/>
+    <row r="911" ht="12.75"/>
+    <row r="912" ht="12.75"/>
+    <row r="913" ht="12.75"/>
+    <row r="914" ht="12.75"/>
+    <row r="915" ht="12.75"/>
+    <row r="916" ht="12.75"/>
+    <row r="917" ht="12.75"/>
+    <row r="918" ht="12.75"/>
+    <row r="919" ht="12.75"/>
+    <row r="920" ht="12.75"/>
+    <row r="921" ht="12.75"/>
+    <row r="922" ht="12.75"/>
+    <row r="923" ht="12.75"/>
+    <row r="924" ht="12.75"/>
+    <row r="925" ht="12.75"/>
+    <row r="926" ht="12.75"/>
+    <row r="927" ht="12.75"/>
+    <row r="928" ht="12.75"/>
+    <row r="929" ht="12.75"/>
+    <row r="930" ht="12.75"/>
+    <row r="931" ht="12.75"/>
+    <row r="932" ht="12.75"/>
+    <row r="933" ht="12.75"/>
+    <row r="934" ht="12.75"/>
+    <row r="935" ht="12.75"/>
+    <row r="936" ht="12.75"/>
+    <row r="937" ht="12.75"/>
+    <row r="938" ht="12.75"/>
+    <row r="939" ht="12.75"/>
+    <row r="940" ht="12.75"/>
+    <row r="941" ht="12.75"/>
+    <row r="942" ht="12.75"/>
+    <row r="943" ht="12.75"/>
+    <row r="944" ht="12.75"/>
+    <row r="945" ht="12.75"/>
+    <row r="946" ht="12.75"/>
+    <row r="947" ht="12.75"/>
+    <row r="948" ht="12.75"/>
+    <row r="949" ht="12.75"/>
+    <row r="950" ht="12.75"/>
+    <row r="951" ht="12.75"/>
+    <row r="952" ht="12.75"/>
+    <row r="953" ht="12.75"/>
+    <row r="954" ht="12.75"/>
+    <row r="955" ht="12.75"/>
+    <row r="956" ht="12.75"/>
+    <row r="957" ht="12.75"/>
+    <row r="958" ht="12.75"/>
+    <row r="959" ht="12.75"/>
+    <row r="960" ht="12.75"/>
+    <row r="961" ht="12.75"/>
+    <row r="962" ht="12.75"/>
+    <row r="963" ht="12.75"/>
+    <row r="964" ht="12.75"/>
+    <row r="965" ht="12.75"/>
+    <row r="966" ht="12.75"/>
+    <row r="967" ht="12.75"/>
+    <row r="968" ht="12.75"/>
+    <row r="969" ht="12.75"/>
+    <row r="970" ht="12.75"/>
+    <row r="971" ht="12.75"/>
+    <row r="972" ht="12.75"/>
+    <row r="973" ht="12.75"/>
+    <row r="974" ht="12.75"/>
+    <row r="975" ht="12.75"/>
+    <row r="976" ht="12.75"/>
+    <row r="977" ht="12.75"/>
+    <row r="978" ht="12.75"/>
+    <row r="979" ht="12.75"/>
+    <row r="980" ht="12.75"/>
+    <row r="981" ht="12.75"/>
+    <row r="982" ht="12.75"/>
+    <row r="983" ht="12.75"/>
+    <row r="984" ht="12.75"/>
+    <row r="985" ht="12.75"/>
+    <row r="986" ht="12.75"/>
+    <row r="987" ht="12.75"/>
+    <row r="988" ht="12.75"/>
+    <row r="989" ht="12.75"/>
+    <row r="990" ht="12.75"/>
+    <row r="991" ht="12.75"/>
+    <row r="992" ht="12.75"/>
+    <row r="993" ht="12.75"/>
+    <row r="994" ht="12.75"/>
+    <row r="995" ht="12.75"/>
+    <row r="996" ht="12.75"/>
+    <row r="997" ht="12.75"/>
+    <row r="998" ht="12.75"/>
+    <row r="999" ht="12.75"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -29139,7 +29145,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -29169,11 +29175,11 @@
   </sheetPr>
   <dimension ref="A1:B245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -29484,7 +29490,7 @@
         <v>163</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>161</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -29492,7 +29498,7 @@
         <v>163</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>161</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -29508,7 +29514,7 @@
         <v>175</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -29516,7 +29522,7 @@
         <v>178</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -29776,7 +29782,7 @@
         <v>348</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -29848,7 +29854,7 @@
         <v>397</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -29856,7 +29862,7 @@
         <v>400</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -29864,7 +29870,7 @@
         <v>402</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -29872,7 +29878,7 @@
         <v>406</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -29984,7 +29990,7 @@
         <v>458</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -30008,7 +30014,7 @@
         <v>348</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -30144,7 +30150,7 @@
         <v>547</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -30168,7 +30174,7 @@
         <v>565</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -30176,7 +30182,7 @@
         <v>567</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -30216,7 +30222,7 @@
         <v>255</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>582</v>
+        <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -30408,7 +30414,7 @@
         <v>690</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1060</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -30448,7 +30454,7 @@
         <v>713</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>711</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -30456,7 +30462,7 @@
         <v>187</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>716</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -30480,7 +30486,7 @@
         <v>729</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -30528,7 +30534,7 @@
         <v>255</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>582</v>
+        <v>253</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -30536,7 +30542,7 @@
         <v>766</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -30544,7 +30550,7 @@
         <v>771</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>582</v>
+        <v>253</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -30744,7 +30750,7 @@
         <v>880</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -31146,7 +31152,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -31256,7 +31262,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">

--- a/neuroprotective_variants.xlsx
+++ b/neuroprotective_variants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/391b6213340268ec/Documents/UniversityofKentucky/MillerLab/neuroprotective_variants/neuroprotective_variants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_3E2F7DF44E31F9613DC94E8D353A43A79B6FFBE8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{800C3363-0B9E-4F40-B381-64ED8A43CA06}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_3E2F7DF44E31F9613DC94E8D353A43A79B6FFBE8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7836C926-212A-4B16-97B4-856966BED118}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="4770" windowWidth="17280" windowHeight="9960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seto et al." sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4133" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4135" uniqueCount="1075">
   <si>
     <t>rsid</t>
   </si>
@@ -3265,13 +3265,22 @@
   </si>
   <si>
     <t>LRP11</t>
+  </si>
+  <si>
+    <t>MTRNR1</t>
+  </si>
+  <si>
+    <t>MTTT</t>
+  </si>
+  <si>
+    <t>SLC25A14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3330,6 +3339,13 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3364,7 +3380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3396,6 +3412,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3618,7 +3635,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -3767,22 +3784,22 @@
       <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="14" max="29" width="14.42578125" customWidth="1"/>
+    <col min="7" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="10" max="12" width="14.44140625" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" customWidth="1"/>
+    <col min="14" max="29" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="12.75">
+    <row r="1" spans="1:29" ht="13.2">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -3871,7 +3888,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" ht="15.6">
       <c r="A2" s="4" t="s">
         <v>49</v>
       </c>
@@ -3960,7 +3977,7 @@
         <v>0.309</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" ht="15.6">
       <c r="A3" s="4" t="s">
         <v>49</v>
       </c>
@@ -4049,7 +4066,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" ht="15.6">
       <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
@@ -4138,7 +4155,7 @@
         <v>0.74129999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" ht="15.6">
       <c r="A5" s="4" t="s">
         <v>73</v>
       </c>
@@ -4227,7 +4244,7 @@
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" ht="15.6">
       <c r="A6" s="4" t="s">
         <v>73</v>
       </c>
@@ -4316,7 +4333,7 @@
         <v>8.1499999999999997E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" ht="15.6">
       <c r="A7" s="4" t="s">
         <v>85</v>
       </c>
@@ -4405,7 +4422,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" ht="15.6">
       <c r="A8" s="4" t="s">
         <v>92</v>
       </c>
@@ -4494,7 +4511,7 @@
         <v>0.63600000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" ht="15.6">
       <c r="A9" s="4" t="s">
         <v>96</v>
       </c>
@@ -4583,7 +4600,7 @@
         <v>0.3891</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" ht="15.6">
       <c r="A10" s="4" t="s">
         <v>102</v>
       </c>
@@ -4672,7 +4689,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" ht="15.6">
       <c r="A11" s="4" t="s">
         <v>102</v>
       </c>
@@ -4761,7 +4778,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" ht="15.6">
       <c r="A12" s="4" t="s">
         <v>102</v>
       </c>
@@ -4850,7 +4867,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" ht="15.6">
       <c r="A13" s="4" t="s">
         <v>102</v>
       </c>
@@ -4939,7 +4956,7 @@
         <v>6.1099999999999996E-12</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" ht="15.6">
       <c r="A14" s="4" t="s">
         <v>102</v>
       </c>
@@ -5028,7 +5045,7 @@
         <v>3.3599999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" ht="15.6">
       <c r="A15" s="4" t="s">
         <v>102</v>
       </c>
@@ -5117,7 +5134,7 @@
         <v>7.4799999999999997E-7</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" ht="15.6">
       <c r="A16" s="4" t="s">
         <v>102</v>
       </c>
@@ -5206,7 +5223,7 @@
         <v>0.4662</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" ht="15.6">
       <c r="A17" s="4" t="s">
         <v>102</v>
       </c>
@@ -5295,7 +5312,7 @@
         <v>0.96789999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" ht="15.6">
       <c r="A18" s="4" t="s">
         <v>102</v>
       </c>
@@ -5384,7 +5401,7 @@
         <v>0.58020000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:29" ht="15.6">
       <c r="A19" s="4" t="s">
         <v>102</v>
       </c>
@@ -5473,7 +5490,7 @@
         <v>4.147E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" ht="15.6">
       <c r="A20" s="4" t="s">
         <v>102</v>
       </c>
@@ -5562,7 +5579,7 @@
         <v>0.57089999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" ht="15.6">
       <c r="A21" s="4" t="s">
         <v>102</v>
       </c>
@@ -5651,7 +5668,7 @@
         <v>0.64449999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:29" ht="15.6">
       <c r="A22" s="4" t="s">
         <v>102</v>
       </c>
@@ -5740,7 +5757,7 @@
         <v>0.56179999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:29" ht="15.6">
       <c r="A23" s="4" t="s">
         <v>102</v>
       </c>
@@ -5829,7 +5846,7 @@
         <v>0.65739999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:29" ht="15.6">
       <c r="A24" s="4" t="s">
         <v>159</v>
       </c>
@@ -5918,7 +5935,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:29" ht="15.6">
       <c r="A25" s="4" t="s">
         <v>159</v>
       </c>
@@ -6007,7 +6024,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:29" ht="15.6">
       <c r="A26" s="4" t="s">
         <v>165</v>
       </c>
@@ -6096,7 +6113,7 @@
         <v>0.88759999999999994</v>
       </c>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:29" ht="15.6">
       <c r="A27" s="4" t="s">
         <v>171</v>
       </c>
@@ -6185,7 +6202,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:29" ht="15.6">
       <c r="A28" s="4" t="s">
         <v>171</v>
       </c>
@@ -6274,7 +6291,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:29" ht="15.6">
       <c r="A29" s="4" t="s">
         <v>180</v>
       </c>
@@ -6363,7 +6380,7 @@
         <v>7.4799999999999997E-7</v>
       </c>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:29" ht="15.6">
       <c r="A30" s="4" t="s">
         <v>183</v>
       </c>
@@ -6452,7 +6469,7 @@
         <v>0.38090000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:29" ht="15.6">
       <c r="A31" s="4" t="s">
         <v>189</v>
       </c>
@@ -6541,7 +6558,7 @@
         <v>0.50390000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:29" ht="15.6">
       <c r="A32" s="4" t="s">
         <v>189</v>
       </c>
@@ -6630,7 +6647,7 @@
         <v>7.1069999999999994E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:29" ht="15.6">
       <c r="A33" s="4" t="s">
         <v>189</v>
       </c>
@@ -6719,7 +6736,7 @@
         <v>0.43340000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:29" ht="15.6">
       <c r="A34" s="4" t="s">
         <v>207</v>
       </c>
@@ -6808,7 +6825,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:29" ht="15.6">
       <c r="A35" s="4" t="s">
         <v>212</v>
       </c>
@@ -6897,7 +6914,7 @@
         <v>1.7899999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:29" ht="15.6">
       <c r="A36" s="4" t="s">
         <v>219</v>
       </c>
@@ -6986,7 +7003,7 @@
         <v>0.3397</v>
       </c>
     </row>
-    <row r="37" spans="1:29">
+    <row r="37" spans="1:29" ht="15.6">
       <c r="A37" s="4" t="s">
         <v>225</v>
       </c>
@@ -7075,7 +7092,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" spans="1:29" ht="15.6">
       <c r="A38" s="4" t="s">
         <v>225</v>
       </c>
@@ -7164,7 +7181,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:29" ht="15.6">
       <c r="A39" s="4" t="s">
         <v>233</v>
       </c>
@@ -7253,7 +7270,7 @@
         <v>6.1330000000000003E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:29" ht="15.6">
       <c r="A40" s="4" t="s">
         <v>239</v>
       </c>
@@ -7342,7 +7359,7 @@
         <v>0.29780000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:29" ht="15.6">
       <c r="A41" s="4" t="s">
         <v>245</v>
       </c>
@@ -7431,7 +7448,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:29" ht="15.6">
       <c r="A42" s="4" t="s">
         <v>251</v>
       </c>
@@ -7520,7 +7537,7 @@
         <v>0.5151</v>
       </c>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:29" ht="15.6">
       <c r="A43" s="4" t="s">
         <v>257</v>
       </c>
@@ -7609,7 +7626,7 @@
         <v>0.88870000000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:29" ht="15.6">
       <c r="A44" s="4" t="s">
         <v>257</v>
       </c>
@@ -7698,7 +7715,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:29" ht="15.6">
       <c r="A45" s="4" t="s">
         <v>266</v>
       </c>
@@ -7787,7 +7804,7 @@
         <v>2.7179999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:29" ht="15.6">
       <c r="A46" s="4" t="s">
         <v>266</v>
       </c>
@@ -7876,7 +7893,7 @@
         <v>9.1130000000000003E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:29" ht="15.6">
       <c r="A47" s="4" t="s">
         <v>275</v>
       </c>
@@ -7965,7 +7982,7 @@
         <v>0.26900000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" spans="1:29" ht="15.6">
       <c r="A48" s="4" t="s">
         <v>279</v>
       </c>
@@ -8054,7 +8071,7 @@
         <v>0.99860000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:29">
+    <row r="49" spans="1:29" ht="15.6">
       <c r="A49" s="4" t="s">
         <v>285</v>
       </c>
@@ -8143,7 +8160,7 @@
         <v>0.53269999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:29">
+    <row r="50" spans="1:29" ht="15.6">
       <c r="A50" s="4" t="s">
         <v>290</v>
       </c>
@@ -8232,7 +8249,7 @@
         <v>0.14680000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:29">
+    <row r="51" spans="1:29" ht="15.6">
       <c r="A51" s="4" t="s">
         <v>295</v>
       </c>
@@ -8321,7 +8338,7 @@
         <v>0.56920000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:29">
+    <row r="52" spans="1:29" ht="15.6">
       <c r="A52" s="4" t="s">
         <v>295</v>
       </c>
@@ -8410,7 +8427,7 @@
         <v>8.4530000000000004E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:29">
+    <row r="53" spans="1:29" ht="15.6">
       <c r="A53" s="4" t="s">
         <v>303</v>
       </c>
@@ -8499,7 +8516,7 @@
         <v>0.4859</v>
       </c>
     </row>
-    <row r="54" spans="1:29">
+    <row r="54" spans="1:29" ht="15.6">
       <c r="A54" s="4" t="s">
         <v>309</v>
       </c>
@@ -8588,7 +8605,7 @@
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:29">
+    <row r="55" spans="1:29" ht="15.6">
       <c r="A55" s="4" t="s">
         <v>315</v>
       </c>
@@ -8677,7 +8694,7 @@
         <v>0.56179999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:29">
+    <row r="56" spans="1:29" ht="15.6">
       <c r="A56" s="4" t="s">
         <v>317</v>
       </c>
@@ -8766,7 +8783,7 @@
         <v>0.35310000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:29">
+    <row r="57" spans="1:29" ht="15.6">
       <c r="A57" s="4" t="s">
         <v>317</v>
       </c>
@@ -8855,7 +8872,7 @@
         <v>0.30409999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:29">
+    <row r="58" spans="1:29" ht="15.6">
       <c r="A58" s="4" t="s">
         <v>324</v>
       </c>
@@ -8944,7 +8961,7 @@
         <v>0.1489</v>
       </c>
     </row>
-    <row r="59" spans="1:29">
+    <row r="59" spans="1:29" ht="15.6">
       <c r="A59" s="4" t="s">
         <v>330</v>
       </c>
@@ -9033,7 +9050,7 @@
         <v>0.5403</v>
       </c>
     </row>
-    <row r="60" spans="1:29">
+    <row r="60" spans="1:29" ht="15.6">
       <c r="A60" s="4" t="s">
         <v>338</v>
       </c>
@@ -9122,7 +9139,7 @@
         <v>0.28620000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:29">
+    <row r="61" spans="1:29" ht="15.6">
       <c r="A61" s="4" t="s">
         <v>344</v>
       </c>
@@ -9211,7 +9228,7 @@
         <v>0.92830000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:29">
+    <row r="62" spans="1:29" ht="15.6">
       <c r="A62" s="4" t="s">
         <v>350</v>
       </c>
@@ -9300,7 +9317,7 @@
         <v>0.98050000000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:29">
+    <row r="63" spans="1:29" ht="15.6">
       <c r="A63" s="4" t="s">
         <v>356</v>
       </c>
@@ -9389,7 +9406,7 @@
         <v>0.52300000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:29">
+    <row r="64" spans="1:29" ht="15.6">
       <c r="A64" s="4" t="s">
         <v>362</v>
       </c>
@@ -9478,7 +9495,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:29">
+    <row r="65" spans="1:29" ht="15.6">
       <c r="A65" s="4" t="s">
         <v>366</v>
       </c>
@@ -9567,7 +9584,7 @@
         <v>0.5151</v>
       </c>
     </row>
-    <row r="66" spans="1:29">
+    <row r="66" spans="1:29" ht="15.6">
       <c r="A66" s="4" t="s">
         <v>370</v>
       </c>
@@ -9656,7 +9673,7 @@
         <v>0.66959999999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:29">
+    <row r="67" spans="1:29" ht="15.6">
       <c r="A67" s="4" t="s">
         <v>376</v>
       </c>
@@ -9745,7 +9762,7 @@
         <v>0.68179999999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:29">
+    <row r="68" spans="1:29" ht="15.6">
       <c r="A68" s="4" t="s">
         <v>382</v>
       </c>
@@ -9834,7 +9851,7 @@
         <v>0.42380000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:29">
+    <row r="69" spans="1:29" ht="15.6">
       <c r="A69" s="4" t="s">
         <v>387</v>
       </c>
@@ -9923,7 +9940,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:29">
+    <row r="70" spans="1:29" ht="15.6">
       <c r="A70" s="4" t="s">
         <v>393</v>
       </c>
@@ -10012,7 +10029,7 @@
         <v>0.1043</v>
       </c>
     </row>
-    <row r="71" spans="1:29">
+    <row r="71" spans="1:29" ht="15.6">
       <c r="A71" s="4" t="s">
         <v>393</v>
       </c>
@@ -10101,7 +10118,7 @@
         <v>0.31430000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:29">
+    <row r="72" spans="1:29" ht="15.6">
       <c r="A72" s="4" t="s">
         <v>393</v>
       </c>
@@ -10190,7 +10207,7 @@
         <v>0.2077</v>
       </c>
     </row>
-    <row r="73" spans="1:29">
+    <row r="73" spans="1:29" ht="15.6">
       <c r="A73" s="4" t="s">
         <v>393</v>
       </c>
@@ -10279,7 +10296,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="74" spans="1:29">
+    <row r="74" spans="1:29" ht="15.6">
       <c r="A74" s="4" t="s">
         <v>408</v>
       </c>
@@ -10368,7 +10385,7 @@
         <v>0.254</v>
       </c>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:29" ht="15.6">
       <c r="A75" s="4" t="s">
         <v>408</v>
       </c>
@@ -10457,7 +10474,7 @@
         <v>0.18590000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:29" ht="15.6">
       <c r="A76" s="4" t="s">
         <v>408</v>
       </c>
@@ -10546,7 +10563,7 @@
         <v>0.20580000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:29" ht="15.6">
       <c r="A77" s="4" t="s">
         <v>408</v>
       </c>
@@ -10635,7 +10652,7 @@
         <v>8.7650000000000006E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" spans="1:29" ht="15.6">
       <c r="A78" s="4" t="s">
         <v>408</v>
       </c>
@@ -10724,7 +10741,7 @@
         <v>1.0240000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:29">
+    <row r="79" spans="1:29" ht="15.6">
       <c r="A79" s="4" t="s">
         <v>408</v>
       </c>
@@ -10813,7 +10830,7 @@
         <v>0.43290000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:29">
+    <row r="80" spans="1:29" ht="15.6">
       <c r="A80" s="4" t="s">
         <v>429</v>
       </c>
@@ -10902,7 +10919,7 @@
         <v>0.309</v>
       </c>
     </row>
-    <row r="81" spans="1:29">
+    <row r="81" spans="1:29" ht="15.6">
       <c r="A81" s="4" t="s">
         <v>429</v>
       </c>
@@ -10991,7 +11008,7 @@
         <v>0.2041</v>
       </c>
     </row>
-    <row r="82" spans="1:29">
+    <row r="82" spans="1:29" ht="15.6">
       <c r="A82" s="4" t="s">
         <v>429</v>
       </c>
@@ -11080,7 +11097,7 @@
         <v>0.747</v>
       </c>
     </row>
-    <row r="83" spans="1:29">
+    <row r="83" spans="1:29" ht="15.6">
       <c r="A83" s="4" t="s">
         <v>439</v>
       </c>
@@ -11169,7 +11186,7 @@
         <v>0.63600000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:29">
+    <row r="84" spans="1:29" ht="15.6">
       <c r="A84" s="4" t="s">
         <v>442</v>
       </c>
@@ -11258,7 +11275,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="85" spans="1:29">
+    <row r="85" spans="1:29" ht="15.6">
       <c r="A85" s="4" t="s">
         <v>442</v>
       </c>
@@ -11347,7 +11364,7 @@
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:29">
+    <row r="86" spans="1:29" ht="15.6">
       <c r="A86" s="4" t="s">
         <v>442</v>
       </c>
@@ -11436,7 +11453,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:29">
+    <row r="87" spans="1:29" ht="15.6">
       <c r="A87" s="4" t="s">
         <v>442</v>
       </c>
@@ -11525,7 +11542,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:29">
+    <row r="88" spans="1:29" ht="15.6">
       <c r="A88" s="4" t="s">
         <v>442</v>
       </c>
@@ -11614,7 +11631,7 @@
         <v>2.6800000000000001E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:29">
+    <row r="89" spans="1:29" ht="15.6">
       <c r="A89" s="4" t="s">
         <v>442</v>
       </c>
@@ -11703,7 +11720,7 @@
         <v>1.11E-14</v>
       </c>
     </row>
-    <row r="90" spans="1:29">
+    <row r="90" spans="1:29" ht="15.6">
       <c r="A90" s="4" t="s">
         <v>466</v>
       </c>
@@ -11792,7 +11809,7 @@
         <v>0.92830000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:29">
+    <row r="91" spans="1:29" ht="15.6">
       <c r="A91" s="4" t="s">
         <v>469</v>
       </c>
@@ -11881,7 +11898,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:29">
+    <row r="92" spans="1:29" ht="15.6">
       <c r="A92" s="4" t="s">
         <v>472</v>
       </c>
@@ -11970,7 +11987,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="93" spans="1:29">
+    <row r="93" spans="1:29" ht="15.6">
       <c r="A93" s="4" t="s">
         <v>478</v>
       </c>
@@ -12326,7 +12343,7 @@
         <v>0.4209</v>
       </c>
     </row>
-    <row r="97" spans="1:29">
+    <row r="97" spans="1:29" ht="15.6">
       <c r="A97" s="4" t="s">
         <v>495</v>
       </c>
@@ -12415,7 +12432,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:29">
+    <row r="98" spans="1:29" ht="15.6">
       <c r="A98" s="4" t="s">
         <v>499</v>
       </c>
@@ -12504,7 +12521,7 @@
         <v>0.44479999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:29">
+    <row r="99" spans="1:29" ht="15.6">
       <c r="A99" s="4" t="s">
         <v>505</v>
       </c>
@@ -12593,7 +12610,7 @@
         <v>0.32419999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:29">
+    <row r="100" spans="1:29" ht="15.6">
       <c r="A100" s="4" t="s">
         <v>511</v>
       </c>
@@ -12682,7 +12699,7 @@
         <v>0.48870000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:29">
+    <row r="101" spans="1:29" ht="15.6">
       <c r="A101" s="4" t="s">
         <v>511</v>
       </c>
@@ -12771,7 +12788,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="102" spans="1:29">
+    <row r="102" spans="1:29" ht="15.6">
       <c r="A102" s="4" t="s">
         <v>518</v>
       </c>
@@ -12860,7 +12877,7 @@
         <v>6.1330000000000003E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:29">
+    <row r="103" spans="1:29" ht="15.6">
       <c r="A103" s="4" t="s">
         <v>520</v>
       </c>
@@ -12949,7 +12966,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:29">
+    <row r="104" spans="1:29" ht="15.6">
       <c r="A104" s="4" t="s">
         <v>526</v>
       </c>
@@ -13038,7 +13055,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="105" spans="1:29">
+    <row r="105" spans="1:29" ht="15.6">
       <c r="A105" s="4" t="s">
         <v>532</v>
       </c>
@@ -13127,7 +13144,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:29">
+    <row r="106" spans="1:29" ht="15.6">
       <c r="A106" s="4" t="s">
         <v>532</v>
       </c>
@@ -13216,7 +13233,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:29">
+    <row r="107" spans="1:29" ht="15.6">
       <c r="A107" s="4" t="s">
         <v>543</v>
       </c>
@@ -13305,7 +13322,7 @@
         <v>0.42109999999999997</v>
       </c>
     </row>
-    <row r="108" spans="1:29">
+    <row r="108" spans="1:29" ht="15.6">
       <c r="A108" s="4" t="s">
         <v>552</v>
       </c>
@@ -13394,7 +13411,7 @@
         <v>0.8952</v>
       </c>
     </row>
-    <row r="109" spans="1:29">
+    <row r="109" spans="1:29" ht="15.6">
       <c r="A109" s="4" t="s">
         <v>558</v>
       </c>
@@ -13483,7 +13500,7 @@
         <v>0.60340000000000005</v>
       </c>
     </row>
-    <row r="110" spans="1:29">
+    <row r="110" spans="1:29" ht="15.6">
       <c r="A110" s="4" t="s">
         <v>558</v>
       </c>
@@ -13572,7 +13589,7 @@
         <v>0.45629999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:29">
+    <row r="111" spans="1:29" ht="15.6">
       <c r="A111" s="4" t="s">
         <v>558</v>
       </c>
@@ -13661,7 +13678,7 @@
         <v>0.32669999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:29">
+    <row r="112" spans="1:29" ht="15.6">
       <c r="A112" s="4" t="s">
         <v>558</v>
       </c>
@@ -13750,7 +13767,7 @@
         <v>0.82630000000000003</v>
       </c>
     </row>
-    <row r="113" spans="1:29">
+    <row r="113" spans="1:29" ht="15.6">
       <c r="A113" s="4" t="s">
         <v>558</v>
       </c>
@@ -13839,7 +13856,7 @@
         <v>0.15590000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:29">
+    <row r="114" spans="1:29" ht="15.6">
       <c r="A114" s="4" t="s">
         <v>558</v>
       </c>
@@ -13928,7 +13945,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="1:29">
+    <row r="115" spans="1:29" ht="15.6">
       <c r="A115" s="4" t="s">
         <v>576</v>
       </c>
@@ -14017,7 +14034,7 @@
         <v>0.32419999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:29">
+    <row r="116" spans="1:29" ht="15.6">
       <c r="A116" s="4" t="s">
         <v>580</v>
       </c>
@@ -14106,7 +14123,7 @@
         <v>0.5151</v>
       </c>
     </row>
-    <row r="117" spans="1:29">
+    <row r="117" spans="1:29" ht="15.6">
       <c r="A117" s="4" t="s">
         <v>585</v>
       </c>
@@ -14195,7 +14212,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="118" spans="1:29">
+    <row r="118" spans="1:29" ht="15.6">
       <c r="A118" s="4" t="s">
         <v>590</v>
       </c>
@@ -14284,7 +14301,7 @@
         <v>0.1072</v>
       </c>
     </row>
-    <row r="119" spans="1:29">
+    <row r="119" spans="1:29" ht="15.6">
       <c r="A119" s="4" t="s">
         <v>590</v>
       </c>
@@ -14373,7 +14390,7 @@
         <v>9.5500000000000002E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:29">
+    <row r="120" spans="1:29" ht="15.6">
       <c r="A120" s="4" t="s">
         <v>598</v>
       </c>
@@ -14462,7 +14479,7 @@
         <v>9.4619999999999996E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:29">
+    <row r="121" spans="1:29" ht="15.6">
       <c r="A121" s="4" t="s">
         <v>604</v>
       </c>
@@ -14551,7 +14568,7 @@
         <v>0.74460000000000004</v>
       </c>
     </row>
-    <row r="122" spans="1:29">
+    <row r="122" spans="1:29" ht="15.6">
       <c r="A122" s="4" t="s">
         <v>611</v>
       </c>
@@ -14640,7 +14657,7 @@
         <v>0.49590000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:29">
+    <row r="123" spans="1:29" ht="15.6">
       <c r="A123" s="4" t="s">
         <v>616</v>
       </c>
@@ -14729,7 +14746,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="124" spans="1:29">
+    <row r="124" spans="1:29" ht="15.6">
       <c r="A124" s="4" t="s">
         <v>621</v>
       </c>
@@ -14818,7 +14835,7 @@
         <v>0.89349999999999996</v>
       </c>
     </row>
-    <row r="125" spans="1:29">
+    <row r="125" spans="1:29" ht="15.6">
       <c r="A125" s="4" t="s">
         <v>627</v>
       </c>
@@ -14907,7 +14924,7 @@
         <v>0.31019999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:29">
+    <row r="126" spans="1:29" ht="15.6">
       <c r="A126" s="4" t="s">
         <v>634</v>
       </c>
@@ -14996,7 +15013,7 @@
         <v>0.39960000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:29">
+    <row r="127" spans="1:29" ht="15.6">
       <c r="A127" s="4" t="s">
         <v>644</v>
       </c>
@@ -15085,7 +15102,7 @@
         <v>0.42380000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:29">
+    <row r="128" spans="1:29" ht="15.6">
       <c r="A128" s="4" t="s">
         <v>644</v>
       </c>
@@ -15174,7 +15191,7 @@
         <v>0.15390000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:29">
+    <row r="129" spans="1:29" ht="15.6">
       <c r="A129" s="4" t="s">
         <v>651</v>
       </c>
@@ -15263,7 +15280,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:29">
+    <row r="130" spans="1:29" ht="15.6">
       <c r="A130" s="4" t="s">
         <v>651</v>
       </c>
@@ -15352,7 +15369,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:29">
+    <row r="131" spans="1:29" ht="15.6">
       <c r="A131" s="4" t="s">
         <v>651</v>
       </c>
@@ -15441,7 +15458,7 @@
         <v>0.6673</v>
       </c>
     </row>
-    <row r="132" spans="1:29">
+    <row r="132" spans="1:29" ht="15.6">
       <c r="A132" s="4" t="s">
         <v>651</v>
       </c>
@@ -15530,7 +15547,7 @@
         <v>0.5988</v>
       </c>
     </row>
-    <row r="133" spans="1:29">
+    <row r="133" spans="1:29" ht="15.6">
       <c r="A133" s="4" t="s">
         <v>651</v>
       </c>
@@ -15619,7 +15636,7 @@
         <v>0.4662</v>
       </c>
     </row>
-    <row r="134" spans="1:29">
+    <row r="134" spans="1:29" ht="15.6">
       <c r="A134" s="4" t="s">
         <v>651</v>
       </c>
@@ -15708,7 +15725,7 @@
         <v>0.98050000000000004</v>
       </c>
     </row>
-    <row r="135" spans="1:29">
+    <row r="135" spans="1:29" ht="15.6">
       <c r="A135" s="4" t="s">
         <v>672</v>
       </c>
@@ -15797,7 +15814,7 @@
         <v>1.0240000000000001E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:29">
+    <row r="136" spans="1:29" ht="15.6">
       <c r="A136" s="4" t="s">
         <v>672</v>
       </c>
@@ -15886,7 +15903,7 @@
         <v>8.7650000000000006E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:29">
+    <row r="137" spans="1:29" ht="15.6">
       <c r="A137" s="4" t="s">
         <v>680</v>
       </c>
@@ -15975,7 +15992,7 @@
         <v>0.43919999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:29">
+    <row r="138" spans="1:29" ht="15.6">
       <c r="A138" s="4" t="s">
         <v>686</v>
       </c>
@@ -16064,7 +16081,7 @@
         <v>0.55349999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:29">
+    <row r="139" spans="1:29" ht="15.6">
       <c r="A139" s="4" t="s">
         <v>692</v>
       </c>
@@ -16153,7 +16170,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:29">
+    <row r="140" spans="1:29" ht="15.6">
       <c r="A140" s="4" t="s">
         <v>698</v>
       </c>
@@ -16242,7 +16259,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="141" spans="1:29">
+    <row r="141" spans="1:29" ht="15.6">
       <c r="A141" s="4" t="s">
         <v>698</v>
       </c>
@@ -16331,7 +16348,7 @@
         <v>0.22209999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:29">
+    <row r="142" spans="1:29" ht="15.6">
       <c r="A142" s="4" t="s">
         <v>705</v>
       </c>
@@ -16420,7 +16437,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="143" spans="1:29">
+    <row r="143" spans="1:29" ht="15.6">
       <c r="A143" s="4" t="s">
         <v>709</v>
       </c>
@@ -16509,7 +16526,7 @@
         <v>7.2849999999999998E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:29">
+    <row r="144" spans="1:29" ht="15.6">
       <c r="A144" s="4" t="s">
         <v>714</v>
       </c>
@@ -16598,7 +16615,7 @@
         <v>0.38090000000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:29">
+    <row r="145" spans="1:29" ht="15.6">
       <c r="A145" s="4" t="s">
         <v>718</v>
       </c>
@@ -16687,7 +16704,7 @@
         <v>0.26300000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:29">
+    <row r="146" spans="1:29" ht="15.6">
       <c r="A146" s="4" t="s">
         <v>722</v>
       </c>
@@ -16776,7 +16793,7 @@
         <v>0.66959999999999997</v>
       </c>
     </row>
-    <row r="147" spans="1:29">
+    <row r="147" spans="1:29" ht="15.6">
       <c r="A147" s="4" t="s">
         <v>725</v>
       </c>
@@ -16865,7 +16882,7 @@
         <v>0.80649999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:29">
+    <row r="148" spans="1:29" ht="15.6">
       <c r="A148" s="4" t="s">
         <v>731</v>
       </c>
@@ -16954,7 +16971,7 @@
         <v>0.4108</v>
       </c>
     </row>
-    <row r="149" spans="1:29">
+    <row r="149" spans="1:29" ht="15.6">
       <c r="A149" s="4" t="s">
         <v>738</v>
       </c>
@@ -17043,7 +17060,7 @@
         <v>0.68479999999999996</v>
       </c>
     </row>
-    <row r="150" spans="1:29">
+    <row r="150" spans="1:29" ht="15.6">
       <c r="A150" s="4" t="s">
         <v>743</v>
       </c>
@@ -17132,7 +17149,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:29">
+    <row r="151" spans="1:29" ht="15.6">
       <c r="A151" s="4" t="s">
         <v>747</v>
       </c>
@@ -17221,7 +17238,7 @@
         <v>2.0469999999999999E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:29">
+    <row r="152" spans="1:29" ht="15.6">
       <c r="A152" s="4" t="s">
         <v>753</v>
       </c>
@@ -17310,7 +17327,7 @@
         <v>0.54659999999999997</v>
       </c>
     </row>
-    <row r="153" spans="1:29">
+    <row r="153" spans="1:29" ht="15.6">
       <c r="A153" s="4" t="s">
         <v>759</v>
       </c>
@@ -17399,7 +17416,7 @@
         <v>0.5151</v>
       </c>
     </row>
-    <row r="154" spans="1:29">
+    <row r="154" spans="1:29" ht="15.6">
       <c r="A154" s="4" t="s">
         <v>762</v>
       </c>
@@ -17488,7 +17505,7 @@
         <v>0.2351</v>
       </c>
     </row>
-    <row r="155" spans="1:29">
+    <row r="155" spans="1:29" ht="15.6">
       <c r="A155" s="4" t="s">
         <v>768</v>
       </c>
@@ -17577,7 +17594,7 @@
         <v>0.15709999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:29">
+    <row r="156" spans="1:29" ht="15.6">
       <c r="A156" s="4" t="s">
         <v>773</v>
       </c>
@@ -17666,7 +17683,7 @@
         <v>0.70379999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:29">
+    <row r="157" spans="1:29" ht="15.6">
       <c r="A157" s="4" t="s">
         <v>778</v>
       </c>
@@ -17755,7 +17772,7 @@
         <v>0.15390000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:29">
+    <row r="158" spans="1:29" ht="15.6">
       <c r="A158" s="4" t="s">
         <v>778</v>
       </c>
@@ -17844,7 +17861,7 @@
         <v>0.3029</v>
       </c>
     </row>
-    <row r="159" spans="1:29">
+    <row r="159" spans="1:29" ht="15.6">
       <c r="A159" s="4" t="s">
         <v>778</v>
       </c>
@@ -17933,7 +17950,7 @@
         <v>0.24160000000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:29">
+    <row r="160" spans="1:29" ht="15.6">
       <c r="A160" s="4" t="s">
         <v>788</v>
       </c>
@@ -18022,7 +18039,7 @@
         <v>0.27129999999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:29">
+    <row r="161" spans="1:29" ht="15.6">
       <c r="A161" s="4" t="s">
         <v>788</v>
       </c>
@@ -18111,7 +18128,7 @@
         <v>0.72450000000000003</v>
       </c>
     </row>
-    <row r="162" spans="1:29">
+    <row r="162" spans="1:29" ht="15.6">
       <c r="A162" s="4" t="s">
         <v>798</v>
       </c>
@@ -18200,7 +18217,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="163" spans="1:29">
+    <row r="163" spans="1:29" ht="15.6">
       <c r="A163" s="4" t="s">
         <v>804</v>
       </c>
@@ -18289,7 +18306,7 @@
         <v>0.30409999999999998</v>
       </c>
     </row>
-    <row r="164" spans="1:29">
+    <row r="164" spans="1:29" ht="15.6">
       <c r="A164" s="4" t="s">
         <v>807</v>
       </c>
@@ -18378,7 +18395,7 @@
         <v>0.95930000000000004</v>
       </c>
     </row>
-    <row r="165" spans="1:29">
+    <row r="165" spans="1:29" ht="15.6">
       <c r="A165" s="4" t="s">
         <v>813</v>
       </c>
@@ -18467,7 +18484,7 @@
         <v>0.61539999999999995</v>
       </c>
     </row>
-    <row r="166" spans="1:29">
+    <row r="166" spans="1:29" ht="15.6">
       <c r="A166" s="4" t="s">
         <v>819</v>
       </c>
@@ -18556,7 +18573,7 @@
         <v>0.54849999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:29">
+    <row r="167" spans="1:29" ht="15.6">
       <c r="A167" s="4" t="s">
         <v>824</v>
       </c>
@@ -18645,7 +18662,7 @@
         <v>0.76470000000000005</v>
       </c>
     </row>
-    <row r="168" spans="1:29">
+    <row r="168" spans="1:29" ht="15.6">
       <c r="A168" s="4" t="s">
         <v>830</v>
       </c>
@@ -18734,7 +18751,7 @@
         <v>0.48220000000000002</v>
       </c>
     </row>
-    <row r="169" spans="1:29">
+    <row r="169" spans="1:29" ht="15.6">
       <c r="A169" s="4" t="s">
         <v>836</v>
       </c>
@@ -18823,7 +18840,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="170" spans="1:29">
+    <row r="170" spans="1:29" ht="15.6">
       <c r="A170" s="4" t="s">
         <v>839</v>
       </c>
@@ -18912,7 +18929,7 @@
         <v>0.25519999999999998</v>
       </c>
     </row>
-    <row r="171" spans="1:29">
+    <row r="171" spans="1:29" ht="15.6">
       <c r="A171" s="4" t="s">
         <v>845</v>
       </c>
@@ -19001,7 +19018,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="172" spans="1:29">
+    <row r="172" spans="1:29" ht="15.6">
       <c r="A172" s="4" t="s">
         <v>845</v>
       </c>
@@ -19090,7 +19107,7 @@
         <v>0.40889999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:29">
+    <row r="173" spans="1:29" ht="15.6">
       <c r="A173" s="4" t="s">
         <v>845</v>
       </c>
@@ -19179,7 +19196,7 @@
         <v>0.99250000000000005</v>
       </c>
     </row>
-    <row r="174" spans="1:29">
+    <row r="174" spans="1:29" ht="15.6">
       <c r="A174" s="4" t="s">
         <v>845</v>
       </c>
@@ -19268,7 +19285,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="175" spans="1:29">
+    <row r="175" spans="1:29" ht="15.6">
       <c r="A175" s="4" t="s">
         <v>845</v>
       </c>
@@ -19357,7 +19374,7 @@
         <v>0.46610000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:29">
+    <row r="176" spans="1:29" ht="15.6">
       <c r="A176" s="4" t="s">
         <v>845</v>
       </c>
@@ -19446,7 +19463,7 @@
         <v>0.59219999999999995</v>
       </c>
     </row>
-    <row r="177" spans="1:29">
+    <row r="177" spans="1:29" ht="15.6">
       <c r="A177" s="4" t="s">
         <v>845</v>
       </c>
@@ -19535,7 +19552,7 @@
         <v>0.86709999999999998</v>
       </c>
     </row>
-    <row r="178" spans="1:29">
+    <row r="178" spans="1:29" ht="15.6">
       <c r="A178" s="4" t="s">
         <v>867</v>
       </c>
@@ -19624,7 +19641,7 @@
         <v>0.29959999999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:29">
+    <row r="179" spans="1:29" ht="15.6">
       <c r="A179" s="4" t="s">
         <v>872</v>
       </c>
@@ -19713,7 +19730,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:29">
+    <row r="180" spans="1:29" ht="15.6">
       <c r="A180" s="4" t="s">
         <v>876</v>
       </c>
@@ -19802,7 +19819,7 @@
         <v>0.3735</v>
       </c>
     </row>
-    <row r="181" spans="1:29">
+    <row r="181" spans="1:29" ht="15.6">
       <c r="A181" s="4" t="s">
         <v>882</v>
       </c>
@@ -19891,7 +19908,7 @@
         <v>0.30270000000000002</v>
       </c>
     </row>
-    <row r="182" spans="1:29">
+    <row r="182" spans="1:29" ht="15.6">
       <c r="A182" s="4" t="s">
         <v>887</v>
       </c>
@@ -19980,7 +19997,7 @@
         <v>0.69420000000000004</v>
       </c>
     </row>
-    <row r="183" spans="1:29">
+    <row r="183" spans="1:29" ht="15.6">
       <c r="A183" s="4" t="s">
         <v>893</v>
       </c>
@@ -20069,7 +20086,7 @@
         <v>0.9325</v>
       </c>
     </row>
-    <row r="184" spans="1:29">
+    <row r="184" spans="1:29" ht="15.6">
       <c r="A184" s="4" t="s">
         <v>893</v>
       </c>
@@ -20158,7 +20175,7 @@
         <v>0.91290000000000004</v>
       </c>
     </row>
-    <row r="185" spans="1:29">
+    <row r="185" spans="1:29" ht="15.6">
       <c r="A185" s="4" t="s">
         <v>902</v>
       </c>
@@ -20247,7 +20264,7 @@
         <v>4.0800000000000003E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:29">
+    <row r="186" spans="1:29" ht="15.6">
       <c r="A186" s="4" t="s">
         <v>902</v>
       </c>
@@ -20336,7 +20353,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:29">
+    <row r="187" spans="1:29" ht="15.6">
       <c r="A187" s="4" t="s">
         <v>902</v>
       </c>
@@ -20425,7 +20442,7 @@
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:29">
+    <row r="188" spans="1:29" ht="15.6">
       <c r="A188" s="4" t="s">
         <v>902</v>
       </c>
@@ -20514,7 +20531,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="189" spans="1:29">
+    <row r="189" spans="1:29" ht="15.6">
       <c r="A189" s="4" t="s">
         <v>902</v>
       </c>
@@ -20603,7 +20620,7 @@
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="190" spans="1:29">
+    <row r="190" spans="1:29" ht="15.6">
       <c r="A190" s="4" t="s">
         <v>902</v>
       </c>
@@ -20692,7 +20709,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="191" spans="1:29">
+    <row r="191" spans="1:29" ht="15.6">
       <c r="A191" s="4" t="s">
         <v>902</v>
       </c>
@@ -20781,7 +20798,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="192" spans="1:29">
+    <row r="192" spans="1:29" ht="15.6">
       <c r="A192" s="4" t="s">
         <v>902</v>
       </c>
@@ -20870,7 +20887,7 @@
         <v>7.1199999999999999E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:29">
+    <row r="193" spans="1:29" ht="15.6">
       <c r="A193" s="4" t="s">
         <v>902</v>
       </c>
@@ -20959,7 +20976,7 @@
         <v>8.6499999999999994E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:29">
+    <row r="194" spans="1:29" ht="15.6">
       <c r="A194" s="4" t="s">
         <v>902</v>
       </c>
@@ -21048,7 +21065,7 @@
         <v>0.52300000000000002</v>
       </c>
     </row>
-    <row r="195" spans="1:29">
+    <row r="195" spans="1:29" ht="15.6">
       <c r="A195" s="4" t="s">
         <v>902</v>
       </c>
@@ -21137,7 +21154,7 @@
         <v>1.6899999999999998E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:29">
+    <row r="196" spans="1:29" ht="15.6">
       <c r="A196" s="4" t="s">
         <v>938</v>
       </c>
@@ -21226,7 +21243,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:29">
+    <row r="197" spans="1:29" ht="15.6">
       <c r="A197" s="4" t="s">
         <v>938</v>
       </c>
@@ -21315,7 +21332,7 @@
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:29">
+    <row r="198" spans="1:29" ht="15.6">
       <c r="A198" s="4" t="s">
         <v>938</v>
       </c>
@@ -21404,7 +21421,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="199" spans="1:29">
+    <row r="199" spans="1:29" ht="15.6">
       <c r="A199" s="4" t="s">
         <v>938</v>
       </c>
@@ -21493,7 +21510,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:29">
+    <row r="200" spans="1:29" ht="15.6">
       <c r="A200" s="4" t="s">
         <v>938</v>
       </c>
@@ -21582,7 +21599,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:29">
+    <row r="201" spans="1:29" ht="15.6">
       <c r="A201" s="4" t="s">
         <v>938</v>
       </c>
@@ -21671,7 +21688,7 @@
         <v>0.47599999999999998</v>
       </c>
     </row>
-    <row r="202" spans="1:29">
+    <row r="202" spans="1:29" ht="15.6">
       <c r="A202" s="4" t="s">
         <v>938</v>
       </c>
@@ -21760,7 +21777,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="203" spans="1:29">
+    <row r="203" spans="1:29" ht="15.6">
       <c r="A203" s="4" t="s">
         <v>938</v>
       </c>
@@ -21849,7 +21866,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:29">
+    <row r="204" spans="1:29" ht="15.6">
       <c r="A204" s="4" t="s">
         <v>938</v>
       </c>
@@ -21938,7 +21955,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="205" spans="1:29">
+    <row r="205" spans="1:29" ht="15.6">
       <c r="A205" s="4" t="s">
         <v>938</v>
       </c>
@@ -22027,7 +22044,7 @@
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="206" spans="1:29">
+    <row r="206" spans="1:29" ht="15.6">
       <c r="A206" s="4" t="s">
         <v>938</v>
       </c>
@@ -22116,7 +22133,7 @@
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="207" spans="1:29">
+    <row r="207" spans="1:29" ht="15.6">
       <c r="A207" s="4" t="s">
         <v>938</v>
       </c>
@@ -22205,7 +22222,7 @@
         <v>0.64800000000000002</v>
       </c>
     </row>
-    <row r="208" spans="1:29">
+    <row r="208" spans="1:29" ht="15.6">
       <c r="A208" s="4" t="s">
         <v>938</v>
       </c>
@@ -22294,7 +22311,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:29">
+    <row r="209" spans="1:29" ht="15.6">
       <c r="A209" s="4" t="s">
         <v>977</v>
       </c>
@@ -22383,7 +22400,7 @@
         <v>0.64900000000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:29">
+    <row r="210" spans="1:29" ht="15.6">
       <c r="A210" s="10" t="s">
         <v>983</v>
       </c>
@@ -22472,7 +22489,7 @@
         <v>0.4128</v>
       </c>
     </row>
-    <row r="211" spans="1:29">
+    <row r="211" spans="1:29" ht="15.6">
       <c r="A211" s="10" t="s">
         <v>989</v>
       </c>
@@ -22561,7 +22578,7 @@
         <v>3.44E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:29">
+    <row r="212" spans="1:29" ht="15.6">
       <c r="A212" s="10" t="s">
         <v>989</v>
       </c>
@@ -22650,7 +22667,7 @@
         <v>0.67249999999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:29">
+    <row r="213" spans="1:29" ht="15.6">
       <c r="A213" s="4" t="s">
         <v>1000</v>
       </c>
@@ -22739,7 +22756,7 @@
         <v>0.63500000000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:29">
+    <row r="214" spans="1:29" ht="15.6">
       <c r="A214" s="4" t="s">
         <v>1000</v>
       </c>
@@ -22828,7 +22845,7 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="215" spans="1:29">
+    <row r="215" spans="1:29" ht="15.6">
       <c r="A215" s="4" t="s">
         <v>1000</v>
       </c>
@@ -22917,7 +22934,7 @@
         <v>8.1499999999999997E-4</v>
       </c>
     </row>
-    <row r="216" spans="1:29">
+    <row r="216" spans="1:29" ht="15.6">
       <c r="A216" s="4" t="s">
         <v>1000</v>
       </c>
@@ -23006,7 +23023,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="217" spans="1:29">
+    <row r="217" spans="1:29" ht="15.6">
       <c r="A217" s="4" t="s">
         <v>1000</v>
       </c>
@@ -23095,7 +23112,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="218" spans="1:29">
+    <row r="218" spans="1:29" ht="15.6">
       <c r="A218" s="4" t="s">
         <v>1000</v>
       </c>
@@ -23184,7 +23201,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:29">
+    <row r="219" spans="1:29" ht="15.6">
       <c r="A219" s="4" t="s">
         <v>1000</v>
       </c>
@@ -23273,7 +23290,7 @@
         <v>0.86199999999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:29">
+    <row r="220" spans="1:29" ht="15.6">
       <c r="A220" s="4" t="s">
         <v>1000</v>
       </c>
@@ -23362,7 +23379,7 @@
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="221" spans="1:29">
+    <row r="221" spans="1:29" ht="15.6">
       <c r="A221" s="4" t="s">
         <v>1000</v>
       </c>
@@ -23451,7 +23468,7 @@
         <v>0.96299999999999997</v>
       </c>
     </row>
-    <row r="222" spans="1:29">
+    <row r="222" spans="1:29" ht="15.6">
       <c r="A222" s="4" t="s">
         <v>1000</v>
       </c>
@@ -23540,7 +23557,7 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:29" ht="12.75">
+    <row r="223" spans="1:29" ht="13.2">
       <c r="A223" s="12"/>
       <c r="I223" s="13"/>
       <c r="J223" s="13"/>
@@ -23564,7 +23581,7 @@
       <c r="AB223" s="13"/>
       <c r="AC223" s="13"/>
     </row>
-    <row r="224" spans="1:29" ht="12.75">
+    <row r="224" spans="1:29" ht="13.2">
       <c r="A224" s="12"/>
       <c r="I224" s="13"/>
       <c r="J224" s="13"/>
@@ -23588,7 +23605,7 @@
       <c r="AB224" s="13"/>
       <c r="AC224" s="13"/>
     </row>
-    <row r="225" spans="1:29" ht="12.75">
+    <row r="225" spans="1:29" ht="13.2">
       <c r="A225" s="12"/>
       <c r="I225" s="13"/>
       <c r="J225" s="13"/>
@@ -23612,7 +23629,7 @@
       <c r="AB225" s="13"/>
       <c r="AC225" s="13"/>
     </row>
-    <row r="226" spans="1:29" ht="12.75">
+    <row r="226" spans="1:29" ht="13.2">
       <c r="A226" s="12"/>
       <c r="I226" s="13"/>
       <c r="J226" s="13"/>
@@ -23636,7 +23653,7 @@
       <c r="AB226" s="13"/>
       <c r="AC226" s="13"/>
     </row>
-    <row r="227" spans="1:29" ht="12.75">
+    <row r="227" spans="1:29" ht="13.2">
       <c r="A227" s="12"/>
       <c r="I227" s="13"/>
       <c r="J227" s="13"/>
@@ -23660,7 +23677,7 @@
       <c r="AB227" s="13"/>
       <c r="AC227" s="13"/>
     </row>
-    <row r="228" spans="1:29" ht="12.75">
+    <row r="228" spans="1:29" ht="13.2">
       <c r="A228" s="12"/>
       <c r="I228" s="13"/>
       <c r="J228" s="13"/>
@@ -23684,7 +23701,7 @@
       <c r="AB228" s="13"/>
       <c r="AC228" s="13"/>
     </row>
-    <row r="229" spans="1:29" ht="12.75">
+    <row r="229" spans="1:29" ht="13.2">
       <c r="A229" s="12"/>
       <c r="I229" s="13"/>
       <c r="J229" s="13"/>
@@ -23708,7 +23725,7 @@
       <c r="AB229" s="13"/>
       <c r="AC229" s="13"/>
     </row>
-    <row r="230" spans="1:29" ht="12.75">
+    <row r="230" spans="1:29" ht="13.2">
       <c r="A230" s="12"/>
       <c r="I230" s="13"/>
       <c r="J230" s="13"/>
@@ -23732,7 +23749,7 @@
       <c r="AB230" s="13"/>
       <c r="AC230" s="13"/>
     </row>
-    <row r="231" spans="1:29" ht="12.75">
+    <row r="231" spans="1:29" ht="13.2">
       <c r="A231" s="12"/>
       <c r="I231" s="13"/>
       <c r="J231" s="13"/>
@@ -23756,7 +23773,7 @@
       <c r="AB231" s="13"/>
       <c r="AC231" s="13"/>
     </row>
-    <row r="232" spans="1:29" ht="12.75">
+    <row r="232" spans="1:29" ht="13.2">
       <c r="A232" s="12"/>
       <c r="I232" s="13"/>
       <c r="J232" s="13"/>
@@ -23780,7 +23797,7 @@
       <c r="AB232" s="13"/>
       <c r="AC232" s="13"/>
     </row>
-    <row r="233" spans="1:29" ht="12.75">
+    <row r="233" spans="1:29" ht="13.2">
       <c r="A233" s="12"/>
       <c r="I233" s="13"/>
       <c r="J233" s="13"/>
@@ -23804,7 +23821,7 @@
       <c r="AB233" s="13"/>
       <c r="AC233" s="13"/>
     </row>
-    <row r="234" spans="1:29" ht="12.75">
+    <row r="234" spans="1:29" ht="13.2">
       <c r="A234" s="12"/>
       <c r="I234" s="13"/>
       <c r="J234" s="13"/>
@@ -23828,7 +23845,7 @@
       <c r="AB234" s="13"/>
       <c r="AC234" s="13"/>
     </row>
-    <row r="235" spans="1:29" ht="12.75">
+    <row r="235" spans="1:29" ht="13.2">
       <c r="A235" s="12"/>
       <c r="I235" s="13"/>
       <c r="J235" s="13"/>
@@ -23852,7 +23869,7 @@
       <c r="AB235" s="13"/>
       <c r="AC235" s="13"/>
     </row>
-    <row r="236" spans="1:29" ht="12.75">
+    <row r="236" spans="1:29" ht="13.2">
       <c r="A236" s="12"/>
       <c r="I236" s="13"/>
       <c r="J236" s="13"/>
@@ -23876,7 +23893,7 @@
       <c r="AB236" s="13"/>
       <c r="AC236" s="13"/>
     </row>
-    <row r="237" spans="1:29" ht="12.75">
+    <row r="237" spans="1:29" ht="13.2">
       <c r="A237" s="12"/>
       <c r="I237" s="13"/>
       <c r="J237" s="13"/>
@@ -23900,7 +23917,7 @@
       <c r="AB237" s="13"/>
       <c r="AC237" s="13"/>
     </row>
-    <row r="238" spans="1:29" ht="12.75">
+    <row r="238" spans="1:29" ht="13.2">
       <c r="A238" s="12"/>
       <c r="I238" s="13"/>
       <c r="J238" s="13"/>
@@ -23924,7 +23941,7 @@
       <c r="AB238" s="13"/>
       <c r="AC238" s="13"/>
     </row>
-    <row r="239" spans="1:29" ht="12.75">
+    <row r="239" spans="1:29" ht="13.2">
       <c r="A239" s="12"/>
       <c r="I239" s="13"/>
       <c r="J239" s="13"/>
@@ -23948,7 +23965,7 @@
       <c r="AB239" s="13"/>
       <c r="AC239" s="13"/>
     </row>
-    <row r="240" spans="1:29" ht="12.75">
+    <row r="240" spans="1:29" ht="13.2">
       <c r="A240" s="12"/>
       <c r="I240" s="13"/>
       <c r="J240" s="13"/>
@@ -23972,7 +23989,7 @@
       <c r="AB240" s="13"/>
       <c r="AC240" s="13"/>
     </row>
-    <row r="241" spans="1:29" ht="12.75">
+    <row r="241" spans="1:29" ht="13.2">
       <c r="A241" s="12"/>
       <c r="I241" s="13"/>
       <c r="J241" s="13"/>
@@ -23996,7 +24013,7 @@
       <c r="AB241" s="13"/>
       <c r="AC241" s="13"/>
     </row>
-    <row r="242" spans="1:29" ht="12.75">
+    <row r="242" spans="1:29" ht="13.2">
       <c r="A242" s="12"/>
       <c r="I242" s="13"/>
       <c r="J242" s="13"/>
@@ -24020,7 +24037,7 @@
       <c r="AB242" s="13"/>
       <c r="AC242" s="13"/>
     </row>
-    <row r="243" spans="1:29" ht="12.75">
+    <row r="243" spans="1:29" ht="13.2">
       <c r="A243" s="12"/>
       <c r="I243" s="13"/>
       <c r="J243" s="13"/>
@@ -24044,7 +24061,7 @@
       <c r="AB243" s="13"/>
       <c r="AC243" s="13"/>
     </row>
-    <row r="244" spans="1:29" ht="12.75">
+    <row r="244" spans="1:29" ht="13.2">
       <c r="A244" s="12"/>
       <c r="I244" s="13"/>
       <c r="J244" s="13"/>
@@ -24068,7 +24085,7 @@
       <c r="AB244" s="13"/>
       <c r="AC244" s="13"/>
     </row>
-    <row r="245" spans="1:29" ht="12.75">
+    <row r="245" spans="1:29" ht="13.2">
       <c r="A245" s="12"/>
       <c r="I245" s="13"/>
       <c r="J245" s="13"/>
@@ -24092,7 +24109,7 @@
       <c r="AB245" s="13"/>
       <c r="AC245" s="13"/>
     </row>
-    <row r="246" spans="1:29" ht="12.75">
+    <row r="246" spans="1:29" ht="13.2">
       <c r="A246" s="12"/>
       <c r="I246" s="13"/>
       <c r="J246" s="13"/>
@@ -24116,7 +24133,7 @@
       <c r="AB246" s="13"/>
       <c r="AC246" s="13"/>
     </row>
-    <row r="247" spans="1:29" ht="12.75">
+    <row r="247" spans="1:29" ht="13.2">
       <c r="A247" s="12"/>
       <c r="I247" s="13"/>
       <c r="J247" s="13"/>
@@ -24140,7 +24157,7 @@
       <c r="AB247" s="13"/>
       <c r="AC247" s="13"/>
     </row>
-    <row r="248" spans="1:29" ht="12.75">
+    <row r="248" spans="1:29" ht="13.2">
       <c r="A248" s="12"/>
       <c r="I248" s="13"/>
       <c r="J248" s="13"/>
@@ -24164,7 +24181,7 @@
       <c r="AB248" s="13"/>
       <c r="AC248" s="13"/>
     </row>
-    <row r="249" spans="1:29" ht="12.75">
+    <row r="249" spans="1:29" ht="13.2">
       <c r="A249" s="12"/>
       <c r="I249" s="13"/>
       <c r="J249" s="13"/>
@@ -24188,7 +24205,7 @@
       <c r="AB249" s="13"/>
       <c r="AC249" s="13"/>
     </row>
-    <row r="250" spans="1:29" ht="12.75">
+    <row r="250" spans="1:29" ht="13.2">
       <c r="A250" s="12"/>
       <c r="I250" s="13"/>
       <c r="J250" s="13"/>
@@ -24212,7 +24229,7 @@
       <c r="AB250" s="13"/>
       <c r="AC250" s="13"/>
     </row>
-    <row r="251" spans="1:29" ht="12.75">
+    <row r="251" spans="1:29" ht="13.2">
       <c r="A251" s="12"/>
       <c r="I251" s="13"/>
       <c r="J251" s="13"/>
@@ -24236,7 +24253,7 @@
       <c r="AB251" s="13"/>
       <c r="AC251" s="13"/>
     </row>
-    <row r="252" spans="1:29" ht="12.75">
+    <row r="252" spans="1:29" ht="13.2">
       <c r="A252" s="12"/>
       <c r="I252" s="13"/>
       <c r="J252" s="13"/>
@@ -24260,7 +24277,7 @@
       <c r="AB252" s="13"/>
       <c r="AC252" s="13"/>
     </row>
-    <row r="253" spans="1:29" ht="12.75">
+    <row r="253" spans="1:29" ht="13.2">
       <c r="A253" s="12"/>
       <c r="I253" s="13"/>
       <c r="J253" s="13"/>
@@ -24284,7 +24301,7 @@
       <c r="AB253" s="13"/>
       <c r="AC253" s="13"/>
     </row>
-    <row r="254" spans="1:29" ht="12.75">
+    <row r="254" spans="1:29" ht="13.2">
       <c r="A254" s="12"/>
       <c r="I254" s="13"/>
       <c r="J254" s="13"/>
@@ -24308,7 +24325,7 @@
       <c r="AB254" s="13"/>
       <c r="AC254" s="13"/>
     </row>
-    <row r="255" spans="1:29" ht="12.75">
+    <row r="255" spans="1:29" ht="13.2">
       <c r="A255" s="12"/>
       <c r="I255" s="13"/>
       <c r="J255" s="13"/>
@@ -24332,7 +24349,7 @@
       <c r="AB255" s="13"/>
       <c r="AC255" s="13"/>
     </row>
-    <row r="256" spans="1:29" ht="12.75">
+    <row r="256" spans="1:29" ht="13.2">
       <c r="A256" s="12"/>
       <c r="I256" s="13"/>
       <c r="J256" s="13"/>
@@ -24356,7 +24373,7 @@
       <c r="AB256" s="13"/>
       <c r="AC256" s="13"/>
     </row>
-    <row r="257" spans="1:29" ht="12.75">
+    <row r="257" spans="1:29" ht="13.2">
       <c r="A257" s="12"/>
       <c r="I257" s="13"/>
       <c r="J257" s="13"/>
@@ -24380,7 +24397,7 @@
       <c r="AB257" s="13"/>
       <c r="AC257" s="13"/>
     </row>
-    <row r="258" spans="1:29" ht="12.75">
+    <row r="258" spans="1:29" ht="13.2">
       <c r="A258" s="12"/>
       <c r="I258" s="13"/>
       <c r="J258" s="13"/>
@@ -24404,7 +24421,7 @@
       <c r="AB258" s="13"/>
       <c r="AC258" s="13"/>
     </row>
-    <row r="259" spans="1:29" ht="12.75">
+    <row r="259" spans="1:29" ht="13.2">
       <c r="A259" s="12"/>
       <c r="I259" s="13"/>
       <c r="J259" s="13"/>
@@ -24428,7 +24445,7 @@
       <c r="AB259" s="13"/>
       <c r="AC259" s="13"/>
     </row>
-    <row r="260" spans="1:29" ht="12.75">
+    <row r="260" spans="1:29" ht="13.2">
       <c r="A260" s="12"/>
       <c r="I260" s="13"/>
       <c r="J260" s="13"/>
@@ -24452,7 +24469,7 @@
       <c r="AB260" s="13"/>
       <c r="AC260" s="13"/>
     </row>
-    <row r="261" spans="1:29" ht="12.75">
+    <row r="261" spans="1:29" ht="13.2">
       <c r="A261" s="12"/>
       <c r="I261" s="13"/>
       <c r="J261" s="13"/>
@@ -24476,7 +24493,7 @@
       <c r="AB261" s="13"/>
       <c r="AC261" s="13"/>
     </row>
-    <row r="262" spans="1:29" ht="12.75">
+    <row r="262" spans="1:29" ht="13.2">
       <c r="A262" s="12"/>
       <c r="I262" s="13"/>
       <c r="J262" s="13"/>
@@ -24500,7 +24517,7 @@
       <c r="AB262" s="13"/>
       <c r="AC262" s="13"/>
     </row>
-    <row r="263" spans="1:29" ht="12.75">
+    <row r="263" spans="1:29" ht="13.2">
       <c r="A263" s="12"/>
       <c r="I263" s="13"/>
       <c r="J263" s="13"/>
@@ -24524,7 +24541,7 @@
       <c r="AB263" s="13"/>
       <c r="AC263" s="13"/>
     </row>
-    <row r="264" spans="1:29" ht="12.75">
+    <row r="264" spans="1:29" ht="13.2">
       <c r="A264" s="12"/>
       <c r="I264" s="13"/>
       <c r="J264" s="13"/>
@@ -24548,7 +24565,7 @@
       <c r="AB264" s="13"/>
       <c r="AC264" s="13"/>
     </row>
-    <row r="265" spans="1:29" ht="12.75">
+    <row r="265" spans="1:29" ht="13.2">
       <c r="A265" s="12"/>
       <c r="I265" s="13"/>
       <c r="J265" s="13"/>
@@ -24572,7 +24589,7 @@
       <c r="AB265" s="13"/>
       <c r="AC265" s="13"/>
     </row>
-    <row r="266" spans="1:29" ht="12.75">
+    <row r="266" spans="1:29" ht="13.2">
       <c r="A266" s="12"/>
       <c r="I266" s="13"/>
       <c r="J266" s="13"/>
@@ -24596,7 +24613,7 @@
       <c r="AB266" s="13"/>
       <c r="AC266" s="13"/>
     </row>
-    <row r="267" spans="1:29" ht="12.75">
+    <row r="267" spans="1:29" ht="13.2">
       <c r="A267" s="12"/>
       <c r="I267" s="13"/>
       <c r="J267" s="13"/>
@@ -24620,7 +24637,7 @@
       <c r="AB267" s="13"/>
       <c r="AC267" s="13"/>
     </row>
-    <row r="268" spans="1:29" ht="12.75">
+    <row r="268" spans="1:29" ht="13.2">
       <c r="A268" s="12"/>
       <c r="I268" s="13"/>
       <c r="J268" s="13"/>
@@ -24644,7 +24661,7 @@
       <c r="AB268" s="13"/>
       <c r="AC268" s="13"/>
     </row>
-    <row r="269" spans="1:29" ht="12.75">
+    <row r="269" spans="1:29" ht="13.2">
       <c r="A269" s="12"/>
       <c r="I269" s="13"/>
       <c r="J269" s="13"/>
@@ -24668,7 +24685,7 @@
       <c r="AB269" s="13"/>
       <c r="AC269" s="13"/>
     </row>
-    <row r="270" spans="1:29" ht="12.75">
+    <row r="270" spans="1:29" ht="13.2">
       <c r="A270" s="12"/>
       <c r="I270" s="13"/>
       <c r="J270" s="13"/>
@@ -24692,7 +24709,7 @@
       <c r="AB270" s="13"/>
       <c r="AC270" s="13"/>
     </row>
-    <row r="271" spans="1:29" ht="12.75">
+    <row r="271" spans="1:29" ht="13.2">
       <c r="A271" s="12"/>
       <c r="I271" s="13"/>
       <c r="J271" s="13"/>
@@ -24716,7 +24733,7 @@
       <c r="AB271" s="13"/>
       <c r="AC271" s="13"/>
     </row>
-    <row r="272" spans="1:29" ht="12.75">
+    <row r="272" spans="1:29" ht="13.2">
       <c r="A272" s="12"/>
       <c r="I272" s="13"/>
       <c r="J272" s="13"/>
@@ -24740,7 +24757,7 @@
       <c r="AB272" s="13"/>
       <c r="AC272" s="13"/>
     </row>
-    <row r="273" spans="1:29" ht="12.75">
+    <row r="273" spans="1:29" ht="13.2">
       <c r="A273" s="12"/>
       <c r="I273" s="13"/>
       <c r="J273" s="13"/>
@@ -24764,7 +24781,7 @@
       <c r="AB273" s="13"/>
       <c r="AC273" s="13"/>
     </row>
-    <row r="274" spans="1:29" ht="12.75">
+    <row r="274" spans="1:29" ht="13.2">
       <c r="A274" s="12"/>
       <c r="I274" s="13"/>
       <c r="J274" s="13"/>
@@ -24788,7 +24805,7 @@
       <c r="AB274" s="13"/>
       <c r="AC274" s="13"/>
     </row>
-    <row r="275" spans="1:29" ht="12.75">
+    <row r="275" spans="1:29" ht="13.2">
       <c r="A275" s="12"/>
       <c r="I275" s="13"/>
       <c r="J275" s="13"/>
@@ -24812,7 +24829,7 @@
       <c r="AB275" s="13"/>
       <c r="AC275" s="13"/>
     </row>
-    <row r="276" spans="1:29" ht="12.75">
+    <row r="276" spans="1:29" ht="13.2">
       <c r="A276" s="12"/>
       <c r="I276" s="13"/>
       <c r="J276" s="13"/>
@@ -24836,7 +24853,7 @@
       <c r="AB276" s="13"/>
       <c r="AC276" s="13"/>
     </row>
-    <row r="277" spans="1:29" ht="12.75">
+    <row r="277" spans="1:29" ht="13.2">
       <c r="A277" s="12"/>
       <c r="I277" s="13"/>
       <c r="J277" s="13"/>
@@ -24860,7 +24877,7 @@
       <c r="AB277" s="13"/>
       <c r="AC277" s="13"/>
     </row>
-    <row r="278" spans="1:29" ht="12.75">
+    <row r="278" spans="1:29" ht="13.2">
       <c r="A278" s="12"/>
       <c r="I278" s="13"/>
       <c r="J278" s="13"/>
@@ -24884,7 +24901,7 @@
       <c r="AB278" s="13"/>
       <c r="AC278" s="13"/>
     </row>
-    <row r="279" spans="1:29" ht="12.75">
+    <row r="279" spans="1:29" ht="13.2">
       <c r="A279" s="12"/>
       <c r="I279" s="13"/>
       <c r="J279" s="13"/>
@@ -24908,7 +24925,7 @@
       <c r="AB279" s="13"/>
       <c r="AC279" s="13"/>
     </row>
-    <row r="280" spans="1:29" ht="12.75">
+    <row r="280" spans="1:29" ht="13.2">
       <c r="A280" s="12"/>
       <c r="I280" s="13"/>
       <c r="J280" s="13"/>
@@ -24932,7 +24949,7 @@
       <c r="AB280" s="13"/>
       <c r="AC280" s="13"/>
     </row>
-    <row r="281" spans="1:29" ht="12.75">
+    <row r="281" spans="1:29" ht="13.2">
       <c r="A281" s="12"/>
       <c r="I281" s="13"/>
       <c r="J281" s="13"/>
@@ -24956,7 +24973,7 @@
       <c r="AB281" s="13"/>
       <c r="AC281" s="13"/>
     </row>
-    <row r="282" spans="1:29" ht="12.75">
+    <row r="282" spans="1:29" ht="13.2">
       <c r="A282" s="12"/>
       <c r="I282" s="13"/>
       <c r="J282" s="13"/>
@@ -24980,7 +24997,7 @@
       <c r="AB282" s="13"/>
       <c r="AC282" s="13"/>
     </row>
-    <row r="283" spans="1:29" ht="12.75">
+    <row r="283" spans="1:29" ht="13.2">
       <c r="A283" s="12"/>
       <c r="I283" s="13"/>
       <c r="J283" s="13"/>
@@ -25004,7 +25021,7 @@
       <c r="AB283" s="13"/>
       <c r="AC283" s="13"/>
     </row>
-    <row r="284" spans="1:29" ht="12.75">
+    <row r="284" spans="1:29" ht="13.2">
       <c r="A284" s="12"/>
       <c r="I284" s="13"/>
       <c r="J284" s="13"/>
@@ -25028,7 +25045,7 @@
       <c r="AB284" s="13"/>
       <c r="AC284" s="13"/>
     </row>
-    <row r="285" spans="1:29" ht="12.75">
+    <row r="285" spans="1:29" ht="13.2">
       <c r="A285" s="12"/>
       <c r="I285" s="13"/>
       <c r="J285" s="13"/>
@@ -25052,7 +25069,7 @@
       <c r="AB285" s="13"/>
       <c r="AC285" s="13"/>
     </row>
-    <row r="286" spans="1:29" ht="12.75">
+    <row r="286" spans="1:29" ht="13.2">
       <c r="A286" s="12"/>
       <c r="I286" s="13"/>
       <c r="J286" s="13"/>
@@ -25076,7 +25093,7 @@
       <c r="AB286" s="13"/>
       <c r="AC286" s="13"/>
     </row>
-    <row r="287" spans="1:29" ht="12.75">
+    <row r="287" spans="1:29" ht="13.2">
       <c r="A287" s="12"/>
       <c r="I287" s="13"/>
       <c r="J287" s="13"/>
@@ -25100,7 +25117,7 @@
       <c r="AB287" s="13"/>
       <c r="AC287" s="13"/>
     </row>
-    <row r="288" spans="1:29" ht="12.75">
+    <row r="288" spans="1:29" ht="13.2">
       <c r="A288" s="12"/>
       <c r="I288" s="13"/>
       <c r="J288" s="13"/>
@@ -25124,7 +25141,7 @@
       <c r="AB288" s="13"/>
       <c r="AC288" s="13"/>
     </row>
-    <row r="289" spans="1:29" ht="12.75">
+    <row r="289" spans="1:29" ht="13.2">
       <c r="A289" s="12"/>
       <c r="I289" s="13"/>
       <c r="J289" s="13"/>
@@ -25148,7 +25165,7 @@
       <c r="AB289" s="13"/>
       <c r="AC289" s="13"/>
     </row>
-    <row r="290" spans="1:29" ht="12.75">
+    <row r="290" spans="1:29" ht="13.2">
       <c r="A290" s="12"/>
       <c r="I290" s="13"/>
       <c r="J290" s="13"/>
@@ -25172,7 +25189,7 @@
       <c r="AB290" s="13"/>
       <c r="AC290" s="13"/>
     </row>
-    <row r="291" spans="1:29" ht="12.75">
+    <row r="291" spans="1:29" ht="13.2">
       <c r="A291" s="12"/>
       <c r="I291" s="13"/>
       <c r="J291" s="13"/>
@@ -25196,7 +25213,7 @@
       <c r="AB291" s="13"/>
       <c r="AC291" s="13"/>
     </row>
-    <row r="292" spans="1:29" ht="12.75">
+    <row r="292" spans="1:29" ht="13.2">
       <c r="A292" s="12"/>
       <c r="I292" s="13"/>
       <c r="J292" s="13"/>
@@ -25220,7 +25237,7 @@
       <c r="AB292" s="13"/>
       <c r="AC292" s="13"/>
     </row>
-    <row r="293" spans="1:29" ht="12.75">
+    <row r="293" spans="1:29" ht="13.2">
       <c r="A293" s="12"/>
       <c r="I293" s="13"/>
       <c r="J293" s="13"/>
@@ -25244,7 +25261,7 @@
       <c r="AB293" s="13"/>
       <c r="AC293" s="13"/>
     </row>
-    <row r="294" spans="1:29" ht="12.75">
+    <row r="294" spans="1:29" ht="13.2">
       <c r="A294" s="12"/>
       <c r="I294" s="13"/>
       <c r="J294" s="13"/>
@@ -25268,7 +25285,7 @@
       <c r="AB294" s="13"/>
       <c r="AC294" s="13"/>
     </row>
-    <row r="295" spans="1:29" ht="12.75">
+    <row r="295" spans="1:29" ht="13.2">
       <c r="A295" s="12"/>
       <c r="I295" s="13"/>
       <c r="J295" s="13"/>
@@ -25292,7 +25309,7 @@
       <c r="AB295" s="13"/>
       <c r="AC295" s="13"/>
     </row>
-    <row r="296" spans="1:29" ht="12.75">
+    <row r="296" spans="1:29" ht="13.2">
       <c r="A296" s="12"/>
       <c r="I296" s="13"/>
       <c r="J296" s="13"/>
@@ -25316,7 +25333,7 @@
       <c r="AB296" s="13"/>
       <c r="AC296" s="13"/>
     </row>
-    <row r="297" spans="1:29" ht="12.75">
+    <row r="297" spans="1:29" ht="13.2">
       <c r="A297" s="12"/>
       <c r="I297" s="13"/>
       <c r="J297" s="13"/>
@@ -25340,7 +25357,7 @@
       <c r="AB297" s="13"/>
       <c r="AC297" s="13"/>
     </row>
-    <row r="298" spans="1:29" ht="12.75">
+    <row r="298" spans="1:29" ht="13.2">
       <c r="A298" s="12"/>
       <c r="I298" s="13"/>
       <c r="J298" s="13"/>
@@ -25364,7 +25381,7 @@
       <c r="AB298" s="13"/>
       <c r="AC298" s="13"/>
     </row>
-    <row r="299" spans="1:29" ht="12.75">
+    <row r="299" spans="1:29" ht="13.2">
       <c r="A299" s="12"/>
       <c r="I299" s="13"/>
       <c r="J299" s="13"/>
@@ -25388,7 +25405,7 @@
       <c r="AB299" s="13"/>
       <c r="AC299" s="13"/>
     </row>
-    <row r="300" spans="1:29" ht="12.75">
+    <row r="300" spans="1:29" ht="13.2">
       <c r="A300" s="12"/>
       <c r="I300" s="13"/>
       <c r="J300" s="13"/>
@@ -25412,7 +25429,7 @@
       <c r="AB300" s="13"/>
       <c r="AC300" s="13"/>
     </row>
-    <row r="301" spans="1:29" ht="12.75">
+    <row r="301" spans="1:29" ht="13.2">
       <c r="A301" s="12"/>
       <c r="I301" s="13"/>
       <c r="J301" s="13"/>
@@ -25436,7 +25453,7 @@
       <c r="AB301" s="13"/>
       <c r="AC301" s="13"/>
     </row>
-    <row r="302" spans="1:29" ht="12.75">
+    <row r="302" spans="1:29" ht="13.2">
       <c r="A302" s="12"/>
       <c r="I302" s="13"/>
       <c r="J302" s="13"/>
@@ -25460,7 +25477,7 @@
       <c r="AB302" s="13"/>
       <c r="AC302" s="13"/>
     </row>
-    <row r="303" spans="1:29" ht="12.75">
+    <row r="303" spans="1:29" ht="13.2">
       <c r="A303" s="12"/>
       <c r="I303" s="13"/>
       <c r="J303" s="13"/>
@@ -25484,7 +25501,7 @@
       <c r="AB303" s="13"/>
       <c r="AC303" s="13"/>
     </row>
-    <row r="304" spans="1:29" ht="12.75">
+    <row r="304" spans="1:29" ht="13.2">
       <c r="A304" s="12"/>
       <c r="I304" s="13"/>
       <c r="J304" s="13"/>
@@ -25508,7 +25525,7 @@
       <c r="AB304" s="13"/>
       <c r="AC304" s="13"/>
     </row>
-    <row r="305" spans="1:29" ht="12.75">
+    <row r="305" spans="1:29" ht="13.2">
       <c r="A305" s="12"/>
       <c r="I305" s="13"/>
       <c r="J305" s="13"/>
@@ -25532,7 +25549,7 @@
       <c r="AB305" s="13"/>
       <c r="AC305" s="13"/>
     </row>
-    <row r="306" spans="1:29" ht="12.75">
+    <row r="306" spans="1:29" ht="13.2">
       <c r="A306" s="12"/>
       <c r="I306" s="13"/>
       <c r="J306" s="13"/>
@@ -25556,7 +25573,7 @@
       <c r="AB306" s="13"/>
       <c r="AC306" s="13"/>
     </row>
-    <row r="307" spans="1:29" ht="12.75">
+    <row r="307" spans="1:29" ht="13.2">
       <c r="A307" s="12"/>
       <c r="I307" s="13"/>
       <c r="J307" s="13"/>
@@ -25580,7 +25597,7 @@
       <c r="AB307" s="13"/>
       <c r="AC307" s="13"/>
     </row>
-    <row r="308" spans="1:29" ht="12.75">
+    <row r="308" spans="1:29" ht="13.2">
       <c r="A308" s="12"/>
       <c r="I308" s="13"/>
       <c r="J308" s="13"/>
@@ -25604,7 +25621,7 @@
       <c r="AB308" s="13"/>
       <c r="AC308" s="13"/>
     </row>
-    <row r="309" spans="1:29" ht="12.75">
+    <row r="309" spans="1:29" ht="13.2">
       <c r="A309" s="12"/>
       <c r="I309" s="13"/>
       <c r="J309" s="13"/>
@@ -25628,7 +25645,7 @@
       <c r="AB309" s="13"/>
       <c r="AC309" s="13"/>
     </row>
-    <row r="310" spans="1:29" ht="12.75">
+    <row r="310" spans="1:29" ht="13.2">
       <c r="A310" s="12"/>
       <c r="I310" s="13"/>
       <c r="J310" s="13"/>
@@ -25652,7 +25669,7 @@
       <c r="AB310" s="13"/>
       <c r="AC310" s="13"/>
     </row>
-    <row r="311" spans="1:29" ht="12.75">
+    <row r="311" spans="1:29" ht="13.2">
       <c r="A311" s="12"/>
       <c r="I311" s="13"/>
       <c r="J311" s="13"/>
@@ -25676,7 +25693,7 @@
       <c r="AB311" s="13"/>
       <c r="AC311" s="13"/>
     </row>
-    <row r="312" spans="1:29" ht="12.75">
+    <row r="312" spans="1:29" ht="13.2">
       <c r="A312" s="12"/>
       <c r="I312" s="13"/>
       <c r="J312" s="13"/>
@@ -25700,7 +25717,7 @@
       <c r="AB312" s="13"/>
       <c r="AC312" s="13"/>
     </row>
-    <row r="313" spans="1:29" ht="12.75">
+    <row r="313" spans="1:29" ht="13.2">
       <c r="A313" s="12"/>
       <c r="I313" s="13"/>
       <c r="J313" s="13"/>
@@ -25724,7 +25741,7 @@
       <c r="AB313" s="13"/>
       <c r="AC313" s="13"/>
     </row>
-    <row r="314" spans="1:29" ht="12.75">
+    <row r="314" spans="1:29" ht="13.2">
       <c r="A314" s="12"/>
       <c r="I314" s="13"/>
       <c r="J314" s="13"/>
@@ -25748,7 +25765,7 @@
       <c r="AB314" s="13"/>
       <c r="AC314" s="13"/>
     </row>
-    <row r="315" spans="1:29" ht="12.75">
+    <row r="315" spans="1:29" ht="13.2">
       <c r="A315" s="12"/>
       <c r="I315" s="13"/>
       <c r="J315" s="13"/>
@@ -25772,7 +25789,7 @@
       <c r="AB315" s="13"/>
       <c r="AC315" s="13"/>
     </row>
-    <row r="316" spans="1:29" ht="12.75">
+    <row r="316" spans="1:29" ht="13.2">
       <c r="A316" s="12"/>
       <c r="I316" s="13"/>
       <c r="J316" s="13"/>
@@ -25796,7 +25813,7 @@
       <c r="AB316" s="13"/>
       <c r="AC316" s="13"/>
     </row>
-    <row r="317" spans="1:29" ht="12.75">
+    <row r="317" spans="1:29" ht="13.2">
       <c r="A317" s="12"/>
       <c r="I317" s="13"/>
       <c r="J317" s="13"/>
@@ -25820,7 +25837,7 @@
       <c r="AB317" s="13"/>
       <c r="AC317" s="13"/>
     </row>
-    <row r="318" spans="1:29" ht="12.75">
+    <row r="318" spans="1:29" ht="13.2">
       <c r="A318" s="12"/>
       <c r="I318" s="13"/>
       <c r="J318" s="13"/>
@@ -25844,7 +25861,7 @@
       <c r="AB318" s="13"/>
       <c r="AC318" s="13"/>
     </row>
-    <row r="319" spans="1:29" ht="12.75">
+    <row r="319" spans="1:29" ht="13.2">
       <c r="A319" s="12"/>
       <c r="I319" s="13"/>
       <c r="J319" s="13"/>
@@ -25868,7 +25885,7 @@
       <c r="AB319" s="13"/>
       <c r="AC319" s="13"/>
     </row>
-    <row r="320" spans="1:29" ht="12.75">
+    <row r="320" spans="1:29" ht="13.2">
       <c r="A320" s="12"/>
       <c r="I320" s="13"/>
       <c r="J320" s="13"/>
@@ -25892,7 +25909,7 @@
       <c r="AB320" s="13"/>
       <c r="AC320" s="13"/>
     </row>
-    <row r="321" spans="1:29" ht="12.75">
+    <row r="321" spans="1:29" ht="13.2">
       <c r="A321" s="12"/>
       <c r="I321" s="13"/>
       <c r="J321" s="13"/>
@@ -25916,7 +25933,7 @@
       <c r="AB321" s="13"/>
       <c r="AC321" s="13"/>
     </row>
-    <row r="322" spans="1:29" ht="12.75">
+    <row r="322" spans="1:29" ht="13.2">
       <c r="A322" s="12"/>
       <c r="I322" s="13"/>
       <c r="J322" s="13"/>
@@ -25940,7 +25957,7 @@
       <c r="AB322" s="13"/>
       <c r="AC322" s="13"/>
     </row>
-    <row r="323" spans="1:29" ht="12.75">
+    <row r="323" spans="1:29" ht="13.2">
       <c r="A323" s="12"/>
       <c r="I323" s="13"/>
       <c r="J323" s="13"/>
@@ -25964,7 +25981,7 @@
       <c r="AB323" s="13"/>
       <c r="AC323" s="13"/>
     </row>
-    <row r="324" spans="1:29" ht="12.75">
+    <row r="324" spans="1:29" ht="13.2">
       <c r="A324" s="12"/>
       <c r="I324" s="13"/>
       <c r="J324" s="13"/>
@@ -25988,7 +26005,7 @@
       <c r="AB324" s="13"/>
       <c r="AC324" s="13"/>
     </row>
-    <row r="325" spans="1:29" ht="12.75">
+    <row r="325" spans="1:29" ht="13.2">
       <c r="A325" s="12"/>
       <c r="I325" s="13"/>
       <c r="J325" s="13"/>
@@ -26012,7 +26029,7 @@
       <c r="AB325" s="13"/>
       <c r="AC325" s="13"/>
     </row>
-    <row r="326" spans="1:29" ht="12.75">
+    <row r="326" spans="1:29" ht="13.2">
       <c r="A326" s="12"/>
       <c r="I326" s="13"/>
       <c r="J326" s="13"/>
@@ -26036,7 +26053,7 @@
       <c r="AB326" s="13"/>
       <c r="AC326" s="13"/>
     </row>
-    <row r="327" spans="1:29" ht="12.75">
+    <row r="327" spans="1:29" ht="13.2">
       <c r="A327" s="12"/>
       <c r="I327" s="13"/>
       <c r="J327" s="13"/>
@@ -26060,7 +26077,7 @@
       <c r="AB327" s="13"/>
       <c r="AC327" s="13"/>
     </row>
-    <row r="328" spans="1:29" ht="12.75">
+    <row r="328" spans="1:29" ht="13.2">
       <c r="A328" s="12"/>
       <c r="I328" s="13"/>
       <c r="J328" s="13"/>
@@ -26084,7 +26101,7 @@
       <c r="AB328" s="13"/>
       <c r="AC328" s="13"/>
     </row>
-    <row r="329" spans="1:29" ht="12.75">
+    <row r="329" spans="1:29" ht="13.2">
       <c r="A329" s="12"/>
       <c r="I329" s="13"/>
       <c r="J329" s="13"/>
@@ -26108,7 +26125,7 @@
       <c r="AB329" s="13"/>
       <c r="AC329" s="13"/>
     </row>
-    <row r="330" spans="1:29" ht="12.75">
+    <row r="330" spans="1:29" ht="13.2">
       <c r="A330" s="12"/>
       <c r="I330" s="13"/>
       <c r="J330" s="13"/>
@@ -26132,7 +26149,7 @@
       <c r="AB330" s="13"/>
       <c r="AC330" s="13"/>
     </row>
-    <row r="331" spans="1:29" ht="12.75">
+    <row r="331" spans="1:29" ht="13.2">
       <c r="A331" s="12"/>
       <c r="I331" s="13"/>
       <c r="J331" s="13"/>
@@ -26156,7 +26173,7 @@
       <c r="AB331" s="13"/>
       <c r="AC331" s="13"/>
     </row>
-    <row r="332" spans="1:29" ht="12.75">
+    <row r="332" spans="1:29" ht="13.2">
       <c r="A332" s="12"/>
       <c r="I332" s="13"/>
       <c r="J332" s="13"/>
@@ -26180,7 +26197,7 @@
       <c r="AB332" s="13"/>
       <c r="AC332" s="13"/>
     </row>
-    <row r="333" spans="1:29" ht="12.75">
+    <row r="333" spans="1:29" ht="13.2">
       <c r="A333" s="12"/>
       <c r="I333" s="13"/>
       <c r="J333" s="13"/>
@@ -26204,7 +26221,7 @@
       <c r="AB333" s="13"/>
       <c r="AC333" s="13"/>
     </row>
-    <row r="334" spans="1:29" ht="12.75">
+    <row r="334" spans="1:29" ht="13.2">
       <c r="A334" s="12"/>
       <c r="I334" s="13"/>
       <c r="J334" s="13"/>
@@ -26228,7 +26245,7 @@
       <c r="AB334" s="13"/>
       <c r="AC334" s="13"/>
     </row>
-    <row r="335" spans="1:29" ht="12.75">
+    <row r="335" spans="1:29" ht="13.2">
       <c r="A335" s="12"/>
       <c r="I335" s="13"/>
       <c r="J335" s="13"/>
@@ -26252,7 +26269,7 @@
       <c r="AB335" s="13"/>
       <c r="AC335" s="13"/>
     </row>
-    <row r="336" spans="1:29" ht="12.75">
+    <row r="336" spans="1:29" ht="13.2">
       <c r="A336" s="12"/>
       <c r="I336" s="13"/>
       <c r="J336" s="13"/>
@@ -26276,7 +26293,7 @@
       <c r="AB336" s="13"/>
       <c r="AC336" s="13"/>
     </row>
-    <row r="337" spans="1:29" ht="12.75">
+    <row r="337" spans="1:29" ht="13.2">
       <c r="A337" s="12"/>
       <c r="I337" s="13"/>
       <c r="J337" s="13"/>
@@ -26300,7 +26317,7 @@
       <c r="AB337" s="13"/>
       <c r="AC337" s="13"/>
     </row>
-    <row r="338" spans="1:29" ht="12.75">
+    <row r="338" spans="1:29" ht="13.2">
       <c r="A338" s="12"/>
       <c r="I338" s="13"/>
       <c r="J338" s="13"/>
@@ -26324,7 +26341,7 @@
       <c r="AB338" s="13"/>
       <c r="AC338" s="13"/>
     </row>
-    <row r="339" spans="1:29" ht="12.75">
+    <row r="339" spans="1:29" ht="13.2">
       <c r="A339" s="12"/>
       <c r="I339" s="13"/>
       <c r="J339" s="13"/>
@@ -26348,7 +26365,7 @@
       <c r="AB339" s="13"/>
       <c r="AC339" s="13"/>
     </row>
-    <row r="340" spans="1:29" ht="12.75">
+    <row r="340" spans="1:29" ht="13.2">
       <c r="A340" s="12"/>
       <c r="I340" s="13"/>
       <c r="J340" s="13"/>
@@ -26372,7 +26389,7 @@
       <c r="AB340" s="13"/>
       <c r="AC340" s="13"/>
     </row>
-    <row r="341" spans="1:29" ht="12.75">
+    <row r="341" spans="1:29" ht="13.2">
       <c r="A341" s="12"/>
       <c r="I341" s="13"/>
       <c r="J341" s="13"/>
@@ -26396,7 +26413,7 @@
       <c r="AB341" s="13"/>
       <c r="AC341" s="13"/>
     </row>
-    <row r="342" spans="1:29" ht="12.75">
+    <row r="342" spans="1:29" ht="13.2">
       <c r="A342" s="12"/>
       <c r="I342" s="13"/>
       <c r="J342" s="13"/>
@@ -26420,7 +26437,7 @@
       <c r="AB342" s="13"/>
       <c r="AC342" s="13"/>
     </row>
-    <row r="343" spans="1:29" ht="12.75">
+    <row r="343" spans="1:29" ht="13.2">
       <c r="A343" s="12"/>
       <c r="I343" s="13"/>
       <c r="J343" s="13"/>
@@ -26444,7 +26461,7 @@
       <c r="AB343" s="13"/>
       <c r="AC343" s="13"/>
     </row>
-    <row r="344" spans="1:29" ht="12.75">
+    <row r="344" spans="1:29" ht="13.2">
       <c r="A344" s="12"/>
       <c r="I344" s="13"/>
       <c r="J344" s="13"/>
@@ -26468,7 +26485,7 @@
       <c r="AB344" s="13"/>
       <c r="AC344" s="13"/>
     </row>
-    <row r="345" spans="1:29" ht="12.75">
+    <row r="345" spans="1:29" ht="13.2">
       <c r="A345" s="12"/>
       <c r="I345" s="13"/>
       <c r="J345" s="13"/>
@@ -26492,7 +26509,7 @@
       <c r="AB345" s="13"/>
       <c r="AC345" s="13"/>
     </row>
-    <row r="346" spans="1:29" ht="12.75">
+    <row r="346" spans="1:29" ht="13.2">
       <c r="A346" s="12"/>
       <c r="I346" s="13"/>
       <c r="J346" s="13"/>
@@ -26516,7 +26533,7 @@
       <c r="AB346" s="13"/>
       <c r="AC346" s="13"/>
     </row>
-    <row r="347" spans="1:29" ht="12.75">
+    <row r="347" spans="1:29" ht="13.2">
       <c r="A347" s="12"/>
       <c r="I347" s="13"/>
       <c r="J347" s="13"/>
@@ -26540,7 +26557,7 @@
       <c r="AB347" s="13"/>
       <c r="AC347" s="13"/>
     </row>
-    <row r="348" spans="1:29" ht="12.75">
+    <row r="348" spans="1:29" ht="13.2">
       <c r="A348" s="12"/>
       <c r="I348" s="13"/>
       <c r="J348" s="13"/>
@@ -26564,7 +26581,7 @@
       <c r="AB348" s="13"/>
       <c r="AC348" s="13"/>
     </row>
-    <row r="349" spans="1:29" ht="12.75">
+    <row r="349" spans="1:29" ht="13.2">
       <c r="A349" s="12"/>
       <c r="I349" s="13"/>
       <c r="J349" s="13"/>
@@ -26588,7 +26605,7 @@
       <c r="AB349" s="13"/>
       <c r="AC349" s="13"/>
     </row>
-    <row r="350" spans="1:29" ht="12.75">
+    <row r="350" spans="1:29" ht="13.2">
       <c r="A350" s="12"/>
       <c r="I350" s="13"/>
       <c r="J350" s="13"/>
@@ -26612,7 +26629,7 @@
       <c r="AB350" s="13"/>
       <c r="AC350" s="13"/>
     </row>
-    <row r="351" spans="1:29" ht="12.75">
+    <row r="351" spans="1:29" ht="13.2">
       <c r="A351" s="12"/>
       <c r="I351" s="13"/>
       <c r="J351" s="13"/>
@@ -26636,7 +26653,7 @@
       <c r="AB351" s="13"/>
       <c r="AC351" s="13"/>
     </row>
-    <row r="352" spans="1:29" ht="12.75">
+    <row r="352" spans="1:29" ht="13.2">
       <c r="A352" s="12"/>
       <c r="I352" s="13"/>
       <c r="J352" s="13"/>
@@ -26660,7 +26677,7 @@
       <c r="AB352" s="13"/>
       <c r="AC352" s="13"/>
     </row>
-    <row r="353" spans="1:29" ht="12.75">
+    <row r="353" spans="1:29" ht="13.2">
       <c r="A353" s="12"/>
       <c r="I353" s="13"/>
       <c r="J353" s="13"/>
@@ -26684,7 +26701,7 @@
       <c r="AB353" s="13"/>
       <c r="AC353" s="13"/>
     </row>
-    <row r="354" spans="1:29" ht="12.75">
+    <row r="354" spans="1:29" ht="13.2">
       <c r="A354" s="12"/>
       <c r="I354" s="13"/>
       <c r="J354" s="13"/>
@@ -26708,7 +26725,7 @@
       <c r="AB354" s="13"/>
       <c r="AC354" s="13"/>
     </row>
-    <row r="355" spans="1:29" ht="12.75">
+    <row r="355" spans="1:29" ht="13.2">
       <c r="A355" s="12"/>
       <c r="I355" s="13"/>
       <c r="J355" s="13"/>
@@ -26732,7 +26749,7 @@
       <c r="AB355" s="13"/>
       <c r="AC355" s="13"/>
     </row>
-    <row r="356" spans="1:29" ht="12.75">
+    <row r="356" spans="1:29" ht="13.2">
       <c r="A356" s="12"/>
       <c r="I356" s="13"/>
       <c r="J356" s="13"/>
@@ -26756,7 +26773,7 @@
       <c r="AB356" s="13"/>
       <c r="AC356" s="13"/>
     </row>
-    <row r="357" spans="1:29" ht="12.75">
+    <row r="357" spans="1:29" ht="13.2">
       <c r="A357" s="12"/>
       <c r="I357" s="13"/>
       <c r="J357" s="13"/>
@@ -26780,7 +26797,7 @@
       <c r="AB357" s="13"/>
       <c r="AC357" s="13"/>
     </row>
-    <row r="358" spans="1:29" ht="12.75">
+    <row r="358" spans="1:29" ht="13.2">
       <c r="A358" s="12"/>
       <c r="I358" s="13"/>
       <c r="J358" s="13"/>
@@ -26804,7 +26821,7 @@
       <c r="AB358" s="13"/>
       <c r="AC358" s="13"/>
     </row>
-    <row r="359" spans="1:29" ht="12.75">
+    <row r="359" spans="1:29" ht="13.2">
       <c r="A359" s="12"/>
       <c r="I359" s="13"/>
       <c r="J359" s="13"/>
@@ -26828,7 +26845,7 @@
       <c r="AB359" s="13"/>
       <c r="AC359" s="13"/>
     </row>
-    <row r="360" spans="1:29" ht="12.75">
+    <row r="360" spans="1:29" ht="13.2">
       <c r="A360" s="12"/>
       <c r="I360" s="13"/>
       <c r="J360" s="13"/>
@@ -26852,7 +26869,7 @@
       <c r="AB360" s="13"/>
       <c r="AC360" s="13"/>
     </row>
-    <row r="361" spans="1:29" ht="12.75">
+    <row r="361" spans="1:29" ht="13.2">
       <c r="A361" s="12"/>
       <c r="I361" s="13"/>
       <c r="J361" s="13"/>
@@ -26876,7 +26893,7 @@
       <c r="AB361" s="13"/>
       <c r="AC361" s="13"/>
     </row>
-    <row r="362" spans="1:29" ht="12.75">
+    <row r="362" spans="1:29" ht="13.2">
       <c r="A362" s="12"/>
       <c r="I362" s="13"/>
       <c r="J362" s="13"/>
@@ -26900,7 +26917,7 @@
       <c r="AB362" s="13"/>
       <c r="AC362" s="13"/>
     </row>
-    <row r="363" spans="1:29" ht="12.75">
+    <row r="363" spans="1:29" ht="13.2">
       <c r="A363" s="12"/>
       <c r="I363" s="13"/>
       <c r="J363" s="13"/>
@@ -26924,7 +26941,7 @@
       <c r="AB363" s="13"/>
       <c r="AC363" s="13"/>
     </row>
-    <row r="364" spans="1:29" ht="12.75">
+    <row r="364" spans="1:29" ht="13.2">
       <c r="A364" s="12"/>
       <c r="I364" s="13"/>
       <c r="J364" s="13"/>
@@ -26948,7 +26965,7 @@
       <c r="AB364" s="13"/>
       <c r="AC364" s="13"/>
     </row>
-    <row r="365" spans="1:29" ht="12.75">
+    <row r="365" spans="1:29" ht="13.2">
       <c r="A365" s="12"/>
       <c r="I365" s="13"/>
       <c r="J365" s="13"/>
@@ -26972,7 +26989,7 @@
       <c r="AB365" s="13"/>
       <c r="AC365" s="13"/>
     </row>
-    <row r="366" spans="1:29" ht="12.75">
+    <row r="366" spans="1:29" ht="13.2">
       <c r="A366" s="12"/>
       <c r="I366" s="13"/>
       <c r="J366" s="13"/>
@@ -26996,7 +27013,7 @@
       <c r="AB366" s="13"/>
       <c r="AC366" s="13"/>
     </row>
-    <row r="367" spans="1:29" ht="12.75">
+    <row r="367" spans="1:29" ht="13.2">
       <c r="A367" s="12"/>
       <c r="I367" s="13"/>
       <c r="J367" s="13"/>
@@ -27020,7 +27037,7 @@
       <c r="AB367" s="13"/>
       <c r="AC367" s="13"/>
     </row>
-    <row r="368" spans="1:29" ht="12.75">
+    <row r="368" spans="1:29" ht="13.2">
       <c r="A368" s="12"/>
       <c r="I368" s="13"/>
       <c r="J368" s="13"/>
@@ -27044,7 +27061,7 @@
       <c r="AB368" s="13"/>
       <c r="AC368" s="13"/>
     </row>
-    <row r="369" spans="1:29" ht="12.75">
+    <row r="369" spans="1:29" ht="13.2">
       <c r="A369" s="12"/>
       <c r="I369" s="13"/>
       <c r="J369" s="13"/>
@@ -27068,7 +27085,7 @@
       <c r="AB369" s="13"/>
       <c r="AC369" s="13"/>
     </row>
-    <row r="370" spans="1:29" ht="12.75">
+    <row r="370" spans="1:29" ht="13.2">
       <c r="A370" s="12"/>
       <c r="I370" s="13"/>
       <c r="J370" s="13"/>
@@ -27092,7 +27109,7 @@
       <c r="AB370" s="13"/>
       <c r="AC370" s="13"/>
     </row>
-    <row r="371" spans="1:29" ht="12.75">
+    <row r="371" spans="1:29" ht="13.2">
       <c r="A371" s="12"/>
       <c r="I371" s="13"/>
       <c r="J371" s="13"/>
@@ -27116,7 +27133,7 @@
       <c r="AB371" s="13"/>
       <c r="AC371" s="13"/>
     </row>
-    <row r="372" spans="1:29" ht="12.75">
+    <row r="372" spans="1:29" ht="13.2">
       <c r="A372" s="12"/>
       <c r="I372" s="13"/>
       <c r="J372" s="13"/>
@@ -27140,7 +27157,7 @@
       <c r="AB372" s="13"/>
       <c r="AC372" s="13"/>
     </row>
-    <row r="373" spans="1:29" ht="12.75">
+    <row r="373" spans="1:29" ht="13.2">
       <c r="A373" s="12"/>
       <c r="I373" s="13"/>
       <c r="J373" s="13"/>
@@ -27164,7 +27181,7 @@
       <c r="AB373" s="13"/>
       <c r="AC373" s="13"/>
     </row>
-    <row r="374" spans="1:29" ht="12.75">
+    <row r="374" spans="1:29" ht="13.2">
       <c r="A374" s="12"/>
       <c r="I374" s="13"/>
       <c r="J374" s="13"/>
@@ -27188,7 +27205,7 @@
       <c r="AB374" s="13"/>
       <c r="AC374" s="13"/>
     </row>
-    <row r="375" spans="1:29" ht="12.75">
+    <row r="375" spans="1:29" ht="13.2">
       <c r="A375" s="12"/>
       <c r="I375" s="13"/>
       <c r="J375" s="13"/>
@@ -27212,7 +27229,7 @@
       <c r="AB375" s="13"/>
       <c r="AC375" s="13"/>
     </row>
-    <row r="376" spans="1:29" ht="12.75">
+    <row r="376" spans="1:29" ht="13.2">
       <c r="A376" s="12"/>
       <c r="I376" s="13"/>
       <c r="J376" s="13"/>
@@ -27236,7 +27253,7 @@
       <c r="AB376" s="13"/>
       <c r="AC376" s="13"/>
     </row>
-    <row r="377" spans="1:29" ht="12.75">
+    <row r="377" spans="1:29" ht="13.2">
       <c r="A377" s="12"/>
       <c r="I377" s="13"/>
       <c r="J377" s="13"/>
@@ -27260,7 +27277,7 @@
       <c r="AB377" s="13"/>
       <c r="AC377" s="13"/>
     </row>
-    <row r="378" spans="1:29" ht="12.75">
+    <row r="378" spans="1:29" ht="13.2">
       <c r="A378" s="12"/>
       <c r="I378" s="13"/>
       <c r="J378" s="13"/>
@@ -27284,7 +27301,7 @@
       <c r="AB378" s="13"/>
       <c r="AC378" s="13"/>
     </row>
-    <row r="379" spans="1:29" ht="12.75">
+    <row r="379" spans="1:29" ht="13.2">
       <c r="A379" s="12"/>
       <c r="I379" s="13"/>
       <c r="J379" s="13"/>
@@ -27308,7 +27325,7 @@
       <c r="AB379" s="13"/>
       <c r="AC379" s="13"/>
     </row>
-    <row r="380" spans="1:29" ht="12.75">
+    <row r="380" spans="1:29" ht="13.2">
       <c r="A380" s="12"/>
       <c r="I380" s="13"/>
       <c r="J380" s="13"/>
@@ -27332,7 +27349,7 @@
       <c r="AB380" s="13"/>
       <c r="AC380" s="13"/>
     </row>
-    <row r="381" spans="1:29" ht="12.75">
+    <row r="381" spans="1:29" ht="13.2">
       <c r="A381" s="12"/>
       <c r="I381" s="13"/>
       <c r="J381" s="13"/>
@@ -27356,7 +27373,7 @@
       <c r="AB381" s="13"/>
       <c r="AC381" s="13"/>
     </row>
-    <row r="382" spans="1:29" ht="12.75">
+    <row r="382" spans="1:29" ht="13.2">
       <c r="A382" s="12"/>
       <c r="I382" s="13"/>
       <c r="J382" s="13"/>
@@ -27380,7 +27397,7 @@
       <c r="AB382" s="13"/>
       <c r="AC382" s="13"/>
     </row>
-    <row r="383" spans="1:29" ht="12.75">
+    <row r="383" spans="1:29" ht="13.2">
       <c r="A383" s="12"/>
       <c r="I383" s="13"/>
       <c r="J383" s="13"/>
@@ -27404,7 +27421,7 @@
       <c r="AB383" s="13"/>
       <c r="AC383" s="13"/>
     </row>
-    <row r="384" spans="1:29" ht="12.75">
+    <row r="384" spans="1:29" ht="13.2">
       <c r="A384" s="12"/>
       <c r="I384" s="13"/>
       <c r="J384" s="13"/>
@@ -27428,7 +27445,7 @@
       <c r="AB384" s="13"/>
       <c r="AC384" s="13"/>
     </row>
-    <row r="385" spans="1:29" ht="12.75">
+    <row r="385" spans="1:29" ht="13.2">
       <c r="A385" s="12"/>
       <c r="I385" s="13"/>
       <c r="J385" s="13"/>
@@ -27452,7 +27469,7 @@
       <c r="AB385" s="13"/>
       <c r="AC385" s="13"/>
     </row>
-    <row r="386" spans="1:29" ht="12.75">
+    <row r="386" spans="1:29" ht="13.2">
       <c r="A386" s="12"/>
       <c r="I386" s="13"/>
       <c r="J386" s="13"/>
@@ -27476,7 +27493,7 @@
       <c r="AB386" s="13"/>
       <c r="AC386" s="13"/>
     </row>
-    <row r="387" spans="1:29" ht="12.75">
+    <row r="387" spans="1:29" ht="13.2">
       <c r="A387" s="12"/>
       <c r="I387" s="13"/>
       <c r="J387" s="13"/>
@@ -27500,7 +27517,7 @@
       <c r="AB387" s="13"/>
       <c r="AC387" s="13"/>
     </row>
-    <row r="388" spans="1:29" ht="12.75">
+    <row r="388" spans="1:29" ht="13.2">
       <c r="A388" s="12"/>
       <c r="I388" s="13"/>
       <c r="J388" s="13"/>
@@ -27524,7 +27541,7 @@
       <c r="AB388" s="13"/>
       <c r="AC388" s="13"/>
     </row>
-    <row r="389" spans="1:29" ht="12.75">
+    <row r="389" spans="1:29" ht="13.2">
       <c r="A389" s="12"/>
       <c r="I389" s="13"/>
       <c r="J389" s="13"/>
@@ -27548,7 +27565,7 @@
       <c r="AB389" s="13"/>
       <c r="AC389" s="13"/>
     </row>
-    <row r="390" spans="1:29" ht="12.75">
+    <row r="390" spans="1:29" ht="13.2">
       <c r="A390" s="12"/>
       <c r="I390" s="13"/>
       <c r="J390" s="13"/>
@@ -27572,7 +27589,7 @@
       <c r="AB390" s="13"/>
       <c r="AC390" s="13"/>
     </row>
-    <row r="391" spans="1:29" ht="12.75">
+    <row r="391" spans="1:29" ht="13.2">
       <c r="A391" s="12"/>
       <c r="I391" s="13"/>
       <c r="J391" s="13"/>
@@ -27596,7 +27613,7 @@
       <c r="AB391" s="13"/>
       <c r="AC391" s="13"/>
     </row>
-    <row r="392" spans="1:29" ht="12.75">
+    <row r="392" spans="1:29" ht="13.2">
       <c r="A392" s="12"/>
       <c r="I392" s="13"/>
       <c r="J392" s="13"/>
@@ -27620,7 +27637,7 @@
       <c r="AB392" s="13"/>
       <c r="AC392" s="13"/>
     </row>
-    <row r="393" spans="1:29" ht="12.75">
+    <row r="393" spans="1:29" ht="13.2">
       <c r="A393" s="12"/>
       <c r="I393" s="13"/>
       <c r="J393" s="13"/>
@@ -27644,7 +27661,7 @@
       <c r="AB393" s="13"/>
       <c r="AC393" s="13"/>
     </row>
-    <row r="394" spans="1:29" ht="12.75">
+    <row r="394" spans="1:29" ht="13.2">
       <c r="A394" s="12"/>
       <c r="I394" s="13"/>
       <c r="J394" s="13"/>
@@ -27668,7 +27685,7 @@
       <c r="AB394" s="13"/>
       <c r="AC394" s="13"/>
     </row>
-    <row r="395" spans="1:29" ht="12.75">
+    <row r="395" spans="1:29" ht="13.2">
       <c r="A395" s="12"/>
       <c r="I395" s="13"/>
       <c r="J395" s="13"/>
@@ -27692,7 +27709,7 @@
       <c r="AB395" s="13"/>
       <c r="AC395" s="13"/>
     </row>
-    <row r="396" spans="1:29" ht="12.75">
+    <row r="396" spans="1:29" ht="13.2">
       <c r="A396" s="12"/>
       <c r="I396" s="13"/>
       <c r="J396" s="13"/>
@@ -27716,7 +27733,7 @@
       <c r="AB396" s="13"/>
       <c r="AC396" s="13"/>
     </row>
-    <row r="397" spans="1:29" ht="12.75">
+    <row r="397" spans="1:29" ht="13.2">
       <c r="A397" s="12"/>
       <c r="I397" s="13"/>
       <c r="J397" s="13"/>
@@ -27740,7 +27757,7 @@
       <c r="AB397" s="13"/>
       <c r="AC397" s="13"/>
     </row>
-    <row r="398" spans="1:29" ht="12.75">
+    <row r="398" spans="1:29" ht="13.2">
       <c r="A398" s="12"/>
       <c r="I398" s="13"/>
       <c r="J398" s="13"/>
@@ -27764,7 +27781,7 @@
       <c r="AB398" s="13"/>
       <c r="AC398" s="13"/>
     </row>
-    <row r="399" spans="1:29" ht="12.75">
+    <row r="399" spans="1:29" ht="13.2">
       <c r="A399" s="12"/>
       <c r="I399" s="13"/>
       <c r="J399" s="13"/>
@@ -27788,7 +27805,7 @@
       <c r="AB399" s="13"/>
       <c r="AC399" s="13"/>
     </row>
-    <row r="400" spans="1:29" ht="12.75">
+    <row r="400" spans="1:29" ht="13.2">
       <c r="A400" s="12"/>
       <c r="I400" s="13"/>
       <c r="J400" s="13"/>
@@ -27812,7 +27829,7 @@
       <c r="AB400" s="13"/>
       <c r="AC400" s="13"/>
     </row>
-    <row r="401" spans="1:29" ht="12.75">
+    <row r="401" spans="1:29" ht="13.2">
       <c r="A401" s="12"/>
       <c r="I401" s="13"/>
       <c r="J401" s="13"/>
@@ -27836,7 +27853,7 @@
       <c r="AB401" s="13"/>
       <c r="AC401" s="13"/>
     </row>
-    <row r="402" spans="1:29" ht="12.75">
+    <row r="402" spans="1:29" ht="13.2">
       <c r="A402" s="12"/>
       <c r="I402" s="13"/>
       <c r="J402" s="13"/>
@@ -27860,7 +27877,7 @@
       <c r="AB402" s="13"/>
       <c r="AC402" s="13"/>
     </row>
-    <row r="403" spans="1:29" ht="12.75">
+    <row r="403" spans="1:29" ht="13.2">
       <c r="A403" s="12"/>
       <c r="I403" s="13"/>
       <c r="J403" s="13"/>
@@ -27884,7 +27901,7 @@
       <c r="AB403" s="13"/>
       <c r="AC403" s="13"/>
     </row>
-    <row r="404" spans="1:29" ht="12.75">
+    <row r="404" spans="1:29" ht="13.2">
       <c r="A404" s="12"/>
       <c r="I404" s="13"/>
       <c r="J404" s="13"/>
@@ -27908,7 +27925,7 @@
       <c r="AB404" s="13"/>
       <c r="AC404" s="13"/>
     </row>
-    <row r="405" spans="1:29" ht="12.75">
+    <row r="405" spans="1:29" ht="13.2">
       <c r="A405" s="12"/>
       <c r="I405" s="13"/>
       <c r="J405" s="13"/>
@@ -27932,7 +27949,7 @@
       <c r="AB405" s="13"/>
       <c r="AC405" s="13"/>
     </row>
-    <row r="406" spans="1:29" ht="12.75">
+    <row r="406" spans="1:29" ht="13.2">
       <c r="A406" s="12"/>
       <c r="I406" s="13"/>
       <c r="J406" s="13"/>
@@ -27956,7 +27973,7 @@
       <c r="AB406" s="13"/>
       <c r="AC406" s="13"/>
     </row>
-    <row r="407" spans="1:29" ht="12.75">
+    <row r="407" spans="1:29" ht="13.2">
       <c r="A407" s="12"/>
       <c r="I407" s="13"/>
       <c r="J407" s="13"/>
@@ -27980,7 +27997,7 @@
       <c r="AB407" s="13"/>
       <c r="AC407" s="13"/>
     </row>
-    <row r="408" spans="1:29" ht="12.75">
+    <row r="408" spans="1:29" ht="13.2">
       <c r="A408" s="12"/>
       <c r="I408" s="13"/>
       <c r="J408" s="13"/>
@@ -28004,7 +28021,7 @@
       <c r="AB408" s="13"/>
       <c r="AC408" s="13"/>
     </row>
-    <row r="409" spans="1:29" ht="12.75">
+    <row r="409" spans="1:29" ht="13.2">
       <c r="A409" s="12"/>
       <c r="I409" s="13"/>
       <c r="J409" s="13"/>
@@ -28028,7 +28045,7 @@
       <c r="AB409" s="13"/>
       <c r="AC409" s="13"/>
     </row>
-    <row r="410" spans="1:29" ht="12.75">
+    <row r="410" spans="1:29" ht="13.2">
       <c r="A410" s="12"/>
       <c r="I410" s="13"/>
       <c r="J410" s="13"/>
@@ -28052,7 +28069,7 @@
       <c r="AB410" s="13"/>
       <c r="AC410" s="13"/>
     </row>
-    <row r="411" spans="1:29" ht="12.75">
+    <row r="411" spans="1:29" ht="13.2">
       <c r="A411" s="12"/>
       <c r="I411" s="13"/>
       <c r="J411" s="13"/>
@@ -28076,7 +28093,7 @@
       <c r="AB411" s="13"/>
       <c r="AC411" s="13"/>
     </row>
-    <row r="412" spans="1:29" ht="12.75">
+    <row r="412" spans="1:29" ht="13.2">
       <c r="A412" s="12"/>
       <c r="I412" s="13"/>
       <c r="J412" s="13"/>
@@ -28100,7 +28117,7 @@
       <c r="AB412" s="13"/>
       <c r="AC412" s="13"/>
     </row>
-    <row r="413" spans="1:29" ht="12.75">
+    <row r="413" spans="1:29" ht="13.2">
       <c r="A413" s="12"/>
       <c r="I413" s="13"/>
       <c r="J413" s="13"/>
@@ -28124,7 +28141,7 @@
       <c r="AB413" s="13"/>
       <c r="AC413" s="13"/>
     </row>
-    <row r="414" spans="1:29" ht="12.75">
+    <row r="414" spans="1:29" ht="13.2">
       <c r="A414" s="12"/>
       <c r="I414" s="13"/>
       <c r="J414" s="13"/>
@@ -28148,7 +28165,7 @@
       <c r="AB414" s="13"/>
       <c r="AC414" s="13"/>
     </row>
-    <row r="415" spans="1:29" ht="12.75">
+    <row r="415" spans="1:29" ht="13.2">
       <c r="A415" s="12"/>
       <c r="I415" s="13"/>
       <c r="J415" s="13"/>
@@ -28172,7 +28189,7 @@
       <c r="AB415" s="13"/>
       <c r="AC415" s="13"/>
     </row>
-    <row r="416" spans="1:29" ht="12.75">
+    <row r="416" spans="1:29" ht="13.2">
       <c r="A416" s="12"/>
       <c r="I416" s="13"/>
       <c r="J416" s="13"/>
@@ -28196,7 +28213,7 @@
       <c r="AB416" s="13"/>
       <c r="AC416" s="13"/>
     </row>
-    <row r="417" spans="1:29" ht="12.75">
+    <row r="417" spans="1:29" ht="13.2">
       <c r="A417" s="12"/>
       <c r="I417" s="13"/>
       <c r="J417" s="13"/>
@@ -28220,7 +28237,7 @@
       <c r="AB417" s="13"/>
       <c r="AC417" s="13"/>
     </row>
-    <row r="418" spans="1:29" ht="12.75">
+    <row r="418" spans="1:29" ht="13.2">
       <c r="A418" s="12"/>
       <c r="I418" s="13"/>
       <c r="J418" s="13"/>
@@ -28244,7 +28261,7 @@
       <c r="AB418" s="13"/>
       <c r="AC418" s="13"/>
     </row>
-    <row r="419" spans="1:29" ht="12.75">
+    <row r="419" spans="1:29" ht="13.2">
       <c r="A419" s="12"/>
       <c r="I419" s="13"/>
       <c r="J419" s="13"/>
@@ -28268,7 +28285,7 @@
       <c r="AB419" s="13"/>
       <c r="AC419" s="13"/>
     </row>
-    <row r="420" spans="1:29" ht="12.75">
+    <row r="420" spans="1:29" ht="13.2">
       <c r="A420" s="12"/>
       <c r="I420" s="13"/>
       <c r="J420" s="13"/>
@@ -28292,7 +28309,7 @@
       <c r="AB420" s="13"/>
       <c r="AC420" s="13"/>
     </row>
-    <row r="421" spans="1:29" ht="12.75">
+    <row r="421" spans="1:29" ht="13.2">
       <c r="A421" s="12"/>
       <c r="I421" s="13"/>
       <c r="J421" s="13"/>
@@ -28316,7 +28333,7 @@
       <c r="AB421" s="13"/>
       <c r="AC421" s="13"/>
     </row>
-    <row r="422" spans="1:29" ht="12.75">
+    <row r="422" spans="1:29" ht="13.2">
       <c r="A422" s="12"/>
       <c r="I422" s="13"/>
       <c r="J422" s="13"/>
@@ -28340,583 +28357,583 @@
       <c r="AB422" s="13"/>
       <c r="AC422" s="13"/>
     </row>
-    <row r="423" spans="1:29" ht="12.75"/>
-    <row r="424" spans="1:29" ht="12.75"/>
-    <row r="425" spans="1:29" ht="12.75"/>
-    <row r="426" spans="1:29" ht="12.75"/>
-    <row r="427" spans="1:29" ht="12.75"/>
-    <row r="428" spans="1:29" ht="12.75"/>
-    <row r="429" spans="1:29" ht="12.75"/>
-    <row r="430" spans="1:29" ht="12.75"/>
-    <row r="431" spans="1:29" ht="12.75"/>
-    <row r="432" spans="1:29" ht="12.75"/>
-    <row r="433" ht="12.75"/>
-    <row r="434" ht="12.75"/>
-    <row r="435" ht="12.75"/>
-    <row r="436" ht="12.75"/>
-    <row r="437" ht="12.75"/>
-    <row r="438" ht="12.75"/>
-    <row r="439" ht="12.75"/>
-    <row r="440" ht="12.75"/>
-    <row r="441" ht="12.75"/>
-    <row r="442" ht="12.75"/>
-    <row r="443" ht="12.75"/>
-    <row r="444" ht="12.75"/>
-    <row r="445" ht="12.75"/>
-    <row r="446" ht="12.75"/>
-    <row r="447" ht="12.75"/>
-    <row r="448" ht="12.75"/>
-    <row r="449" ht="12.75"/>
-    <row r="450" ht="12.75"/>
-    <row r="451" ht="12.75"/>
-    <row r="452" ht="12.75"/>
-    <row r="453" ht="12.75"/>
-    <row r="454" ht="12.75"/>
-    <row r="455" ht="12.75"/>
-    <row r="456" ht="12.75"/>
-    <row r="457" ht="12.75"/>
-    <row r="458" ht="12.75"/>
-    <row r="459" ht="12.75"/>
-    <row r="460" ht="12.75"/>
-    <row r="461" ht="12.75"/>
-    <row r="462" ht="12.75"/>
-    <row r="463" ht="12.75"/>
-    <row r="464" ht="12.75"/>
-    <row r="465" ht="12.75"/>
-    <row r="466" ht="12.75"/>
-    <row r="467" ht="12.75"/>
-    <row r="468" ht="12.75"/>
-    <row r="469" ht="12.75"/>
-    <row r="470" ht="12.75"/>
-    <row r="471" ht="12.75"/>
-    <row r="472" ht="12.75"/>
-    <row r="473" ht="12.75"/>
-    <row r="474" ht="12.75"/>
-    <row r="475" ht="12.75"/>
-    <row r="476" ht="12.75"/>
-    <row r="477" ht="12.75"/>
-    <row r="478" ht="12.75"/>
-    <row r="479" ht="12.75"/>
-    <row r="480" ht="12.75"/>
-    <row r="481" ht="12.75"/>
-    <row r="482" ht="12.75"/>
-    <row r="483" ht="12.75"/>
-    <row r="484" ht="12.75"/>
-    <row r="485" ht="12.75"/>
-    <row r="486" ht="12.75"/>
-    <row r="487" ht="12.75"/>
-    <row r="488" ht="12.75"/>
-    <row r="489" ht="12.75"/>
-    <row r="490" ht="12.75"/>
-    <row r="491" ht="12.75"/>
-    <row r="492" ht="12.75"/>
-    <row r="493" ht="12.75"/>
-    <row r="494" ht="12.75"/>
-    <row r="495" ht="12.75"/>
-    <row r="496" ht="12.75"/>
-    <row r="497" ht="12.75"/>
-    <row r="498" ht="12.75"/>
-    <row r="499" ht="12.75"/>
-    <row r="500" ht="12.75"/>
-    <row r="501" ht="12.75"/>
-    <row r="502" ht="12.75"/>
-    <row r="503" ht="12.75"/>
-    <row r="504" ht="12.75"/>
-    <row r="505" ht="12.75"/>
-    <row r="506" ht="12.75"/>
-    <row r="507" ht="12.75"/>
-    <row r="508" ht="12.75"/>
-    <row r="509" ht="12.75"/>
-    <row r="510" ht="12.75"/>
-    <row r="511" ht="12.75"/>
-    <row r="512" ht="12.75"/>
-    <row r="513" ht="12.75"/>
-    <row r="514" ht="12.75"/>
-    <row r="515" ht="12.75"/>
-    <row r="516" ht="12.75"/>
-    <row r="517" ht="12.75"/>
-    <row r="518" ht="12.75"/>
-    <row r="519" ht="12.75"/>
-    <row r="520" ht="12.75"/>
-    <row r="521" ht="12.75"/>
-    <row r="522" ht="12.75"/>
-    <row r="523" ht="12.75"/>
-    <row r="524" ht="12.75"/>
-    <row r="525" ht="12.75"/>
-    <row r="526" ht="12.75"/>
-    <row r="527" ht="12.75"/>
-    <row r="528" ht="12.75"/>
-    <row r="529" ht="12.75"/>
-    <row r="530" ht="12.75"/>
-    <row r="531" ht="12.75"/>
-    <row r="532" ht="12.75"/>
-    <row r="533" ht="12.75"/>
-    <row r="534" ht="12.75"/>
-    <row r="535" ht="12.75"/>
-    <row r="536" ht="12.75"/>
-    <row r="537" ht="12.75"/>
-    <row r="538" ht="12.75"/>
-    <row r="539" ht="12.75"/>
-    <row r="540" ht="12.75"/>
-    <row r="541" ht="12.75"/>
-    <row r="542" ht="12.75"/>
-    <row r="543" ht="12.75"/>
-    <row r="544" ht="12.75"/>
-    <row r="545" ht="12.75"/>
-    <row r="546" ht="12.75"/>
-    <row r="547" ht="12.75"/>
-    <row r="548" ht="12.75"/>
-    <row r="549" ht="12.75"/>
-    <row r="550" ht="12.75"/>
-    <row r="551" ht="12.75"/>
-    <row r="552" ht="12.75"/>
-    <row r="553" ht="12.75"/>
-    <row r="554" ht="12.75"/>
-    <row r="555" ht="12.75"/>
-    <row r="556" ht="12.75"/>
-    <row r="557" ht="12.75"/>
-    <row r="558" ht="12.75"/>
-    <row r="559" ht="12.75"/>
-    <row r="560" ht="12.75"/>
-    <row r="561" ht="12.75"/>
-    <row r="562" ht="12.75"/>
-    <row r="563" ht="12.75"/>
-    <row r="564" ht="12.75"/>
-    <row r="565" ht="12.75"/>
-    <row r="566" ht="12.75"/>
-    <row r="567" ht="12.75"/>
-    <row r="568" ht="12.75"/>
-    <row r="569" ht="12.75"/>
-    <row r="570" ht="12.75"/>
-    <row r="571" ht="12.75"/>
-    <row r="572" ht="12.75"/>
-    <row r="573" ht="12.75"/>
-    <row r="574" ht="12.75"/>
-    <row r="575" ht="12.75"/>
-    <row r="576" ht="12.75"/>
-    <row r="577" ht="12.75"/>
-    <row r="578" ht="12.75"/>
-    <row r="579" ht="12.75"/>
-    <row r="580" ht="12.75"/>
-    <row r="581" ht="12.75"/>
-    <row r="582" ht="12.75"/>
-    <row r="583" ht="12.75"/>
-    <row r="584" ht="12.75"/>
-    <row r="585" ht="12.75"/>
-    <row r="586" ht="12.75"/>
-    <row r="587" ht="12.75"/>
-    <row r="588" ht="12.75"/>
-    <row r="589" ht="12.75"/>
-    <row r="590" ht="12.75"/>
-    <row r="591" ht="12.75"/>
-    <row r="592" ht="12.75"/>
-    <row r="593" ht="12.75"/>
-    <row r="594" ht="12.75"/>
-    <row r="595" ht="12.75"/>
-    <row r="596" ht="12.75"/>
-    <row r="597" ht="12.75"/>
-    <row r="598" ht="12.75"/>
-    <row r="599" ht="12.75"/>
-    <row r="600" ht="12.75"/>
-    <row r="601" ht="12.75"/>
-    <row r="602" ht="12.75"/>
-    <row r="603" ht="12.75"/>
-    <row r="604" ht="12.75"/>
-    <row r="605" ht="12.75"/>
-    <row r="606" ht="12.75"/>
-    <row r="607" ht="12.75"/>
-    <row r="608" ht="12.75"/>
-    <row r="609" ht="12.75"/>
-    <row r="610" ht="12.75"/>
-    <row r="611" ht="12.75"/>
-    <row r="612" ht="12.75"/>
-    <row r="613" ht="12.75"/>
-    <row r="614" ht="12.75"/>
-    <row r="615" ht="12.75"/>
-    <row r="616" ht="12.75"/>
-    <row r="617" ht="12.75"/>
-    <row r="618" ht="12.75"/>
-    <row r="619" ht="12.75"/>
-    <row r="620" ht="12.75"/>
-    <row r="621" ht="12.75"/>
-    <row r="622" ht="12.75"/>
-    <row r="623" ht="12.75"/>
-    <row r="624" ht="12.75"/>
-    <row r="625" ht="12.75"/>
-    <row r="626" ht="12.75"/>
-    <row r="627" ht="12.75"/>
-    <row r="628" ht="12.75"/>
-    <row r="629" ht="12.75"/>
-    <row r="630" ht="12.75"/>
-    <row r="631" ht="12.75"/>
-    <row r="632" ht="12.75"/>
-    <row r="633" ht="12.75"/>
-    <row r="634" ht="12.75"/>
-    <row r="635" ht="12.75"/>
-    <row r="636" ht="12.75"/>
-    <row r="637" ht="12.75"/>
-    <row r="638" ht="12.75"/>
-    <row r="639" ht="12.75"/>
-    <row r="640" ht="12.75"/>
-    <row r="641" ht="12.75"/>
-    <row r="642" ht="12.75"/>
-    <row r="643" ht="12.75"/>
-    <row r="644" ht="12.75"/>
-    <row r="645" ht="12.75"/>
-    <row r="646" ht="12.75"/>
-    <row r="647" ht="12.75"/>
-    <row r="648" ht="12.75"/>
-    <row r="649" ht="12.75"/>
-    <row r="650" ht="12.75"/>
-    <row r="651" ht="12.75"/>
-    <row r="652" ht="12.75"/>
-    <row r="653" ht="12.75"/>
-    <row r="654" ht="12.75"/>
-    <row r="655" ht="12.75"/>
-    <row r="656" ht="12.75"/>
-    <row r="657" ht="12.75"/>
-    <row r="658" ht="12.75"/>
-    <row r="659" ht="12.75"/>
-    <row r="660" ht="12.75"/>
-    <row r="661" ht="12.75"/>
-    <row r="662" ht="12.75"/>
-    <row r="663" ht="12.75"/>
-    <row r="664" ht="12.75"/>
-    <row r="665" ht="12.75"/>
-    <row r="666" ht="12.75"/>
-    <row r="667" ht="12.75"/>
-    <row r="668" ht="12.75"/>
-    <row r="669" ht="12.75"/>
-    <row r="670" ht="12.75"/>
-    <row r="671" ht="12.75"/>
-    <row r="672" ht="12.75"/>
-    <row r="673" ht="12.75"/>
-    <row r="674" ht="12.75"/>
-    <row r="675" ht="12.75"/>
-    <row r="676" ht="12.75"/>
-    <row r="677" ht="12.75"/>
-    <row r="678" ht="12.75"/>
-    <row r="679" ht="12.75"/>
-    <row r="680" ht="12.75"/>
-    <row r="681" ht="12.75"/>
-    <row r="682" ht="12.75"/>
-    <row r="683" ht="12.75"/>
-    <row r="684" ht="12.75"/>
-    <row r="685" ht="12.75"/>
-    <row r="686" ht="12.75"/>
-    <row r="687" ht="12.75"/>
-    <row r="688" ht="12.75"/>
-    <row r="689" ht="12.75"/>
-    <row r="690" ht="12.75"/>
-    <row r="691" ht="12.75"/>
-    <row r="692" ht="12.75"/>
-    <row r="693" ht="12.75"/>
-    <row r="694" ht="12.75"/>
-    <row r="695" ht="12.75"/>
-    <row r="696" ht="12.75"/>
-    <row r="697" ht="12.75"/>
-    <row r="698" ht="12.75"/>
-    <row r="699" ht="12.75"/>
-    <row r="700" ht="12.75"/>
-    <row r="701" ht="12.75"/>
-    <row r="702" ht="12.75"/>
-    <row r="703" ht="12.75"/>
-    <row r="704" ht="12.75"/>
-    <row r="705" ht="12.75"/>
-    <row r="706" ht="12.75"/>
-    <row r="707" ht="12.75"/>
-    <row r="708" ht="12.75"/>
-    <row r="709" ht="12.75"/>
-    <row r="710" ht="12.75"/>
-    <row r="711" ht="12.75"/>
-    <row r="712" ht="12.75"/>
-    <row r="713" ht="12.75"/>
-    <row r="714" ht="12.75"/>
-    <row r="715" ht="12.75"/>
-    <row r="716" ht="12.75"/>
-    <row r="717" ht="12.75"/>
-    <row r="718" ht="12.75"/>
-    <row r="719" ht="12.75"/>
-    <row r="720" ht="12.75"/>
-    <row r="721" ht="12.75"/>
-    <row r="722" ht="12.75"/>
-    <row r="723" ht="12.75"/>
-    <row r="724" ht="12.75"/>
-    <row r="725" ht="12.75"/>
-    <row r="726" ht="12.75"/>
-    <row r="727" ht="12.75"/>
-    <row r="728" ht="12.75"/>
-    <row r="729" ht="12.75"/>
-    <row r="730" ht="12.75"/>
-    <row r="731" ht="12.75"/>
-    <row r="732" ht="12.75"/>
-    <row r="733" ht="12.75"/>
-    <row r="734" ht="12.75"/>
-    <row r="735" ht="12.75"/>
-    <row r="736" ht="12.75"/>
-    <row r="737" ht="12.75"/>
-    <row r="738" ht="12.75"/>
-    <row r="739" ht="12.75"/>
-    <row r="740" ht="12.75"/>
-    <row r="741" ht="12.75"/>
-    <row r="742" ht="12.75"/>
-    <row r="743" ht="12.75"/>
-    <row r="744" ht="12.75"/>
-    <row r="745" ht="12.75"/>
-    <row r="746" ht="12.75"/>
-    <row r="747" ht="12.75"/>
-    <row r="748" ht="12.75"/>
-    <row r="749" ht="12.75"/>
-    <row r="750" ht="12.75"/>
-    <row r="751" ht="12.75"/>
-    <row r="752" ht="12.75"/>
-    <row r="753" ht="12.75"/>
-    <row r="754" ht="12.75"/>
-    <row r="755" ht="12.75"/>
-    <row r="756" ht="12.75"/>
-    <row r="757" ht="12.75"/>
-    <row r="758" ht="12.75"/>
-    <row r="759" ht="12.75"/>
-    <row r="760" ht="12.75"/>
-    <row r="761" ht="12.75"/>
-    <row r="762" ht="12.75"/>
-    <row r="763" ht="12.75"/>
-    <row r="764" ht="12.75"/>
-    <row r="765" ht="12.75"/>
-    <row r="766" ht="12.75"/>
-    <row r="767" ht="12.75"/>
-    <row r="768" ht="12.75"/>
-    <row r="769" ht="12.75"/>
-    <row r="770" ht="12.75"/>
-    <row r="771" ht="12.75"/>
-    <row r="772" ht="12.75"/>
-    <row r="773" ht="12.75"/>
-    <row r="774" ht="12.75"/>
-    <row r="775" ht="12.75"/>
-    <row r="776" ht="12.75"/>
-    <row r="777" ht="12.75"/>
-    <row r="778" ht="12.75"/>
-    <row r="779" ht="12.75"/>
-    <row r="780" ht="12.75"/>
-    <row r="781" ht="12.75"/>
-    <row r="782" ht="12.75"/>
-    <row r="783" ht="12.75"/>
-    <row r="784" ht="12.75"/>
-    <row r="785" ht="12.75"/>
-    <row r="786" ht="12.75"/>
-    <row r="787" ht="12.75"/>
-    <row r="788" ht="12.75"/>
-    <row r="789" ht="12.75"/>
-    <row r="790" ht="12.75"/>
-    <row r="791" ht="12.75"/>
-    <row r="792" ht="12.75"/>
-    <row r="793" ht="12.75"/>
-    <row r="794" ht="12.75"/>
-    <row r="795" ht="12.75"/>
-    <row r="796" ht="12.75"/>
-    <row r="797" ht="12.75"/>
-    <row r="798" ht="12.75"/>
-    <row r="799" ht="12.75"/>
-    <row r="800" ht="12.75"/>
-    <row r="801" ht="12.75"/>
-    <row r="802" ht="12.75"/>
-    <row r="803" ht="12.75"/>
-    <row r="804" ht="12.75"/>
-    <row r="805" ht="12.75"/>
-    <row r="806" ht="12.75"/>
-    <row r="807" ht="12.75"/>
-    <row r="808" ht="12.75"/>
-    <row r="809" ht="12.75"/>
-    <row r="810" ht="12.75"/>
-    <row r="811" ht="12.75"/>
-    <row r="812" ht="12.75"/>
-    <row r="813" ht="12.75"/>
-    <row r="814" ht="12.75"/>
-    <row r="815" ht="12.75"/>
-    <row r="816" ht="12.75"/>
-    <row r="817" ht="12.75"/>
-    <row r="818" ht="12.75"/>
-    <row r="819" ht="12.75"/>
-    <row r="820" ht="12.75"/>
-    <row r="821" ht="12.75"/>
-    <row r="822" ht="12.75"/>
-    <row r="823" ht="12.75"/>
-    <row r="824" ht="12.75"/>
-    <row r="825" ht="12.75"/>
-    <row r="826" ht="12.75"/>
-    <row r="827" ht="12.75"/>
-    <row r="828" ht="12.75"/>
-    <row r="829" ht="12.75"/>
-    <row r="830" ht="12.75"/>
-    <row r="831" ht="12.75"/>
-    <row r="832" ht="12.75"/>
-    <row r="833" ht="12.75"/>
-    <row r="834" ht="12.75"/>
-    <row r="835" ht="12.75"/>
-    <row r="836" ht="12.75"/>
-    <row r="837" ht="12.75"/>
-    <row r="838" ht="12.75"/>
-    <row r="839" ht="12.75"/>
-    <row r="840" ht="12.75"/>
-    <row r="841" ht="12.75"/>
-    <row r="842" ht="12.75"/>
-    <row r="843" ht="12.75"/>
-    <row r="844" ht="12.75"/>
-    <row r="845" ht="12.75"/>
-    <row r="846" ht="12.75"/>
-    <row r="847" ht="12.75"/>
-    <row r="848" ht="12.75"/>
-    <row r="849" ht="12.75"/>
-    <row r="850" ht="12.75"/>
-    <row r="851" ht="12.75"/>
-    <row r="852" ht="12.75"/>
-    <row r="853" ht="12.75"/>
-    <row r="854" ht="12.75"/>
-    <row r="855" ht="12.75"/>
-    <row r="856" ht="12.75"/>
-    <row r="857" ht="12.75"/>
-    <row r="858" ht="12.75"/>
-    <row r="859" ht="12.75"/>
-    <row r="860" ht="12.75"/>
-    <row r="861" ht="12.75"/>
-    <row r="862" ht="12.75"/>
-    <row r="863" ht="12.75"/>
-    <row r="864" ht="12.75"/>
-    <row r="865" ht="12.75"/>
-    <row r="866" ht="12.75"/>
-    <row r="867" ht="12.75"/>
-    <row r="868" ht="12.75"/>
-    <row r="869" ht="12.75"/>
-    <row r="870" ht="12.75"/>
-    <row r="871" ht="12.75"/>
-    <row r="872" ht="12.75"/>
-    <row r="873" ht="12.75"/>
-    <row r="874" ht="12.75"/>
-    <row r="875" ht="12.75"/>
-    <row r="876" ht="12.75"/>
-    <row r="877" ht="12.75"/>
-    <row r="878" ht="12.75"/>
-    <row r="879" ht="12.75"/>
-    <row r="880" ht="12.75"/>
-    <row r="881" ht="12.75"/>
-    <row r="882" ht="12.75"/>
-    <row r="883" ht="12.75"/>
-    <row r="884" ht="12.75"/>
-    <row r="885" ht="12.75"/>
-    <row r="886" ht="12.75"/>
-    <row r="887" ht="12.75"/>
-    <row r="888" ht="12.75"/>
-    <row r="889" ht="12.75"/>
-    <row r="890" ht="12.75"/>
-    <row r="891" ht="12.75"/>
-    <row r="892" ht="12.75"/>
-    <row r="893" ht="12.75"/>
-    <row r="894" ht="12.75"/>
-    <row r="895" ht="12.75"/>
-    <row r="896" ht="12.75"/>
-    <row r="897" ht="12.75"/>
-    <row r="898" ht="12.75"/>
-    <row r="899" ht="12.75"/>
-    <row r="900" ht="12.75"/>
-    <row r="901" ht="12.75"/>
-    <row r="902" ht="12.75"/>
-    <row r="903" ht="12.75"/>
-    <row r="904" ht="12.75"/>
-    <row r="905" ht="12.75"/>
-    <row r="906" ht="12.75"/>
-    <row r="907" ht="12.75"/>
-    <row r="908" ht="12.75"/>
-    <row r="909" ht="12.75"/>
-    <row r="910" ht="12.75"/>
-    <row r="911" ht="12.75"/>
-    <row r="912" ht="12.75"/>
-    <row r="913" ht="12.75"/>
-    <row r="914" ht="12.75"/>
-    <row r="915" ht="12.75"/>
-    <row r="916" ht="12.75"/>
-    <row r="917" ht="12.75"/>
-    <row r="918" ht="12.75"/>
-    <row r="919" ht="12.75"/>
-    <row r="920" ht="12.75"/>
-    <row r="921" ht="12.75"/>
-    <row r="922" ht="12.75"/>
-    <row r="923" ht="12.75"/>
-    <row r="924" ht="12.75"/>
-    <row r="925" ht="12.75"/>
-    <row r="926" ht="12.75"/>
-    <row r="927" ht="12.75"/>
-    <row r="928" ht="12.75"/>
-    <row r="929" ht="12.75"/>
-    <row r="930" ht="12.75"/>
-    <row r="931" ht="12.75"/>
-    <row r="932" ht="12.75"/>
-    <row r="933" ht="12.75"/>
-    <row r="934" ht="12.75"/>
-    <row r="935" ht="12.75"/>
-    <row r="936" ht="12.75"/>
-    <row r="937" ht="12.75"/>
-    <row r="938" ht="12.75"/>
-    <row r="939" ht="12.75"/>
-    <row r="940" ht="12.75"/>
-    <row r="941" ht="12.75"/>
-    <row r="942" ht="12.75"/>
-    <row r="943" ht="12.75"/>
-    <row r="944" ht="12.75"/>
-    <row r="945" ht="12.75"/>
-    <row r="946" ht="12.75"/>
-    <row r="947" ht="12.75"/>
-    <row r="948" ht="12.75"/>
-    <row r="949" ht="12.75"/>
-    <row r="950" ht="12.75"/>
-    <row r="951" ht="12.75"/>
-    <row r="952" ht="12.75"/>
-    <row r="953" ht="12.75"/>
-    <row r="954" ht="12.75"/>
-    <row r="955" ht="12.75"/>
-    <row r="956" ht="12.75"/>
-    <row r="957" ht="12.75"/>
-    <row r="958" ht="12.75"/>
-    <row r="959" ht="12.75"/>
-    <row r="960" ht="12.75"/>
-    <row r="961" ht="12.75"/>
-    <row r="962" ht="12.75"/>
-    <row r="963" ht="12.75"/>
-    <row r="964" ht="12.75"/>
-    <row r="965" ht="12.75"/>
-    <row r="966" ht="12.75"/>
-    <row r="967" ht="12.75"/>
-    <row r="968" ht="12.75"/>
-    <row r="969" ht="12.75"/>
-    <row r="970" ht="12.75"/>
-    <row r="971" ht="12.75"/>
-    <row r="972" ht="12.75"/>
-    <row r="973" ht="12.75"/>
-    <row r="974" ht="12.75"/>
-    <row r="975" ht="12.75"/>
-    <row r="976" ht="12.75"/>
-    <row r="977" ht="12.75"/>
-    <row r="978" ht="12.75"/>
-    <row r="979" ht="12.75"/>
-    <row r="980" ht="12.75"/>
-    <row r="981" ht="12.75"/>
-    <row r="982" ht="12.75"/>
-    <row r="983" ht="12.75"/>
-    <row r="984" ht="12.75"/>
-    <row r="985" ht="12.75"/>
-    <row r="986" ht="12.75"/>
-    <row r="987" ht="12.75"/>
-    <row r="988" ht="12.75"/>
-    <row r="989" ht="12.75"/>
-    <row r="990" ht="12.75"/>
-    <row r="991" ht="12.75"/>
-    <row r="992" ht="12.75"/>
-    <row r="993" ht="12.75"/>
-    <row r="994" ht="12.75"/>
-    <row r="995" ht="12.75"/>
-    <row r="996" ht="12.75"/>
-    <row r="997" ht="12.75"/>
-    <row r="998" ht="12.75"/>
-    <row r="999" ht="12.75"/>
+    <row r="423" spans="1:29" ht="13.2"/>
+    <row r="424" spans="1:29" ht="13.2"/>
+    <row r="425" spans="1:29" ht="13.2"/>
+    <row r="426" spans="1:29" ht="13.2"/>
+    <row r="427" spans="1:29" ht="13.2"/>
+    <row r="428" spans="1:29" ht="13.2"/>
+    <row r="429" spans="1:29" ht="13.2"/>
+    <row r="430" spans="1:29" ht="13.2"/>
+    <row r="431" spans="1:29" ht="13.2"/>
+    <row r="432" spans="1:29" ht="13.2"/>
+    <row r="433" ht="13.2"/>
+    <row r="434" ht="13.2"/>
+    <row r="435" ht="13.2"/>
+    <row r="436" ht="13.2"/>
+    <row r="437" ht="13.2"/>
+    <row r="438" ht="13.2"/>
+    <row r="439" ht="13.2"/>
+    <row r="440" ht="13.2"/>
+    <row r="441" ht="13.2"/>
+    <row r="442" ht="13.2"/>
+    <row r="443" ht="13.2"/>
+    <row r="444" ht="13.2"/>
+    <row r="445" ht="13.2"/>
+    <row r="446" ht="13.2"/>
+    <row r="447" ht="13.2"/>
+    <row r="448" ht="13.2"/>
+    <row r="449" ht="13.2"/>
+    <row r="450" ht="13.2"/>
+    <row r="451" ht="13.2"/>
+    <row r="452" ht="13.2"/>
+    <row r="453" ht="13.2"/>
+    <row r="454" ht="13.2"/>
+    <row r="455" ht="13.2"/>
+    <row r="456" ht="13.2"/>
+    <row r="457" ht="13.2"/>
+    <row r="458" ht="13.2"/>
+    <row r="459" ht="13.2"/>
+    <row r="460" ht="13.2"/>
+    <row r="461" ht="13.2"/>
+    <row r="462" ht="13.2"/>
+    <row r="463" ht="13.2"/>
+    <row r="464" ht="13.2"/>
+    <row r="465" ht="13.2"/>
+    <row r="466" ht="13.2"/>
+    <row r="467" ht="13.2"/>
+    <row r="468" ht="13.2"/>
+    <row r="469" ht="13.2"/>
+    <row r="470" ht="13.2"/>
+    <row r="471" ht="13.2"/>
+    <row r="472" ht="13.2"/>
+    <row r="473" ht="13.2"/>
+    <row r="474" ht="13.2"/>
+    <row r="475" ht="13.2"/>
+    <row r="476" ht="13.2"/>
+    <row r="477" ht="13.2"/>
+    <row r="478" ht="13.2"/>
+    <row r="479" ht="13.2"/>
+    <row r="480" ht="13.2"/>
+    <row r="481" ht="13.2"/>
+    <row r="482" ht="13.2"/>
+    <row r="483" ht="13.2"/>
+    <row r="484" ht="13.2"/>
+    <row r="485" ht="13.2"/>
+    <row r="486" ht="13.2"/>
+    <row r="487" ht="13.2"/>
+    <row r="488" ht="13.2"/>
+    <row r="489" ht="13.2"/>
+    <row r="490" ht="13.2"/>
+    <row r="491" ht="13.2"/>
+    <row r="492" ht="13.2"/>
+    <row r="493" ht="13.2"/>
+    <row r="494" ht="13.2"/>
+    <row r="495" ht="13.2"/>
+    <row r="496" ht="13.2"/>
+    <row r="497" ht="13.2"/>
+    <row r="498" ht="13.2"/>
+    <row r="499" ht="13.2"/>
+    <row r="500" ht="13.2"/>
+    <row r="501" ht="13.2"/>
+    <row r="502" ht="13.2"/>
+    <row r="503" ht="13.2"/>
+    <row r="504" ht="13.2"/>
+    <row r="505" ht="13.2"/>
+    <row r="506" ht="13.2"/>
+    <row r="507" ht="13.2"/>
+    <row r="508" ht="13.2"/>
+    <row r="509" ht="13.2"/>
+    <row r="510" ht="13.2"/>
+    <row r="511" ht="13.2"/>
+    <row r="512" ht="13.2"/>
+    <row r="513" ht="13.2"/>
+    <row r="514" ht="13.2"/>
+    <row r="515" ht="13.2"/>
+    <row r="516" ht="13.2"/>
+    <row r="517" ht="13.2"/>
+    <row r="518" ht="13.2"/>
+    <row r="519" ht="13.2"/>
+    <row r="520" ht="13.2"/>
+    <row r="521" ht="13.2"/>
+    <row r="522" ht="13.2"/>
+    <row r="523" ht="13.2"/>
+    <row r="524" ht="13.2"/>
+    <row r="525" ht="13.2"/>
+    <row r="526" ht="13.2"/>
+    <row r="527" ht="13.2"/>
+    <row r="528" ht="13.2"/>
+    <row r="529" ht="13.2"/>
+    <row r="530" ht="13.2"/>
+    <row r="531" ht="13.2"/>
+    <row r="532" ht="13.2"/>
+    <row r="533" ht="13.2"/>
+    <row r="534" ht="13.2"/>
+    <row r="535" ht="13.2"/>
+    <row r="536" ht="13.2"/>
+    <row r="537" ht="13.2"/>
+    <row r="538" ht="13.2"/>
+    <row r="539" ht="13.2"/>
+    <row r="540" ht="13.2"/>
+    <row r="541" ht="13.2"/>
+    <row r="542" ht="13.2"/>
+    <row r="543" ht="13.2"/>
+    <row r="544" ht="13.2"/>
+    <row r="545" ht="13.2"/>
+    <row r="546" ht="13.2"/>
+    <row r="547" ht="13.2"/>
+    <row r="548" ht="13.2"/>
+    <row r="549" ht="13.2"/>
+    <row r="550" ht="13.2"/>
+    <row r="551" ht="13.2"/>
+    <row r="552" ht="13.2"/>
+    <row r="553" ht="13.2"/>
+    <row r="554" ht="13.2"/>
+    <row r="555" ht="13.2"/>
+    <row r="556" ht="13.2"/>
+    <row r="557" ht="13.2"/>
+    <row r="558" ht="13.2"/>
+    <row r="559" ht="13.2"/>
+    <row r="560" ht="13.2"/>
+    <row r="561" ht="13.2"/>
+    <row r="562" ht="13.2"/>
+    <row r="563" ht="13.2"/>
+    <row r="564" ht="13.2"/>
+    <row r="565" ht="13.2"/>
+    <row r="566" ht="13.2"/>
+    <row r="567" ht="13.2"/>
+    <row r="568" ht="13.2"/>
+    <row r="569" ht="13.2"/>
+    <row r="570" ht="13.2"/>
+    <row r="571" ht="13.2"/>
+    <row r="572" ht="13.2"/>
+    <row r="573" ht="13.2"/>
+    <row r="574" ht="13.2"/>
+    <row r="575" ht="13.2"/>
+    <row r="576" ht="13.2"/>
+    <row r="577" ht="13.2"/>
+    <row r="578" ht="13.2"/>
+    <row r="579" ht="13.2"/>
+    <row r="580" ht="13.2"/>
+    <row r="581" ht="13.2"/>
+    <row r="582" ht="13.2"/>
+    <row r="583" ht="13.2"/>
+    <row r="584" ht="13.2"/>
+    <row r="585" ht="13.2"/>
+    <row r="586" ht="13.2"/>
+    <row r="587" ht="13.2"/>
+    <row r="588" ht="13.2"/>
+    <row r="589" ht="13.2"/>
+    <row r="590" ht="13.2"/>
+    <row r="591" ht="13.2"/>
+    <row r="592" ht="13.2"/>
+    <row r="593" ht="13.2"/>
+    <row r="594" ht="13.2"/>
+    <row r="595" ht="13.2"/>
+    <row r="596" ht="13.2"/>
+    <row r="597" ht="13.2"/>
+    <row r="598" ht="13.2"/>
+    <row r="599" ht="13.2"/>
+    <row r="600" ht="13.2"/>
+    <row r="601" ht="13.2"/>
+    <row r="602" ht="13.2"/>
+    <row r="603" ht="13.2"/>
+    <row r="604" ht="13.2"/>
+    <row r="605" ht="13.2"/>
+    <row r="606" ht="13.2"/>
+    <row r="607" ht="13.2"/>
+    <row r="608" ht="13.2"/>
+    <row r="609" ht="13.2"/>
+    <row r="610" ht="13.2"/>
+    <row r="611" ht="13.2"/>
+    <row r="612" ht="13.2"/>
+    <row r="613" ht="13.2"/>
+    <row r="614" ht="13.2"/>
+    <row r="615" ht="13.2"/>
+    <row r="616" ht="13.2"/>
+    <row r="617" ht="13.2"/>
+    <row r="618" ht="13.2"/>
+    <row r="619" ht="13.2"/>
+    <row r="620" ht="13.2"/>
+    <row r="621" ht="13.2"/>
+    <row r="622" ht="13.2"/>
+    <row r="623" ht="13.2"/>
+    <row r="624" ht="13.2"/>
+    <row r="625" ht="13.2"/>
+    <row r="626" ht="13.2"/>
+    <row r="627" ht="13.2"/>
+    <row r="628" ht="13.2"/>
+    <row r="629" ht="13.2"/>
+    <row r="630" ht="13.2"/>
+    <row r="631" ht="13.2"/>
+    <row r="632" ht="13.2"/>
+    <row r="633" ht="13.2"/>
+    <row r="634" ht="13.2"/>
+    <row r="635" ht="13.2"/>
+    <row r="636" ht="13.2"/>
+    <row r="637" ht="13.2"/>
+    <row r="638" ht="13.2"/>
+    <row r="639" ht="13.2"/>
+    <row r="640" ht="13.2"/>
+    <row r="641" ht="13.2"/>
+    <row r="642" ht="13.2"/>
+    <row r="643" ht="13.2"/>
+    <row r="644" ht="13.2"/>
+    <row r="645" ht="13.2"/>
+    <row r="646" ht="13.2"/>
+    <row r="647" ht="13.2"/>
+    <row r="648" ht="13.2"/>
+    <row r="649" ht="13.2"/>
+    <row r="650" ht="13.2"/>
+    <row r="651" ht="13.2"/>
+    <row r="652" ht="13.2"/>
+    <row r="653" ht="13.2"/>
+    <row r="654" ht="13.2"/>
+    <row r="655" ht="13.2"/>
+    <row r="656" ht="13.2"/>
+    <row r="657" ht="13.2"/>
+    <row r="658" ht="13.2"/>
+    <row r="659" ht="13.2"/>
+    <row r="660" ht="13.2"/>
+    <row r="661" ht="13.2"/>
+    <row r="662" ht="13.2"/>
+    <row r="663" ht="13.2"/>
+    <row r="664" ht="13.2"/>
+    <row r="665" ht="13.2"/>
+    <row r="666" ht="13.2"/>
+    <row r="667" ht="13.2"/>
+    <row r="668" ht="13.2"/>
+    <row r="669" ht="13.2"/>
+    <row r="670" ht="13.2"/>
+    <row r="671" ht="13.2"/>
+    <row r="672" ht="13.2"/>
+    <row r="673" ht="13.2"/>
+    <row r="674" ht="13.2"/>
+    <row r="675" ht="13.2"/>
+    <row r="676" ht="13.2"/>
+    <row r="677" ht="13.2"/>
+    <row r="678" ht="13.2"/>
+    <row r="679" ht="13.2"/>
+    <row r="680" ht="13.2"/>
+    <row r="681" ht="13.2"/>
+    <row r="682" ht="13.2"/>
+    <row r="683" ht="13.2"/>
+    <row r="684" ht="13.2"/>
+    <row r="685" ht="13.2"/>
+    <row r="686" ht="13.2"/>
+    <row r="687" ht="13.2"/>
+    <row r="688" ht="13.2"/>
+    <row r="689" ht="13.2"/>
+    <row r="690" ht="13.2"/>
+    <row r="691" ht="13.2"/>
+    <row r="692" ht="13.2"/>
+    <row r="693" ht="13.2"/>
+    <row r="694" ht="13.2"/>
+    <row r="695" ht="13.2"/>
+    <row r="696" ht="13.2"/>
+    <row r="697" ht="13.2"/>
+    <row r="698" ht="13.2"/>
+    <row r="699" ht="13.2"/>
+    <row r="700" ht="13.2"/>
+    <row r="701" ht="13.2"/>
+    <row r="702" ht="13.2"/>
+    <row r="703" ht="13.2"/>
+    <row r="704" ht="13.2"/>
+    <row r="705" ht="13.2"/>
+    <row r="706" ht="13.2"/>
+    <row r="707" ht="13.2"/>
+    <row r="708" ht="13.2"/>
+    <row r="709" ht="13.2"/>
+    <row r="710" ht="13.2"/>
+    <row r="711" ht="13.2"/>
+    <row r="712" ht="13.2"/>
+    <row r="713" ht="13.2"/>
+    <row r="714" ht="13.2"/>
+    <row r="715" ht="13.2"/>
+    <row r="716" ht="13.2"/>
+    <row r="717" ht="13.2"/>
+    <row r="718" ht="13.2"/>
+    <row r="719" ht="13.2"/>
+    <row r="720" ht="13.2"/>
+    <row r="721" ht="13.2"/>
+    <row r="722" ht="13.2"/>
+    <row r="723" ht="13.2"/>
+    <row r="724" ht="13.2"/>
+    <row r="725" ht="13.2"/>
+    <row r="726" ht="13.2"/>
+    <row r="727" ht="13.2"/>
+    <row r="728" ht="13.2"/>
+    <row r="729" ht="13.2"/>
+    <row r="730" ht="13.2"/>
+    <row r="731" ht="13.2"/>
+    <row r="732" ht="13.2"/>
+    <row r="733" ht="13.2"/>
+    <row r="734" ht="13.2"/>
+    <row r="735" ht="13.2"/>
+    <row r="736" ht="13.2"/>
+    <row r="737" ht="13.2"/>
+    <row r="738" ht="13.2"/>
+    <row r="739" ht="13.2"/>
+    <row r="740" ht="13.2"/>
+    <row r="741" ht="13.2"/>
+    <row r="742" ht="13.2"/>
+    <row r="743" ht="13.2"/>
+    <row r="744" ht="13.2"/>
+    <row r="745" ht="13.2"/>
+    <row r="746" ht="13.2"/>
+    <row r="747" ht="13.2"/>
+    <row r="748" ht="13.2"/>
+    <row r="749" ht="13.2"/>
+    <row r="750" ht="13.2"/>
+    <row r="751" ht="13.2"/>
+    <row r="752" ht="13.2"/>
+    <row r="753" ht="13.2"/>
+    <row r="754" ht="13.2"/>
+    <row r="755" ht="13.2"/>
+    <row r="756" ht="13.2"/>
+    <row r="757" ht="13.2"/>
+    <row r="758" ht="13.2"/>
+    <row r="759" ht="13.2"/>
+    <row r="760" ht="13.2"/>
+    <row r="761" ht="13.2"/>
+    <row r="762" ht="13.2"/>
+    <row r="763" ht="13.2"/>
+    <row r="764" ht="13.2"/>
+    <row r="765" ht="13.2"/>
+    <row r="766" ht="13.2"/>
+    <row r="767" ht="13.2"/>
+    <row r="768" ht="13.2"/>
+    <row r="769" ht="13.2"/>
+    <row r="770" ht="13.2"/>
+    <row r="771" ht="13.2"/>
+    <row r="772" ht="13.2"/>
+    <row r="773" ht="13.2"/>
+    <row r="774" ht="13.2"/>
+    <row r="775" ht="13.2"/>
+    <row r="776" ht="13.2"/>
+    <row r="777" ht="13.2"/>
+    <row r="778" ht="13.2"/>
+    <row r="779" ht="13.2"/>
+    <row r="780" ht="13.2"/>
+    <row r="781" ht="13.2"/>
+    <row r="782" ht="13.2"/>
+    <row r="783" ht="13.2"/>
+    <row r="784" ht="13.2"/>
+    <row r="785" ht="13.2"/>
+    <row r="786" ht="13.2"/>
+    <row r="787" ht="13.2"/>
+    <row r="788" ht="13.2"/>
+    <row r="789" ht="13.2"/>
+    <row r="790" ht="13.2"/>
+    <row r="791" ht="13.2"/>
+    <row r="792" ht="13.2"/>
+    <row r="793" ht="13.2"/>
+    <row r="794" ht="13.2"/>
+    <row r="795" ht="13.2"/>
+    <row r="796" ht="13.2"/>
+    <row r="797" ht="13.2"/>
+    <row r="798" ht="13.2"/>
+    <row r="799" ht="13.2"/>
+    <row r="800" ht="13.2"/>
+    <row r="801" ht="13.2"/>
+    <row r="802" ht="13.2"/>
+    <row r="803" ht="13.2"/>
+    <row r="804" ht="13.2"/>
+    <row r="805" ht="13.2"/>
+    <row r="806" ht="13.2"/>
+    <row r="807" ht="13.2"/>
+    <row r="808" ht="13.2"/>
+    <row r="809" ht="13.2"/>
+    <row r="810" ht="13.2"/>
+    <row r="811" ht="13.2"/>
+    <row r="812" ht="13.2"/>
+    <row r="813" ht="13.2"/>
+    <row r="814" ht="13.2"/>
+    <row r="815" ht="13.2"/>
+    <row r="816" ht="13.2"/>
+    <row r="817" ht="13.2"/>
+    <row r="818" ht="13.2"/>
+    <row r="819" ht="13.2"/>
+    <row r="820" ht="13.2"/>
+    <row r="821" ht="13.2"/>
+    <row r="822" ht="13.2"/>
+    <row r="823" ht="13.2"/>
+    <row r="824" ht="13.2"/>
+    <row r="825" ht="13.2"/>
+    <row r="826" ht="13.2"/>
+    <row r="827" ht="13.2"/>
+    <row r="828" ht="13.2"/>
+    <row r="829" ht="13.2"/>
+    <row r="830" ht="13.2"/>
+    <row r="831" ht="13.2"/>
+    <row r="832" ht="13.2"/>
+    <row r="833" ht="13.2"/>
+    <row r="834" ht="13.2"/>
+    <row r="835" ht="13.2"/>
+    <row r="836" ht="13.2"/>
+    <row r="837" ht="13.2"/>
+    <row r="838" ht="13.2"/>
+    <row r="839" ht="13.2"/>
+    <row r="840" ht="13.2"/>
+    <row r="841" ht="13.2"/>
+    <row r="842" ht="13.2"/>
+    <row r="843" ht="13.2"/>
+    <row r="844" ht="13.2"/>
+    <row r="845" ht="13.2"/>
+    <row r="846" ht="13.2"/>
+    <row r="847" ht="13.2"/>
+    <row r="848" ht="13.2"/>
+    <row r="849" ht="13.2"/>
+    <row r="850" ht="13.2"/>
+    <row r="851" ht="13.2"/>
+    <row r="852" ht="13.2"/>
+    <row r="853" ht="13.2"/>
+    <row r="854" ht="13.2"/>
+    <row r="855" ht="13.2"/>
+    <row r="856" ht="13.2"/>
+    <row r="857" ht="13.2"/>
+    <row r="858" ht="13.2"/>
+    <row r="859" ht="13.2"/>
+    <row r="860" ht="13.2"/>
+    <row r="861" ht="13.2"/>
+    <row r="862" ht="13.2"/>
+    <row r="863" ht="13.2"/>
+    <row r="864" ht="13.2"/>
+    <row r="865" ht="13.2"/>
+    <row r="866" ht="13.2"/>
+    <row r="867" ht="13.2"/>
+    <row r="868" ht="13.2"/>
+    <row r="869" ht="13.2"/>
+    <row r="870" ht="13.2"/>
+    <row r="871" ht="13.2"/>
+    <row r="872" ht="13.2"/>
+    <row r="873" ht="13.2"/>
+    <row r="874" ht="13.2"/>
+    <row r="875" ht="13.2"/>
+    <row r="876" ht="13.2"/>
+    <row r="877" ht="13.2"/>
+    <row r="878" ht="13.2"/>
+    <row r="879" ht="13.2"/>
+    <row r="880" ht="13.2"/>
+    <row r="881" ht="13.2"/>
+    <row r="882" ht="13.2"/>
+    <row r="883" ht="13.2"/>
+    <row r="884" ht="13.2"/>
+    <row r="885" ht="13.2"/>
+    <row r="886" ht="13.2"/>
+    <row r="887" ht="13.2"/>
+    <row r="888" ht="13.2"/>
+    <row r="889" ht="13.2"/>
+    <row r="890" ht="13.2"/>
+    <row r="891" ht="13.2"/>
+    <row r="892" ht="13.2"/>
+    <row r="893" ht="13.2"/>
+    <row r="894" ht="13.2"/>
+    <row r="895" ht="13.2"/>
+    <row r="896" ht="13.2"/>
+    <row r="897" ht="13.2"/>
+    <row r="898" ht="13.2"/>
+    <row r="899" ht="13.2"/>
+    <row r="900" ht="13.2"/>
+    <row r="901" ht="13.2"/>
+    <row r="902" ht="13.2"/>
+    <row r="903" ht="13.2"/>
+    <row r="904" ht="13.2"/>
+    <row r="905" ht="13.2"/>
+    <row r="906" ht="13.2"/>
+    <row r="907" ht="13.2"/>
+    <row r="908" ht="13.2"/>
+    <row r="909" ht="13.2"/>
+    <row r="910" ht="13.2"/>
+    <row r="911" ht="13.2"/>
+    <row r="912" ht="13.2"/>
+    <row r="913" ht="13.2"/>
+    <row r="914" ht="13.2"/>
+    <row r="915" ht="13.2"/>
+    <row r="916" ht="13.2"/>
+    <row r="917" ht="13.2"/>
+    <row r="918" ht="13.2"/>
+    <row r="919" ht="13.2"/>
+    <row r="920" ht="13.2"/>
+    <row r="921" ht="13.2"/>
+    <row r="922" ht="13.2"/>
+    <row r="923" ht="13.2"/>
+    <row r="924" ht="13.2"/>
+    <row r="925" ht="13.2"/>
+    <row r="926" ht="13.2"/>
+    <row r="927" ht="13.2"/>
+    <row r="928" ht="13.2"/>
+    <row r="929" ht="13.2"/>
+    <row r="930" ht="13.2"/>
+    <row r="931" ht="13.2"/>
+    <row r="932" ht="13.2"/>
+    <row r="933" ht="13.2"/>
+    <row r="934" ht="13.2"/>
+    <row r="935" ht="13.2"/>
+    <row r="936" ht="13.2"/>
+    <row r="937" ht="13.2"/>
+    <row r="938" ht="13.2"/>
+    <row r="939" ht="13.2"/>
+    <row r="940" ht="13.2"/>
+    <row r="941" ht="13.2"/>
+    <row r="942" ht="13.2"/>
+    <row r="943" ht="13.2"/>
+    <row r="944" ht="13.2"/>
+    <row r="945" ht="13.2"/>
+    <row r="946" ht="13.2"/>
+    <row r="947" ht="13.2"/>
+    <row r="948" ht="13.2"/>
+    <row r="949" ht="13.2"/>
+    <row r="950" ht="13.2"/>
+    <row r="951" ht="13.2"/>
+    <row r="952" ht="13.2"/>
+    <row r="953" ht="13.2"/>
+    <row r="954" ht="13.2"/>
+    <row r="955" ht="13.2"/>
+    <row r="956" ht="13.2"/>
+    <row r="957" ht="13.2"/>
+    <row r="958" ht="13.2"/>
+    <row r="959" ht="13.2"/>
+    <row r="960" ht="13.2"/>
+    <row r="961" ht="13.2"/>
+    <row r="962" ht="13.2"/>
+    <row r="963" ht="13.2"/>
+    <row r="964" ht="13.2"/>
+    <row r="965" ht="13.2"/>
+    <row r="966" ht="13.2"/>
+    <row r="967" ht="13.2"/>
+    <row r="968" ht="13.2"/>
+    <row r="969" ht="13.2"/>
+    <row r="970" ht="13.2"/>
+    <row r="971" ht="13.2"/>
+    <row r="972" ht="13.2"/>
+    <row r="973" ht="13.2"/>
+    <row r="974" ht="13.2"/>
+    <row r="975" ht="13.2"/>
+    <row r="976" ht="13.2"/>
+    <row r="977" ht="13.2"/>
+    <row r="978" ht="13.2"/>
+    <row r="979" ht="13.2"/>
+    <row r="980" ht="13.2"/>
+    <row r="981" ht="13.2"/>
+    <row r="982" ht="13.2"/>
+    <row r="983" ht="13.2"/>
+    <row r="984" ht="13.2"/>
+    <row r="985" ht="13.2"/>
+    <row r="986" ht="13.2"/>
+    <row r="987" ht="13.2"/>
+    <row r="988" ht="13.2"/>
+    <row r="989" ht="13.2"/>
+    <row r="990" ht="13.2"/>
+    <row r="991" ht="13.2"/>
+    <row r="992" ht="13.2"/>
+    <row r="993" ht="13.2"/>
+    <row r="994" ht="13.2"/>
+    <row r="995" ht="13.2"/>
+    <row r="996" ht="13.2"/>
+    <row r="997" ht="13.2"/>
+    <row r="998" ht="13.2"/>
+    <row r="999" ht="13.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -29145,7 +29162,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -29175,11 +29192,11 @@
   </sheetPr>
   <dimension ref="A1:B245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="D177" sqref="D177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -29593,13 +29610,17 @@
       <c r="A52" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>1072</v>
+      </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B53" s="1"/>
+      <c r="B53" s="15" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
@@ -30318,7 +30339,7 @@
         <v>638</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>636</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -31139,7 +31160,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -31152,7 +31174,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -31262,7 +31284,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">

--- a/neuroprotective_variants.xlsx
+++ b/neuroprotective_variants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/391b6213340268ec/Documents/UniversityofKentucky/MillerLab/neuroprotective_variants/neuroprotective_variants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_3E2F7DF44E31F9613DC94E8D353A43A79B6FFBE8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7836C926-212A-4B16-97B4-856966BED118}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="11_3E2F7DF44E31F9613DC94E8D353A43A79B6FFBE8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57A02F24-9B5A-4100-A6CB-4BB0E1FF89BD}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11235" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seto et al." sheetId="1" r:id="rId1"/>
@@ -20,7 +20,20 @@
     <sheet name="Sources" sheetId="5" r:id="rId5"/>
     <sheet name="Guen et al." sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -48,6 +61,28 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4135" uniqueCount="1075">
   <si>
@@ -3280,7 +3315,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3346,6 +3381,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0C0D0E"/>
+      <name val="Cascadia Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3380,7 +3421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3413,6 +3454,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3633,9 +3675,9 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -3781,25 +3823,25 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="A224" sqref="A224"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="10" max="12" width="14.44140625" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" customWidth="1"/>
-    <col min="14" max="29" width="14.44140625" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="14" max="29" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="13.2">
+    <row r="1" spans="1:29" ht="12.75">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -3888,7 +3930,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15.6">
+    <row r="2" spans="1:29">
       <c r="A2" s="4" t="s">
         <v>49</v>
       </c>
@@ -3977,7 +4019,7 @@
         <v>0.309</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15.6">
+    <row r="3" spans="1:29">
       <c r="A3" s="4" t="s">
         <v>49</v>
       </c>
@@ -4066,7 +4108,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.6">
+    <row r="4" spans="1:29">
       <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
@@ -4155,7 +4197,7 @@
         <v>0.74129999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15.6">
+    <row r="5" spans="1:29">
       <c r="A5" s="4" t="s">
         <v>73</v>
       </c>
@@ -4244,7 +4286,7 @@
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15.6">
+    <row r="6" spans="1:29">
       <c r="A6" s="4" t="s">
         <v>73</v>
       </c>
@@ -4333,7 +4375,7 @@
         <v>8.1499999999999997E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15.6">
+    <row r="7" spans="1:29">
       <c r="A7" s="4" t="s">
         <v>85</v>
       </c>
@@ -4422,7 +4464,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="15.6">
+    <row r="8" spans="1:29">
       <c r="A8" s="4" t="s">
         <v>92</v>
       </c>
@@ -4511,7 +4553,7 @@
         <v>0.63600000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="15.6">
+    <row r="9" spans="1:29">
       <c r="A9" s="4" t="s">
         <v>96</v>
       </c>
@@ -4600,7 +4642,7 @@
         <v>0.3891</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="15.6">
+    <row r="10" spans="1:29">
       <c r="A10" s="4" t="s">
         <v>102</v>
       </c>
@@ -4689,7 +4731,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="15.6">
+    <row r="11" spans="1:29">
       <c r="A11" s="4" t="s">
         <v>102</v>
       </c>
@@ -4778,7 +4820,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="15.6">
+    <row r="12" spans="1:29">
       <c r="A12" s="4" t="s">
         <v>102</v>
       </c>
@@ -4867,7 +4909,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="15.6">
+    <row r="13" spans="1:29">
       <c r="A13" s="4" t="s">
         <v>102</v>
       </c>
@@ -4956,7 +4998,7 @@
         <v>6.1099999999999996E-12</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="15.6">
+    <row r="14" spans="1:29">
       <c r="A14" s="4" t="s">
         <v>102</v>
       </c>
@@ -5045,7 +5087,7 @@
         <v>3.3599999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="15.6">
+    <row r="15" spans="1:29">
       <c r="A15" s="4" t="s">
         <v>102</v>
       </c>
@@ -5134,7 +5176,7 @@
         <v>7.4799999999999997E-7</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="15.6">
+    <row r="16" spans="1:29">
       <c r="A16" s="4" t="s">
         <v>102</v>
       </c>
@@ -5223,7 +5265,7 @@
         <v>0.4662</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="15.6">
+    <row r="17" spans="1:29">
       <c r="A17" s="4" t="s">
         <v>102</v>
       </c>
@@ -5312,7 +5354,7 @@
         <v>0.96789999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="15.6">
+    <row r="18" spans="1:29">
       <c r="A18" s="4" t="s">
         <v>102</v>
       </c>
@@ -5401,7 +5443,7 @@
         <v>0.58020000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="15.6">
+    <row r="19" spans="1:29">
       <c r="A19" s="4" t="s">
         <v>102</v>
       </c>
@@ -5490,7 +5532,7 @@
         <v>4.147E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="15.6">
+    <row r="20" spans="1:29">
       <c r="A20" s="4" t="s">
         <v>102</v>
       </c>
@@ -5579,7 +5621,7 @@
         <v>0.57089999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="15.6">
+    <row r="21" spans="1:29">
       <c r="A21" s="4" t="s">
         <v>102</v>
       </c>
@@ -5668,7 +5710,7 @@
         <v>0.64449999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="15.6">
+    <row r="22" spans="1:29">
       <c r="A22" s="4" t="s">
         <v>102</v>
       </c>
@@ -5757,7 +5799,7 @@
         <v>0.56179999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="15.6">
+    <row r="23" spans="1:29">
       <c r="A23" s="4" t="s">
         <v>102</v>
       </c>
@@ -5846,7 +5888,7 @@
         <v>0.65739999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="15.6">
+    <row r="24" spans="1:29">
       <c r="A24" s="4" t="s">
         <v>159</v>
       </c>
@@ -5935,7 +5977,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="15.6">
+    <row r="25" spans="1:29">
       <c r="A25" s="4" t="s">
         <v>159</v>
       </c>
@@ -6024,7 +6066,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="15.6">
+    <row r="26" spans="1:29">
       <c r="A26" s="4" t="s">
         <v>165</v>
       </c>
@@ -6113,7 +6155,7 @@
         <v>0.88759999999999994</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="15.6">
+    <row r="27" spans="1:29">
       <c r="A27" s="4" t="s">
         <v>171</v>
       </c>
@@ -6202,7 +6244,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="15.6">
+    <row r="28" spans="1:29">
       <c r="A28" s="4" t="s">
         <v>171</v>
       </c>
@@ -6291,7 +6333,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="15.6">
+    <row r="29" spans="1:29">
       <c r="A29" s="4" t="s">
         <v>180</v>
       </c>
@@ -6380,7 +6422,7 @@
         <v>7.4799999999999997E-7</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="15.6">
+    <row r="30" spans="1:29">
       <c r="A30" s="4" t="s">
         <v>183</v>
       </c>
@@ -6469,7 +6511,7 @@
         <v>0.38090000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="15.6">
+    <row r="31" spans="1:29">
       <c r="A31" s="4" t="s">
         <v>189</v>
       </c>
@@ -6558,7 +6600,7 @@
         <v>0.50390000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="15.6">
+    <row r="32" spans="1:29">
       <c r="A32" s="4" t="s">
         <v>189</v>
       </c>
@@ -6647,7 +6689,7 @@
         <v>7.1069999999999994E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="15.6">
+    <row r="33" spans="1:29">
       <c r="A33" s="4" t="s">
         <v>189</v>
       </c>
@@ -6736,7 +6778,7 @@
         <v>0.43340000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="15.6">
+    <row r="34" spans="1:29">
       <c r="A34" s="4" t="s">
         <v>207</v>
       </c>
@@ -6825,7 +6867,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="15.6">
+    <row r="35" spans="1:29">
       <c r="A35" s="4" t="s">
         <v>212</v>
       </c>
@@ -6914,7 +6956,7 @@
         <v>1.7899999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="15.6">
+    <row r="36" spans="1:29">
       <c r="A36" s="4" t="s">
         <v>219</v>
       </c>
@@ -7003,7 +7045,7 @@
         <v>0.3397</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="15.6">
+    <row r="37" spans="1:29">
       <c r="A37" s="4" t="s">
         <v>225</v>
       </c>
@@ -7092,7 +7134,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="15.6">
+    <row r="38" spans="1:29">
       <c r="A38" s="4" t="s">
         <v>225</v>
       </c>
@@ -7181,7 +7223,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="15.6">
+    <row r="39" spans="1:29">
       <c r="A39" s="4" t="s">
         <v>233</v>
       </c>
@@ -7270,7 +7312,7 @@
         <v>6.1330000000000003E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="15.6">
+    <row r="40" spans="1:29">
       <c r="A40" s="4" t="s">
         <v>239</v>
       </c>
@@ -7359,7 +7401,7 @@
         <v>0.29780000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="15.6">
+    <row r="41" spans="1:29">
       <c r="A41" s="4" t="s">
         <v>245</v>
       </c>
@@ -7448,7 +7490,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="15.6">
+    <row r="42" spans="1:29">
       <c r="A42" s="4" t="s">
         <v>251</v>
       </c>
@@ -7537,7 +7579,7 @@
         <v>0.5151</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="15.6">
+    <row r="43" spans="1:29">
       <c r="A43" s="4" t="s">
         <v>257</v>
       </c>
@@ -7626,7 +7668,7 @@
         <v>0.88870000000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="15.6">
+    <row r="44" spans="1:29">
       <c r="A44" s="4" t="s">
         <v>257</v>
       </c>
@@ -7715,7 +7757,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="15.6">
+    <row r="45" spans="1:29">
       <c r="A45" s="4" t="s">
         <v>266</v>
       </c>
@@ -7804,7 +7846,7 @@
         <v>2.7179999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="15.6">
+    <row r="46" spans="1:29">
       <c r="A46" s="4" t="s">
         <v>266</v>
       </c>
@@ -7893,7 +7935,7 @@
         <v>9.1130000000000003E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="15.6">
+    <row r="47" spans="1:29">
       <c r="A47" s="4" t="s">
         <v>275</v>
       </c>
@@ -7982,7 +8024,7 @@
         <v>0.26900000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="15.6">
+    <row r="48" spans="1:29">
       <c r="A48" s="4" t="s">
         <v>279</v>
       </c>
@@ -8071,7 +8113,7 @@
         <v>0.99860000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="15.6">
+    <row r="49" spans="1:29">
       <c r="A49" s="4" t="s">
         <v>285</v>
       </c>
@@ -8160,7 +8202,7 @@
         <v>0.53269999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="15.6">
+    <row r="50" spans="1:29">
       <c r="A50" s="4" t="s">
         <v>290</v>
       </c>
@@ -8249,7 +8291,7 @@
         <v>0.14680000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="15.6">
+    <row r="51" spans="1:29">
       <c r="A51" s="4" t="s">
         <v>295</v>
       </c>
@@ -8338,7 +8380,7 @@
         <v>0.56920000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="15.6">
+    <row r="52" spans="1:29">
       <c r="A52" s="4" t="s">
         <v>295</v>
       </c>
@@ -8427,7 +8469,7 @@
         <v>8.4530000000000004E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="15.6">
+    <row r="53" spans="1:29">
       <c r="A53" s="4" t="s">
         <v>303</v>
       </c>
@@ -8516,7 +8558,7 @@
         <v>0.4859</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="15.6">
+    <row r="54" spans="1:29">
       <c r="A54" s="4" t="s">
         <v>309</v>
       </c>
@@ -8605,7 +8647,7 @@
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="15.6">
+    <row r="55" spans="1:29">
       <c r="A55" s="4" t="s">
         <v>315</v>
       </c>
@@ -8694,7 +8736,7 @@
         <v>0.56179999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="15.6">
+    <row r="56" spans="1:29">
       <c r="A56" s="4" t="s">
         <v>317</v>
       </c>
@@ -8783,7 +8825,7 @@
         <v>0.35310000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="15.6">
+    <row r="57" spans="1:29">
       <c r="A57" s="4" t="s">
         <v>317</v>
       </c>
@@ -8872,7 +8914,7 @@
         <v>0.30409999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="15.6">
+    <row r="58" spans="1:29">
       <c r="A58" s="4" t="s">
         <v>324</v>
       </c>
@@ -8961,7 +9003,7 @@
         <v>0.1489</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="15.6">
+    <row r="59" spans="1:29">
       <c r="A59" s="4" t="s">
         <v>330</v>
       </c>
@@ -9050,7 +9092,7 @@
         <v>0.5403</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="15.6">
+    <row r="60" spans="1:29">
       <c r="A60" s="4" t="s">
         <v>338</v>
       </c>
@@ -9139,7 +9181,7 @@
         <v>0.28620000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="15.6">
+    <row r="61" spans="1:29">
       <c r="A61" s="4" t="s">
         <v>344</v>
       </c>
@@ -9228,7 +9270,7 @@
         <v>0.92830000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="15.6">
+    <row r="62" spans="1:29">
       <c r="A62" s="4" t="s">
         <v>350</v>
       </c>
@@ -9317,7 +9359,7 @@
         <v>0.98050000000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="15.6">
+    <row r="63" spans="1:29">
       <c r="A63" s="4" t="s">
         <v>356</v>
       </c>
@@ -9406,7 +9448,7 @@
         <v>0.52300000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="15.6">
+    <row r="64" spans="1:29">
       <c r="A64" s="4" t="s">
         <v>362</v>
       </c>
@@ -9495,7 +9537,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="15.6">
+    <row r="65" spans="1:29">
       <c r="A65" s="4" t="s">
         <v>366</v>
       </c>
@@ -9584,7 +9626,7 @@
         <v>0.5151</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="15.6">
+    <row r="66" spans="1:29">
       <c r="A66" s="4" t="s">
         <v>370</v>
       </c>
@@ -9673,7 +9715,7 @@
         <v>0.66959999999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="15.6">
+    <row r="67" spans="1:29">
       <c r="A67" s="4" t="s">
         <v>376</v>
       </c>
@@ -9762,7 +9804,7 @@
         <v>0.68179999999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:29" ht="15.6">
+    <row r="68" spans="1:29">
       <c r="A68" s="4" t="s">
         <v>382</v>
       </c>
@@ -9851,7 +9893,7 @@
         <v>0.42380000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:29" ht="15.6">
+    <row r="69" spans="1:29">
       <c r="A69" s="4" t="s">
         <v>387</v>
       </c>
@@ -9940,7 +9982,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:29" ht="15.6">
+    <row r="70" spans="1:29">
       <c r="A70" s="4" t="s">
         <v>393</v>
       </c>
@@ -10029,7 +10071,7 @@
         <v>0.1043</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="15.6">
+    <row r="71" spans="1:29">
       <c r="A71" s="4" t="s">
         <v>393</v>
       </c>
@@ -10118,7 +10160,7 @@
         <v>0.31430000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="15.6">
+    <row r="72" spans="1:29">
       <c r="A72" s="4" t="s">
         <v>393</v>
       </c>
@@ -10207,7 +10249,7 @@
         <v>0.2077</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="15.6">
+    <row r="73" spans="1:29">
       <c r="A73" s="4" t="s">
         <v>393</v>
       </c>
@@ -10296,7 +10338,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="15.6">
+    <row r="74" spans="1:29">
       <c r="A74" s="4" t="s">
         <v>408</v>
       </c>
@@ -10385,7 +10427,7 @@
         <v>0.254</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="15.6">
+    <row r="75" spans="1:29">
       <c r="A75" s="4" t="s">
         <v>408</v>
       </c>
@@ -10474,7 +10516,7 @@
         <v>0.18590000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="15.6">
+    <row r="76" spans="1:29">
       <c r="A76" s="4" t="s">
         <v>408</v>
       </c>
@@ -10563,7 +10605,7 @@
         <v>0.20580000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:29" ht="15.6">
+    <row r="77" spans="1:29">
       <c r="A77" s="4" t="s">
         <v>408</v>
       </c>
@@ -10652,7 +10694,7 @@
         <v>8.7650000000000006E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:29" ht="15.6">
+    <row r="78" spans="1:29">
       <c r="A78" s="4" t="s">
         <v>408</v>
       </c>
@@ -10741,7 +10783,7 @@
         <v>1.0240000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:29" ht="15.6">
+    <row r="79" spans="1:29">
       <c r="A79" s="4" t="s">
         <v>408</v>
       </c>
@@ -10830,7 +10872,7 @@
         <v>0.43290000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:29" ht="15.6">
+    <row r="80" spans="1:29">
       <c r="A80" s="4" t="s">
         <v>429</v>
       </c>
@@ -10919,7 +10961,7 @@
         <v>0.309</v>
       </c>
     </row>
-    <row r="81" spans="1:29" ht="15.6">
+    <row r="81" spans="1:29">
       <c r="A81" s="4" t="s">
         <v>429</v>
       </c>
@@ -11008,7 +11050,7 @@
         <v>0.2041</v>
       </c>
     </row>
-    <row r="82" spans="1:29" ht="15.6">
+    <row r="82" spans="1:29">
       <c r="A82" s="4" t="s">
         <v>429</v>
       </c>
@@ -11097,7 +11139,7 @@
         <v>0.747</v>
       </c>
     </row>
-    <row r="83" spans="1:29" ht="15.6">
+    <row r="83" spans="1:29">
       <c r="A83" s="4" t="s">
         <v>439</v>
       </c>
@@ -11186,7 +11228,7 @@
         <v>0.63600000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="15.6">
+    <row r="84" spans="1:29">
       <c r="A84" s="4" t="s">
         <v>442</v>
       </c>
@@ -11275,7 +11317,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="85" spans="1:29" ht="15.6">
+    <row r="85" spans="1:29">
       <c r="A85" s="4" t="s">
         <v>442</v>
       </c>
@@ -11364,7 +11406,7 @@
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:29" ht="15.6">
+    <row r="86" spans="1:29">
       <c r="A86" s="4" t="s">
         <v>442</v>
       </c>
@@ -11453,7 +11495,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="15.6">
+    <row r="87" spans="1:29">
       <c r="A87" s="4" t="s">
         <v>442</v>
       </c>
@@ -11542,7 +11584,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="15.6">
+    <row r="88" spans="1:29">
       <c r="A88" s="4" t="s">
         <v>442</v>
       </c>
@@ -11631,7 +11673,7 @@
         <v>2.6800000000000001E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:29" ht="15.6">
+    <row r="89" spans="1:29">
       <c r="A89" s="4" t="s">
         <v>442</v>
       </c>
@@ -11720,7 +11762,7 @@
         <v>1.11E-14</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="15.6">
+    <row r="90" spans="1:29">
       <c r="A90" s="4" t="s">
         <v>466</v>
       </c>
@@ -11809,7 +11851,7 @@
         <v>0.92830000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="15.6">
+    <row r="91" spans="1:29">
       <c r="A91" s="4" t="s">
         <v>469</v>
       </c>
@@ -11898,7 +11940,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="15.6">
+    <row r="92" spans="1:29">
       <c r="A92" s="4" t="s">
         <v>472</v>
       </c>
@@ -11987,7 +12029,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="93" spans="1:29" ht="15.6">
+    <row r="93" spans="1:29">
       <c r="A93" s="4" t="s">
         <v>478</v>
       </c>
@@ -12343,7 +12385,7 @@
         <v>0.4209</v>
       </c>
     </row>
-    <row r="97" spans="1:29" ht="15.6">
+    <row r="97" spans="1:29">
       <c r="A97" s="4" t="s">
         <v>495</v>
       </c>
@@ -12432,7 +12474,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:29" ht="15.6">
+    <row r="98" spans="1:29">
       <c r="A98" s="4" t="s">
         <v>499</v>
       </c>
@@ -12521,7 +12563,7 @@
         <v>0.44479999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:29" ht="15.6">
+    <row r="99" spans="1:29">
       <c r="A99" s="4" t="s">
         <v>505</v>
       </c>
@@ -12610,7 +12652,7 @@
         <v>0.32419999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:29" ht="15.6">
+    <row r="100" spans="1:29">
       <c r="A100" s="4" t="s">
         <v>511</v>
       </c>
@@ -12699,7 +12741,7 @@
         <v>0.48870000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:29" ht="15.6">
+    <row r="101" spans="1:29">
       <c r="A101" s="4" t="s">
         <v>511</v>
       </c>
@@ -12788,7 +12830,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="102" spans="1:29" ht="15.6">
+    <row r="102" spans="1:29">
       <c r="A102" s="4" t="s">
         <v>518</v>
       </c>
@@ -12877,7 +12919,7 @@
         <v>6.1330000000000003E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:29" ht="15.6">
+    <row r="103" spans="1:29">
       <c r="A103" s="4" t="s">
         <v>520</v>
       </c>
@@ -12966,7 +13008,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:29" ht="15.6">
+    <row r="104" spans="1:29">
       <c r="A104" s="4" t="s">
         <v>526</v>
       </c>
@@ -13055,7 +13097,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="105" spans="1:29" ht="15.6">
+    <row r="105" spans="1:29">
       <c r="A105" s="4" t="s">
         <v>532</v>
       </c>
@@ -13144,7 +13186,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:29" ht="15.6">
+    <row r="106" spans="1:29">
       <c r="A106" s="4" t="s">
         <v>532</v>
       </c>
@@ -13233,7 +13275,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:29" ht="15.6">
+    <row r="107" spans="1:29">
       <c r="A107" s="4" t="s">
         <v>543</v>
       </c>
@@ -13322,7 +13364,7 @@
         <v>0.42109999999999997</v>
       </c>
     </row>
-    <row r="108" spans="1:29" ht="15.6">
+    <row r="108" spans="1:29">
       <c r="A108" s="4" t="s">
         <v>552</v>
       </c>
@@ -13411,7 +13453,7 @@
         <v>0.8952</v>
       </c>
     </row>
-    <row r="109" spans="1:29" ht="15.6">
+    <row r="109" spans="1:29">
       <c r="A109" s="4" t="s">
         <v>558</v>
       </c>
@@ -13500,7 +13542,7 @@
         <v>0.60340000000000005</v>
       </c>
     </row>
-    <row r="110" spans="1:29" ht="15.6">
+    <row r="110" spans="1:29">
       <c r="A110" s="4" t="s">
         <v>558</v>
       </c>
@@ -13589,7 +13631,7 @@
         <v>0.45629999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:29" ht="15.6">
+    <row r="111" spans="1:29">
       <c r="A111" s="4" t="s">
         <v>558</v>
       </c>
@@ -13678,7 +13720,7 @@
         <v>0.32669999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:29" ht="15.6">
+    <row r="112" spans="1:29">
       <c r="A112" s="4" t="s">
         <v>558</v>
       </c>
@@ -13767,7 +13809,7 @@
         <v>0.82630000000000003</v>
       </c>
     </row>
-    <row r="113" spans="1:29" ht="15.6">
+    <row r="113" spans="1:29">
       <c r="A113" s="4" t="s">
         <v>558</v>
       </c>
@@ -13856,7 +13898,7 @@
         <v>0.15590000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:29" ht="15.6">
+    <row r="114" spans="1:29">
       <c r="A114" s="4" t="s">
         <v>558</v>
       </c>
@@ -13945,7 +13987,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="1:29" ht="15.6">
+    <row r="115" spans="1:29">
       <c r="A115" s="4" t="s">
         <v>576</v>
       </c>
@@ -14034,7 +14076,7 @@
         <v>0.32419999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:29" ht="15.6">
+    <row r="116" spans="1:29">
       <c r="A116" s="4" t="s">
         <v>580</v>
       </c>
@@ -14123,7 +14165,7 @@
         <v>0.5151</v>
       </c>
     </row>
-    <row r="117" spans="1:29" ht="15.6">
+    <row r="117" spans="1:29">
       <c r="A117" s="4" t="s">
         <v>585</v>
       </c>
@@ -14212,7 +14254,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="118" spans="1:29" ht="15.6">
+    <row r="118" spans="1:29">
       <c r="A118" s="4" t="s">
         <v>590</v>
       </c>
@@ -14301,7 +14343,7 @@
         <v>0.1072</v>
       </c>
     </row>
-    <row r="119" spans="1:29" ht="15.6">
+    <row r="119" spans="1:29">
       <c r="A119" s="4" t="s">
         <v>590</v>
       </c>
@@ -14390,7 +14432,7 @@
         <v>9.5500000000000002E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:29" ht="15.6">
+    <row r="120" spans="1:29">
       <c r="A120" s="4" t="s">
         <v>598</v>
       </c>
@@ -14479,7 +14521,7 @@
         <v>9.4619999999999996E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:29" ht="15.6">
+    <row r="121" spans="1:29">
       <c r="A121" s="4" t="s">
         <v>604</v>
       </c>
@@ -14568,7 +14610,7 @@
         <v>0.74460000000000004</v>
       </c>
     </row>
-    <row r="122" spans="1:29" ht="15.6">
+    <row r="122" spans="1:29">
       <c r="A122" s="4" t="s">
         <v>611</v>
       </c>
@@ -14657,7 +14699,7 @@
         <v>0.49590000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:29" ht="15.6">
+    <row r="123" spans="1:29">
       <c r="A123" s="4" t="s">
         <v>616</v>
       </c>
@@ -14746,7 +14788,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="124" spans="1:29" ht="15.6">
+    <row r="124" spans="1:29">
       <c r="A124" s="4" t="s">
         <v>621</v>
       </c>
@@ -14835,7 +14877,7 @@
         <v>0.89349999999999996</v>
       </c>
     </row>
-    <row r="125" spans="1:29" ht="15.6">
+    <row r="125" spans="1:29">
       <c r="A125" s="4" t="s">
         <v>627</v>
       </c>
@@ -14924,7 +14966,7 @@
         <v>0.31019999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:29" ht="15.6">
+    <row r="126" spans="1:29">
       <c r="A126" s="4" t="s">
         <v>634</v>
       </c>
@@ -15013,7 +15055,7 @@
         <v>0.39960000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:29" ht="15.6">
+    <row r="127" spans="1:29">
       <c r="A127" s="4" t="s">
         <v>644</v>
       </c>
@@ -15102,7 +15144,7 @@
         <v>0.42380000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:29" ht="15.6">
+    <row r="128" spans="1:29">
       <c r="A128" s="4" t="s">
         <v>644</v>
       </c>
@@ -15191,7 +15233,7 @@
         <v>0.15390000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:29" ht="15.6">
+    <row r="129" spans="1:29">
       <c r="A129" s="4" t="s">
         <v>651</v>
       </c>
@@ -15280,7 +15322,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:29" ht="15.6">
+    <row r="130" spans="1:29">
       <c r="A130" s="4" t="s">
         <v>651</v>
       </c>
@@ -15369,7 +15411,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:29" ht="15.6">
+    <row r="131" spans="1:29">
       <c r="A131" s="4" t="s">
         <v>651</v>
       </c>
@@ -15458,7 +15500,7 @@
         <v>0.6673</v>
       </c>
     </row>
-    <row r="132" spans="1:29" ht="15.6">
+    <row r="132" spans="1:29">
       <c r="A132" s="4" t="s">
         <v>651</v>
       </c>
@@ -15547,7 +15589,7 @@
         <v>0.5988</v>
       </c>
     </row>
-    <row r="133" spans="1:29" ht="15.6">
+    <row r="133" spans="1:29">
       <c r="A133" s="4" t="s">
         <v>651</v>
       </c>
@@ -15636,7 +15678,7 @@
         <v>0.4662</v>
       </c>
     </row>
-    <row r="134" spans="1:29" ht="15.6">
+    <row r="134" spans="1:29">
       <c r="A134" s="4" t="s">
         <v>651</v>
       </c>
@@ -15725,7 +15767,7 @@
         <v>0.98050000000000004</v>
       </c>
     </row>
-    <row r="135" spans="1:29" ht="15.6">
+    <row r="135" spans="1:29">
       <c r="A135" s="4" t="s">
         <v>672</v>
       </c>
@@ -15814,7 +15856,7 @@
         <v>1.0240000000000001E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:29" ht="15.6">
+    <row r="136" spans="1:29">
       <c r="A136" s="4" t="s">
         <v>672</v>
       </c>
@@ -15903,7 +15945,7 @@
         <v>8.7650000000000006E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:29" ht="15.6">
+    <row r="137" spans="1:29">
       <c r="A137" s="4" t="s">
         <v>680</v>
       </c>
@@ -15992,7 +16034,7 @@
         <v>0.43919999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:29" ht="15.6">
+    <row r="138" spans="1:29">
       <c r="A138" s="4" t="s">
         <v>686</v>
       </c>
@@ -16081,7 +16123,7 @@
         <v>0.55349999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:29" ht="15.6">
+    <row r="139" spans="1:29">
       <c r="A139" s="4" t="s">
         <v>692</v>
       </c>
@@ -16170,7 +16212,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:29" ht="15.6">
+    <row r="140" spans="1:29">
       <c r="A140" s="4" t="s">
         <v>698</v>
       </c>
@@ -16259,7 +16301,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="141" spans="1:29" ht="15.6">
+    <row r="141" spans="1:29">
       <c r="A141" s="4" t="s">
         <v>698</v>
       </c>
@@ -16348,7 +16390,7 @@
         <v>0.22209999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:29" ht="15.6">
+    <row r="142" spans="1:29">
       <c r="A142" s="4" t="s">
         <v>705</v>
       </c>
@@ -16437,7 +16479,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="143" spans="1:29" ht="15.6">
+    <row r="143" spans="1:29">
       <c r="A143" s="4" t="s">
         <v>709</v>
       </c>
@@ -16526,7 +16568,7 @@
         <v>7.2849999999999998E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:29" ht="15.6">
+    <row r="144" spans="1:29">
       <c r="A144" s="4" t="s">
         <v>714</v>
       </c>
@@ -16615,7 +16657,7 @@
         <v>0.38090000000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:29" ht="15.6">
+    <row r="145" spans="1:29">
       <c r="A145" s="4" t="s">
         <v>718</v>
       </c>
@@ -16704,7 +16746,7 @@
         <v>0.26300000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:29" ht="15.6">
+    <row r="146" spans="1:29">
       <c r="A146" s="4" t="s">
         <v>722</v>
       </c>
@@ -16793,7 +16835,7 @@
         <v>0.66959999999999997</v>
       </c>
     </row>
-    <row r="147" spans="1:29" ht="15.6">
+    <row r="147" spans="1:29">
       <c r="A147" s="4" t="s">
         <v>725</v>
       </c>
@@ -16882,7 +16924,7 @@
         <v>0.80649999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:29" ht="15.6">
+    <row r="148" spans="1:29">
       <c r="A148" s="4" t="s">
         <v>731</v>
       </c>
@@ -16971,7 +17013,7 @@
         <v>0.4108</v>
       </c>
     </row>
-    <row r="149" spans="1:29" ht="15.6">
+    <row r="149" spans="1:29">
       <c r="A149" s="4" t="s">
         <v>738</v>
       </c>
@@ -17060,7 +17102,7 @@
         <v>0.68479999999999996</v>
       </c>
     </row>
-    <row r="150" spans="1:29" ht="15.6">
+    <row r="150" spans="1:29">
       <c r="A150" s="4" t="s">
         <v>743</v>
       </c>
@@ -17149,7 +17191,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:29" ht="15.6">
+    <row r="151" spans="1:29">
       <c r="A151" s="4" t="s">
         <v>747</v>
       </c>
@@ -17238,7 +17280,7 @@
         <v>2.0469999999999999E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:29" ht="15.6">
+    <row r="152" spans="1:29">
       <c r="A152" s="4" t="s">
         <v>753</v>
       </c>
@@ -17327,7 +17369,7 @@
         <v>0.54659999999999997</v>
       </c>
     </row>
-    <row r="153" spans="1:29" ht="15.6">
+    <row r="153" spans="1:29">
       <c r="A153" s="4" t="s">
         <v>759</v>
       </c>
@@ -17416,7 +17458,7 @@
         <v>0.5151</v>
       </c>
     </row>
-    <row r="154" spans="1:29" ht="15.6">
+    <row r="154" spans="1:29">
       <c r="A154" s="4" t="s">
         <v>762</v>
       </c>
@@ -17505,7 +17547,7 @@
         <v>0.2351</v>
       </c>
     </row>
-    <row r="155" spans="1:29" ht="15.6">
+    <row r="155" spans="1:29">
       <c r="A155" s="4" t="s">
         <v>768</v>
       </c>
@@ -17594,7 +17636,7 @@
         <v>0.15709999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:29" ht="15.6">
+    <row r="156" spans="1:29">
       <c r="A156" s="4" t="s">
         <v>773</v>
       </c>
@@ -17683,7 +17725,7 @@
         <v>0.70379999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:29" ht="15.6">
+    <row r="157" spans="1:29">
       <c r="A157" s="4" t="s">
         <v>778</v>
       </c>
@@ -17772,7 +17814,7 @@
         <v>0.15390000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:29" ht="15.6">
+    <row r="158" spans="1:29">
       <c r="A158" s="4" t="s">
         <v>778</v>
       </c>
@@ -17861,7 +17903,7 @@
         <v>0.3029</v>
       </c>
     </row>
-    <row r="159" spans="1:29" ht="15.6">
+    <row r="159" spans="1:29">
       <c r="A159" s="4" t="s">
         <v>778</v>
       </c>
@@ -17950,7 +17992,7 @@
         <v>0.24160000000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:29" ht="15.6">
+    <row r="160" spans="1:29">
       <c r="A160" s="4" t="s">
         <v>788</v>
       </c>
@@ -18039,7 +18081,7 @@
         <v>0.27129999999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:29" ht="15.6">
+    <row r="161" spans="1:29">
       <c r="A161" s="4" t="s">
         <v>788</v>
       </c>
@@ -18128,7 +18170,7 @@
         <v>0.72450000000000003</v>
       </c>
     </row>
-    <row r="162" spans="1:29" ht="15.6">
+    <row r="162" spans="1:29">
       <c r="A162" s="4" t="s">
         <v>798</v>
       </c>
@@ -18217,7 +18259,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="163" spans="1:29" ht="15.6">
+    <row r="163" spans="1:29">
       <c r="A163" s="4" t="s">
         <v>804</v>
       </c>
@@ -18306,7 +18348,7 @@
         <v>0.30409999999999998</v>
       </c>
     </row>
-    <row r="164" spans="1:29" ht="15.6">
+    <row r="164" spans="1:29">
       <c r="A164" s="4" t="s">
         <v>807</v>
       </c>
@@ -18395,7 +18437,7 @@
         <v>0.95930000000000004</v>
       </c>
     </row>
-    <row r="165" spans="1:29" ht="15.6">
+    <row r="165" spans="1:29">
       <c r="A165" s="4" t="s">
         <v>813</v>
       </c>
@@ -18484,7 +18526,7 @@
         <v>0.61539999999999995</v>
       </c>
     </row>
-    <row r="166" spans="1:29" ht="15.6">
+    <row r="166" spans="1:29">
       <c r="A166" s="4" t="s">
         <v>819</v>
       </c>
@@ -18573,7 +18615,7 @@
         <v>0.54849999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:29" ht="15.6">
+    <row r="167" spans="1:29">
       <c r="A167" s="4" t="s">
         <v>824</v>
       </c>
@@ -18662,7 +18704,7 @@
         <v>0.76470000000000005</v>
       </c>
     </row>
-    <row r="168" spans="1:29" ht="15.6">
+    <row r="168" spans="1:29">
       <c r="A168" s="4" t="s">
         <v>830</v>
       </c>
@@ -18751,7 +18793,7 @@
         <v>0.48220000000000002</v>
       </c>
     </row>
-    <row r="169" spans="1:29" ht="15.6">
+    <row r="169" spans="1:29">
       <c r="A169" s="4" t="s">
         <v>836</v>
       </c>
@@ -18840,7 +18882,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="170" spans="1:29" ht="15.6">
+    <row r="170" spans="1:29">
       <c r="A170" s="4" t="s">
         <v>839</v>
       </c>
@@ -18929,7 +18971,7 @@
         <v>0.25519999999999998</v>
       </c>
     </row>
-    <row r="171" spans="1:29" ht="15.6">
+    <row r="171" spans="1:29">
       <c r="A171" s="4" t="s">
         <v>845</v>
       </c>
@@ -19018,7 +19060,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="172" spans="1:29" ht="15.6">
+    <row r="172" spans="1:29">
       <c r="A172" s="4" t="s">
         <v>845</v>
       </c>
@@ -19107,7 +19149,7 @@
         <v>0.40889999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:29" ht="15.6">
+    <row r="173" spans="1:29">
       <c r="A173" s="4" t="s">
         <v>845</v>
       </c>
@@ -19196,7 +19238,7 @@
         <v>0.99250000000000005</v>
       </c>
     </row>
-    <row r="174" spans="1:29" ht="15.6">
+    <row r="174" spans="1:29">
       <c r="A174" s="4" t="s">
         <v>845</v>
       </c>
@@ -19285,7 +19327,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="175" spans="1:29" ht="15.6">
+    <row r="175" spans="1:29">
       <c r="A175" s="4" t="s">
         <v>845</v>
       </c>
@@ -19374,7 +19416,7 @@
         <v>0.46610000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:29" ht="15.6">
+    <row r="176" spans="1:29">
       <c r="A176" s="4" t="s">
         <v>845</v>
       </c>
@@ -19463,7 +19505,7 @@
         <v>0.59219999999999995</v>
       </c>
     </row>
-    <row r="177" spans="1:29" ht="15.6">
+    <row r="177" spans="1:29">
       <c r="A177" s="4" t="s">
         <v>845</v>
       </c>
@@ -19552,7 +19594,7 @@
         <v>0.86709999999999998</v>
       </c>
     </row>
-    <row r="178" spans="1:29" ht="15.6">
+    <row r="178" spans="1:29">
       <c r="A178" s="4" t="s">
         <v>867</v>
       </c>
@@ -19641,7 +19683,7 @@
         <v>0.29959999999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:29" ht="15.6">
+    <row r="179" spans="1:29">
       <c r="A179" s="4" t="s">
         <v>872</v>
       </c>
@@ -19730,7 +19772,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:29" ht="15.6">
+    <row r="180" spans="1:29">
       <c r="A180" s="4" t="s">
         <v>876</v>
       </c>
@@ -19819,7 +19861,7 @@
         <v>0.3735</v>
       </c>
     </row>
-    <row r="181" spans="1:29" ht="15.6">
+    <row r="181" spans="1:29">
       <c r="A181" s="4" t="s">
         <v>882</v>
       </c>
@@ -19908,7 +19950,7 @@
         <v>0.30270000000000002</v>
       </c>
     </row>
-    <row r="182" spans="1:29" ht="15.6">
+    <row r="182" spans="1:29">
       <c r="A182" s="4" t="s">
         <v>887</v>
       </c>
@@ -19997,7 +20039,7 @@
         <v>0.69420000000000004</v>
       </c>
     </row>
-    <row r="183" spans="1:29" ht="15.6">
+    <row r="183" spans="1:29">
       <c r="A183" s="4" t="s">
         <v>893</v>
       </c>
@@ -20086,7 +20128,7 @@
         <v>0.9325</v>
       </c>
     </row>
-    <row r="184" spans="1:29" ht="15.6">
+    <row r="184" spans="1:29">
       <c r="A184" s="4" t="s">
         <v>893</v>
       </c>
@@ -20175,7 +20217,7 @@
         <v>0.91290000000000004</v>
       </c>
     </row>
-    <row r="185" spans="1:29" ht="15.6">
+    <row r="185" spans="1:29">
       <c r="A185" s="4" t="s">
         <v>902</v>
       </c>
@@ -20264,7 +20306,7 @@
         <v>4.0800000000000003E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:29" ht="15.6">
+    <row r="186" spans="1:29">
       <c r="A186" s="4" t="s">
         <v>902</v>
       </c>
@@ -20353,7 +20395,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:29" ht="15.6">
+    <row r="187" spans="1:29">
       <c r="A187" s="4" t="s">
         <v>902</v>
       </c>
@@ -20442,7 +20484,7 @@
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:29" ht="15.6">
+    <row r="188" spans="1:29">
       <c r="A188" s="4" t="s">
         <v>902</v>
       </c>
@@ -20531,7 +20573,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="189" spans="1:29" ht="15.6">
+    <row r="189" spans="1:29">
       <c r="A189" s="4" t="s">
         <v>902</v>
       </c>
@@ -20620,7 +20662,7 @@
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="190" spans="1:29" ht="15.6">
+    <row r="190" spans="1:29">
       <c r="A190" s="4" t="s">
         <v>902</v>
       </c>
@@ -20709,7 +20751,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="191" spans="1:29" ht="15.6">
+    <row r="191" spans="1:29">
       <c r="A191" s="4" t="s">
         <v>902</v>
       </c>
@@ -20798,7 +20840,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="192" spans="1:29" ht="15.6">
+    <row r="192" spans="1:29">
       <c r="A192" s="4" t="s">
         <v>902</v>
       </c>
@@ -20887,7 +20929,7 @@
         <v>7.1199999999999999E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:29" ht="15.6">
+    <row r="193" spans="1:29">
       <c r="A193" s="4" t="s">
         <v>902</v>
       </c>
@@ -20976,7 +21018,7 @@
         <v>8.6499999999999994E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:29" ht="15.6">
+    <row r="194" spans="1:29">
       <c r="A194" s="4" t="s">
         <v>902</v>
       </c>
@@ -21065,7 +21107,7 @@
         <v>0.52300000000000002</v>
       </c>
     </row>
-    <row r="195" spans="1:29" ht="15.6">
+    <row r="195" spans="1:29">
       <c r="A195" s="4" t="s">
         <v>902</v>
       </c>
@@ -21154,7 +21196,7 @@
         <v>1.6899999999999998E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:29" ht="15.6">
+    <row r="196" spans="1:29">
       <c r="A196" s="4" t="s">
         <v>938</v>
       </c>
@@ -21243,7 +21285,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:29" ht="15.6">
+    <row r="197" spans="1:29">
       <c r="A197" s="4" t="s">
         <v>938</v>
       </c>
@@ -21332,7 +21374,7 @@
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:29" ht="15.6">
+    <row r="198" spans="1:29">
       <c r="A198" s="4" t="s">
         <v>938</v>
       </c>
@@ -21421,7 +21463,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="199" spans="1:29" ht="15.6">
+    <row r="199" spans="1:29">
       <c r="A199" s="4" t="s">
         <v>938</v>
       </c>
@@ -21510,7 +21552,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:29" ht="15.6">
+    <row r="200" spans="1:29">
       <c r="A200" s="4" t="s">
         <v>938</v>
       </c>
@@ -21599,7 +21641,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:29" ht="15.6">
+    <row r="201" spans="1:29">
       <c r="A201" s="4" t="s">
         <v>938</v>
       </c>
@@ -21688,7 +21730,7 @@
         <v>0.47599999999999998</v>
       </c>
     </row>
-    <row r="202" spans="1:29" ht="15.6">
+    <row r="202" spans="1:29">
       <c r="A202" s="4" t="s">
         <v>938</v>
       </c>
@@ -21777,7 +21819,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="203" spans="1:29" ht="15.6">
+    <row r="203" spans="1:29">
       <c r="A203" s="4" t="s">
         <v>938</v>
       </c>
@@ -21866,7 +21908,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:29" ht="15.6">
+    <row r="204" spans="1:29">
       <c r="A204" s="4" t="s">
         <v>938</v>
       </c>
@@ -21955,7 +21997,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="205" spans="1:29" ht="15.6">
+    <row r="205" spans="1:29">
       <c r="A205" s="4" t="s">
         <v>938</v>
       </c>
@@ -22044,7 +22086,7 @@
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="206" spans="1:29" ht="15.6">
+    <row r="206" spans="1:29">
       <c r="A206" s="4" t="s">
         <v>938</v>
       </c>
@@ -22133,7 +22175,7 @@
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="207" spans="1:29" ht="15.6">
+    <row r="207" spans="1:29">
       <c r="A207" s="4" t="s">
         <v>938</v>
       </c>
@@ -22222,7 +22264,7 @@
         <v>0.64800000000000002</v>
       </c>
     </row>
-    <row r="208" spans="1:29" ht="15.6">
+    <row r="208" spans="1:29">
       <c r="A208" s="4" t="s">
         <v>938</v>
       </c>
@@ -22311,7 +22353,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:29" ht="15.6">
+    <row r="209" spans="1:29">
       <c r="A209" s="4" t="s">
         <v>977</v>
       </c>
@@ -22400,7 +22442,7 @@
         <v>0.64900000000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:29" ht="15.6">
+    <row r="210" spans="1:29">
       <c r="A210" s="10" t="s">
         <v>983</v>
       </c>
@@ -22489,7 +22531,7 @@
         <v>0.4128</v>
       </c>
     </row>
-    <row r="211" spans="1:29" ht="15.6">
+    <row r="211" spans="1:29">
       <c r="A211" s="10" t="s">
         <v>989</v>
       </c>
@@ -22578,7 +22620,7 @@
         <v>3.44E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:29" ht="15.6">
+    <row r="212" spans="1:29">
       <c r="A212" s="10" t="s">
         <v>989</v>
       </c>
@@ -22667,7 +22709,7 @@
         <v>0.67249999999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:29" ht="15.6">
+    <row r="213" spans="1:29">
       <c r="A213" s="4" t="s">
         <v>1000</v>
       </c>
@@ -22756,7 +22798,7 @@
         <v>0.63500000000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:29" ht="15.6">
+    <row r="214" spans="1:29">
       <c r="A214" s="4" t="s">
         <v>1000</v>
       </c>
@@ -22845,7 +22887,7 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="215" spans="1:29" ht="15.6">
+    <row r="215" spans="1:29">
       <c r="A215" s="4" t="s">
         <v>1000</v>
       </c>
@@ -22934,7 +22976,7 @@
         <v>8.1499999999999997E-4</v>
       </c>
     </row>
-    <row r="216" spans="1:29" ht="15.6">
+    <row r="216" spans="1:29">
       <c r="A216" s="4" t="s">
         <v>1000</v>
       </c>
@@ -23023,7 +23065,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="217" spans="1:29" ht="15.6">
+    <row r="217" spans="1:29">
       <c r="A217" s="4" t="s">
         <v>1000</v>
       </c>
@@ -23112,7 +23154,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="218" spans="1:29" ht="15.6">
+    <row r="218" spans="1:29">
       <c r="A218" s="4" t="s">
         <v>1000</v>
       </c>
@@ -23201,7 +23243,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:29" ht="15.6">
+    <row r="219" spans="1:29">
       <c r="A219" s="4" t="s">
         <v>1000</v>
       </c>
@@ -23290,7 +23332,7 @@
         <v>0.86199999999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:29" ht="15.6">
+    <row r="220" spans="1:29">
       <c r="A220" s="4" t="s">
         <v>1000</v>
       </c>
@@ -23379,7 +23421,7 @@
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="221" spans="1:29" ht="15.6">
+    <row r="221" spans="1:29">
       <c r="A221" s="4" t="s">
         <v>1000</v>
       </c>
@@ -23468,7 +23510,7 @@
         <v>0.96299999999999997</v>
       </c>
     </row>
-    <row r="222" spans="1:29" ht="15.6">
+    <row r="222" spans="1:29">
       <c r="A222" s="4" t="s">
         <v>1000</v>
       </c>
@@ -23557,8 +23599,15 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:29" ht="13.2">
-      <c r="A223" s="12"/>
+    <row r="223" spans="1:29" ht="13.5">
+      <c r="A223" s="16" cm="1">
+        <f t="array" ref="A223">SUMPRODUCT((A2:A222&lt;&gt;"")/COUNTIF(A2:A222,A2:A222&amp;""))</f>
+        <v>123</v>
+      </c>
+      <c r="B223" s="16" cm="1">
+        <f t="array" ref="B223">SUMPRODUCT((B2:B222&lt;&gt;"")/COUNTIF(B2:B222,B2:B222&amp;""))</f>
+        <v>123</v>
+      </c>
       <c r="I223" s="13"/>
       <c r="J223" s="13"/>
       <c r="K223" s="13"/>
@@ -23581,7 +23630,7 @@
       <c r="AB223" s="13"/>
       <c r="AC223" s="13"/>
     </row>
-    <row r="224" spans="1:29" ht="13.2">
+    <row r="224" spans="1:29" ht="12.75">
       <c r="A224" s="12"/>
       <c r="I224" s="13"/>
       <c r="J224" s="13"/>
@@ -23605,7 +23654,7 @@
       <c r="AB224" s="13"/>
       <c r="AC224" s="13"/>
     </row>
-    <row r="225" spans="1:29" ht="13.2">
+    <row r="225" spans="1:29" ht="12.75">
       <c r="A225" s="12"/>
       <c r="I225" s="13"/>
       <c r="J225" s="13"/>
@@ -23629,7 +23678,7 @@
       <c r="AB225" s="13"/>
       <c r="AC225" s="13"/>
     </row>
-    <row r="226" spans="1:29" ht="13.2">
+    <row r="226" spans="1:29" ht="12.75">
       <c r="A226" s="12"/>
       <c r="I226" s="13"/>
       <c r="J226" s="13"/>
@@ -23653,7 +23702,7 @@
       <c r="AB226" s="13"/>
       <c r="AC226" s="13"/>
     </row>
-    <row r="227" spans="1:29" ht="13.2">
+    <row r="227" spans="1:29" ht="12.75">
       <c r="A227" s="12"/>
       <c r="I227" s="13"/>
       <c r="J227" s="13"/>
@@ -23677,7 +23726,7 @@
       <c r="AB227" s="13"/>
       <c r="AC227" s="13"/>
     </row>
-    <row r="228" spans="1:29" ht="13.2">
+    <row r="228" spans="1:29" ht="12.75">
       <c r="A228" s="12"/>
       <c r="I228" s="13"/>
       <c r="J228" s="13"/>
@@ -23701,7 +23750,7 @@
       <c r="AB228" s="13"/>
       <c r="AC228" s="13"/>
     </row>
-    <row r="229" spans="1:29" ht="13.2">
+    <row r="229" spans="1:29" ht="12.75">
       <c r="A229" s="12"/>
       <c r="I229" s="13"/>
       <c r="J229" s="13"/>
@@ -23725,7 +23774,7 @@
       <c r="AB229" s="13"/>
       <c r="AC229" s="13"/>
     </row>
-    <row r="230" spans="1:29" ht="13.2">
+    <row r="230" spans="1:29" ht="12.75">
       <c r="A230" s="12"/>
       <c r="I230" s="13"/>
       <c r="J230" s="13"/>
@@ -23749,7 +23798,7 @@
       <c r="AB230" s="13"/>
       <c r="AC230" s="13"/>
     </row>
-    <row r="231" spans="1:29" ht="13.2">
+    <row r="231" spans="1:29" ht="12.75">
       <c r="A231" s="12"/>
       <c r="I231" s="13"/>
       <c r="J231" s="13"/>
@@ -23773,7 +23822,7 @@
       <c r="AB231" s="13"/>
       <c r="AC231" s="13"/>
     </row>
-    <row r="232" spans="1:29" ht="13.2">
+    <row r="232" spans="1:29" ht="12.75">
       <c r="A232" s="12"/>
       <c r="I232" s="13"/>
       <c r="J232" s="13"/>
@@ -23797,7 +23846,7 @@
       <c r="AB232" s="13"/>
       <c r="AC232" s="13"/>
     </row>
-    <row r="233" spans="1:29" ht="13.2">
+    <row r="233" spans="1:29" ht="12.75">
       <c r="A233" s="12"/>
       <c r="I233" s="13"/>
       <c r="J233" s="13"/>
@@ -23821,7 +23870,7 @@
       <c r="AB233" s="13"/>
       <c r="AC233" s="13"/>
     </row>
-    <row r="234" spans="1:29" ht="13.2">
+    <row r="234" spans="1:29" ht="12.75">
       <c r="A234" s="12"/>
       <c r="I234" s="13"/>
       <c r="J234" s="13"/>
@@ -23845,7 +23894,7 @@
       <c r="AB234" s="13"/>
       <c r="AC234" s="13"/>
     </row>
-    <row r="235" spans="1:29" ht="13.2">
+    <row r="235" spans="1:29" ht="12.75">
       <c r="A235" s="12"/>
       <c r="I235" s="13"/>
       <c r="J235" s="13"/>
@@ -23869,7 +23918,7 @@
       <c r="AB235" s="13"/>
       <c r="AC235" s="13"/>
     </row>
-    <row r="236" spans="1:29" ht="13.2">
+    <row r="236" spans="1:29" ht="12.75">
       <c r="A236" s="12"/>
       <c r="I236" s="13"/>
       <c r="J236" s="13"/>
@@ -23893,7 +23942,7 @@
       <c r="AB236" s="13"/>
       <c r="AC236" s="13"/>
     </row>
-    <row r="237" spans="1:29" ht="13.2">
+    <row r="237" spans="1:29" ht="12.75">
       <c r="A237" s="12"/>
       <c r="I237" s="13"/>
       <c r="J237" s="13"/>
@@ -23917,7 +23966,7 @@
       <c r="AB237" s="13"/>
       <c r="AC237" s="13"/>
     </row>
-    <row r="238" spans="1:29" ht="13.2">
+    <row r="238" spans="1:29" ht="12.75">
       <c r="A238" s="12"/>
       <c r="I238" s="13"/>
       <c r="J238" s="13"/>
@@ -23941,7 +23990,7 @@
       <c r="AB238" s="13"/>
       <c r="AC238" s="13"/>
     </row>
-    <row r="239" spans="1:29" ht="13.2">
+    <row r="239" spans="1:29" ht="12.75">
       <c r="A239" s="12"/>
       <c r="I239" s="13"/>
       <c r="J239" s="13"/>
@@ -23965,7 +24014,7 @@
       <c r="AB239" s="13"/>
       <c r="AC239" s="13"/>
     </row>
-    <row r="240" spans="1:29" ht="13.2">
+    <row r="240" spans="1:29" ht="12.75">
       <c r="A240" s="12"/>
       <c r="I240" s="13"/>
       <c r="J240" s="13"/>
@@ -23989,7 +24038,7 @@
       <c r="AB240" s="13"/>
       <c r="AC240" s="13"/>
     </row>
-    <row r="241" spans="1:29" ht="13.2">
+    <row r="241" spans="1:29" ht="12.75">
       <c r="A241" s="12"/>
       <c r="I241" s="13"/>
       <c r="J241" s="13"/>
@@ -24013,7 +24062,7 @@
       <c r="AB241" s="13"/>
       <c r="AC241" s="13"/>
     </row>
-    <row r="242" spans="1:29" ht="13.2">
+    <row r="242" spans="1:29" ht="12.75">
       <c r="A242" s="12"/>
       <c r="I242" s="13"/>
       <c r="J242" s="13"/>
@@ -24037,7 +24086,7 @@
       <c r="AB242" s="13"/>
       <c r="AC242" s="13"/>
     </row>
-    <row r="243" spans="1:29" ht="13.2">
+    <row r="243" spans="1:29" ht="12.75">
       <c r="A243" s="12"/>
       <c r="I243" s="13"/>
       <c r="J243" s="13"/>
@@ -24061,7 +24110,7 @@
       <c r="AB243" s="13"/>
       <c r="AC243" s="13"/>
     </row>
-    <row r="244" spans="1:29" ht="13.2">
+    <row r="244" spans="1:29" ht="12.75">
       <c r="A244" s="12"/>
       <c r="I244" s="13"/>
       <c r="J244" s="13"/>
@@ -24085,7 +24134,7 @@
       <c r="AB244" s="13"/>
       <c r="AC244" s="13"/>
     </row>
-    <row r="245" spans="1:29" ht="13.2">
+    <row r="245" spans="1:29" ht="12.75">
       <c r="A245" s="12"/>
       <c r="I245" s="13"/>
       <c r="J245" s="13"/>
@@ -24109,7 +24158,7 @@
       <c r="AB245" s="13"/>
       <c r="AC245" s="13"/>
     </row>
-    <row r="246" spans="1:29" ht="13.2">
+    <row r="246" spans="1:29" ht="12.75">
       <c r="A246" s="12"/>
       <c r="I246" s="13"/>
       <c r="J246" s="13"/>
@@ -24133,7 +24182,7 @@
       <c r="AB246" s="13"/>
       <c r="AC246" s="13"/>
     </row>
-    <row r="247" spans="1:29" ht="13.2">
+    <row r="247" spans="1:29" ht="12.75">
       <c r="A247" s="12"/>
       <c r="I247" s="13"/>
       <c r="J247" s="13"/>
@@ -24157,7 +24206,7 @@
       <c r="AB247" s="13"/>
       <c r="AC247" s="13"/>
     </row>
-    <row r="248" spans="1:29" ht="13.2">
+    <row r="248" spans="1:29" ht="12.75">
       <c r="A248" s="12"/>
       <c r="I248" s="13"/>
       <c r="J248" s="13"/>
@@ -24181,7 +24230,7 @@
       <c r="AB248" s="13"/>
       <c r="AC248" s="13"/>
     </row>
-    <row r="249" spans="1:29" ht="13.2">
+    <row r="249" spans="1:29" ht="12.75">
       <c r="A249" s="12"/>
       <c r="I249" s="13"/>
       <c r="J249" s="13"/>
@@ -24205,7 +24254,7 @@
       <c r="AB249" s="13"/>
       <c r="AC249" s="13"/>
     </row>
-    <row r="250" spans="1:29" ht="13.2">
+    <row r="250" spans="1:29" ht="12.75">
       <c r="A250" s="12"/>
       <c r="I250" s="13"/>
       <c r="J250" s="13"/>
@@ -24229,7 +24278,7 @@
       <c r="AB250" s="13"/>
       <c r="AC250" s="13"/>
     </row>
-    <row r="251" spans="1:29" ht="13.2">
+    <row r="251" spans="1:29" ht="12.75">
       <c r="A251" s="12"/>
       <c r="I251" s="13"/>
       <c r="J251" s="13"/>
@@ -24253,7 +24302,7 @@
       <c r="AB251" s="13"/>
       <c r="AC251" s="13"/>
     </row>
-    <row r="252" spans="1:29" ht="13.2">
+    <row r="252" spans="1:29" ht="12.75">
       <c r="A252" s="12"/>
       <c r="I252" s="13"/>
       <c r="J252" s="13"/>
@@ -24277,7 +24326,7 @@
       <c r="AB252" s="13"/>
       <c r="AC252" s="13"/>
     </row>
-    <row r="253" spans="1:29" ht="13.2">
+    <row r="253" spans="1:29" ht="12.75">
       <c r="A253" s="12"/>
       <c r="I253" s="13"/>
       <c r="J253" s="13"/>
@@ -24301,7 +24350,7 @@
       <c r="AB253" s="13"/>
       <c r="AC253" s="13"/>
     </row>
-    <row r="254" spans="1:29" ht="13.2">
+    <row r="254" spans="1:29" ht="12.75">
       <c r="A254" s="12"/>
       <c r="I254" s="13"/>
       <c r="J254" s="13"/>
@@ -24325,7 +24374,7 @@
       <c r="AB254" s="13"/>
       <c r="AC254" s="13"/>
     </row>
-    <row r="255" spans="1:29" ht="13.2">
+    <row r="255" spans="1:29" ht="12.75">
       <c r="A255" s="12"/>
       <c r="I255" s="13"/>
       <c r="J255" s="13"/>
@@ -24349,7 +24398,7 @@
       <c r="AB255" s="13"/>
       <c r="AC255" s="13"/>
     </row>
-    <row r="256" spans="1:29" ht="13.2">
+    <row r="256" spans="1:29" ht="12.75">
       <c r="A256" s="12"/>
       <c r="I256" s="13"/>
       <c r="J256" s="13"/>
@@ -24373,7 +24422,7 @@
       <c r="AB256" s="13"/>
       <c r="AC256" s="13"/>
     </row>
-    <row r="257" spans="1:29" ht="13.2">
+    <row r="257" spans="1:29" ht="12.75">
       <c r="A257" s="12"/>
       <c r="I257" s="13"/>
       <c r="J257" s="13"/>
@@ -24397,7 +24446,7 @@
       <c r="AB257" s="13"/>
       <c r="AC257" s="13"/>
     </row>
-    <row r="258" spans="1:29" ht="13.2">
+    <row r="258" spans="1:29" ht="12.75">
       <c r="A258" s="12"/>
       <c r="I258" s="13"/>
       <c r="J258" s="13"/>
@@ -24421,7 +24470,7 @@
       <c r="AB258" s="13"/>
       <c r="AC258" s="13"/>
     </row>
-    <row r="259" spans="1:29" ht="13.2">
+    <row r="259" spans="1:29" ht="12.75">
       <c r="A259" s="12"/>
       <c r="I259" s="13"/>
       <c r="J259" s="13"/>
@@ -24445,7 +24494,7 @@
       <c r="AB259" s="13"/>
       <c r="AC259" s="13"/>
     </row>
-    <row r="260" spans="1:29" ht="13.2">
+    <row r="260" spans="1:29" ht="12.75">
       <c r="A260" s="12"/>
       <c r="I260" s="13"/>
       <c r="J260" s="13"/>
@@ -24469,7 +24518,7 @@
       <c r="AB260" s="13"/>
       <c r="AC260" s="13"/>
     </row>
-    <row r="261" spans="1:29" ht="13.2">
+    <row r="261" spans="1:29" ht="12.75">
       <c r="A261" s="12"/>
       <c r="I261" s="13"/>
       <c r="J261" s="13"/>
@@ -24493,7 +24542,7 @@
       <c r="AB261" s="13"/>
       <c r="AC261" s="13"/>
     </row>
-    <row r="262" spans="1:29" ht="13.2">
+    <row r="262" spans="1:29" ht="12.75">
       <c r="A262" s="12"/>
       <c r="I262" s="13"/>
       <c r="J262" s="13"/>
@@ -24517,7 +24566,7 @@
       <c r="AB262" s="13"/>
       <c r="AC262" s="13"/>
     </row>
-    <row r="263" spans="1:29" ht="13.2">
+    <row r="263" spans="1:29" ht="12.75">
       <c r="A263" s="12"/>
       <c r="I263" s="13"/>
       <c r="J263" s="13"/>
@@ -24541,7 +24590,7 @@
       <c r="AB263" s="13"/>
       <c r="AC263" s="13"/>
     </row>
-    <row r="264" spans="1:29" ht="13.2">
+    <row r="264" spans="1:29" ht="12.75">
       <c r="A264" s="12"/>
       <c r="I264" s="13"/>
       <c r="J264" s="13"/>
@@ -24565,7 +24614,7 @@
       <c r="AB264" s="13"/>
       <c r="AC264" s="13"/>
     </row>
-    <row r="265" spans="1:29" ht="13.2">
+    <row r="265" spans="1:29" ht="12.75">
       <c r="A265" s="12"/>
       <c r="I265" s="13"/>
       <c r="J265" s="13"/>
@@ -24589,7 +24638,7 @@
       <c r="AB265" s="13"/>
       <c r="AC265" s="13"/>
     </row>
-    <row r="266" spans="1:29" ht="13.2">
+    <row r="266" spans="1:29" ht="12.75">
       <c r="A266" s="12"/>
       <c r="I266" s="13"/>
       <c r="J266" s="13"/>
@@ -24613,7 +24662,7 @@
       <c r="AB266" s="13"/>
       <c r="AC266" s="13"/>
     </row>
-    <row r="267" spans="1:29" ht="13.2">
+    <row r="267" spans="1:29" ht="12.75">
       <c r="A267" s="12"/>
       <c r="I267" s="13"/>
       <c r="J267" s="13"/>
@@ -24637,7 +24686,7 @@
       <c r="AB267" s="13"/>
       <c r="AC267" s="13"/>
     </row>
-    <row r="268" spans="1:29" ht="13.2">
+    <row r="268" spans="1:29" ht="12.75">
       <c r="A268" s="12"/>
       <c r="I268" s="13"/>
       <c r="J268" s="13"/>
@@ -24661,7 +24710,7 @@
       <c r="AB268" s="13"/>
       <c r="AC268" s="13"/>
     </row>
-    <row r="269" spans="1:29" ht="13.2">
+    <row r="269" spans="1:29" ht="12.75">
       <c r="A269" s="12"/>
       <c r="I269" s="13"/>
       <c r="J269" s="13"/>
@@ -24685,7 +24734,7 @@
       <c r="AB269" s="13"/>
       <c r="AC269" s="13"/>
     </row>
-    <row r="270" spans="1:29" ht="13.2">
+    <row r="270" spans="1:29" ht="12.75">
       <c r="A270" s="12"/>
       <c r="I270" s="13"/>
       <c r="J270" s="13"/>
@@ -24709,7 +24758,7 @@
       <c r="AB270" s="13"/>
       <c r="AC270" s="13"/>
     </row>
-    <row r="271" spans="1:29" ht="13.2">
+    <row r="271" spans="1:29" ht="12.75">
       <c r="A271" s="12"/>
       <c r="I271" s="13"/>
       <c r="J271" s="13"/>
@@ -24733,7 +24782,7 @@
       <c r="AB271" s="13"/>
       <c r="AC271" s="13"/>
     </row>
-    <row r="272" spans="1:29" ht="13.2">
+    <row r="272" spans="1:29" ht="12.75">
       <c r="A272" s="12"/>
       <c r="I272" s="13"/>
       <c r="J272" s="13"/>
@@ -24757,7 +24806,7 @@
       <c r="AB272" s="13"/>
       <c r="AC272" s="13"/>
     </row>
-    <row r="273" spans="1:29" ht="13.2">
+    <row r="273" spans="1:29" ht="12.75">
       <c r="A273" s="12"/>
       <c r="I273" s="13"/>
       <c r="J273" s="13"/>
@@ -24781,7 +24830,7 @@
       <c r="AB273" s="13"/>
       <c r="AC273" s="13"/>
     </row>
-    <row r="274" spans="1:29" ht="13.2">
+    <row r="274" spans="1:29" ht="12.75">
       <c r="A274" s="12"/>
       <c r="I274" s="13"/>
       <c r="J274" s="13"/>
@@ -24805,7 +24854,7 @@
       <c r="AB274" s="13"/>
       <c r="AC274" s="13"/>
     </row>
-    <row r="275" spans="1:29" ht="13.2">
+    <row r="275" spans="1:29" ht="12.75">
       <c r="A275" s="12"/>
       <c r="I275" s="13"/>
       <c r="J275" s="13"/>
@@ -24829,7 +24878,7 @@
       <c r="AB275" s="13"/>
       <c r="AC275" s="13"/>
     </row>
-    <row r="276" spans="1:29" ht="13.2">
+    <row r="276" spans="1:29" ht="12.75">
       <c r="A276" s="12"/>
       <c r="I276" s="13"/>
       <c r="J276" s="13"/>
@@ -24853,7 +24902,7 @@
       <c r="AB276" s="13"/>
       <c r="AC276" s="13"/>
     </row>
-    <row r="277" spans="1:29" ht="13.2">
+    <row r="277" spans="1:29" ht="12.75">
       <c r="A277" s="12"/>
       <c r="I277" s="13"/>
       <c r="J277" s="13"/>
@@ -24877,7 +24926,7 @@
       <c r="AB277" s="13"/>
       <c r="AC277" s="13"/>
     </row>
-    <row r="278" spans="1:29" ht="13.2">
+    <row r="278" spans="1:29" ht="12.75">
       <c r="A278" s="12"/>
       <c r="I278" s="13"/>
       <c r="J278" s="13"/>
@@ -24901,7 +24950,7 @@
       <c r="AB278" s="13"/>
       <c r="AC278" s="13"/>
     </row>
-    <row r="279" spans="1:29" ht="13.2">
+    <row r="279" spans="1:29" ht="12.75">
       <c r="A279" s="12"/>
       <c r="I279" s="13"/>
       <c r="J279" s="13"/>
@@ -24925,7 +24974,7 @@
       <c r="AB279" s="13"/>
       <c r="AC279" s="13"/>
     </row>
-    <row r="280" spans="1:29" ht="13.2">
+    <row r="280" spans="1:29" ht="12.75">
       <c r="A280" s="12"/>
       <c r="I280" s="13"/>
       <c r="J280" s="13"/>
@@ -24949,7 +24998,7 @@
       <c r="AB280" s="13"/>
       <c r="AC280" s="13"/>
     </row>
-    <row r="281" spans="1:29" ht="13.2">
+    <row r="281" spans="1:29" ht="12.75">
       <c r="A281" s="12"/>
       <c r="I281" s="13"/>
       <c r="J281" s="13"/>
@@ -24973,7 +25022,7 @@
       <c r="AB281" s="13"/>
       <c r="AC281" s="13"/>
     </row>
-    <row r="282" spans="1:29" ht="13.2">
+    <row r="282" spans="1:29" ht="12.75">
       <c r="A282" s="12"/>
       <c r="I282" s="13"/>
       <c r="J282" s="13"/>
@@ -24997,7 +25046,7 @@
       <c r="AB282" s="13"/>
       <c r="AC282" s="13"/>
     </row>
-    <row r="283" spans="1:29" ht="13.2">
+    <row r="283" spans="1:29" ht="12.75">
       <c r="A283" s="12"/>
       <c r="I283" s="13"/>
       <c r="J283" s="13"/>
@@ -25021,7 +25070,7 @@
       <c r="AB283" s="13"/>
       <c r="AC283" s="13"/>
     </row>
-    <row r="284" spans="1:29" ht="13.2">
+    <row r="284" spans="1:29" ht="12.75">
       <c r="A284" s="12"/>
       <c r="I284" s="13"/>
       <c r="J284" s="13"/>
@@ -25045,7 +25094,7 @@
       <c r="AB284" s="13"/>
       <c r="AC284" s="13"/>
     </row>
-    <row r="285" spans="1:29" ht="13.2">
+    <row r="285" spans="1:29" ht="12.75">
       <c r="A285" s="12"/>
       <c r="I285" s="13"/>
       <c r="J285" s="13"/>
@@ -25069,7 +25118,7 @@
       <c r="AB285" s="13"/>
       <c r="AC285" s="13"/>
     </row>
-    <row r="286" spans="1:29" ht="13.2">
+    <row r="286" spans="1:29" ht="12.75">
       <c r="A286" s="12"/>
       <c r="I286" s="13"/>
       <c r="J286" s="13"/>
@@ -25093,7 +25142,7 @@
       <c r="AB286" s="13"/>
       <c r="AC286" s="13"/>
     </row>
-    <row r="287" spans="1:29" ht="13.2">
+    <row r="287" spans="1:29" ht="12.75">
       <c r="A287" s="12"/>
       <c r="I287" s="13"/>
       <c r="J287" s="13"/>
@@ -25117,7 +25166,7 @@
       <c r="AB287" s="13"/>
       <c r="AC287" s="13"/>
     </row>
-    <row r="288" spans="1:29" ht="13.2">
+    <row r="288" spans="1:29" ht="12.75">
       <c r="A288" s="12"/>
       <c r="I288" s="13"/>
       <c r="J288" s="13"/>
@@ -25141,7 +25190,7 @@
       <c r="AB288" s="13"/>
       <c r="AC288" s="13"/>
     </row>
-    <row r="289" spans="1:29" ht="13.2">
+    <row r="289" spans="1:29" ht="12.75">
       <c r="A289" s="12"/>
       <c r="I289" s="13"/>
       <c r="J289" s="13"/>
@@ -25165,7 +25214,7 @@
       <c r="AB289" s="13"/>
       <c r="AC289" s="13"/>
     </row>
-    <row r="290" spans="1:29" ht="13.2">
+    <row r="290" spans="1:29" ht="12.75">
       <c r="A290" s="12"/>
       <c r="I290" s="13"/>
       <c r="J290" s="13"/>
@@ -25189,7 +25238,7 @@
       <c r="AB290" s="13"/>
       <c r="AC290" s="13"/>
     </row>
-    <row r="291" spans="1:29" ht="13.2">
+    <row r="291" spans="1:29" ht="12.75">
       <c r="A291" s="12"/>
       <c r="I291" s="13"/>
       <c r="J291" s="13"/>
@@ -25213,7 +25262,7 @@
       <c r="AB291" s="13"/>
       <c r="AC291" s="13"/>
     </row>
-    <row r="292" spans="1:29" ht="13.2">
+    <row r="292" spans="1:29" ht="12.75">
       <c r="A292" s="12"/>
       <c r="I292" s="13"/>
       <c r="J292" s="13"/>
@@ -25237,7 +25286,7 @@
       <c r="AB292" s="13"/>
       <c r="AC292" s="13"/>
     </row>
-    <row r="293" spans="1:29" ht="13.2">
+    <row r="293" spans="1:29" ht="12.75">
       <c r="A293" s="12"/>
       <c r="I293" s="13"/>
       <c r="J293" s="13"/>
@@ -25261,7 +25310,7 @@
       <c r="AB293" s="13"/>
       <c r="AC293" s="13"/>
     </row>
-    <row r="294" spans="1:29" ht="13.2">
+    <row r="294" spans="1:29" ht="12.75">
       <c r="A294" s="12"/>
       <c r="I294" s="13"/>
       <c r="J294" s="13"/>
@@ -25285,7 +25334,7 @@
       <c r="AB294" s="13"/>
       <c r="AC294" s="13"/>
     </row>
-    <row r="295" spans="1:29" ht="13.2">
+    <row r="295" spans="1:29" ht="12.75">
       <c r="A295" s="12"/>
       <c r="I295" s="13"/>
       <c r="J295" s="13"/>
@@ -25309,7 +25358,7 @@
       <c r="AB295" s="13"/>
       <c r="AC295" s="13"/>
     </row>
-    <row r="296" spans="1:29" ht="13.2">
+    <row r="296" spans="1:29" ht="12.75">
       <c r="A296" s="12"/>
       <c r="I296" s="13"/>
       <c r="J296" s="13"/>
@@ -25333,7 +25382,7 @@
       <c r="AB296" s="13"/>
       <c r="AC296" s="13"/>
     </row>
-    <row r="297" spans="1:29" ht="13.2">
+    <row r="297" spans="1:29" ht="12.75">
       <c r="A297" s="12"/>
       <c r="I297" s="13"/>
       <c r="J297" s="13"/>
@@ -25357,7 +25406,7 @@
       <c r="AB297" s="13"/>
       <c r="AC297" s="13"/>
     </row>
-    <row r="298" spans="1:29" ht="13.2">
+    <row r="298" spans="1:29" ht="12.75">
       <c r="A298" s="12"/>
       <c r="I298" s="13"/>
       <c r="J298" s="13"/>
@@ -25381,7 +25430,7 @@
       <c r="AB298" s="13"/>
       <c r="AC298" s="13"/>
     </row>
-    <row r="299" spans="1:29" ht="13.2">
+    <row r="299" spans="1:29" ht="12.75">
       <c r="A299" s="12"/>
       <c r="I299" s="13"/>
       <c r="J299" s="13"/>
@@ -25405,7 +25454,7 @@
       <c r="AB299" s="13"/>
       <c r="AC299" s="13"/>
     </row>
-    <row r="300" spans="1:29" ht="13.2">
+    <row r="300" spans="1:29" ht="12.75">
       <c r="A300" s="12"/>
       <c r="I300" s="13"/>
       <c r="J300" s="13"/>
@@ -25429,7 +25478,7 @@
       <c r="AB300" s="13"/>
       <c r="AC300" s="13"/>
     </row>
-    <row r="301" spans="1:29" ht="13.2">
+    <row r="301" spans="1:29" ht="12.75">
       <c r="A301" s="12"/>
       <c r="I301" s="13"/>
       <c r="J301" s="13"/>
@@ -25453,7 +25502,7 @@
       <c r="AB301" s="13"/>
       <c r="AC301" s="13"/>
     </row>
-    <row r="302" spans="1:29" ht="13.2">
+    <row r="302" spans="1:29" ht="12.75">
       <c r="A302" s="12"/>
       <c r="I302" s="13"/>
       <c r="J302" s="13"/>
@@ -25477,7 +25526,7 @@
       <c r="AB302" s="13"/>
       <c r="AC302" s="13"/>
     </row>
-    <row r="303" spans="1:29" ht="13.2">
+    <row r="303" spans="1:29" ht="12.75">
       <c r="A303" s="12"/>
       <c r="I303" s="13"/>
       <c r="J303" s="13"/>
@@ -25501,7 +25550,7 @@
       <c r="AB303" s="13"/>
       <c r="AC303" s="13"/>
     </row>
-    <row r="304" spans="1:29" ht="13.2">
+    <row r="304" spans="1:29" ht="12.75">
       <c r="A304" s="12"/>
       <c r="I304" s="13"/>
       <c r="J304" s="13"/>
@@ -25525,7 +25574,7 @@
       <c r="AB304" s="13"/>
       <c r="AC304" s="13"/>
     </row>
-    <row r="305" spans="1:29" ht="13.2">
+    <row r="305" spans="1:29" ht="12.75">
       <c r="A305" s="12"/>
       <c r="I305" s="13"/>
       <c r="J305" s="13"/>
@@ -25549,7 +25598,7 @@
       <c r="AB305" s="13"/>
       <c r="AC305" s="13"/>
     </row>
-    <row r="306" spans="1:29" ht="13.2">
+    <row r="306" spans="1:29" ht="12.75">
       <c r="A306" s="12"/>
       <c r="I306" s="13"/>
       <c r="J306" s="13"/>
@@ -25573,7 +25622,7 @@
       <c r="AB306" s="13"/>
       <c r="AC306" s="13"/>
     </row>
-    <row r="307" spans="1:29" ht="13.2">
+    <row r="307" spans="1:29" ht="12.75">
       <c r="A307" s="12"/>
       <c r="I307" s="13"/>
       <c r="J307" s="13"/>
@@ -25597,7 +25646,7 @@
       <c r="AB307" s="13"/>
       <c r="AC307" s="13"/>
     </row>
-    <row r="308" spans="1:29" ht="13.2">
+    <row r="308" spans="1:29" ht="12.75">
       <c r="A308" s="12"/>
       <c r="I308" s="13"/>
       <c r="J308" s="13"/>
@@ -25621,7 +25670,7 @@
       <c r="AB308" s="13"/>
       <c r="AC308" s="13"/>
     </row>
-    <row r="309" spans="1:29" ht="13.2">
+    <row r="309" spans="1:29" ht="12.75">
       <c r="A309" s="12"/>
       <c r="I309" s="13"/>
       <c r="J309" s="13"/>
@@ -25645,7 +25694,7 @@
       <c r="AB309" s="13"/>
       <c r="AC309" s="13"/>
     </row>
-    <row r="310" spans="1:29" ht="13.2">
+    <row r="310" spans="1:29" ht="12.75">
       <c r="A310" s="12"/>
       <c r="I310" s="13"/>
       <c r="J310" s="13"/>
@@ -25669,7 +25718,7 @@
       <c r="AB310" s="13"/>
       <c r="AC310" s="13"/>
     </row>
-    <row r="311" spans="1:29" ht="13.2">
+    <row r="311" spans="1:29" ht="12.75">
       <c r="A311" s="12"/>
       <c r="I311" s="13"/>
       <c r="J311" s="13"/>
@@ -25693,7 +25742,7 @@
       <c r="AB311" s="13"/>
       <c r="AC311" s="13"/>
     </row>
-    <row r="312" spans="1:29" ht="13.2">
+    <row r="312" spans="1:29" ht="12.75">
       <c r="A312" s="12"/>
       <c r="I312" s="13"/>
       <c r="J312" s="13"/>
@@ -25717,7 +25766,7 @@
       <c r="AB312" s="13"/>
       <c r="AC312" s="13"/>
     </row>
-    <row r="313" spans="1:29" ht="13.2">
+    <row r="313" spans="1:29" ht="12.75">
       <c r="A313" s="12"/>
       <c r="I313" s="13"/>
       <c r="J313" s="13"/>
@@ -25741,7 +25790,7 @@
       <c r="AB313" s="13"/>
       <c r="AC313" s="13"/>
     </row>
-    <row r="314" spans="1:29" ht="13.2">
+    <row r="314" spans="1:29" ht="12.75">
       <c r="A314" s="12"/>
       <c r="I314" s="13"/>
       <c r="J314" s="13"/>
@@ -25765,7 +25814,7 @@
       <c r="AB314" s="13"/>
       <c r="AC314" s="13"/>
     </row>
-    <row r="315" spans="1:29" ht="13.2">
+    <row r="315" spans="1:29" ht="12.75">
       <c r="A315" s="12"/>
       <c r="I315" s="13"/>
       <c r="J315" s="13"/>
@@ -25789,7 +25838,7 @@
       <c r="AB315" s="13"/>
       <c r="AC315" s="13"/>
     </row>
-    <row r="316" spans="1:29" ht="13.2">
+    <row r="316" spans="1:29" ht="12.75">
       <c r="A316" s="12"/>
       <c r="I316" s="13"/>
       <c r="J316" s="13"/>
@@ -25813,7 +25862,7 @@
       <c r="AB316" s="13"/>
       <c r="AC316" s="13"/>
     </row>
-    <row r="317" spans="1:29" ht="13.2">
+    <row r="317" spans="1:29" ht="12.75">
       <c r="A317" s="12"/>
       <c r="I317" s="13"/>
       <c r="J317" s="13"/>
@@ -25837,7 +25886,7 @@
       <c r="AB317" s="13"/>
       <c r="AC317" s="13"/>
     </row>
-    <row r="318" spans="1:29" ht="13.2">
+    <row r="318" spans="1:29" ht="12.75">
       <c r="A318" s="12"/>
       <c r="I318" s="13"/>
       <c r="J318" s="13"/>
@@ -25861,7 +25910,7 @@
       <c r="AB318" s="13"/>
       <c r="AC318" s="13"/>
     </row>
-    <row r="319" spans="1:29" ht="13.2">
+    <row r="319" spans="1:29" ht="12.75">
       <c r="A319" s="12"/>
       <c r="I319" s="13"/>
       <c r="J319" s="13"/>
@@ -25885,7 +25934,7 @@
       <c r="AB319" s="13"/>
       <c r="AC319" s="13"/>
     </row>
-    <row r="320" spans="1:29" ht="13.2">
+    <row r="320" spans="1:29" ht="12.75">
       <c r="A320" s="12"/>
       <c r="I320" s="13"/>
       <c r="J320" s="13"/>
@@ -25909,7 +25958,7 @@
       <c r="AB320" s="13"/>
       <c r="AC320" s="13"/>
     </row>
-    <row r="321" spans="1:29" ht="13.2">
+    <row r="321" spans="1:29" ht="12.75">
       <c r="A321" s="12"/>
       <c r="I321" s="13"/>
       <c r="J321" s="13"/>
@@ -25933,7 +25982,7 @@
       <c r="AB321" s="13"/>
       <c r="AC321" s="13"/>
     </row>
-    <row r="322" spans="1:29" ht="13.2">
+    <row r="322" spans="1:29" ht="12.75">
       <c r="A322" s="12"/>
       <c r="I322" s="13"/>
       <c r="J322" s="13"/>
@@ -25957,7 +26006,7 @@
       <c r="AB322" s="13"/>
       <c r="AC322" s="13"/>
     </row>
-    <row r="323" spans="1:29" ht="13.2">
+    <row r="323" spans="1:29" ht="12.75">
       <c r="A323" s="12"/>
       <c r="I323" s="13"/>
       <c r="J323" s="13"/>
@@ -25981,7 +26030,7 @@
       <c r="AB323" s="13"/>
       <c r="AC323" s="13"/>
     </row>
-    <row r="324" spans="1:29" ht="13.2">
+    <row r="324" spans="1:29" ht="12.75">
       <c r="A324" s="12"/>
       <c r="I324" s="13"/>
       <c r="J324" s="13"/>
@@ -26005,7 +26054,7 @@
       <c r="AB324" s="13"/>
       <c r="AC324" s="13"/>
     </row>
-    <row r="325" spans="1:29" ht="13.2">
+    <row r="325" spans="1:29" ht="12.75">
       <c r="A325" s="12"/>
       <c r="I325" s="13"/>
       <c r="J325" s="13"/>
@@ -26029,7 +26078,7 @@
       <c r="AB325" s="13"/>
       <c r="AC325" s="13"/>
     </row>
-    <row r="326" spans="1:29" ht="13.2">
+    <row r="326" spans="1:29" ht="12.75">
       <c r="A326" s="12"/>
       <c r="I326" s="13"/>
       <c r="J326" s="13"/>
@@ -26053,7 +26102,7 @@
       <c r="AB326" s="13"/>
       <c r="AC326" s="13"/>
     </row>
-    <row r="327" spans="1:29" ht="13.2">
+    <row r="327" spans="1:29" ht="12.75">
       <c r="A327" s="12"/>
       <c r="I327" s="13"/>
       <c r="J327" s="13"/>
@@ -26077,7 +26126,7 @@
       <c r="AB327" s="13"/>
       <c r="AC327" s="13"/>
     </row>
-    <row r="328" spans="1:29" ht="13.2">
+    <row r="328" spans="1:29" ht="12.75">
       <c r="A328" s="12"/>
       <c r="I328" s="13"/>
       <c r="J328" s="13"/>
@@ -26101,7 +26150,7 @@
       <c r="AB328" s="13"/>
       <c r="AC328" s="13"/>
     </row>
-    <row r="329" spans="1:29" ht="13.2">
+    <row r="329" spans="1:29" ht="12.75">
       <c r="A329" s="12"/>
       <c r="I329" s="13"/>
       <c r="J329" s="13"/>
@@ -26125,7 +26174,7 @@
       <c r="AB329" s="13"/>
       <c r="AC329" s="13"/>
     </row>
-    <row r="330" spans="1:29" ht="13.2">
+    <row r="330" spans="1:29" ht="12.75">
       <c r="A330" s="12"/>
       <c r="I330" s="13"/>
       <c r="J330" s="13"/>
@@ -26149,7 +26198,7 @@
       <c r="AB330" s="13"/>
       <c r="AC330" s="13"/>
     </row>
-    <row r="331" spans="1:29" ht="13.2">
+    <row r="331" spans="1:29" ht="12.75">
       <c r="A331" s="12"/>
       <c r="I331" s="13"/>
       <c r="J331" s="13"/>
@@ -26173,7 +26222,7 @@
       <c r="AB331" s="13"/>
       <c r="AC331" s="13"/>
     </row>
-    <row r="332" spans="1:29" ht="13.2">
+    <row r="332" spans="1:29" ht="12.75">
       <c r="A332" s="12"/>
       <c r="I332" s="13"/>
       <c r="J332" s="13"/>
@@ -26197,7 +26246,7 @@
       <c r="AB332" s="13"/>
       <c r="AC332" s="13"/>
     </row>
-    <row r="333" spans="1:29" ht="13.2">
+    <row r="333" spans="1:29" ht="12.75">
       <c r="A333" s="12"/>
       <c r="I333" s="13"/>
       <c r="J333" s="13"/>
@@ -26221,7 +26270,7 @@
       <c r="AB333" s="13"/>
       <c r="AC333" s="13"/>
     </row>
-    <row r="334" spans="1:29" ht="13.2">
+    <row r="334" spans="1:29" ht="12.75">
       <c r="A334" s="12"/>
       <c r="I334" s="13"/>
       <c r="J334" s="13"/>
@@ -26245,7 +26294,7 @@
       <c r="AB334" s="13"/>
       <c r="AC334" s="13"/>
     </row>
-    <row r="335" spans="1:29" ht="13.2">
+    <row r="335" spans="1:29" ht="12.75">
       <c r="A335" s="12"/>
       <c r="I335" s="13"/>
       <c r="J335" s="13"/>
@@ -26269,7 +26318,7 @@
       <c r="AB335" s="13"/>
       <c r="AC335" s="13"/>
     </row>
-    <row r="336" spans="1:29" ht="13.2">
+    <row r="336" spans="1:29" ht="12.75">
       <c r="A336" s="12"/>
       <c r="I336" s="13"/>
       <c r="J336" s="13"/>
@@ -26293,7 +26342,7 @@
       <c r="AB336" s="13"/>
       <c r="AC336" s="13"/>
     </row>
-    <row r="337" spans="1:29" ht="13.2">
+    <row r="337" spans="1:29" ht="12.75">
       <c r="A337" s="12"/>
       <c r="I337" s="13"/>
       <c r="J337" s="13"/>
@@ -26317,7 +26366,7 @@
       <c r="AB337" s="13"/>
       <c r="AC337" s="13"/>
     </row>
-    <row r="338" spans="1:29" ht="13.2">
+    <row r="338" spans="1:29" ht="12.75">
       <c r="A338" s="12"/>
       <c r="I338" s="13"/>
       <c r="J338" s="13"/>
@@ -26341,7 +26390,7 @@
       <c r="AB338" s="13"/>
       <c r="AC338" s="13"/>
     </row>
-    <row r="339" spans="1:29" ht="13.2">
+    <row r="339" spans="1:29" ht="12.75">
       <c r="A339" s="12"/>
       <c r="I339" s="13"/>
       <c r="J339" s="13"/>
@@ -26365,7 +26414,7 @@
       <c r="AB339" s="13"/>
       <c r="AC339" s="13"/>
     </row>
-    <row r="340" spans="1:29" ht="13.2">
+    <row r="340" spans="1:29" ht="12.75">
       <c r="A340" s="12"/>
       <c r="I340" s="13"/>
       <c r="J340" s="13"/>
@@ -26389,7 +26438,7 @@
       <c r="AB340" s="13"/>
       <c r="AC340" s="13"/>
     </row>
-    <row r="341" spans="1:29" ht="13.2">
+    <row r="341" spans="1:29" ht="12.75">
       <c r="A341" s="12"/>
       <c r="I341" s="13"/>
       <c r="J341" s="13"/>
@@ -26413,7 +26462,7 @@
       <c r="AB341" s="13"/>
       <c r="AC341" s="13"/>
     </row>
-    <row r="342" spans="1:29" ht="13.2">
+    <row r="342" spans="1:29" ht="12.75">
       <c r="A342" s="12"/>
       <c r="I342" s="13"/>
       <c r="J342" s="13"/>
@@ -26437,7 +26486,7 @@
       <c r="AB342" s="13"/>
       <c r="AC342" s="13"/>
     </row>
-    <row r="343" spans="1:29" ht="13.2">
+    <row r="343" spans="1:29" ht="12.75">
       <c r="A343" s="12"/>
       <c r="I343" s="13"/>
       <c r="J343" s="13"/>
@@ -26461,7 +26510,7 @@
       <c r="AB343" s="13"/>
       <c r="AC343" s="13"/>
     </row>
-    <row r="344" spans="1:29" ht="13.2">
+    <row r="344" spans="1:29" ht="12.75">
       <c r="A344" s="12"/>
       <c r="I344" s="13"/>
       <c r="J344" s="13"/>
@@ -26485,7 +26534,7 @@
       <c r="AB344" s="13"/>
       <c r="AC344" s="13"/>
     </row>
-    <row r="345" spans="1:29" ht="13.2">
+    <row r="345" spans="1:29" ht="12.75">
       <c r="A345" s="12"/>
       <c r="I345" s="13"/>
       <c r="J345" s="13"/>
@@ -26509,7 +26558,7 @@
       <c r="AB345" s="13"/>
       <c r="AC345" s="13"/>
     </row>
-    <row r="346" spans="1:29" ht="13.2">
+    <row r="346" spans="1:29" ht="12.75">
       <c r="A346" s="12"/>
       <c r="I346" s="13"/>
       <c r="J346" s="13"/>
@@ -26533,7 +26582,7 @@
       <c r="AB346" s="13"/>
       <c r="AC346" s="13"/>
     </row>
-    <row r="347" spans="1:29" ht="13.2">
+    <row r="347" spans="1:29" ht="12.75">
       <c r="A347" s="12"/>
       <c r="I347" s="13"/>
       <c r="J347" s="13"/>
@@ -26557,7 +26606,7 @@
       <c r="AB347" s="13"/>
       <c r="AC347" s="13"/>
     </row>
-    <row r="348" spans="1:29" ht="13.2">
+    <row r="348" spans="1:29" ht="12.75">
       <c r="A348" s="12"/>
       <c r="I348" s="13"/>
       <c r="J348" s="13"/>
@@ -26581,7 +26630,7 @@
       <c r="AB348" s="13"/>
       <c r="AC348" s="13"/>
     </row>
-    <row r="349" spans="1:29" ht="13.2">
+    <row r="349" spans="1:29" ht="12.75">
       <c r="A349" s="12"/>
       <c r="I349" s="13"/>
       <c r="J349" s="13"/>
@@ -26605,7 +26654,7 @@
       <c r="AB349" s="13"/>
       <c r="AC349" s="13"/>
     </row>
-    <row r="350" spans="1:29" ht="13.2">
+    <row r="350" spans="1:29" ht="12.75">
       <c r="A350" s="12"/>
       <c r="I350" s="13"/>
       <c r="J350" s="13"/>
@@ -26629,7 +26678,7 @@
       <c r="AB350" s="13"/>
       <c r="AC350" s="13"/>
     </row>
-    <row r="351" spans="1:29" ht="13.2">
+    <row r="351" spans="1:29" ht="12.75">
       <c r="A351" s="12"/>
       <c r="I351" s="13"/>
       <c r="J351" s="13"/>
@@ -26653,7 +26702,7 @@
       <c r="AB351" s="13"/>
       <c r="AC351" s="13"/>
     </row>
-    <row r="352" spans="1:29" ht="13.2">
+    <row r="352" spans="1:29" ht="12.75">
       <c r="A352" s="12"/>
       <c r="I352" s="13"/>
       <c r="J352" s="13"/>
@@ -26677,7 +26726,7 @@
       <c r="AB352" s="13"/>
       <c r="AC352" s="13"/>
     </row>
-    <row r="353" spans="1:29" ht="13.2">
+    <row r="353" spans="1:29" ht="12.75">
       <c r="A353" s="12"/>
       <c r="I353" s="13"/>
       <c r="J353" s="13"/>
@@ -26701,7 +26750,7 @@
       <c r="AB353" s="13"/>
       <c r="AC353" s="13"/>
     </row>
-    <row r="354" spans="1:29" ht="13.2">
+    <row r="354" spans="1:29" ht="12.75">
       <c r="A354" s="12"/>
       <c r="I354" s="13"/>
       <c r="J354" s="13"/>
@@ -26725,7 +26774,7 @@
       <c r="AB354" s="13"/>
       <c r="AC354" s="13"/>
     </row>
-    <row r="355" spans="1:29" ht="13.2">
+    <row r="355" spans="1:29" ht="12.75">
       <c r="A355" s="12"/>
       <c r="I355" s="13"/>
       <c r="J355" s="13"/>
@@ -26749,7 +26798,7 @@
       <c r="AB355" s="13"/>
       <c r="AC355" s="13"/>
     </row>
-    <row r="356" spans="1:29" ht="13.2">
+    <row r="356" spans="1:29" ht="12.75">
       <c r="A356" s="12"/>
       <c r="I356" s="13"/>
       <c r="J356" s="13"/>
@@ -26773,7 +26822,7 @@
       <c r="AB356" s="13"/>
       <c r="AC356" s="13"/>
     </row>
-    <row r="357" spans="1:29" ht="13.2">
+    <row r="357" spans="1:29" ht="12.75">
       <c r="A357" s="12"/>
       <c r="I357" s="13"/>
       <c r="J357" s="13"/>
@@ -26797,7 +26846,7 @@
       <c r="AB357" s="13"/>
       <c r="AC357" s="13"/>
     </row>
-    <row r="358" spans="1:29" ht="13.2">
+    <row r="358" spans="1:29" ht="12.75">
       <c r="A358" s="12"/>
       <c r="I358" s="13"/>
       <c r="J358" s="13"/>
@@ -26821,7 +26870,7 @@
       <c r="AB358" s="13"/>
       <c r="AC358" s="13"/>
     </row>
-    <row r="359" spans="1:29" ht="13.2">
+    <row r="359" spans="1:29" ht="12.75">
       <c r="A359" s="12"/>
       <c r="I359" s="13"/>
       <c r="J359" s="13"/>
@@ -26845,7 +26894,7 @@
       <c r="AB359" s="13"/>
       <c r="AC359" s="13"/>
     </row>
-    <row r="360" spans="1:29" ht="13.2">
+    <row r="360" spans="1:29" ht="12.75">
       <c r="A360" s="12"/>
       <c r="I360" s="13"/>
       <c r="J360" s="13"/>
@@ -26869,7 +26918,7 @@
       <c r="AB360" s="13"/>
       <c r="AC360" s="13"/>
     </row>
-    <row r="361" spans="1:29" ht="13.2">
+    <row r="361" spans="1:29" ht="12.75">
       <c r="A361" s="12"/>
       <c r="I361" s="13"/>
       <c r="J361" s="13"/>
@@ -26893,7 +26942,7 @@
       <c r="AB361" s="13"/>
       <c r="AC361" s="13"/>
     </row>
-    <row r="362" spans="1:29" ht="13.2">
+    <row r="362" spans="1:29" ht="12.75">
       <c r="A362" s="12"/>
       <c r="I362" s="13"/>
       <c r="J362" s="13"/>
@@ -26917,7 +26966,7 @@
       <c r="AB362" s="13"/>
       <c r="AC362" s="13"/>
     </row>
-    <row r="363" spans="1:29" ht="13.2">
+    <row r="363" spans="1:29" ht="12.75">
       <c r="A363" s="12"/>
       <c r="I363" s="13"/>
       <c r="J363" s="13"/>
@@ -26941,7 +26990,7 @@
       <c r="AB363" s="13"/>
       <c r="AC363" s="13"/>
     </row>
-    <row r="364" spans="1:29" ht="13.2">
+    <row r="364" spans="1:29" ht="12.75">
       <c r="A364" s="12"/>
       <c r="I364" s="13"/>
       <c r="J364" s="13"/>
@@ -26965,7 +27014,7 @@
       <c r="AB364" s="13"/>
       <c r="AC364" s="13"/>
     </row>
-    <row r="365" spans="1:29" ht="13.2">
+    <row r="365" spans="1:29" ht="12.75">
       <c r="A365" s="12"/>
       <c r="I365" s="13"/>
       <c r="J365" s="13"/>
@@ -26989,7 +27038,7 @@
       <c r="AB365" s="13"/>
       <c r="AC365" s="13"/>
     </row>
-    <row r="366" spans="1:29" ht="13.2">
+    <row r="366" spans="1:29" ht="12.75">
       <c r="A366" s="12"/>
       <c r="I366" s="13"/>
       <c r="J366" s="13"/>
@@ -27013,7 +27062,7 @@
       <c r="AB366" s="13"/>
       <c r="AC366" s="13"/>
     </row>
-    <row r="367" spans="1:29" ht="13.2">
+    <row r="367" spans="1:29" ht="12.75">
       <c r="A367" s="12"/>
       <c r="I367" s="13"/>
       <c r="J367" s="13"/>
@@ -27037,7 +27086,7 @@
       <c r="AB367" s="13"/>
       <c r="AC367" s="13"/>
     </row>
-    <row r="368" spans="1:29" ht="13.2">
+    <row r="368" spans="1:29" ht="12.75">
       <c r="A368" s="12"/>
       <c r="I368" s="13"/>
       <c r="J368" s="13"/>
@@ -27061,7 +27110,7 @@
       <c r="AB368" s="13"/>
       <c r="AC368" s="13"/>
     </row>
-    <row r="369" spans="1:29" ht="13.2">
+    <row r="369" spans="1:29" ht="12.75">
       <c r="A369" s="12"/>
       <c r="I369" s="13"/>
       <c r="J369" s="13"/>
@@ -27085,7 +27134,7 @@
       <c r="AB369" s="13"/>
       <c r="AC369" s="13"/>
     </row>
-    <row r="370" spans="1:29" ht="13.2">
+    <row r="370" spans="1:29" ht="12.75">
       <c r="A370" s="12"/>
       <c r="I370" s="13"/>
       <c r="J370" s="13"/>
@@ -27109,7 +27158,7 @@
       <c r="AB370" s="13"/>
       <c r="AC370" s="13"/>
     </row>
-    <row r="371" spans="1:29" ht="13.2">
+    <row r="371" spans="1:29" ht="12.75">
       <c r="A371" s="12"/>
       <c r="I371" s="13"/>
       <c r="J371" s="13"/>
@@ -27133,7 +27182,7 @@
       <c r="AB371" s="13"/>
       <c r="AC371" s="13"/>
     </row>
-    <row r="372" spans="1:29" ht="13.2">
+    <row r="372" spans="1:29" ht="12.75">
       <c r="A372" s="12"/>
       <c r="I372" s="13"/>
       <c r="J372" s="13"/>
@@ -27157,7 +27206,7 @@
       <c r="AB372" s="13"/>
       <c r="AC372" s="13"/>
     </row>
-    <row r="373" spans="1:29" ht="13.2">
+    <row r="373" spans="1:29" ht="12.75">
       <c r="A373" s="12"/>
       <c r="I373" s="13"/>
       <c r="J373" s="13"/>
@@ -27181,7 +27230,7 @@
       <c r="AB373" s="13"/>
       <c r="AC373" s="13"/>
     </row>
-    <row r="374" spans="1:29" ht="13.2">
+    <row r="374" spans="1:29" ht="12.75">
       <c r="A374" s="12"/>
       <c r="I374" s="13"/>
       <c r="J374" s="13"/>
@@ -27205,7 +27254,7 @@
       <c r="AB374" s="13"/>
       <c r="AC374" s="13"/>
     </row>
-    <row r="375" spans="1:29" ht="13.2">
+    <row r="375" spans="1:29" ht="12.75">
       <c r="A375" s="12"/>
       <c r="I375" s="13"/>
       <c r="J375" s="13"/>
@@ -27229,7 +27278,7 @@
       <c r="AB375" s="13"/>
       <c r="AC375" s="13"/>
     </row>
-    <row r="376" spans="1:29" ht="13.2">
+    <row r="376" spans="1:29" ht="12.75">
       <c r="A376" s="12"/>
       <c r="I376" s="13"/>
       <c r="J376" s="13"/>
@@ -27253,7 +27302,7 @@
       <c r="AB376" s="13"/>
       <c r="AC376" s="13"/>
     </row>
-    <row r="377" spans="1:29" ht="13.2">
+    <row r="377" spans="1:29" ht="12.75">
       <c r="A377" s="12"/>
       <c r="I377" s="13"/>
       <c r="J377" s="13"/>
@@ -27277,7 +27326,7 @@
       <c r="AB377" s="13"/>
       <c r="AC377" s="13"/>
     </row>
-    <row r="378" spans="1:29" ht="13.2">
+    <row r="378" spans="1:29" ht="12.75">
       <c r="A378" s="12"/>
       <c r="I378" s="13"/>
       <c r="J378" s="13"/>
@@ -27301,7 +27350,7 @@
       <c r="AB378" s="13"/>
       <c r="AC378" s="13"/>
     </row>
-    <row r="379" spans="1:29" ht="13.2">
+    <row r="379" spans="1:29" ht="12.75">
       <c r="A379" s="12"/>
       <c r="I379" s="13"/>
       <c r="J379" s="13"/>
@@ -27325,7 +27374,7 @@
       <c r="AB379" s="13"/>
       <c r="AC379" s="13"/>
     </row>
-    <row r="380" spans="1:29" ht="13.2">
+    <row r="380" spans="1:29" ht="12.75">
       <c r="A380" s="12"/>
       <c r="I380" s="13"/>
       <c r="J380" s="13"/>
@@ -27349,7 +27398,7 @@
       <c r="AB380" s="13"/>
       <c r="AC380" s="13"/>
     </row>
-    <row r="381" spans="1:29" ht="13.2">
+    <row r="381" spans="1:29" ht="12.75">
       <c r="A381" s="12"/>
       <c r="I381" s="13"/>
       <c r="J381" s="13"/>
@@ -27373,7 +27422,7 @@
       <c r="AB381" s="13"/>
       <c r="AC381" s="13"/>
     </row>
-    <row r="382" spans="1:29" ht="13.2">
+    <row r="382" spans="1:29" ht="12.75">
       <c r="A382" s="12"/>
       <c r="I382" s="13"/>
       <c r="J382" s="13"/>
@@ -27397,7 +27446,7 @@
       <c r="AB382" s="13"/>
       <c r="AC382" s="13"/>
     </row>
-    <row r="383" spans="1:29" ht="13.2">
+    <row r="383" spans="1:29" ht="12.75">
       <c r="A383" s="12"/>
       <c r="I383" s="13"/>
       <c r="J383" s="13"/>
@@ -27421,7 +27470,7 @@
       <c r="AB383" s="13"/>
       <c r="AC383" s="13"/>
     </row>
-    <row r="384" spans="1:29" ht="13.2">
+    <row r="384" spans="1:29" ht="12.75">
       <c r="A384" s="12"/>
       <c r="I384" s="13"/>
       <c r="J384" s="13"/>
@@ -27445,7 +27494,7 @@
       <c r="AB384" s="13"/>
       <c r="AC384" s="13"/>
     </row>
-    <row r="385" spans="1:29" ht="13.2">
+    <row r="385" spans="1:29" ht="12.75">
       <c r="A385" s="12"/>
       <c r="I385" s="13"/>
       <c r="J385" s="13"/>
@@ -27469,7 +27518,7 @@
       <c r="AB385" s="13"/>
       <c r="AC385" s="13"/>
     </row>
-    <row r="386" spans="1:29" ht="13.2">
+    <row r="386" spans="1:29" ht="12.75">
       <c r="A386" s="12"/>
       <c r="I386" s="13"/>
       <c r="J386" s="13"/>
@@ -27493,7 +27542,7 @@
       <c r="AB386" s="13"/>
       <c r="AC386" s="13"/>
     </row>
-    <row r="387" spans="1:29" ht="13.2">
+    <row r="387" spans="1:29" ht="12.75">
       <c r="A387" s="12"/>
       <c r="I387" s="13"/>
       <c r="J387" s="13"/>
@@ -27517,7 +27566,7 @@
       <c r="AB387" s="13"/>
       <c r="AC387" s="13"/>
     </row>
-    <row r="388" spans="1:29" ht="13.2">
+    <row r="388" spans="1:29" ht="12.75">
       <c r="A388" s="12"/>
       <c r="I388" s="13"/>
       <c r="J388" s="13"/>
@@ -27541,7 +27590,7 @@
       <c r="AB388" s="13"/>
       <c r="AC388" s="13"/>
     </row>
-    <row r="389" spans="1:29" ht="13.2">
+    <row r="389" spans="1:29" ht="12.75">
       <c r="A389" s="12"/>
       <c r="I389" s="13"/>
       <c r="J389" s="13"/>
@@ -27565,7 +27614,7 @@
       <c r="AB389" s="13"/>
       <c r="AC389" s="13"/>
     </row>
-    <row r="390" spans="1:29" ht="13.2">
+    <row r="390" spans="1:29" ht="12.75">
       <c r="A390" s="12"/>
       <c r="I390" s="13"/>
       <c r="J390" s="13"/>
@@ -27589,7 +27638,7 @@
       <c r="AB390" s="13"/>
       <c r="AC390" s="13"/>
     </row>
-    <row r="391" spans="1:29" ht="13.2">
+    <row r="391" spans="1:29" ht="12.75">
       <c r="A391" s="12"/>
       <c r="I391" s="13"/>
       <c r="J391" s="13"/>
@@ -27613,7 +27662,7 @@
       <c r="AB391" s="13"/>
       <c r="AC391" s="13"/>
     </row>
-    <row r="392" spans="1:29" ht="13.2">
+    <row r="392" spans="1:29" ht="12.75">
       <c r="A392" s="12"/>
       <c r="I392" s="13"/>
       <c r="J392" s="13"/>
@@ -27637,7 +27686,7 @@
       <c r="AB392" s="13"/>
       <c r="AC392" s="13"/>
     </row>
-    <row r="393" spans="1:29" ht="13.2">
+    <row r="393" spans="1:29" ht="12.75">
       <c r="A393" s="12"/>
       <c r="I393" s="13"/>
       <c r="J393" s="13"/>
@@ -27661,7 +27710,7 @@
       <c r="AB393" s="13"/>
       <c r="AC393" s="13"/>
     </row>
-    <row r="394" spans="1:29" ht="13.2">
+    <row r="394" spans="1:29" ht="12.75">
       <c r="A394" s="12"/>
       <c r="I394" s="13"/>
       <c r="J394" s="13"/>
@@ -27685,7 +27734,7 @@
       <c r="AB394" s="13"/>
       <c r="AC394" s="13"/>
     </row>
-    <row r="395" spans="1:29" ht="13.2">
+    <row r="395" spans="1:29" ht="12.75">
       <c r="A395" s="12"/>
       <c r="I395" s="13"/>
       <c r="J395" s="13"/>
@@ -27709,7 +27758,7 @@
       <c r="AB395" s="13"/>
       <c r="AC395" s="13"/>
     </row>
-    <row r="396" spans="1:29" ht="13.2">
+    <row r="396" spans="1:29" ht="12.75">
       <c r="A396" s="12"/>
       <c r="I396" s="13"/>
       <c r="J396" s="13"/>
@@ -27733,7 +27782,7 @@
       <c r="AB396" s="13"/>
       <c r="AC396" s="13"/>
     </row>
-    <row r="397" spans="1:29" ht="13.2">
+    <row r="397" spans="1:29" ht="12.75">
       <c r="A397" s="12"/>
       <c r="I397" s="13"/>
       <c r="J397" s="13"/>
@@ -27757,7 +27806,7 @@
       <c r="AB397" s="13"/>
       <c r="AC397" s="13"/>
     </row>
-    <row r="398" spans="1:29" ht="13.2">
+    <row r="398" spans="1:29" ht="12.75">
       <c r="A398" s="12"/>
       <c r="I398" s="13"/>
       <c r="J398" s="13"/>
@@ -27781,7 +27830,7 @@
       <c r="AB398" s="13"/>
       <c r="AC398" s="13"/>
     </row>
-    <row r="399" spans="1:29" ht="13.2">
+    <row r="399" spans="1:29" ht="12.75">
       <c r="A399" s="12"/>
       <c r="I399" s="13"/>
       <c r="J399" s="13"/>
@@ -27805,7 +27854,7 @@
       <c r="AB399" s="13"/>
       <c r="AC399" s="13"/>
     </row>
-    <row r="400" spans="1:29" ht="13.2">
+    <row r="400" spans="1:29" ht="12.75">
       <c r="A400" s="12"/>
       <c r="I400" s="13"/>
       <c r="J400" s="13"/>
@@ -27829,7 +27878,7 @@
       <c r="AB400" s="13"/>
       <c r="AC400" s="13"/>
     </row>
-    <row r="401" spans="1:29" ht="13.2">
+    <row r="401" spans="1:29" ht="12.75">
       <c r="A401" s="12"/>
       <c r="I401" s="13"/>
       <c r="J401" s="13"/>
@@ -27853,7 +27902,7 @@
       <c r="AB401" s="13"/>
       <c r="AC401" s="13"/>
     </row>
-    <row r="402" spans="1:29" ht="13.2">
+    <row r="402" spans="1:29" ht="12.75">
       <c r="A402" s="12"/>
       <c r="I402" s="13"/>
       <c r="J402" s="13"/>
@@ -27877,7 +27926,7 @@
       <c r="AB402" s="13"/>
       <c r="AC402" s="13"/>
     </row>
-    <row r="403" spans="1:29" ht="13.2">
+    <row r="403" spans="1:29" ht="12.75">
       <c r="A403" s="12"/>
       <c r="I403" s="13"/>
       <c r="J403" s="13"/>
@@ -27901,7 +27950,7 @@
       <c r="AB403" s="13"/>
       <c r="AC403" s="13"/>
     </row>
-    <row r="404" spans="1:29" ht="13.2">
+    <row r="404" spans="1:29" ht="12.75">
       <c r="A404" s="12"/>
       <c r="I404" s="13"/>
       <c r="J404" s="13"/>
@@ -27925,7 +27974,7 @@
       <c r="AB404" s="13"/>
       <c r="AC404" s="13"/>
     </row>
-    <row r="405" spans="1:29" ht="13.2">
+    <row r="405" spans="1:29" ht="12.75">
       <c r="A405" s="12"/>
       <c r="I405" s="13"/>
       <c r="J405" s="13"/>
@@ -27949,7 +27998,7 @@
       <c r="AB405" s="13"/>
       <c r="AC405" s="13"/>
     </row>
-    <row r="406" spans="1:29" ht="13.2">
+    <row r="406" spans="1:29" ht="12.75">
       <c r="A406" s="12"/>
       <c r="I406" s="13"/>
       <c r="J406" s="13"/>
@@ -27973,7 +28022,7 @@
       <c r="AB406" s="13"/>
       <c r="AC406" s="13"/>
     </row>
-    <row r="407" spans="1:29" ht="13.2">
+    <row r="407" spans="1:29" ht="12.75">
       <c r="A407" s="12"/>
       <c r="I407" s="13"/>
       <c r="J407" s="13"/>
@@ -27997,7 +28046,7 @@
       <c r="AB407" s="13"/>
       <c r="AC407" s="13"/>
     </row>
-    <row r="408" spans="1:29" ht="13.2">
+    <row r="408" spans="1:29" ht="12.75">
       <c r="A408" s="12"/>
       <c r="I408" s="13"/>
       <c r="J408" s="13"/>
@@ -28021,7 +28070,7 @@
       <c r="AB408" s="13"/>
       <c r="AC408" s="13"/>
     </row>
-    <row r="409" spans="1:29" ht="13.2">
+    <row r="409" spans="1:29" ht="12.75">
       <c r="A409" s="12"/>
       <c r="I409" s="13"/>
       <c r="J409" s="13"/>
@@ -28045,7 +28094,7 @@
       <c r="AB409" s="13"/>
       <c r="AC409" s="13"/>
     </row>
-    <row r="410" spans="1:29" ht="13.2">
+    <row r="410" spans="1:29" ht="12.75">
       <c r="A410" s="12"/>
       <c r="I410" s="13"/>
       <c r="J410" s="13"/>
@@ -28069,7 +28118,7 @@
       <c r="AB410" s="13"/>
       <c r="AC410" s="13"/>
     </row>
-    <row r="411" spans="1:29" ht="13.2">
+    <row r="411" spans="1:29" ht="12.75">
       <c r="A411" s="12"/>
       <c r="I411" s="13"/>
       <c r="J411" s="13"/>
@@ -28093,7 +28142,7 @@
       <c r="AB411" s="13"/>
       <c r="AC411" s="13"/>
     </row>
-    <row r="412" spans="1:29" ht="13.2">
+    <row r="412" spans="1:29" ht="12.75">
       <c r="A412" s="12"/>
       <c r="I412" s="13"/>
       <c r="J412" s="13"/>
@@ -28117,7 +28166,7 @@
       <c r="AB412" s="13"/>
       <c r="AC412" s="13"/>
     </row>
-    <row r="413" spans="1:29" ht="13.2">
+    <row r="413" spans="1:29" ht="12.75">
       <c r="A413" s="12"/>
       <c r="I413" s="13"/>
       <c r="J413" s="13"/>
@@ -28141,7 +28190,7 @@
       <c r="AB413" s="13"/>
       <c r="AC413" s="13"/>
     </row>
-    <row r="414" spans="1:29" ht="13.2">
+    <row r="414" spans="1:29" ht="12.75">
       <c r="A414" s="12"/>
       <c r="I414" s="13"/>
       <c r="J414" s="13"/>
@@ -28165,7 +28214,7 @@
       <c r="AB414" s="13"/>
       <c r="AC414" s="13"/>
     </row>
-    <row r="415" spans="1:29" ht="13.2">
+    <row r="415" spans="1:29" ht="12.75">
       <c r="A415" s="12"/>
       <c r="I415" s="13"/>
       <c r="J415" s="13"/>
@@ -28189,7 +28238,7 @@
       <c r="AB415" s="13"/>
       <c r="AC415" s="13"/>
     </row>
-    <row r="416" spans="1:29" ht="13.2">
+    <row r="416" spans="1:29" ht="12.75">
       <c r="A416" s="12"/>
       <c r="I416" s="13"/>
       <c r="J416" s="13"/>
@@ -28213,7 +28262,7 @@
       <c r="AB416" s="13"/>
       <c r="AC416" s="13"/>
     </row>
-    <row r="417" spans="1:29" ht="13.2">
+    <row r="417" spans="1:29" ht="12.75">
       <c r="A417" s="12"/>
       <c r="I417" s="13"/>
       <c r="J417" s="13"/>
@@ -28237,7 +28286,7 @@
       <c r="AB417" s="13"/>
       <c r="AC417" s="13"/>
     </row>
-    <row r="418" spans="1:29" ht="13.2">
+    <row r="418" spans="1:29" ht="12.75">
       <c r="A418" s="12"/>
       <c r="I418" s="13"/>
       <c r="J418" s="13"/>
@@ -28261,7 +28310,7 @@
       <c r="AB418" s="13"/>
       <c r="AC418" s="13"/>
     </row>
-    <row r="419" spans="1:29" ht="13.2">
+    <row r="419" spans="1:29" ht="12.75">
       <c r="A419" s="12"/>
       <c r="I419" s="13"/>
       <c r="J419" s="13"/>
@@ -28285,7 +28334,7 @@
       <c r="AB419" s="13"/>
       <c r="AC419" s="13"/>
     </row>
-    <row r="420" spans="1:29" ht="13.2">
+    <row r="420" spans="1:29" ht="12.75">
       <c r="A420" s="12"/>
       <c r="I420" s="13"/>
       <c r="J420" s="13"/>
@@ -28309,7 +28358,7 @@
       <c r="AB420" s="13"/>
       <c r="AC420" s="13"/>
     </row>
-    <row r="421" spans="1:29" ht="13.2">
+    <row r="421" spans="1:29" ht="12.75">
       <c r="A421" s="12"/>
       <c r="I421" s="13"/>
       <c r="J421" s="13"/>
@@ -28333,7 +28382,7 @@
       <c r="AB421" s="13"/>
       <c r="AC421" s="13"/>
     </row>
-    <row r="422" spans="1:29" ht="13.2">
+    <row r="422" spans="1:29" ht="12.75">
       <c r="A422" s="12"/>
       <c r="I422" s="13"/>
       <c r="J422" s="13"/>
@@ -28357,583 +28406,583 @@
       <c r="AB422" s="13"/>
       <c r="AC422" s="13"/>
     </row>
-    <row r="423" spans="1:29" ht="13.2"/>
-    <row r="424" spans="1:29" ht="13.2"/>
-    <row r="425" spans="1:29" ht="13.2"/>
-    <row r="426" spans="1:29" ht="13.2"/>
-    <row r="427" spans="1:29" ht="13.2"/>
-    <row r="428" spans="1:29" ht="13.2"/>
-    <row r="429" spans="1:29" ht="13.2"/>
-    <row r="430" spans="1:29" ht="13.2"/>
-    <row r="431" spans="1:29" ht="13.2"/>
-    <row r="432" spans="1:29" ht="13.2"/>
-    <row r="433" ht="13.2"/>
-    <row r="434" ht="13.2"/>
-    <row r="435" ht="13.2"/>
-    <row r="436" ht="13.2"/>
-    <row r="437" ht="13.2"/>
-    <row r="438" ht="13.2"/>
-    <row r="439" ht="13.2"/>
-    <row r="440" ht="13.2"/>
-    <row r="441" ht="13.2"/>
-    <row r="442" ht="13.2"/>
-    <row r="443" ht="13.2"/>
-    <row r="444" ht="13.2"/>
-    <row r="445" ht="13.2"/>
-    <row r="446" ht="13.2"/>
-    <row r="447" ht="13.2"/>
-    <row r="448" ht="13.2"/>
-    <row r="449" ht="13.2"/>
-    <row r="450" ht="13.2"/>
-    <row r="451" ht="13.2"/>
-    <row r="452" ht="13.2"/>
-    <row r="453" ht="13.2"/>
-    <row r="454" ht="13.2"/>
-    <row r="455" ht="13.2"/>
-    <row r="456" ht="13.2"/>
-    <row r="457" ht="13.2"/>
-    <row r="458" ht="13.2"/>
-    <row r="459" ht="13.2"/>
-    <row r="460" ht="13.2"/>
-    <row r="461" ht="13.2"/>
-    <row r="462" ht="13.2"/>
-    <row r="463" ht="13.2"/>
-    <row r="464" ht="13.2"/>
-    <row r="465" ht="13.2"/>
-    <row r="466" ht="13.2"/>
-    <row r="467" ht="13.2"/>
-    <row r="468" ht="13.2"/>
-    <row r="469" ht="13.2"/>
-    <row r="470" ht="13.2"/>
-    <row r="471" ht="13.2"/>
-    <row r="472" ht="13.2"/>
-    <row r="473" ht="13.2"/>
-    <row r="474" ht="13.2"/>
-    <row r="475" ht="13.2"/>
-    <row r="476" ht="13.2"/>
-    <row r="477" ht="13.2"/>
-    <row r="478" ht="13.2"/>
-    <row r="479" ht="13.2"/>
-    <row r="480" ht="13.2"/>
-    <row r="481" ht="13.2"/>
-    <row r="482" ht="13.2"/>
-    <row r="483" ht="13.2"/>
-    <row r="484" ht="13.2"/>
-    <row r="485" ht="13.2"/>
-    <row r="486" ht="13.2"/>
-    <row r="487" ht="13.2"/>
-    <row r="488" ht="13.2"/>
-    <row r="489" ht="13.2"/>
-    <row r="490" ht="13.2"/>
-    <row r="491" ht="13.2"/>
-    <row r="492" ht="13.2"/>
-    <row r="493" ht="13.2"/>
-    <row r="494" ht="13.2"/>
-    <row r="495" ht="13.2"/>
-    <row r="496" ht="13.2"/>
-    <row r="497" ht="13.2"/>
-    <row r="498" ht="13.2"/>
-    <row r="499" ht="13.2"/>
-    <row r="500" ht="13.2"/>
-    <row r="501" ht="13.2"/>
-    <row r="502" ht="13.2"/>
-    <row r="503" ht="13.2"/>
-    <row r="504" ht="13.2"/>
-    <row r="505" ht="13.2"/>
-    <row r="506" ht="13.2"/>
-    <row r="507" ht="13.2"/>
-    <row r="508" ht="13.2"/>
-    <row r="509" ht="13.2"/>
-    <row r="510" ht="13.2"/>
-    <row r="511" ht="13.2"/>
-    <row r="512" ht="13.2"/>
-    <row r="513" ht="13.2"/>
-    <row r="514" ht="13.2"/>
-    <row r="515" ht="13.2"/>
-    <row r="516" ht="13.2"/>
-    <row r="517" ht="13.2"/>
-    <row r="518" ht="13.2"/>
-    <row r="519" ht="13.2"/>
-    <row r="520" ht="13.2"/>
-    <row r="521" ht="13.2"/>
-    <row r="522" ht="13.2"/>
-    <row r="523" ht="13.2"/>
-    <row r="524" ht="13.2"/>
-    <row r="525" ht="13.2"/>
-    <row r="526" ht="13.2"/>
-    <row r="527" ht="13.2"/>
-    <row r="528" ht="13.2"/>
-    <row r="529" ht="13.2"/>
-    <row r="530" ht="13.2"/>
-    <row r="531" ht="13.2"/>
-    <row r="532" ht="13.2"/>
-    <row r="533" ht="13.2"/>
-    <row r="534" ht="13.2"/>
-    <row r="535" ht="13.2"/>
-    <row r="536" ht="13.2"/>
-    <row r="537" ht="13.2"/>
-    <row r="538" ht="13.2"/>
-    <row r="539" ht="13.2"/>
-    <row r="540" ht="13.2"/>
-    <row r="541" ht="13.2"/>
-    <row r="542" ht="13.2"/>
-    <row r="543" ht="13.2"/>
-    <row r="544" ht="13.2"/>
-    <row r="545" ht="13.2"/>
-    <row r="546" ht="13.2"/>
-    <row r="547" ht="13.2"/>
-    <row r="548" ht="13.2"/>
-    <row r="549" ht="13.2"/>
-    <row r="550" ht="13.2"/>
-    <row r="551" ht="13.2"/>
-    <row r="552" ht="13.2"/>
-    <row r="553" ht="13.2"/>
-    <row r="554" ht="13.2"/>
-    <row r="555" ht="13.2"/>
-    <row r="556" ht="13.2"/>
-    <row r="557" ht="13.2"/>
-    <row r="558" ht="13.2"/>
-    <row r="559" ht="13.2"/>
-    <row r="560" ht="13.2"/>
-    <row r="561" ht="13.2"/>
-    <row r="562" ht="13.2"/>
-    <row r="563" ht="13.2"/>
-    <row r="564" ht="13.2"/>
-    <row r="565" ht="13.2"/>
-    <row r="566" ht="13.2"/>
-    <row r="567" ht="13.2"/>
-    <row r="568" ht="13.2"/>
-    <row r="569" ht="13.2"/>
-    <row r="570" ht="13.2"/>
-    <row r="571" ht="13.2"/>
-    <row r="572" ht="13.2"/>
-    <row r="573" ht="13.2"/>
-    <row r="574" ht="13.2"/>
-    <row r="575" ht="13.2"/>
-    <row r="576" ht="13.2"/>
-    <row r="577" ht="13.2"/>
-    <row r="578" ht="13.2"/>
-    <row r="579" ht="13.2"/>
-    <row r="580" ht="13.2"/>
-    <row r="581" ht="13.2"/>
-    <row r="582" ht="13.2"/>
-    <row r="583" ht="13.2"/>
-    <row r="584" ht="13.2"/>
-    <row r="585" ht="13.2"/>
-    <row r="586" ht="13.2"/>
-    <row r="587" ht="13.2"/>
-    <row r="588" ht="13.2"/>
-    <row r="589" ht="13.2"/>
-    <row r="590" ht="13.2"/>
-    <row r="591" ht="13.2"/>
-    <row r="592" ht="13.2"/>
-    <row r="593" ht="13.2"/>
-    <row r="594" ht="13.2"/>
-    <row r="595" ht="13.2"/>
-    <row r="596" ht="13.2"/>
-    <row r="597" ht="13.2"/>
-    <row r="598" ht="13.2"/>
-    <row r="599" ht="13.2"/>
-    <row r="600" ht="13.2"/>
-    <row r="601" ht="13.2"/>
-    <row r="602" ht="13.2"/>
-    <row r="603" ht="13.2"/>
-    <row r="604" ht="13.2"/>
-    <row r="605" ht="13.2"/>
-    <row r="606" ht="13.2"/>
-    <row r="607" ht="13.2"/>
-    <row r="608" ht="13.2"/>
-    <row r="609" ht="13.2"/>
-    <row r="610" ht="13.2"/>
-    <row r="611" ht="13.2"/>
-    <row r="612" ht="13.2"/>
-    <row r="613" ht="13.2"/>
-    <row r="614" ht="13.2"/>
-    <row r="615" ht="13.2"/>
-    <row r="616" ht="13.2"/>
-    <row r="617" ht="13.2"/>
-    <row r="618" ht="13.2"/>
-    <row r="619" ht="13.2"/>
-    <row r="620" ht="13.2"/>
-    <row r="621" ht="13.2"/>
-    <row r="622" ht="13.2"/>
-    <row r="623" ht="13.2"/>
-    <row r="624" ht="13.2"/>
-    <row r="625" ht="13.2"/>
-    <row r="626" ht="13.2"/>
-    <row r="627" ht="13.2"/>
-    <row r="628" ht="13.2"/>
-    <row r="629" ht="13.2"/>
-    <row r="630" ht="13.2"/>
-    <row r="631" ht="13.2"/>
-    <row r="632" ht="13.2"/>
-    <row r="633" ht="13.2"/>
-    <row r="634" ht="13.2"/>
-    <row r="635" ht="13.2"/>
-    <row r="636" ht="13.2"/>
-    <row r="637" ht="13.2"/>
-    <row r="638" ht="13.2"/>
-    <row r="639" ht="13.2"/>
-    <row r="640" ht="13.2"/>
-    <row r="641" ht="13.2"/>
-    <row r="642" ht="13.2"/>
-    <row r="643" ht="13.2"/>
-    <row r="644" ht="13.2"/>
-    <row r="645" ht="13.2"/>
-    <row r="646" ht="13.2"/>
-    <row r="647" ht="13.2"/>
-    <row r="648" ht="13.2"/>
-    <row r="649" ht="13.2"/>
-    <row r="650" ht="13.2"/>
-    <row r="651" ht="13.2"/>
-    <row r="652" ht="13.2"/>
-    <row r="653" ht="13.2"/>
-    <row r="654" ht="13.2"/>
-    <row r="655" ht="13.2"/>
-    <row r="656" ht="13.2"/>
-    <row r="657" ht="13.2"/>
-    <row r="658" ht="13.2"/>
-    <row r="659" ht="13.2"/>
-    <row r="660" ht="13.2"/>
-    <row r="661" ht="13.2"/>
-    <row r="662" ht="13.2"/>
-    <row r="663" ht="13.2"/>
-    <row r="664" ht="13.2"/>
-    <row r="665" ht="13.2"/>
-    <row r="666" ht="13.2"/>
-    <row r="667" ht="13.2"/>
-    <row r="668" ht="13.2"/>
-    <row r="669" ht="13.2"/>
-    <row r="670" ht="13.2"/>
-    <row r="671" ht="13.2"/>
-    <row r="672" ht="13.2"/>
-    <row r="673" ht="13.2"/>
-    <row r="674" ht="13.2"/>
-    <row r="675" ht="13.2"/>
-    <row r="676" ht="13.2"/>
-    <row r="677" ht="13.2"/>
-    <row r="678" ht="13.2"/>
-    <row r="679" ht="13.2"/>
-    <row r="680" ht="13.2"/>
-    <row r="681" ht="13.2"/>
-    <row r="682" ht="13.2"/>
-    <row r="683" ht="13.2"/>
-    <row r="684" ht="13.2"/>
-    <row r="685" ht="13.2"/>
-    <row r="686" ht="13.2"/>
-    <row r="687" ht="13.2"/>
-    <row r="688" ht="13.2"/>
-    <row r="689" ht="13.2"/>
-    <row r="690" ht="13.2"/>
-    <row r="691" ht="13.2"/>
-    <row r="692" ht="13.2"/>
-    <row r="693" ht="13.2"/>
-    <row r="694" ht="13.2"/>
-    <row r="695" ht="13.2"/>
-    <row r="696" ht="13.2"/>
-    <row r="697" ht="13.2"/>
-    <row r="698" ht="13.2"/>
-    <row r="699" ht="13.2"/>
-    <row r="700" ht="13.2"/>
-    <row r="701" ht="13.2"/>
-    <row r="702" ht="13.2"/>
-    <row r="703" ht="13.2"/>
-    <row r="704" ht="13.2"/>
-    <row r="705" ht="13.2"/>
-    <row r="706" ht="13.2"/>
-    <row r="707" ht="13.2"/>
-    <row r="708" ht="13.2"/>
-    <row r="709" ht="13.2"/>
-    <row r="710" ht="13.2"/>
-    <row r="711" ht="13.2"/>
-    <row r="712" ht="13.2"/>
-    <row r="713" ht="13.2"/>
-    <row r="714" ht="13.2"/>
-    <row r="715" ht="13.2"/>
-    <row r="716" ht="13.2"/>
-    <row r="717" ht="13.2"/>
-    <row r="718" ht="13.2"/>
-    <row r="719" ht="13.2"/>
-    <row r="720" ht="13.2"/>
-    <row r="721" ht="13.2"/>
-    <row r="722" ht="13.2"/>
-    <row r="723" ht="13.2"/>
-    <row r="724" ht="13.2"/>
-    <row r="725" ht="13.2"/>
-    <row r="726" ht="13.2"/>
-    <row r="727" ht="13.2"/>
-    <row r="728" ht="13.2"/>
-    <row r="729" ht="13.2"/>
-    <row r="730" ht="13.2"/>
-    <row r="731" ht="13.2"/>
-    <row r="732" ht="13.2"/>
-    <row r="733" ht="13.2"/>
-    <row r="734" ht="13.2"/>
-    <row r="735" ht="13.2"/>
-    <row r="736" ht="13.2"/>
-    <row r="737" ht="13.2"/>
-    <row r="738" ht="13.2"/>
-    <row r="739" ht="13.2"/>
-    <row r="740" ht="13.2"/>
-    <row r="741" ht="13.2"/>
-    <row r="742" ht="13.2"/>
-    <row r="743" ht="13.2"/>
-    <row r="744" ht="13.2"/>
-    <row r="745" ht="13.2"/>
-    <row r="746" ht="13.2"/>
-    <row r="747" ht="13.2"/>
-    <row r="748" ht="13.2"/>
-    <row r="749" ht="13.2"/>
-    <row r="750" ht="13.2"/>
-    <row r="751" ht="13.2"/>
-    <row r="752" ht="13.2"/>
-    <row r="753" ht="13.2"/>
-    <row r="754" ht="13.2"/>
-    <row r="755" ht="13.2"/>
-    <row r="756" ht="13.2"/>
-    <row r="757" ht="13.2"/>
-    <row r="758" ht="13.2"/>
-    <row r="759" ht="13.2"/>
-    <row r="760" ht="13.2"/>
-    <row r="761" ht="13.2"/>
-    <row r="762" ht="13.2"/>
-    <row r="763" ht="13.2"/>
-    <row r="764" ht="13.2"/>
-    <row r="765" ht="13.2"/>
-    <row r="766" ht="13.2"/>
-    <row r="767" ht="13.2"/>
-    <row r="768" ht="13.2"/>
-    <row r="769" ht="13.2"/>
-    <row r="770" ht="13.2"/>
-    <row r="771" ht="13.2"/>
-    <row r="772" ht="13.2"/>
-    <row r="773" ht="13.2"/>
-    <row r="774" ht="13.2"/>
-    <row r="775" ht="13.2"/>
-    <row r="776" ht="13.2"/>
-    <row r="777" ht="13.2"/>
-    <row r="778" ht="13.2"/>
-    <row r="779" ht="13.2"/>
-    <row r="780" ht="13.2"/>
-    <row r="781" ht="13.2"/>
-    <row r="782" ht="13.2"/>
-    <row r="783" ht="13.2"/>
-    <row r="784" ht="13.2"/>
-    <row r="785" ht="13.2"/>
-    <row r="786" ht="13.2"/>
-    <row r="787" ht="13.2"/>
-    <row r="788" ht="13.2"/>
-    <row r="789" ht="13.2"/>
-    <row r="790" ht="13.2"/>
-    <row r="791" ht="13.2"/>
-    <row r="792" ht="13.2"/>
-    <row r="793" ht="13.2"/>
-    <row r="794" ht="13.2"/>
-    <row r="795" ht="13.2"/>
-    <row r="796" ht="13.2"/>
-    <row r="797" ht="13.2"/>
-    <row r="798" ht="13.2"/>
-    <row r="799" ht="13.2"/>
-    <row r="800" ht="13.2"/>
-    <row r="801" ht="13.2"/>
-    <row r="802" ht="13.2"/>
-    <row r="803" ht="13.2"/>
-    <row r="804" ht="13.2"/>
-    <row r="805" ht="13.2"/>
-    <row r="806" ht="13.2"/>
-    <row r="807" ht="13.2"/>
-    <row r="808" ht="13.2"/>
-    <row r="809" ht="13.2"/>
-    <row r="810" ht="13.2"/>
-    <row r="811" ht="13.2"/>
-    <row r="812" ht="13.2"/>
-    <row r="813" ht="13.2"/>
-    <row r="814" ht="13.2"/>
-    <row r="815" ht="13.2"/>
-    <row r="816" ht="13.2"/>
-    <row r="817" ht="13.2"/>
-    <row r="818" ht="13.2"/>
-    <row r="819" ht="13.2"/>
-    <row r="820" ht="13.2"/>
-    <row r="821" ht="13.2"/>
-    <row r="822" ht="13.2"/>
-    <row r="823" ht="13.2"/>
-    <row r="824" ht="13.2"/>
-    <row r="825" ht="13.2"/>
-    <row r="826" ht="13.2"/>
-    <row r="827" ht="13.2"/>
-    <row r="828" ht="13.2"/>
-    <row r="829" ht="13.2"/>
-    <row r="830" ht="13.2"/>
-    <row r="831" ht="13.2"/>
-    <row r="832" ht="13.2"/>
-    <row r="833" ht="13.2"/>
-    <row r="834" ht="13.2"/>
-    <row r="835" ht="13.2"/>
-    <row r="836" ht="13.2"/>
-    <row r="837" ht="13.2"/>
-    <row r="838" ht="13.2"/>
-    <row r="839" ht="13.2"/>
-    <row r="840" ht="13.2"/>
-    <row r="841" ht="13.2"/>
-    <row r="842" ht="13.2"/>
-    <row r="843" ht="13.2"/>
-    <row r="844" ht="13.2"/>
-    <row r="845" ht="13.2"/>
-    <row r="846" ht="13.2"/>
-    <row r="847" ht="13.2"/>
-    <row r="848" ht="13.2"/>
-    <row r="849" ht="13.2"/>
-    <row r="850" ht="13.2"/>
-    <row r="851" ht="13.2"/>
-    <row r="852" ht="13.2"/>
-    <row r="853" ht="13.2"/>
-    <row r="854" ht="13.2"/>
-    <row r="855" ht="13.2"/>
-    <row r="856" ht="13.2"/>
-    <row r="857" ht="13.2"/>
-    <row r="858" ht="13.2"/>
-    <row r="859" ht="13.2"/>
-    <row r="860" ht="13.2"/>
-    <row r="861" ht="13.2"/>
-    <row r="862" ht="13.2"/>
-    <row r="863" ht="13.2"/>
-    <row r="864" ht="13.2"/>
-    <row r="865" ht="13.2"/>
-    <row r="866" ht="13.2"/>
-    <row r="867" ht="13.2"/>
-    <row r="868" ht="13.2"/>
-    <row r="869" ht="13.2"/>
-    <row r="870" ht="13.2"/>
-    <row r="871" ht="13.2"/>
-    <row r="872" ht="13.2"/>
-    <row r="873" ht="13.2"/>
-    <row r="874" ht="13.2"/>
-    <row r="875" ht="13.2"/>
-    <row r="876" ht="13.2"/>
-    <row r="877" ht="13.2"/>
-    <row r="878" ht="13.2"/>
-    <row r="879" ht="13.2"/>
-    <row r="880" ht="13.2"/>
-    <row r="881" ht="13.2"/>
-    <row r="882" ht="13.2"/>
-    <row r="883" ht="13.2"/>
-    <row r="884" ht="13.2"/>
-    <row r="885" ht="13.2"/>
-    <row r="886" ht="13.2"/>
-    <row r="887" ht="13.2"/>
-    <row r="888" ht="13.2"/>
-    <row r="889" ht="13.2"/>
-    <row r="890" ht="13.2"/>
-    <row r="891" ht="13.2"/>
-    <row r="892" ht="13.2"/>
-    <row r="893" ht="13.2"/>
-    <row r="894" ht="13.2"/>
-    <row r="895" ht="13.2"/>
-    <row r="896" ht="13.2"/>
-    <row r="897" ht="13.2"/>
-    <row r="898" ht="13.2"/>
-    <row r="899" ht="13.2"/>
-    <row r="900" ht="13.2"/>
-    <row r="901" ht="13.2"/>
-    <row r="902" ht="13.2"/>
-    <row r="903" ht="13.2"/>
-    <row r="904" ht="13.2"/>
-    <row r="905" ht="13.2"/>
-    <row r="906" ht="13.2"/>
-    <row r="907" ht="13.2"/>
-    <row r="908" ht="13.2"/>
-    <row r="909" ht="13.2"/>
-    <row r="910" ht="13.2"/>
-    <row r="911" ht="13.2"/>
-    <row r="912" ht="13.2"/>
-    <row r="913" ht="13.2"/>
-    <row r="914" ht="13.2"/>
-    <row r="915" ht="13.2"/>
-    <row r="916" ht="13.2"/>
-    <row r="917" ht="13.2"/>
-    <row r="918" ht="13.2"/>
-    <row r="919" ht="13.2"/>
-    <row r="920" ht="13.2"/>
-    <row r="921" ht="13.2"/>
-    <row r="922" ht="13.2"/>
-    <row r="923" ht="13.2"/>
-    <row r="924" ht="13.2"/>
-    <row r="925" ht="13.2"/>
-    <row r="926" ht="13.2"/>
-    <row r="927" ht="13.2"/>
-    <row r="928" ht="13.2"/>
-    <row r="929" ht="13.2"/>
-    <row r="930" ht="13.2"/>
-    <row r="931" ht="13.2"/>
-    <row r="932" ht="13.2"/>
-    <row r="933" ht="13.2"/>
-    <row r="934" ht="13.2"/>
-    <row r="935" ht="13.2"/>
-    <row r="936" ht="13.2"/>
-    <row r="937" ht="13.2"/>
-    <row r="938" ht="13.2"/>
-    <row r="939" ht="13.2"/>
-    <row r="940" ht="13.2"/>
-    <row r="941" ht="13.2"/>
-    <row r="942" ht="13.2"/>
-    <row r="943" ht="13.2"/>
-    <row r="944" ht="13.2"/>
-    <row r="945" ht="13.2"/>
-    <row r="946" ht="13.2"/>
-    <row r="947" ht="13.2"/>
-    <row r="948" ht="13.2"/>
-    <row r="949" ht="13.2"/>
-    <row r="950" ht="13.2"/>
-    <row r="951" ht="13.2"/>
-    <row r="952" ht="13.2"/>
-    <row r="953" ht="13.2"/>
-    <row r="954" ht="13.2"/>
-    <row r="955" ht="13.2"/>
-    <row r="956" ht="13.2"/>
-    <row r="957" ht="13.2"/>
-    <row r="958" ht="13.2"/>
-    <row r="959" ht="13.2"/>
-    <row r="960" ht="13.2"/>
-    <row r="961" ht="13.2"/>
-    <row r="962" ht="13.2"/>
-    <row r="963" ht="13.2"/>
-    <row r="964" ht="13.2"/>
-    <row r="965" ht="13.2"/>
-    <row r="966" ht="13.2"/>
-    <row r="967" ht="13.2"/>
-    <row r="968" ht="13.2"/>
-    <row r="969" ht="13.2"/>
-    <row r="970" ht="13.2"/>
-    <row r="971" ht="13.2"/>
-    <row r="972" ht="13.2"/>
-    <row r="973" ht="13.2"/>
-    <row r="974" ht="13.2"/>
-    <row r="975" ht="13.2"/>
-    <row r="976" ht="13.2"/>
-    <row r="977" ht="13.2"/>
-    <row r="978" ht="13.2"/>
-    <row r="979" ht="13.2"/>
-    <row r="980" ht="13.2"/>
-    <row r="981" ht="13.2"/>
-    <row r="982" ht="13.2"/>
-    <row r="983" ht="13.2"/>
-    <row r="984" ht="13.2"/>
-    <row r="985" ht="13.2"/>
-    <row r="986" ht="13.2"/>
-    <row r="987" ht="13.2"/>
-    <row r="988" ht="13.2"/>
-    <row r="989" ht="13.2"/>
-    <row r="990" ht="13.2"/>
-    <row r="991" ht="13.2"/>
-    <row r="992" ht="13.2"/>
-    <row r="993" ht="13.2"/>
-    <row r="994" ht="13.2"/>
-    <row r="995" ht="13.2"/>
-    <row r="996" ht="13.2"/>
-    <row r="997" ht="13.2"/>
-    <row r="998" ht="13.2"/>
-    <row r="999" ht="13.2"/>
+    <row r="423" spans="1:29" ht="12.75"/>
+    <row r="424" spans="1:29" ht="12.75"/>
+    <row r="425" spans="1:29" ht="12.75"/>
+    <row r="426" spans="1:29" ht="12.75"/>
+    <row r="427" spans="1:29" ht="12.75"/>
+    <row r="428" spans="1:29" ht="12.75"/>
+    <row r="429" spans="1:29" ht="12.75"/>
+    <row r="430" spans="1:29" ht="12.75"/>
+    <row r="431" spans="1:29" ht="12.75"/>
+    <row r="432" spans="1:29" ht="12.75"/>
+    <row r="433" ht="12.75"/>
+    <row r="434" ht="12.75"/>
+    <row r="435" ht="12.75"/>
+    <row r="436" ht="12.75"/>
+    <row r="437" ht="12.75"/>
+    <row r="438" ht="12.75"/>
+    <row r="439" ht="12.75"/>
+    <row r="440" ht="12.75"/>
+    <row r="441" ht="12.75"/>
+    <row r="442" ht="12.75"/>
+    <row r="443" ht="12.75"/>
+    <row r="444" ht="12.75"/>
+    <row r="445" ht="12.75"/>
+    <row r="446" ht="12.75"/>
+    <row r="447" ht="12.75"/>
+    <row r="448" ht="12.75"/>
+    <row r="449" ht="12.75"/>
+    <row r="450" ht="12.75"/>
+    <row r="451" ht="12.75"/>
+    <row r="452" ht="12.75"/>
+    <row r="453" ht="12.75"/>
+    <row r="454" ht="12.75"/>
+    <row r="455" ht="12.75"/>
+    <row r="456" ht="12.75"/>
+    <row r="457" ht="12.75"/>
+    <row r="458" ht="12.75"/>
+    <row r="459" ht="12.75"/>
+    <row r="460" ht="12.75"/>
+    <row r="461" ht="12.75"/>
+    <row r="462" ht="12.75"/>
+    <row r="463" ht="12.75"/>
+    <row r="464" ht="12.75"/>
+    <row r="465" ht="12.75"/>
+    <row r="466" ht="12.75"/>
+    <row r="467" ht="12.75"/>
+    <row r="468" ht="12.75"/>
+    <row r="469" ht="12.75"/>
+    <row r="470" ht="12.75"/>
+    <row r="471" ht="12.75"/>
+    <row r="472" ht="12.75"/>
+    <row r="473" ht="12.75"/>
+    <row r="474" ht="12.75"/>
+    <row r="475" ht="12.75"/>
+    <row r="476" ht="12.75"/>
+    <row r="477" ht="12.75"/>
+    <row r="478" ht="12.75"/>
+    <row r="479" ht="12.75"/>
+    <row r="480" ht="12.75"/>
+    <row r="481" ht="12.75"/>
+    <row r="482" ht="12.75"/>
+    <row r="483" ht="12.75"/>
+    <row r="484" ht="12.75"/>
+    <row r="485" ht="12.75"/>
+    <row r="486" ht="12.75"/>
+    <row r="487" ht="12.75"/>
+    <row r="488" ht="12.75"/>
+    <row r="489" ht="12.75"/>
+    <row r="490" ht="12.75"/>
+    <row r="491" ht="12.75"/>
+    <row r="492" ht="12.75"/>
+    <row r="493" ht="12.75"/>
+    <row r="494" ht="12.75"/>
+    <row r="495" ht="12.75"/>
+    <row r="496" ht="12.75"/>
+    <row r="497" ht="12.75"/>
+    <row r="498" ht="12.75"/>
+    <row r="499" ht="12.75"/>
+    <row r="500" ht="12.75"/>
+    <row r="501" ht="12.75"/>
+    <row r="502" ht="12.75"/>
+    <row r="503" ht="12.75"/>
+    <row r="504" ht="12.75"/>
+    <row r="505" ht="12.75"/>
+    <row r="506" ht="12.75"/>
+    <row r="507" ht="12.75"/>
+    <row r="508" ht="12.75"/>
+    <row r="509" ht="12.75"/>
+    <row r="510" ht="12.75"/>
+    <row r="511" ht="12.75"/>
+    <row r="512" ht="12.75"/>
+    <row r="513" ht="12.75"/>
+    <row r="514" ht="12.75"/>
+    <row r="515" ht="12.75"/>
+    <row r="516" ht="12.75"/>
+    <row r="517" ht="12.75"/>
+    <row r="518" ht="12.75"/>
+    <row r="519" ht="12.75"/>
+    <row r="520" ht="12.75"/>
+    <row r="521" ht="12.75"/>
+    <row r="522" ht="12.75"/>
+    <row r="523" ht="12.75"/>
+    <row r="524" ht="12.75"/>
+    <row r="525" ht="12.75"/>
+    <row r="526" ht="12.75"/>
+    <row r="527" ht="12.75"/>
+    <row r="528" ht="12.75"/>
+    <row r="529" ht="12.75"/>
+    <row r="530" ht="12.75"/>
+    <row r="531" ht="12.75"/>
+    <row r="532" ht="12.75"/>
+    <row r="533" ht="12.75"/>
+    <row r="534" ht="12.75"/>
+    <row r="535" ht="12.75"/>
+    <row r="536" ht="12.75"/>
+    <row r="537" ht="12.75"/>
+    <row r="538" ht="12.75"/>
+    <row r="539" ht="12.75"/>
+    <row r="540" ht="12.75"/>
+    <row r="541" ht="12.75"/>
+    <row r="542" ht="12.75"/>
+    <row r="543" ht="12.75"/>
+    <row r="544" ht="12.75"/>
+    <row r="545" ht="12.75"/>
+    <row r="546" ht="12.75"/>
+    <row r="547" ht="12.75"/>
+    <row r="548" ht="12.75"/>
+    <row r="549" ht="12.75"/>
+    <row r="550" ht="12.75"/>
+    <row r="551" ht="12.75"/>
+    <row r="552" ht="12.75"/>
+    <row r="553" ht="12.75"/>
+    <row r="554" ht="12.75"/>
+    <row r="555" ht="12.75"/>
+    <row r="556" ht="12.75"/>
+    <row r="557" ht="12.75"/>
+    <row r="558" ht="12.75"/>
+    <row r="559" ht="12.75"/>
+    <row r="560" ht="12.75"/>
+    <row r="561" ht="12.75"/>
+    <row r="562" ht="12.75"/>
+    <row r="563" ht="12.75"/>
+    <row r="564" ht="12.75"/>
+    <row r="565" ht="12.75"/>
+    <row r="566" ht="12.75"/>
+    <row r="567" ht="12.75"/>
+    <row r="568" ht="12.75"/>
+    <row r="569" ht="12.75"/>
+    <row r="570" ht="12.75"/>
+    <row r="571" ht="12.75"/>
+    <row r="572" ht="12.75"/>
+    <row r="573" ht="12.75"/>
+    <row r="574" ht="12.75"/>
+    <row r="575" ht="12.75"/>
+    <row r="576" ht="12.75"/>
+    <row r="577" ht="12.75"/>
+    <row r="578" ht="12.75"/>
+    <row r="579" ht="12.75"/>
+    <row r="580" ht="12.75"/>
+    <row r="581" ht="12.75"/>
+    <row r="582" ht="12.75"/>
+    <row r="583" ht="12.75"/>
+    <row r="584" ht="12.75"/>
+    <row r="585" ht="12.75"/>
+    <row r="586" ht="12.75"/>
+    <row r="587" ht="12.75"/>
+    <row r="588" ht="12.75"/>
+    <row r="589" ht="12.75"/>
+    <row r="590" ht="12.75"/>
+    <row r="591" ht="12.75"/>
+    <row r="592" ht="12.75"/>
+    <row r="593" ht="12.75"/>
+    <row r="594" ht="12.75"/>
+    <row r="595" ht="12.75"/>
+    <row r="596" ht="12.75"/>
+    <row r="597" ht="12.75"/>
+    <row r="598" ht="12.75"/>
+    <row r="599" ht="12.75"/>
+    <row r="600" ht="12.75"/>
+    <row r="601" ht="12.75"/>
+    <row r="602" ht="12.75"/>
+    <row r="603" ht="12.75"/>
+    <row r="604" ht="12.75"/>
+    <row r="605" ht="12.75"/>
+    <row r="606" ht="12.75"/>
+    <row r="607" ht="12.75"/>
+    <row r="608" ht="12.75"/>
+    <row r="609" ht="12.75"/>
+    <row r="610" ht="12.75"/>
+    <row r="611" ht="12.75"/>
+    <row r="612" ht="12.75"/>
+    <row r="613" ht="12.75"/>
+    <row r="614" ht="12.75"/>
+    <row r="615" ht="12.75"/>
+    <row r="616" ht="12.75"/>
+    <row r="617" ht="12.75"/>
+    <row r="618" ht="12.75"/>
+    <row r="619" ht="12.75"/>
+    <row r="620" ht="12.75"/>
+    <row r="621" ht="12.75"/>
+    <row r="622" ht="12.75"/>
+    <row r="623" ht="12.75"/>
+    <row r="624" ht="12.75"/>
+    <row r="625" ht="12.75"/>
+    <row r="626" ht="12.75"/>
+    <row r="627" ht="12.75"/>
+    <row r="628" ht="12.75"/>
+    <row r="629" ht="12.75"/>
+    <row r="630" ht="12.75"/>
+    <row r="631" ht="12.75"/>
+    <row r="632" ht="12.75"/>
+    <row r="633" ht="12.75"/>
+    <row r="634" ht="12.75"/>
+    <row r="635" ht="12.75"/>
+    <row r="636" ht="12.75"/>
+    <row r="637" ht="12.75"/>
+    <row r="638" ht="12.75"/>
+    <row r="639" ht="12.75"/>
+    <row r="640" ht="12.75"/>
+    <row r="641" ht="12.75"/>
+    <row r="642" ht="12.75"/>
+    <row r="643" ht="12.75"/>
+    <row r="644" ht="12.75"/>
+    <row r="645" ht="12.75"/>
+    <row r="646" ht="12.75"/>
+    <row r="647" ht="12.75"/>
+    <row r="648" ht="12.75"/>
+    <row r="649" ht="12.75"/>
+    <row r="650" ht="12.75"/>
+    <row r="651" ht="12.75"/>
+    <row r="652" ht="12.75"/>
+    <row r="653" ht="12.75"/>
+    <row r="654" ht="12.75"/>
+    <row r="655" ht="12.75"/>
+    <row r="656" ht="12.75"/>
+    <row r="657" ht="12.75"/>
+    <row r="658" ht="12.75"/>
+    <row r="659" ht="12.75"/>
+    <row r="660" ht="12.75"/>
+    <row r="661" ht="12.75"/>
+    <row r="662" ht="12.75"/>
+    <row r="663" ht="12.75"/>
+    <row r="664" ht="12.75"/>
+    <row r="665" ht="12.75"/>
+    <row r="666" ht="12.75"/>
+    <row r="667" ht="12.75"/>
+    <row r="668" ht="12.75"/>
+    <row r="669" ht="12.75"/>
+    <row r="670" ht="12.75"/>
+    <row r="671" ht="12.75"/>
+    <row r="672" ht="12.75"/>
+    <row r="673" ht="12.75"/>
+    <row r="674" ht="12.75"/>
+    <row r="675" ht="12.75"/>
+    <row r="676" ht="12.75"/>
+    <row r="677" ht="12.75"/>
+    <row r="678" ht="12.75"/>
+    <row r="679" ht="12.75"/>
+    <row r="680" ht="12.75"/>
+    <row r="681" ht="12.75"/>
+    <row r="682" ht="12.75"/>
+    <row r="683" ht="12.75"/>
+    <row r="684" ht="12.75"/>
+    <row r="685" ht="12.75"/>
+    <row r="686" ht="12.75"/>
+    <row r="687" ht="12.75"/>
+    <row r="688" ht="12.75"/>
+    <row r="689" ht="12.75"/>
+    <row r="690" ht="12.75"/>
+    <row r="691" ht="12.75"/>
+    <row r="692" ht="12.75"/>
+    <row r="693" ht="12.75"/>
+    <row r="694" ht="12.75"/>
+    <row r="695" ht="12.75"/>
+    <row r="696" ht="12.75"/>
+    <row r="697" ht="12.75"/>
+    <row r="698" ht="12.75"/>
+    <row r="699" ht="12.75"/>
+    <row r="700" ht="12.75"/>
+    <row r="701" ht="12.75"/>
+    <row r="702" ht="12.75"/>
+    <row r="703" ht="12.75"/>
+    <row r="704" ht="12.75"/>
+    <row r="705" ht="12.75"/>
+    <row r="706" ht="12.75"/>
+    <row r="707" ht="12.75"/>
+    <row r="708" ht="12.75"/>
+    <row r="709" ht="12.75"/>
+    <row r="710" ht="12.75"/>
+    <row r="711" ht="12.75"/>
+    <row r="712" ht="12.75"/>
+    <row r="713" ht="12.75"/>
+    <row r="714" ht="12.75"/>
+    <row r="715" ht="12.75"/>
+    <row r="716" ht="12.75"/>
+    <row r="717" ht="12.75"/>
+    <row r="718" ht="12.75"/>
+    <row r="719" ht="12.75"/>
+    <row r="720" ht="12.75"/>
+    <row r="721" ht="12.75"/>
+    <row r="722" ht="12.75"/>
+    <row r="723" ht="12.75"/>
+    <row r="724" ht="12.75"/>
+    <row r="725" ht="12.75"/>
+    <row r="726" ht="12.75"/>
+    <row r="727" ht="12.75"/>
+    <row r="728" ht="12.75"/>
+    <row r="729" ht="12.75"/>
+    <row r="730" ht="12.75"/>
+    <row r="731" ht="12.75"/>
+    <row r="732" ht="12.75"/>
+    <row r="733" ht="12.75"/>
+    <row r="734" ht="12.75"/>
+    <row r="735" ht="12.75"/>
+    <row r="736" ht="12.75"/>
+    <row r="737" ht="12.75"/>
+    <row r="738" ht="12.75"/>
+    <row r="739" ht="12.75"/>
+    <row r="740" ht="12.75"/>
+    <row r="741" ht="12.75"/>
+    <row r="742" ht="12.75"/>
+    <row r="743" ht="12.75"/>
+    <row r="744" ht="12.75"/>
+    <row r="745" ht="12.75"/>
+    <row r="746" ht="12.75"/>
+    <row r="747" ht="12.75"/>
+    <row r="748" ht="12.75"/>
+    <row r="749" ht="12.75"/>
+    <row r="750" ht="12.75"/>
+    <row r="751" ht="12.75"/>
+    <row r="752" ht="12.75"/>
+    <row r="753" ht="12.75"/>
+    <row r="754" ht="12.75"/>
+    <row r="755" ht="12.75"/>
+    <row r="756" ht="12.75"/>
+    <row r="757" ht="12.75"/>
+    <row r="758" ht="12.75"/>
+    <row r="759" ht="12.75"/>
+    <row r="760" ht="12.75"/>
+    <row r="761" ht="12.75"/>
+    <row r="762" ht="12.75"/>
+    <row r="763" ht="12.75"/>
+    <row r="764" ht="12.75"/>
+    <row r="765" ht="12.75"/>
+    <row r="766" ht="12.75"/>
+    <row r="767" ht="12.75"/>
+    <row r="768" ht="12.75"/>
+    <row r="769" ht="12.75"/>
+    <row r="770" ht="12.75"/>
+    <row r="771" ht="12.75"/>
+    <row r="772" ht="12.75"/>
+    <row r="773" ht="12.75"/>
+    <row r="774" ht="12.75"/>
+    <row r="775" ht="12.75"/>
+    <row r="776" ht="12.75"/>
+    <row r="777" ht="12.75"/>
+    <row r="778" ht="12.75"/>
+    <row r="779" ht="12.75"/>
+    <row r="780" ht="12.75"/>
+    <row r="781" ht="12.75"/>
+    <row r="782" ht="12.75"/>
+    <row r="783" ht="12.75"/>
+    <row r="784" ht="12.75"/>
+    <row r="785" ht="12.75"/>
+    <row r="786" ht="12.75"/>
+    <row r="787" ht="12.75"/>
+    <row r="788" ht="12.75"/>
+    <row r="789" ht="12.75"/>
+    <row r="790" ht="12.75"/>
+    <row r="791" ht="12.75"/>
+    <row r="792" ht="12.75"/>
+    <row r="793" ht="12.75"/>
+    <row r="794" ht="12.75"/>
+    <row r="795" ht="12.75"/>
+    <row r="796" ht="12.75"/>
+    <row r="797" ht="12.75"/>
+    <row r="798" ht="12.75"/>
+    <row r="799" ht="12.75"/>
+    <row r="800" ht="12.75"/>
+    <row r="801" ht="12.75"/>
+    <row r="802" ht="12.75"/>
+    <row r="803" ht="12.75"/>
+    <row r="804" ht="12.75"/>
+    <row r="805" ht="12.75"/>
+    <row r="806" ht="12.75"/>
+    <row r="807" ht="12.75"/>
+    <row r="808" ht="12.75"/>
+    <row r="809" ht="12.75"/>
+    <row r="810" ht="12.75"/>
+    <row r="811" ht="12.75"/>
+    <row r="812" ht="12.75"/>
+    <row r="813" ht="12.75"/>
+    <row r="814" ht="12.75"/>
+    <row r="815" ht="12.75"/>
+    <row r="816" ht="12.75"/>
+    <row r="817" ht="12.75"/>
+    <row r="818" ht="12.75"/>
+    <row r="819" ht="12.75"/>
+    <row r="820" ht="12.75"/>
+    <row r="821" ht="12.75"/>
+    <row r="822" ht="12.75"/>
+    <row r="823" ht="12.75"/>
+    <row r="824" ht="12.75"/>
+    <row r="825" ht="12.75"/>
+    <row r="826" ht="12.75"/>
+    <row r="827" ht="12.75"/>
+    <row r="828" ht="12.75"/>
+    <row r="829" ht="12.75"/>
+    <row r="830" ht="12.75"/>
+    <row r="831" ht="12.75"/>
+    <row r="832" ht="12.75"/>
+    <row r="833" ht="12.75"/>
+    <row r="834" ht="12.75"/>
+    <row r="835" ht="12.75"/>
+    <row r="836" ht="12.75"/>
+    <row r="837" ht="12.75"/>
+    <row r="838" ht="12.75"/>
+    <row r="839" ht="12.75"/>
+    <row r="840" ht="12.75"/>
+    <row r="841" ht="12.75"/>
+    <row r="842" ht="12.75"/>
+    <row r="843" ht="12.75"/>
+    <row r="844" ht="12.75"/>
+    <row r="845" ht="12.75"/>
+    <row r="846" ht="12.75"/>
+    <row r="847" ht="12.75"/>
+    <row r="848" ht="12.75"/>
+    <row r="849" ht="12.75"/>
+    <row r="850" ht="12.75"/>
+    <row r="851" ht="12.75"/>
+    <row r="852" ht="12.75"/>
+    <row r="853" ht="12.75"/>
+    <row r="854" ht="12.75"/>
+    <row r="855" ht="12.75"/>
+    <row r="856" ht="12.75"/>
+    <row r="857" ht="12.75"/>
+    <row r="858" ht="12.75"/>
+    <row r="859" ht="12.75"/>
+    <row r="860" ht="12.75"/>
+    <row r="861" ht="12.75"/>
+    <row r="862" ht="12.75"/>
+    <row r="863" ht="12.75"/>
+    <row r="864" ht="12.75"/>
+    <row r="865" ht="12.75"/>
+    <row r="866" ht="12.75"/>
+    <row r="867" ht="12.75"/>
+    <row r="868" ht="12.75"/>
+    <row r="869" ht="12.75"/>
+    <row r="870" ht="12.75"/>
+    <row r="871" ht="12.75"/>
+    <row r="872" ht="12.75"/>
+    <row r="873" ht="12.75"/>
+    <row r="874" ht="12.75"/>
+    <row r="875" ht="12.75"/>
+    <row r="876" ht="12.75"/>
+    <row r="877" ht="12.75"/>
+    <row r="878" ht="12.75"/>
+    <row r="879" ht="12.75"/>
+    <row r="880" ht="12.75"/>
+    <row r="881" ht="12.75"/>
+    <row r="882" ht="12.75"/>
+    <row r="883" ht="12.75"/>
+    <row r="884" ht="12.75"/>
+    <row r="885" ht="12.75"/>
+    <row r="886" ht="12.75"/>
+    <row r="887" ht="12.75"/>
+    <row r="888" ht="12.75"/>
+    <row r="889" ht="12.75"/>
+    <row r="890" ht="12.75"/>
+    <row r="891" ht="12.75"/>
+    <row r="892" ht="12.75"/>
+    <row r="893" ht="12.75"/>
+    <row r="894" ht="12.75"/>
+    <row r="895" ht="12.75"/>
+    <row r="896" ht="12.75"/>
+    <row r="897" ht="12.75"/>
+    <row r="898" ht="12.75"/>
+    <row r="899" ht="12.75"/>
+    <row r="900" ht="12.75"/>
+    <row r="901" ht="12.75"/>
+    <row r="902" ht="12.75"/>
+    <row r="903" ht="12.75"/>
+    <row r="904" ht="12.75"/>
+    <row r="905" ht="12.75"/>
+    <row r="906" ht="12.75"/>
+    <row r="907" ht="12.75"/>
+    <row r="908" ht="12.75"/>
+    <row r="909" ht="12.75"/>
+    <row r="910" ht="12.75"/>
+    <row r="911" ht="12.75"/>
+    <row r="912" ht="12.75"/>
+    <row r="913" ht="12.75"/>
+    <row r="914" ht="12.75"/>
+    <row r="915" ht="12.75"/>
+    <row r="916" ht="12.75"/>
+    <row r="917" ht="12.75"/>
+    <row r="918" ht="12.75"/>
+    <row r="919" ht="12.75"/>
+    <row r="920" ht="12.75"/>
+    <row r="921" ht="12.75"/>
+    <row r="922" ht="12.75"/>
+    <row r="923" ht="12.75"/>
+    <row r="924" ht="12.75"/>
+    <row r="925" ht="12.75"/>
+    <row r="926" ht="12.75"/>
+    <row r="927" ht="12.75"/>
+    <row r="928" ht="12.75"/>
+    <row r="929" ht="12.75"/>
+    <row r="930" ht="12.75"/>
+    <row r="931" ht="12.75"/>
+    <row r="932" ht="12.75"/>
+    <row r="933" ht="12.75"/>
+    <row r="934" ht="12.75"/>
+    <row r="935" ht="12.75"/>
+    <row r="936" ht="12.75"/>
+    <row r="937" ht="12.75"/>
+    <row r="938" ht="12.75"/>
+    <row r="939" ht="12.75"/>
+    <row r="940" ht="12.75"/>
+    <row r="941" ht="12.75"/>
+    <row r="942" ht="12.75"/>
+    <row r="943" ht="12.75"/>
+    <row r="944" ht="12.75"/>
+    <row r="945" ht="12.75"/>
+    <row r="946" ht="12.75"/>
+    <row r="947" ht="12.75"/>
+    <row r="948" ht="12.75"/>
+    <row r="949" ht="12.75"/>
+    <row r="950" ht="12.75"/>
+    <row r="951" ht="12.75"/>
+    <row r="952" ht="12.75"/>
+    <row r="953" ht="12.75"/>
+    <row r="954" ht="12.75"/>
+    <row r="955" ht="12.75"/>
+    <row r="956" ht="12.75"/>
+    <row r="957" ht="12.75"/>
+    <row r="958" ht="12.75"/>
+    <row r="959" ht="12.75"/>
+    <row r="960" ht="12.75"/>
+    <row r="961" ht="12.75"/>
+    <row r="962" ht="12.75"/>
+    <row r="963" ht="12.75"/>
+    <row r="964" ht="12.75"/>
+    <row r="965" ht="12.75"/>
+    <row r="966" ht="12.75"/>
+    <row r="967" ht="12.75"/>
+    <row r="968" ht="12.75"/>
+    <row r="969" ht="12.75"/>
+    <row r="970" ht="12.75"/>
+    <row r="971" ht="12.75"/>
+    <row r="972" ht="12.75"/>
+    <row r="973" ht="12.75"/>
+    <row r="974" ht="12.75"/>
+    <row r="975" ht="12.75"/>
+    <row r="976" ht="12.75"/>
+    <row r="977" ht="12.75"/>
+    <row r="978" ht="12.75"/>
+    <row r="979" ht="12.75"/>
+    <row r="980" ht="12.75"/>
+    <row r="981" ht="12.75"/>
+    <row r="982" ht="12.75"/>
+    <row r="983" ht="12.75"/>
+    <row r="984" ht="12.75"/>
+    <row r="985" ht="12.75"/>
+    <row r="986" ht="12.75"/>
+    <row r="987" ht="12.75"/>
+    <row r="988" ht="12.75"/>
+    <row r="989" ht="12.75"/>
+    <row r="990" ht="12.75"/>
+    <row r="991" ht="12.75"/>
+    <row r="992" ht="12.75"/>
+    <row r="993" ht="12.75"/>
+    <row r="994" ht="12.75"/>
+    <row r="995" ht="12.75"/>
+    <row r="996" ht="12.75"/>
+    <row r="997" ht="12.75"/>
+    <row r="998" ht="12.75"/>
+    <row r="999" ht="12.75"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -29149,7 +29198,7 @@
     <hyperlink ref="B222" r:id="rId211" xr:uid="{00000000-0004-0000-0100-0000D2000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId212"/>
 </worksheet>
 </file>
 
@@ -29162,7 +29211,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -29192,13 +29241,13 @@
   </sheetPr>
   <dimension ref="A1:B245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="D177" sqref="D177"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="C246" sqref="C246"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29206,7 +29255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -29214,7 +29263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -29222,7 +29271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="12.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -29230,7 +29279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="12.75">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -29238,7 +29287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="12.75">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -29246,7 +29295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" ht="12.75">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -29254,7 +29303,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="12.75">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -29262,7 +29311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="12.75">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -29270,7 +29319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="12.75">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -29278,7 +29327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="12.75">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -29286,7 +29335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="12.75">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -29294,7 +29343,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="12.75">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -29302,7 +29351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="12.75">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -29310,7 +29359,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="12.75">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -29318,7 +29367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="12.75">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -29326,7 +29375,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="12.75">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
@@ -29334,7 +29383,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="12.75">
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
@@ -29342,7 +29391,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="12.75">
       <c r="A19" s="1" t="s">
         <v>70</v>
       </c>
@@ -29350,7 +29399,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="12.75">
       <c r="A20" s="1" t="s">
         <v>77</v>
       </c>
@@ -29358,7 +29407,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="12.75">
       <c r="A21" s="1" t="s">
         <v>81</v>
       </c>
@@ -29366,7 +29415,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="12.75">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
@@ -29374,7 +29423,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" ht="12.75">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -29382,7 +29431,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" ht="12.75">
       <c r="A24" s="1" t="s">
         <v>100</v>
       </c>
@@ -29390,7 +29439,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="12.75">
       <c r="A25" s="1" t="s">
         <v>106</v>
       </c>
@@ -29398,7 +29447,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" ht="12.75">
       <c r="A26" s="1" t="s">
         <v>110</v>
       </c>
@@ -29406,7 +29455,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" ht="12.75">
       <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
@@ -29414,7 +29463,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" ht="12.75">
       <c r="A28" s="1" t="s">
         <v>116</v>
       </c>
@@ -29422,7 +29471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" ht="12.75">
       <c r="A29" s="1" t="s">
         <v>120</v>
       </c>
@@ -29430,7 +29479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" ht="12.75">
       <c r="A30" s="1" t="s">
         <v>124</v>
       </c>
@@ -29438,7 +29487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" ht="12.75">
       <c r="A31" s="1" t="s">
         <v>128</v>
       </c>
@@ -29446,7 +29495,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" ht="12.75">
       <c r="A32" s="1" t="s">
         <v>132</v>
       </c>
@@ -29454,7 +29503,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" ht="12.75">
       <c r="A33" s="1" t="s">
         <v>135</v>
       </c>
@@ -29462,7 +29511,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" ht="12.75">
       <c r="A34" s="1" t="s">
         <v>139</v>
       </c>
@@ -29470,7 +29519,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" ht="12.75">
       <c r="A35" s="1" t="s">
         <v>144</v>
       </c>
@@ -29478,7 +29527,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" ht="12.75">
       <c r="A36" s="1" t="s">
         <v>148</v>
       </c>
@@ -29486,7 +29535,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" ht="12.75">
       <c r="A37" s="1" t="s">
         <v>152</v>
       </c>
@@ -29494,7 +29543,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" ht="12.75">
       <c r="A38" s="1" t="s">
         <v>157</v>
       </c>
@@ -29502,7 +29551,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" ht="12.75">
       <c r="A39" s="1" t="s">
         <v>163</v>
       </c>
@@ -29510,7 +29559,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" ht="12.75">
       <c r="A40" s="1" t="s">
         <v>163</v>
       </c>
@@ -29518,7 +29567,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" ht="12.75">
       <c r="A41" s="1" t="s">
         <v>169</v>
       </c>
@@ -29526,7 +29575,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" ht="12.75">
       <c r="A42" s="1" t="s">
         <v>175</v>
       </c>
@@ -29534,7 +29583,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" ht="12.75">
       <c r="A43" s="1" t="s">
         <v>178</v>
       </c>
@@ -29542,7 +29591,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" ht="12.75">
       <c r="A44" s="1" t="s">
         <v>124</v>
       </c>
@@ -29550,7 +29599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" ht="12.75">
       <c r="A45" s="1" t="s">
         <v>187</v>
       </c>
@@ -29558,7 +29607,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" ht="12.75">
       <c r="A46" s="1" t="s">
         <v>193</v>
       </c>
@@ -29566,7 +29615,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" ht="12.75">
       <c r="A47" s="1" t="s">
         <v>200</v>
       </c>
@@ -29574,7 +29623,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" ht="12.75">
       <c r="A48" s="1" t="s">
         <v>205</v>
       </c>
@@ -29582,7 +29631,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" ht="12.75">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
@@ -29590,7 +29639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" ht="12.75">
       <c r="A50" s="1" t="s">
         <v>216</v>
       </c>
@@ -29598,7 +29647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" ht="12.75">
       <c r="A51" s="1" t="s">
         <v>223</v>
       </c>
@@ -29606,7 +29655,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" ht="12.75">
       <c r="A52" s="1" t="s">
         <v>229</v>
       </c>
@@ -29614,7 +29663,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" ht="12.75">
       <c r="A53" s="1" t="s">
         <v>232</v>
       </c>
@@ -29622,7 +29671,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" ht="12.75">
       <c r="A54" s="1" t="s">
         <v>237</v>
       </c>
@@ -29630,7 +29679,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" ht="12.75">
       <c r="A55" s="1" t="s">
         <v>243</v>
       </c>
@@ -29638,7 +29687,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" ht="12.75">
       <c r="A56" s="1" t="s">
         <v>249</v>
       </c>
@@ -29646,7 +29695,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" ht="12.75">
       <c r="A57" s="1" t="s">
         <v>255</v>
       </c>
@@ -29654,7 +29703,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" ht="12.75">
       <c r="A58" s="1" t="s">
         <v>261</v>
       </c>
@@ -29662,7 +29711,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" ht="12.75">
       <c r="A59" s="1" t="s">
         <v>264</v>
       </c>
@@ -29670,7 +29719,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" ht="12.75">
       <c r="A60" s="1" t="s">
         <v>270</v>
       </c>
@@ -29678,7 +29727,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" ht="12.75">
       <c r="A61" s="1" t="s">
         <v>273</v>
       </c>
@@ -29686,7 +29735,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" ht="12.75">
       <c r="A62" s="1" t="s">
         <v>278</v>
       </c>
@@ -29694,7 +29743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" ht="12.75">
       <c r="A63" s="1" t="s">
         <v>283</v>
       </c>
@@ -29702,7 +29751,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" ht="12.75">
       <c r="A64" s="1" t="s">
         <v>289</v>
       </c>
@@ -29710,7 +29759,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" ht="12.75">
       <c r="A65" s="1" t="s">
         <v>294</v>
       </c>
@@ -29718,7 +29767,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" ht="12.75">
       <c r="A66" s="1" t="s">
         <v>298</v>
       </c>
@@ -29726,7 +29775,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" ht="12.75">
       <c r="A67" s="1" t="s">
         <v>301</v>
       </c>
@@ -29734,7 +29783,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" ht="12.75">
       <c r="A68" s="1" t="s">
         <v>307</v>
       </c>
@@ -29742,7 +29791,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" ht="12.75">
       <c r="A69" s="1" t="s">
         <v>77</v>
       </c>
@@ -29750,7 +29799,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" ht="12.75">
       <c r="A70" s="1" t="s">
         <v>152</v>
       </c>
@@ -29758,7 +29807,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" ht="12.75">
       <c r="A71" s="1" t="s">
         <v>320</v>
       </c>
@@ -29766,7 +29815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" ht="12.75">
       <c r="A72" s="1" t="s">
         <v>12</v>
       </c>
@@ -29774,7 +29823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" ht="12.75">
       <c r="A73" s="1" t="s">
         <v>328</v>
       </c>
@@ -29782,7 +29831,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" ht="12.75">
       <c r="A74" s="1" t="s">
         <v>334</v>
       </c>
@@ -29790,7 +29839,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" ht="12.75">
       <c r="A75" s="1" t="s">
         <v>342</v>
       </c>
@@ -29798,7 +29847,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" ht="12.75">
       <c r="A76" s="1" t="s">
         <v>348</v>
       </c>
@@ -29806,7 +29855,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" ht="12.75">
       <c r="A77" s="1" t="s">
         <v>354</v>
       </c>
@@ -29814,7 +29863,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" ht="12.75">
       <c r="A78" s="1" t="s">
         <v>360</v>
       </c>
@@ -29822,7 +29871,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" ht="12.75">
       <c r="A79" s="1" t="s">
         <v>1028</v>
       </c>
@@ -29830,7 +29879,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" ht="12.75">
       <c r="A80" s="1" t="s">
         <v>255</v>
       </c>
@@ -29838,7 +29887,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" ht="12.75">
       <c r="A81" s="1" t="s">
         <v>374</v>
       </c>
@@ -29846,7 +29895,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" ht="12.75">
       <c r="A82" s="1" t="s">
         <v>380</v>
       </c>
@@ -29854,7 +29903,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" ht="12.75">
       <c r="A83" s="1" t="s">
         <v>385</v>
       </c>
@@ -29862,7 +29911,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" ht="12.75">
       <c r="A84" s="1" t="s">
         <v>391</v>
       </c>
@@ -29870,7 +29919,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" ht="12.75">
       <c r="A85" s="1" t="s">
         <v>397</v>
       </c>
@@ -29878,7 +29927,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" ht="12.75">
       <c r="A86" s="1" t="s">
         <v>400</v>
       </c>
@@ -29886,7 +29935,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" ht="12.75">
       <c r="A87" s="1" t="s">
         <v>402</v>
       </c>
@@ -29894,7 +29943,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" ht="12.75">
       <c r="A88" s="1" t="s">
         <v>406</v>
       </c>
@@ -29902,7 +29951,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" ht="12.75">
       <c r="A89" s="1" t="s">
         <v>411</v>
       </c>
@@ -29910,7 +29959,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" ht="12.75">
       <c r="A90" s="1" t="s">
         <v>415</v>
       </c>
@@ -29918,7 +29967,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" ht="12.75">
       <c r="A91" s="1" t="s">
         <v>418</v>
       </c>
@@ -29926,7 +29975,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" ht="12.75">
       <c r="A92" s="1" t="s">
         <v>421</v>
       </c>
@@ -29934,7 +29983,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" ht="12.75">
       <c r="A93" s="1" t="s">
         <v>424</v>
       </c>
@@ -29942,7 +29991,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" ht="12.75">
       <c r="A94" s="1" t="s">
         <v>427</v>
       </c>
@@ -29950,7 +29999,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" ht="12.75">
       <c r="A95" s="1" t="s">
         <v>53</v>
       </c>
@@ -29958,7 +30007,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" ht="12.75">
       <c r="A96" s="1" t="s">
         <v>434</v>
       </c>
@@ -29966,7 +30015,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" ht="12.75">
       <c r="A97" s="1" t="s">
         <v>437</v>
       </c>
@@ -29974,7 +30023,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" ht="12.75">
       <c r="A98" s="1" t="s">
         <v>26</v>
       </c>
@@ -29982,7 +30031,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" ht="12.75">
       <c r="A99" s="1" t="s">
         <v>446</v>
       </c>
@@ -29990,7 +30039,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" ht="12.75">
       <c r="A100" s="1" t="s">
         <v>450</v>
       </c>
@@ -29998,7 +30047,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" ht="12.75">
       <c r="A101" s="1" t="s">
         <v>454</v>
       </c>
@@ -30006,7 +30055,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" ht="12.75">
       <c r="A102" s="1" t="s">
         <v>458</v>
       </c>
@@ -30014,7 +30063,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" ht="12.75">
       <c r="A103" s="1" t="s">
         <v>461</v>
       </c>
@@ -30022,7 +30071,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" ht="12.75">
       <c r="A104" s="1" t="s">
         <v>464</v>
       </c>
@@ -30030,7 +30079,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" ht="12.75">
       <c r="A105" s="1" t="s">
         <v>348</v>
       </c>
@@ -30038,7 +30087,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" ht="12.75">
       <c r="A106" s="1" t="s">
         <v>2</v>
       </c>
@@ -30046,7 +30095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" ht="12.75">
       <c r="A107" s="1" t="s">
         <v>113</v>
       </c>
@@ -30054,7 +30103,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" ht="12.75">
       <c r="A108" s="1" t="s">
         <v>2</v>
       </c>
@@ -30062,7 +30111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" ht="12.75">
       <c r="A109" s="1" t="s">
         <v>483</v>
       </c>
@@ -30070,7 +30119,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" ht="12.75">
       <c r="A110" s="1" t="s">
         <v>486</v>
       </c>
@@ -30078,7 +30127,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" ht="12.75">
       <c r="A111" s="1" t="s">
         <v>492</v>
       </c>
@@ -30086,7 +30135,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" ht="12.75">
       <c r="A112" s="1" t="s">
         <v>1029</v>
       </c>
@@ -30094,7 +30143,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" ht="12.75">
       <c r="A113" s="1" t="s">
         <v>503</v>
       </c>
@@ -30102,7 +30151,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" ht="12.75">
       <c r="A114" s="1" t="s">
         <v>508</v>
       </c>
@@ -30110,7 +30159,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" ht="12.75">
       <c r="A115" s="1" t="s">
         <v>515</v>
       </c>
@@ -30118,7 +30167,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" ht="12.75">
       <c r="A116" s="1" t="s">
         <v>515</v>
       </c>
@@ -30126,7 +30175,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" ht="12.75">
       <c r="A117" s="1" t="s">
         <v>237</v>
       </c>
@@ -30134,7 +30183,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" ht="12.75">
       <c r="A118" s="1" t="s">
         <v>524</v>
       </c>
@@ -30142,7 +30191,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" ht="12.75">
       <c r="A119" s="1" t="s">
         <v>529</v>
       </c>
@@ -30150,7 +30199,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" ht="12.75">
       <c r="A120" s="1" t="s">
         <v>64</v>
       </c>
@@ -30158,7 +30207,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" ht="12.75">
       <c r="A121" s="1" t="s">
         <v>64</v>
       </c>
@@ -30166,7 +30215,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" ht="12.75">
       <c r="A122" s="1" t="s">
         <v>547</v>
       </c>
@@ -30174,7 +30223,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" ht="12.75">
       <c r="A123" s="1" t="s">
         <v>556</v>
       </c>
@@ -30182,7 +30231,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" ht="12.75">
       <c r="A124" s="1" t="s">
         <v>562</v>
       </c>
@@ -30190,7 +30239,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" ht="12.75">
       <c r="A125" s="1" t="s">
         <v>565</v>
       </c>
@@ -30198,7 +30247,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" ht="12.75">
       <c r="A126" s="1" t="s">
         <v>567</v>
       </c>
@@ -30206,7 +30255,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" ht="12.75">
       <c r="A127" s="1" t="s">
         <v>570</v>
       </c>
@@ -30214,7 +30263,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" ht="12.75">
       <c r="A128" s="1" t="s">
         <v>572</v>
       </c>
@@ -30222,7 +30271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" ht="12.75">
       <c r="A129" s="1" t="s">
         <v>575</v>
       </c>
@@ -30230,7 +30279,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" ht="12.75">
       <c r="A130" s="1" t="s">
         <v>508</v>
       </c>
@@ -30238,7 +30287,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" ht="12.75">
       <c r="A131" s="1" t="s">
         <v>255</v>
       </c>
@@ -30246,7 +30295,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" ht="12.75">
       <c r="A132" s="1" t="s">
         <v>1030</v>
       </c>
@@ -30254,7 +30303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" ht="12.75">
       <c r="A133" s="1" t="s">
         <v>1031</v>
       </c>
@@ -30262,7 +30311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" ht="12.75">
       <c r="A134" s="1" t="s">
         <v>1032</v>
       </c>
@@ -30270,7 +30319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" ht="12.75">
       <c r="A135" s="1" t="s">
         <v>593</v>
       </c>
@@ -30278,7 +30327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" ht="12.75">
       <c r="A136" s="1" t="s">
         <v>596</v>
       </c>
@@ -30286,7 +30335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" ht="12.75">
       <c r="A137" s="1" t="s">
         <v>602</v>
       </c>
@@ -30294,7 +30343,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" ht="12.75">
       <c r="A138" s="1" t="s">
         <v>608</v>
       </c>
@@ -30302,7 +30351,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" ht="12.75">
       <c r="A139" s="1" t="s">
         <v>615</v>
       </c>
@@ -30310,7 +30359,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" ht="12.75">
       <c r="A140" s="1" t="s">
         <v>2</v>
       </c>
@@ -30318,7 +30367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" ht="12.75">
       <c r="A141" s="1" t="s">
         <v>625</v>
       </c>
@@ -30326,7 +30375,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" ht="12.75">
       <c r="A142" s="1" t="s">
         <v>631</v>
       </c>
@@ -30334,7 +30383,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" ht="12.75">
       <c r="A143" s="1" t="s">
         <v>638</v>
       </c>
@@ -30342,7 +30391,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" ht="12.75">
       <c r="A144" s="1" t="s">
         <v>385</v>
       </c>
@@ -30350,7 +30399,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" ht="12.75">
       <c r="A145" s="1" t="s">
         <v>649</v>
       </c>
@@ -30358,7 +30407,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" ht="12.75">
       <c r="A146" s="1" t="s">
         <v>64</v>
       </c>
@@ -30366,7 +30415,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" ht="12.75">
       <c r="A147" s="1" t="s">
         <v>20</v>
       </c>
@@ -30374,7 +30423,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" ht="12.75">
       <c r="A148" s="1" t="s">
         <v>660</v>
       </c>
@@ -30382,7 +30431,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" ht="12.75">
       <c r="A149" s="1" t="s">
         <v>665</v>
       </c>
@@ -30390,7 +30439,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" ht="12.75">
       <c r="A150" s="1" t="s">
         <v>128</v>
       </c>
@@ -30398,7 +30447,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" ht="12.75">
       <c r="A151" s="1" t="s">
         <v>354</v>
       </c>
@@ -30406,7 +30455,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" ht="12.75">
       <c r="A152" s="1" t="s">
         <v>424</v>
       </c>
@@ -30414,7 +30463,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" ht="12.75">
       <c r="A153" s="1" t="s">
         <v>421</v>
       </c>
@@ -30422,7 +30471,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" ht="12.75">
       <c r="A154" s="1" t="s">
         <v>684</v>
       </c>
@@ -30430,7 +30479,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" ht="12.75">
       <c r="A155" s="1" t="s">
         <v>690</v>
       </c>
@@ -30438,7 +30487,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" ht="12.75">
       <c r="A156" s="1" t="s">
         <v>696</v>
       </c>
@@ -30446,7 +30495,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" ht="12.75">
       <c r="A157" s="1" t="s">
         <v>702</v>
       </c>
@@ -30454,7 +30503,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" ht="12.75">
       <c r="A158" s="1" t="s">
         <v>18</v>
       </c>
@@ -30462,7 +30511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" ht="12.75">
       <c r="A159" s="1" t="s">
         <v>20</v>
       </c>
@@ -30470,7 +30519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" ht="12.75">
       <c r="A160" s="1" t="s">
         <v>713</v>
       </c>
@@ -30478,7 +30527,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" ht="12.75">
       <c r="A161" s="1" t="s">
         <v>187</v>
       </c>
@@ -30486,7 +30535,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" ht="12.75">
       <c r="A162" s="1" t="s">
         <v>14</v>
       </c>
@@ -30494,7 +30543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" ht="12.75">
       <c r="A163" s="1" t="s">
         <v>374</v>
       </c>
@@ -30502,7 +30551,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" ht="12.75">
       <c r="A164" s="1" t="s">
         <v>729</v>
       </c>
@@ -30510,7 +30559,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" ht="12.75">
       <c r="A165" s="1" t="s">
         <v>735</v>
       </c>
@@ -30518,7 +30567,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" ht="12.75">
       <c r="A166" s="1" t="s">
         <v>742</v>
       </c>
@@ -30526,7 +30575,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" ht="12.75">
       <c r="A167" s="1" t="s">
         <v>24</v>
       </c>
@@ -30534,7 +30583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" ht="12.75">
       <c r="A168" s="1" t="s">
         <v>751</v>
       </c>
@@ -30542,7 +30591,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" ht="12.75">
       <c r="A169" s="1" t="s">
         <v>757</v>
       </c>
@@ -30550,7 +30599,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" ht="12.75">
       <c r="A170" s="1" t="s">
         <v>255</v>
       </c>
@@ -30558,7 +30607,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" ht="12.75">
       <c r="A171" s="1" t="s">
         <v>766</v>
       </c>
@@ -30566,7 +30615,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" ht="12.75">
       <c r="A172" s="1" t="s">
         <v>771</v>
       </c>
@@ -30574,7 +30623,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" ht="12.75">
       <c r="A173" s="1" t="s">
         <v>776</v>
       </c>
@@ -30582,7 +30631,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" ht="12.75">
       <c r="A174" s="1" t="s">
         <v>649</v>
       </c>
@@ -30590,7 +30639,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" ht="12.75">
       <c r="A175" s="1" t="s">
         <v>783</v>
       </c>
@@ -30598,7 +30647,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" ht="12.75">
       <c r="A176" s="1" t="s">
         <v>786</v>
       </c>
@@ -30606,7 +30655,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" ht="12.75">
       <c r="A177" s="1" t="s">
         <v>792</v>
       </c>
@@ -30614,7 +30663,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" ht="12.75">
       <c r="A178" s="1" t="s">
         <v>796</v>
       </c>
@@ -30622,7 +30671,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" ht="12.75">
       <c r="A179" s="1" t="s">
         <v>802</v>
       </c>
@@ -30630,7 +30679,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" ht="12.75">
       <c r="A180" s="1" t="s">
         <v>12</v>
       </c>
@@ -30638,7 +30687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" ht="12.75">
       <c r="A181" s="1" t="s">
         <v>811</v>
       </c>
@@ -30646,7 +30695,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" ht="12.75">
       <c r="A182" s="1" t="s">
         <v>817</v>
       </c>
@@ -30654,7 +30703,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" ht="12.75">
       <c r="A183" s="1" t="s">
         <v>822</v>
       </c>
@@ -30662,7 +30711,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" ht="12.75">
       <c r="A184" s="1" t="s">
         <v>828</v>
       </c>
@@ -30670,7 +30719,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" ht="12.75">
       <c r="A185" s="1" t="s">
         <v>834</v>
       </c>
@@ -30678,7 +30727,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" ht="12.75">
       <c r="A186" s="1" t="s">
         <v>454</v>
       </c>
@@ -30686,7 +30735,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" ht="12.75">
       <c r="A187" s="1" t="s">
         <v>843</v>
       </c>
@@ -30694,7 +30743,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" ht="12.75">
       <c r="A188" s="1" t="s">
         <v>848</v>
       </c>
@@ -30702,7 +30751,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" ht="12.75">
       <c r="A189" s="1" t="s">
         <v>851</v>
       </c>
@@ -30710,7 +30759,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" ht="12.75">
       <c r="A190" s="1" t="s">
         <v>854</v>
       </c>
@@ -30718,7 +30767,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" ht="12.75">
       <c r="A191" s="1" t="s">
         <v>857</v>
       </c>
@@ -30726,7 +30775,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" ht="12.75">
       <c r="A192" s="1" t="s">
         <v>859</v>
       </c>
@@ -30734,7 +30783,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" ht="12.75">
       <c r="A193" s="1" t="s">
         <v>862</v>
       </c>
@@ -30742,7 +30791,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" ht="12.75">
       <c r="A194" s="1" t="s">
         <v>865</v>
       </c>
@@ -30750,7 +30799,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" ht="12.75">
       <c r="A195" s="1" t="s">
         <v>870</v>
       </c>
@@ -30758,7 +30807,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" ht="12.75">
       <c r="A196" s="1" t="s">
         <v>16</v>
       </c>
@@ -30766,7 +30815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" ht="12.75">
       <c r="A197" s="1" t="s">
         <v>880</v>
       </c>
@@ -30774,7 +30823,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" ht="12.75">
       <c r="A198" s="1" t="s">
         <v>885</v>
       </c>
@@ -30782,7 +30831,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" ht="12.75">
       <c r="A199" s="1" t="s">
         <v>891</v>
       </c>
@@ -30790,7 +30839,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" ht="12.75">
       <c r="A200" s="1" t="s">
         <v>896</v>
       </c>
@@ -30798,7 +30847,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" ht="12.75">
       <c r="A201" s="1" t="s">
         <v>899</v>
       </c>
@@ -30806,7 +30855,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" ht="12.75">
       <c r="A202" s="1" t="s">
         <v>906</v>
       </c>
@@ -30814,7 +30863,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" ht="12.75">
       <c r="A203" s="1" t="s">
         <v>909</v>
       </c>
@@ -30822,7 +30871,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" ht="12.75">
       <c r="A204" s="1" t="s">
         <v>911</v>
       </c>
@@ -30830,7 +30879,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" ht="12.75">
       <c r="A205" s="1" t="s">
         <v>914</v>
       </c>
@@ -30838,7 +30887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" ht="12.75">
       <c r="A206" s="1" t="s">
         <v>77</v>
       </c>
@@ -30846,7 +30895,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" ht="12.75">
       <c r="A207" s="1" t="s">
         <v>919</v>
       </c>
@@ -30854,7 +30903,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" ht="12.75">
       <c r="A208" s="1" t="s">
         <v>919</v>
       </c>
@@ -30862,7 +30911,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" ht="12.75">
       <c r="A209" s="1" t="s">
         <v>923</v>
       </c>
@@ -30870,7 +30919,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" ht="12.75">
       <c r="A210" s="1" t="s">
         <v>927</v>
       </c>
@@ -30878,7 +30927,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" ht="12.75">
       <c r="A211" s="1" t="s">
         <v>931</v>
       </c>
@@ -30886,7 +30935,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" ht="12.75">
       <c r="A212" s="1" t="s">
         <v>360</v>
       </c>
@@ -30894,7 +30943,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" ht="12.75">
       <c r="A213" s="1" t="s">
         <v>360</v>
       </c>
@@ -30902,7 +30951,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" ht="12.75">
       <c r="A214" s="1" t="s">
         <v>936</v>
       </c>
@@ -30910,7 +30959,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" ht="12.75">
       <c r="A215" s="1" t="s">
         <v>942</v>
       </c>
@@ -30918,7 +30967,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" ht="12.75">
       <c r="A216" s="1" t="s">
         <v>944</v>
       </c>
@@ -30926,7 +30975,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" ht="12.75">
       <c r="A217" s="1" t="s">
         <v>944</v>
       </c>
@@ -30934,7 +30983,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" ht="12.75">
       <c r="A218" s="1" t="s">
         <v>947</v>
       </c>
@@ -30942,7 +30991,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" ht="12.75">
       <c r="A219" s="1" t="s">
         <v>909</v>
       </c>
@@ -30950,7 +30999,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" ht="12.75">
       <c r="A220" s="1" t="s">
         <v>952</v>
       </c>
@@ -30958,7 +31007,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" ht="12.75">
       <c r="A221" s="1" t="s">
         <v>955</v>
       </c>
@@ -30966,7 +31015,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" ht="12.75">
       <c r="A222" s="1" t="s">
         <v>20</v>
       </c>
@@ -30974,7 +31023,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" ht="12.75">
       <c r="A223" s="1" t="s">
         <v>16</v>
       </c>
@@ -30982,7 +31031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" ht="12.75">
       <c r="A224" s="1" t="s">
         <v>961</v>
       </c>
@@ -30990,7 +31039,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" ht="12.75">
       <c r="A225" s="1" t="s">
         <v>961</v>
       </c>
@@ -30998,7 +31047,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" ht="12.75">
       <c r="A226" s="1" t="s">
         <v>963</v>
       </c>
@@ -31006,7 +31055,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" ht="12.75">
       <c r="A227" s="1" t="s">
         <v>967</v>
       </c>
@@ -31014,7 +31063,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" ht="12.75">
       <c r="A228" s="1" t="s">
         <v>971</v>
       </c>
@@ -31022,7 +31071,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" ht="12.75">
       <c r="A229" s="1" t="s">
         <v>975</v>
       </c>
@@ -31030,7 +31079,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" ht="12.75">
       <c r="A230" s="1" t="s">
         <v>981</v>
       </c>
@@ -31038,7 +31087,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" ht="12.75">
       <c r="A231" s="1" t="s">
         <v>987</v>
       </c>
@@ -31046,7 +31095,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" ht="12.75">
       <c r="A232" s="1" t="s">
         <v>987</v>
       </c>
@@ -31054,7 +31103,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" ht="12.75">
       <c r="A233" s="1" t="s">
         <v>993</v>
       </c>
@@ -31062,7 +31111,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" ht="12.75">
       <c r="A234" s="1" t="s">
         <v>998</v>
       </c>
@@ -31070,7 +31119,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" ht="12.75">
       <c r="A235" s="1" t="s">
         <v>1004</v>
       </c>
@@ -31078,7 +31127,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" ht="12.75">
       <c r="A236" s="1" t="s">
         <v>1008</v>
       </c>
@@ -31086,7 +31135,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" ht="12.75">
       <c r="A237" s="1" t="s">
         <v>81</v>
       </c>
@@ -31094,7 +31143,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" ht="12.75">
       <c r="A238" s="1" t="s">
         <v>914</v>
       </c>
@@ -31102,7 +31151,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" ht="12.75">
       <c r="A239" s="1" t="s">
         <v>1013</v>
       </c>
@@ -31110,7 +31159,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" ht="12.75">
       <c r="A240" s="1" t="s">
         <v>16</v>
       </c>
@@ -31118,7 +31167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" ht="12.75">
       <c r="A241" s="1" t="s">
         <v>1017</v>
       </c>
@@ -31126,7 +31175,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" ht="12.75">
       <c r="A242" s="1" t="s">
         <v>967</v>
       </c>
@@ -31134,7 +31183,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" ht="12.75">
       <c r="A243" s="1" t="s">
         <v>1021</v>
       </c>
@@ -31142,7 +31191,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" ht="12.75">
       <c r="A244" s="1" t="s">
         <v>1024</v>
       </c>
@@ -31150,7 +31199,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" ht="12.75">
       <c r="A245" s="1" t="s">
         <v>1026</v>
       </c>
@@ -31172,9 +31221,11 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -31284,7 +31335,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
